--- a/storage/app/excel/child_application_table.xlsx
+++ b/storage/app/excel/child_application_table.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+  <si>
+    <t>合計</t>
+  </si>
   <si>
     <t>定員</t>
   </si>
   <si>
     <t>19名</t>
-  </si>
-  <si>
-    <t>合計</t>
-  </si>
-  <si>
-    <t>0歳児</t>
-  </si>
-  <si>
-    <t>従業員枠</t>
   </si>
   <si>
     <t>延長時間</t>
@@ -40,16 +34,28 @@
     <t>A</t>
   </si>
   <si>
+    <t>0歳児</t>
+  </si>
+  <si>
+    <t>従業員枠</t>
+  </si>
+  <si>
+    <t>18:31～19:00</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>1歳児</t>
   </si>
   <si>
     <t>地域枠</t>
   </si>
   <si>
-    <t>18:31～19:00</t>
+    <t>19:01～19:30</t>
   </si>
   <si>
-    <t>B</t>
+    <t>C</t>
   </si>
   <si>
     <t>2歳児</t>
@@ -59,19 +65,19 @@
 割合</t>
   </si>
   <si>
-    <t>19:01～19:30</t>
+    <t>19:31～20:00</t>
   </si>
   <si>
-    <t>C</t>
+    <t>D</t>
   </si>
   <si>
     <t>3歳児</t>
   </si>
   <si>
-    <t>19:31～20:00</t>
+    <t>それ以外</t>
   </si>
   <si>
-    <t>D</t>
+    <t>E</t>
   </si>
   <si>
     <t>4歳児</t>
@@ -81,15 +87,6 @@
 割合</t>
   </si>
   <si>
-    <t>それ以外</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>5歳児</t>
-  </si>
-  <si>
     <t>欠席など</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>コ</t>
+  </si>
+  <si>
+    <t>5歳児</t>
   </si>
   <si>
     <t>都合欠席</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>休</t>
+  </si>
+  <si>
+    <t>災害</t>
+  </si>
+  <si>
+    <t>災</t>
   </si>
   <si>
     <t>登園
@@ -212,9 +218,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -271,22 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -302,9 +292,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,75 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +401,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,43 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,36 +609,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -691,12 +697,61 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -783,6 +838,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -794,6 +858,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,33 +912,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -850,27 +920,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,134 +943,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,8 +1162,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,18 +1189,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,22 +1216,28 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,26 +1249,44 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1507,10 +1607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CI203"/>
+  <dimension ref="A1:CJ203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="CB30" sqref="CB30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1540,9 +1640,42 @@
       <c r="CH1" s="3"/>
       <c r="CI1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="75:87">
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="44:87">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="51"/>
+      <c r="BW2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="37"/>
       <c r="BY2" s="3"/>
       <c r="BZ2" s="3"/>
       <c r="CA2" s="3"/>
@@ -1570,49 +1703,47 @@
       <c r="K3" s="7"/>
       <c r="L3" s="21"/>
       <c r="M3" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="32"/>
-      <c r="BU3" s="32"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX3" s="32"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="48"/>
+      <c r="BM3" s="37"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="48"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="51"/>
+      <c r="BW3" s="52"/>
+      <c r="BX3" s="37"/>
       <c r="BY3" s="3"/>
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
@@ -1625,40 +1756,54 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="44:87">
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="32"/>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="36:87">
+      <c r="AJ4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="9"/>
       <c r="BY4" s="3"/>
       <c r="BZ4" s="3"/>
       <c r="CA4" s="3"/>
@@ -1673,7 +1818,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1683,7 +1828,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="3"/>
       <c r="K5" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1691,19 +1836,17 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="AJ5" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN5" s="27"/>
       <c r="AO5" s="27"/>
       <c r="AP5" s="27"/>
-      <c r="AQ5" s="33" t="s">
-        <v>7</v>
+      <c r="AQ5" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
@@ -1736,7 +1879,7 @@
       <c r="BT5" s="9"/>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
-      <c r="BW5" s="44"/>
+      <c r="BW5" s="53"/>
       <c r="BX5" s="9"/>
       <c r="BY5" s="3"/>
       <c r="BZ5" s="3"/>
@@ -1752,7 +1895,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1762,7 +1905,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="3"/>
       <c r="K6" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1774,13 +1917,13 @@
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN6" s="27"/>
       <c r="AO6" s="27"/>
       <c r="AP6" s="27"/>
-      <c r="AQ6" s="33" t="s">
-        <v>11</v>
+      <c r="AQ6" s="38" t="s">
+        <v>13</v>
       </c>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
@@ -1813,7 +1956,7 @@
       <c r="BT6" s="9"/>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
-      <c r="BW6" s="44"/>
+      <c r="BW6" s="53"/>
       <c r="BX6" s="9"/>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="3"/>
@@ -1829,7 +1972,7 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1839,7 +1982,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="3"/>
       <c r="K7" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1851,13 +1994,13 @@
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN7" s="27"/>
       <c r="AO7" s="27"/>
       <c r="AP7" s="27"/>
-      <c r="AQ7" s="33" t="s">
-        <v>15</v>
+      <c r="AQ7" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
@@ -1890,7 +2033,7 @@
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
-      <c r="BW7" s="44"/>
+      <c r="BW7" s="53"/>
       <c r="BX7" s="9"/>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="3"/>
@@ -1906,7 +2049,7 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1922,51 +2065,51 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="9"/>
-      <c r="BG8" s="9"/>
-      <c r="BH8" s="9"/>
-      <c r="BI8" s="9"/>
-      <c r="BJ8" s="9"/>
-      <c r="BK8" s="9"/>
-      <c r="BL8" s="9"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
-      <c r="BO8" s="9"/>
-      <c r="BP8" s="9"/>
-      <c r="BQ8" s="9"/>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="9"/>
-      <c r="BT8" s="9"/>
-      <c r="BU8" s="9"/>
-      <c r="BV8" s="9"/>
-      <c r="BW8" s="44"/>
-      <c r="BX8" s="9"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="20"/>
+      <c r="BM8" s="20"/>
+      <c r="BN8" s="20"/>
+      <c r="BO8" s="20"/>
+      <c r="BP8" s="20"/>
+      <c r="BQ8" s="20"/>
+      <c r="BR8" s="20"/>
+      <c r="BS8" s="20"/>
+      <c r="BT8" s="20"/>
+      <c r="BU8" s="20"/>
+      <c r="BV8" s="20"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="20"/>
       <c r="BY8" s="3"/>
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
@@ -1981,7 +2124,7 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1991,7 +2134,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="K9" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1999,51 +2142,53 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20"/>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20"/>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20"/>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="20"/>
+      <c r="AJ9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="41"/>
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="41"/>
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="41"/>
+      <c r="BN9" s="41"/>
+      <c r="BO9" s="41"/>
+      <c r="BP9" s="41"/>
+      <c r="BQ9" s="41"/>
+      <c r="BR9" s="41"/>
+      <c r="BS9" s="41"/>
+      <c r="BT9" s="41"/>
+      <c r="BU9" s="41"/>
+      <c r="BV9" s="41"/>
+      <c r="BW9" s="55"/>
+      <c r="BX9" s="41"/>
       <c r="BY9" s="3"/>
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
@@ -2058,7 +2203,7 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2074,53 +2219,51 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="AJ10" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="36"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="36"/>
-      <c r="BK10" s="36"/>
-      <c r="BL10" s="36"/>
-      <c r="BM10" s="36"/>
-      <c r="BN10" s="36"/>
-      <c r="BO10" s="36"/>
-      <c r="BP10" s="36"/>
-      <c r="BQ10" s="36"/>
-      <c r="BR10" s="36"/>
-      <c r="BS10" s="36"/>
-      <c r="BT10" s="36"/>
-      <c r="BU10" s="36"/>
-      <c r="BV10" s="36"/>
-      <c r="BW10" s="46"/>
-      <c r="BX10" s="36"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="53"/>
+      <c r="BX10" s="9"/>
       <c r="BY10" s="3"/>
       <c r="BZ10" s="3"/>
       <c r="CA10" s="3"/>
@@ -2149,17 +2292,17 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
       <c r="AM11" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN11" s="27"/>
       <c r="AO11" s="27"/>
       <c r="AP11" s="27"/>
-      <c r="AQ11" s="33" t="s">
-        <v>28</v>
+      <c r="AQ11" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
@@ -2192,7 +2335,7 @@
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
       <c r="BV11" s="9"/>
-      <c r="BW11" s="44"/>
+      <c r="BW11" s="53"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="3"/>
       <c r="BZ11" s="3"/>
@@ -2222,17 +2365,17 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
       <c r="AM12" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN12" s="27"/>
       <c r="AO12" s="27"/>
       <c r="AP12" s="27"/>
-      <c r="AQ12" s="33" t="s">
-        <v>30</v>
+      <c r="AQ12" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
@@ -2265,7 +2408,7 @@
       <c r="BT12" s="9"/>
       <c r="BU12" s="9"/>
       <c r="BV12" s="9"/>
-      <c r="BW12" s="44"/>
+      <c r="BW12" s="53"/>
       <c r="BX12" s="9"/>
       <c r="BY12" s="3"/>
       <c r="BZ12" s="3"/>
@@ -2295,17 +2438,17 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
       <c r="AM13" s="27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AN13" s="27"/>
       <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
-      <c r="AQ13" s="33" t="s">
-        <v>32</v>
+      <c r="AQ13" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
@@ -2338,7 +2481,7 @@
       <c r="BT13" s="9"/>
       <c r="BU13" s="9"/>
       <c r="BV13" s="9"/>
-      <c r="BW13" s="44"/>
+      <c r="BW13" s="53"/>
       <c r="BX13" s="9"/>
       <c r="BY13" s="3"/>
       <c r="BZ13" s="3"/>
@@ -2368,17 +2511,17 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
       <c r="AM14" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN14" s="27"/>
       <c r="AO14" s="27"/>
       <c r="AP14" s="27"/>
-      <c r="AQ14" s="33" t="s">
-        <v>34</v>
+      <c r="AQ14" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
@@ -2411,7 +2554,7 @@
       <c r="BT14" s="9"/>
       <c r="BU14" s="9"/>
       <c r="BV14" s="9"/>
-      <c r="BW14" s="44"/>
+      <c r="BW14" s="53"/>
       <c r="BX14" s="9"/>
       <c r="BY14" s="3"/>
       <c r="BZ14" s="3"/>
@@ -2441,17 +2584,17 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
       <c r="AM15" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN15" s="27"/>
       <c r="AO15" s="27"/>
       <c r="AP15" s="27"/>
-      <c r="AQ15" s="33" t="s">
-        <v>36</v>
+      <c r="AQ15" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
@@ -2484,7 +2627,7 @@
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
       <c r="BV15" s="9"/>
-      <c r="BW15" s="44"/>
+      <c r="BW15" s="53"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="3"/>
       <c r="BZ15" s="3"/>
@@ -2528,169 +2671,172 @@
       <c r="CH16" s="3"/>
       <c r="CI16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="44:87">
-      <c r="AR17" s="32">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="44:88">
+      <c r="AR17" s="37">
         <v>1</v>
       </c>
-      <c r="AS17" s="32">
+      <c r="AS17" s="37">
         <v>2</v>
       </c>
-      <c r="AT17" s="32">
+      <c r="AT17" s="37">
         <v>3</v>
       </c>
-      <c r="AU17" s="32">
+      <c r="AU17" s="37">
         <v>4</v>
       </c>
-      <c r="AV17" s="32">
+      <c r="AV17" s="37">
         <v>5</v>
       </c>
-      <c r="AW17" s="32">
+      <c r="AW17" s="37">
         <v>6</v>
       </c>
-      <c r="AX17" s="32">
+      <c r="AX17" s="37">
         <v>7</v>
       </c>
-      <c r="AY17" s="32">
+      <c r="AY17" s="37">
         <v>8</v>
       </c>
-      <c r="AZ17" s="32">
+      <c r="AZ17" s="37">
         <v>9</v>
       </c>
-      <c r="BA17" s="32">
+      <c r="BA17" s="37">
         <v>10</v>
       </c>
-      <c r="BB17" s="32">
+      <c r="BB17" s="37">
         <v>11</v>
       </c>
-      <c r="BC17" s="32">
+      <c r="BC17" s="37">
         <v>12</v>
       </c>
-      <c r="BD17" s="32">
+      <c r="BD17" s="37">
         <v>13</v>
       </c>
-      <c r="BE17" s="32">
+      <c r="BE17" s="37">
         <v>14</v>
       </c>
-      <c r="BF17" s="32">
+      <c r="BF17" s="37">
         <v>15</v>
       </c>
-      <c r="BG17" s="32">
+      <c r="BG17" s="37">
         <v>16</v>
       </c>
-      <c r="BH17" s="32">
+      <c r="BH17" s="37">
         <v>17</v>
       </c>
-      <c r="BI17" s="32">
+      <c r="BI17" s="37">
         <v>18</v>
       </c>
-      <c r="BJ17" s="32">
+      <c r="BJ17" s="37">
         <v>19</v>
       </c>
-      <c r="BK17" s="32">
+      <c r="BK17" s="37">
         <v>20</v>
       </c>
-      <c r="BL17" s="32">
+      <c r="BL17" s="37">
         <v>21</v>
       </c>
-      <c r="BM17" s="32">
+      <c r="BM17" s="37">
         <v>22</v>
       </c>
-      <c r="BN17" s="32">
+      <c r="BN17" s="37">
         <v>23</v>
       </c>
-      <c r="BO17" s="32">
+      <c r="BO17" s="37">
         <v>24</v>
       </c>
-      <c r="BP17" s="32">
+      <c r="BP17" s="37">
         <v>25</v>
       </c>
-      <c r="BQ17" s="32">
+      <c r="BQ17" s="37">
         <v>26</v>
       </c>
-      <c r="BR17" s="32">
+      <c r="BR17" s="37">
         <v>27</v>
       </c>
-      <c r="BS17" s="32">
+      <c r="BS17" s="37">
         <v>28</v>
       </c>
-      <c r="BT17" s="32">
+      <c r="BT17" s="37">
         <v>29</v>
       </c>
-      <c r="BU17" s="32">
+      <c r="BU17" s="37">
         <v>30</v>
       </c>
-      <c r="BV17" s="42">
+      <c r="BV17" s="51">
         <v>31</v>
       </c>
-      <c r="BW17" s="47" t="s">
+      <c r="BW17" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX17" s="57"/>
+      <c r="BY17" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="CB17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD17" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF17" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="CG17" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="BX17" s="48"/>
-      <c r="BY17" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB17" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="CC17" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="CD17" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="CF17" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="CG17" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="CH17" s="48"/>
-      <c r="CI17" s="48"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CH17" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI17" s="68"/>
+      <c r="CJ17" s="68"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B18" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="12"/>
       <c r="L18" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -2698,135 +2844,136 @@
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
       <c r="AM18" s="10"/>
       <c r="AN18" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT18" s="32" t="s">
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="AU18" s="32" t="s">
+      <c r="AS18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="AV18" s="32" t="s">
+      <c r="AT18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="AW18" s="40" t="s">
+      <c r="AU18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AX18" s="41" t="s">
+      <c r="AV18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AY18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA18" s="32" t="s">
+      <c r="AW18" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX18" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BB18" s="32" t="s">
+      <c r="AZ18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BC18" s="32" t="s">
+      <c r="BA18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BD18" s="40" t="s">
+      <c r="BB18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BE18" s="41" t="s">
+      <c r="BC18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BF18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH18" s="32" t="s">
+      <c r="BD18" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE18" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BI18" s="32" t="s">
+      <c r="BG18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BJ18" s="32" t="s">
+      <c r="BH18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BK18" s="40" t="s">
+      <c r="BI18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BL18" s="41" t="s">
+      <c r="BJ18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BM18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="BN18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO18" s="32" t="s">
+      <c r="BK18" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL18" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BP18" s="32" t="s">
+      <c r="BN18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BQ18" s="32" t="s">
+      <c r="BO18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BR18" s="40" t="s">
+      <c r="BP18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BS18" s="41" t="s">
+      <c r="BQ18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BT18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="BU18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BV18" s="42" t="s">
+      <c r="BR18" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS18" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BW18" s="51"/>
-      <c r="BX18" s="48"/>
-      <c r="BY18" s="48"/>
-      <c r="BZ18" s="48"/>
-      <c r="CA18" s="50"/>
-      <c r="CB18" s="50"/>
-      <c r="CC18" s="50"/>
-      <c r="CD18" s="50"/>
-      <c r="CE18" s="50"/>
-      <c r="CF18" s="50"/>
-      <c r="CG18" s="48"/>
-      <c r="CH18" s="48"/>
-      <c r="CI18" s="48"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="BU18" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV18" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW18" s="61"/>
+      <c r="BX18" s="62"/>
+      <c r="BY18" s="62"/>
+      <c r="BZ18" s="62"/>
+      <c r="CA18" s="63"/>
+      <c r="CB18" s="63"/>
+      <c r="CC18" s="63"/>
+      <c r="CD18" s="63"/>
+      <c r="CE18" s="63"/>
+      <c r="CF18" s="63"/>
+      <c r="CG18" s="63"/>
+      <c r="CH18" s="68"/>
+      <c r="CI18" s="68"/>
+      <c r="CJ18" s="68"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2867,54 +3014,55 @@
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
-      <c r="AP19" s="38"/>
+      <c r="AP19" s="44"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
-      <c r="BE19" s="15"/>
-      <c r="BF19" s="15"/>
-      <c r="BG19" s="15"/>
-      <c r="BH19" s="15"/>
-      <c r="BI19" s="15"/>
-      <c r="BJ19" s="15"/>
-      <c r="BK19" s="15"/>
-      <c r="BL19" s="15"/>
-      <c r="BM19" s="15"/>
-      <c r="BN19" s="15"/>
-      <c r="BO19" s="15"/>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="15"/>
-      <c r="BR19" s="15"/>
-      <c r="BS19" s="15"/>
-      <c r="BT19" s="15"/>
-      <c r="BU19" s="15"/>
-      <c r="BV19" s="15"/>
-      <c r="BW19" s="52"/>
-      <c r="BX19" s="52"/>
-      <c r="BY19" s="52"/>
-      <c r="BZ19" s="52"/>
-      <c r="CA19" s="52"/>
-      <c r="CB19" s="52"/>
-      <c r="CC19" s="52"/>
-      <c r="CD19" s="52"/>
-      <c r="CE19" s="52"/>
-      <c r="CF19" s="52"/>
-      <c r="CG19" s="52"/>
-      <c r="CH19" s="52"/>
-      <c r="CI19" s="57"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="2:87">
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="45"/>
+      <c r="BM19" s="45"/>
+      <c r="BN19" s="45"/>
+      <c r="BO19" s="45"/>
+      <c r="BP19" s="45"/>
+      <c r="BQ19" s="45"/>
+      <c r="BR19" s="45"/>
+      <c r="BS19" s="45"/>
+      <c r="BT19" s="45"/>
+      <c r="BU19" s="45"/>
+      <c r="BV19" s="45"/>
+      <c r="BW19" s="45"/>
+      <c r="BX19" s="45"/>
+      <c r="BY19" s="45"/>
+      <c r="BZ19" s="45"/>
+      <c r="CA19" s="45"/>
+      <c r="CB19" s="45"/>
+      <c r="CC19" s="45"/>
+      <c r="CD19" s="45"/>
+      <c r="CE19" s="45"/>
+      <c r="CF19" s="45"/>
+      <c r="CG19" s="45"/>
+      <c r="CH19" s="45"/>
+      <c r="CI19" s="45"/>
+      <c r="CJ19" s="45"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="2:88">
       <c r="B20" s="16">
         <v>1</v>
       </c>
@@ -2988,8 +3136,8 @@
       <c r="BS20" s="18"/>
       <c r="BT20" s="18"/>
       <c r="BU20" s="18"/>
-      <c r="BV20" s="53"/>
-      <c r="BW20" s="54"/>
+      <c r="BV20" s="64"/>
+      <c r="BW20" s="65"/>
       <c r="BX20" s="18"/>
       <c r="BY20" s="18"/>
       <c r="BZ20" s="18"/>
@@ -2999,11 +3147,12 @@
       <c r="CD20" s="18"/>
       <c r="CE20" s="18"/>
       <c r="CF20" s="18"/>
-      <c r="CG20" s="18"/>
-      <c r="CH20" s="18"/>
-      <c r="CI20" s="18"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="69"/>
+      <c r="CI20" s="70"/>
+      <c r="CJ20" s="71"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B21" s="19">
         <v>2</v>
       </c>
@@ -3078,7 +3227,7 @@
       <c r="BT21" s="9"/>
       <c r="BU21" s="9"/>
       <c r="BV21" s="6"/>
-      <c r="BW21" s="44"/>
+      <c r="BW21" s="53"/>
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
       <c r="BZ21" s="9"/>
@@ -3088,11 +3237,12 @@
       <c r="CD21" s="9"/>
       <c r="CE21" s="9"/>
       <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="9"/>
-      <c r="CI21" s="9"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG21" s="19"/>
+      <c r="CH21" s="69"/>
+      <c r="CI21" s="70"/>
+      <c r="CJ21" s="71"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B22" s="19">
         <v>3</v>
       </c>
@@ -3167,7 +3317,7 @@
       <c r="BT22" s="9"/>
       <c r="BU22" s="9"/>
       <c r="BV22" s="6"/>
-      <c r="BW22" s="44"/>
+      <c r="BW22" s="53"/>
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
@@ -3177,11 +3327,12 @@
       <c r="CD22" s="9"/>
       <c r="CE22" s="9"/>
       <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="9"/>
-      <c r="CI22" s="9"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG22" s="19"/>
+      <c r="CH22" s="69"/>
+      <c r="CI22" s="70"/>
+      <c r="CJ22" s="71"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B23" s="19">
         <v>4</v>
       </c>
@@ -3256,7 +3407,7 @@
       <c r="BT23" s="9"/>
       <c r="BU23" s="9"/>
       <c r="BV23" s="6"/>
-      <c r="BW23" s="44"/>
+      <c r="BW23" s="53"/>
       <c r="BX23" s="9"/>
       <c r="BY23" s="9"/>
       <c r="BZ23" s="9"/>
@@ -3266,11 +3417,12 @@
       <c r="CD23" s="9"/>
       <c r="CE23" s="9"/>
       <c r="CF23" s="9"/>
-      <c r="CG23" s="9"/>
-      <c r="CH23" s="9"/>
-      <c r="CI23" s="9"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG23" s="19"/>
+      <c r="CH23" s="69"/>
+      <c r="CI23" s="70"/>
+      <c r="CJ23" s="71"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B24" s="19">
         <v>5</v>
       </c>
@@ -3345,7 +3497,7 @@
       <c r="BT24" s="9"/>
       <c r="BU24" s="9"/>
       <c r="BV24" s="6"/>
-      <c r="BW24" s="44"/>
+      <c r="BW24" s="53"/>
       <c r="BX24" s="9"/>
       <c r="BY24" s="9"/>
       <c r="BZ24" s="9"/>
@@ -3355,11 +3507,12 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="9"/>
-      <c r="CG24" s="9"/>
-      <c r="CH24" s="9"/>
-      <c r="CI24" s="9"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG24" s="19"/>
+      <c r="CH24" s="69"/>
+      <c r="CI24" s="70"/>
+      <c r="CJ24" s="71"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B25" s="19">
         <v>6</v>
       </c>
@@ -3434,7 +3587,7 @@
       <c r="BT25" s="9"/>
       <c r="BU25" s="9"/>
       <c r="BV25" s="6"/>
-      <c r="BW25" s="44"/>
+      <c r="BW25" s="53"/>
       <c r="BX25" s="9"/>
       <c r="BY25" s="9"/>
       <c r="BZ25" s="9"/>
@@ -3444,11 +3597,12 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="9"/>
-      <c r="CG25" s="9"/>
-      <c r="CH25" s="9"/>
-      <c r="CI25" s="9"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG25" s="19"/>
+      <c r="CH25" s="69"/>
+      <c r="CI25" s="70"/>
+      <c r="CJ25" s="71"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B26" s="19">
         <v>7</v>
       </c>
@@ -3523,7 +3677,7 @@
       <c r="BT26" s="9"/>
       <c r="BU26" s="9"/>
       <c r="BV26" s="6"/>
-      <c r="BW26" s="44"/>
+      <c r="BW26" s="53"/>
       <c r="BX26" s="9"/>
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9"/>
@@ -3533,11 +3687,12 @@
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="9"/>
-      <c r="CG26" s="9"/>
-      <c r="CH26" s="9"/>
-      <c r="CI26" s="9"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG26" s="19"/>
+      <c r="CH26" s="69"/>
+      <c r="CI26" s="70"/>
+      <c r="CJ26" s="71"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B27" s="19">
         <v>8</v>
       </c>
@@ -3612,7 +3767,7 @@
       <c r="BT27" s="9"/>
       <c r="BU27" s="9"/>
       <c r="BV27" s="6"/>
-      <c r="BW27" s="44"/>
+      <c r="BW27" s="53"/>
       <c r="BX27" s="9"/>
       <c r="BY27" s="9"/>
       <c r="BZ27" s="9"/>
@@ -3622,11 +3777,12 @@
       <c r="CD27" s="9"/>
       <c r="CE27" s="9"/>
       <c r="CF27" s="9"/>
-      <c r="CG27" s="9"/>
-      <c r="CH27" s="9"/>
-      <c r="CI27" s="9"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG27" s="19"/>
+      <c r="CH27" s="69"/>
+      <c r="CI27" s="70"/>
+      <c r="CJ27" s="71"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B28" s="19">
         <v>9</v>
       </c>
@@ -3700,8 +3856,8 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="20"/>
       <c r="BU28" s="20"/>
-      <c r="BV28" s="55"/>
-      <c r="BW28" s="45"/>
+      <c r="BV28" s="66"/>
+      <c r="BW28" s="54"/>
       <c r="BX28" s="20"/>
       <c r="BY28" s="20"/>
       <c r="BZ28" s="20"/>
@@ -3711,11 +3867,12 @@
       <c r="CD28" s="20"/>
       <c r="CE28" s="20"/>
       <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20"/>
-      <c r="CI28" s="20"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:87">
+      <c r="CG28" s="72"/>
+      <c r="CH28" s="69"/>
+      <c r="CI28" s="70"/>
+      <c r="CJ28" s="71"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B29" s="19">
         <v>10</v>
       </c>
@@ -3759,7 +3916,7 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
-      <c r="AQ29" s="39"/>
+      <c r="AQ29" s="46"/>
       <c r="AR29" s="9"/>
       <c r="AS29" s="9"/>
       <c r="AT29" s="9"/>
@@ -3801,9 +3958,10 @@
       <c r="CD29" s="9"/>
       <c r="CE29" s="9"/>
       <c r="CF29" s="9"/>
-      <c r="CG29" s="9"/>
-      <c r="CH29" s="9"/>
-      <c r="CI29" s="9"/>
+      <c r="CG29" s="19"/>
+      <c r="CH29" s="69"/>
+      <c r="CI29" s="70"/>
+      <c r="CJ29" s="71"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B30" s="3"/>
@@ -3841,14 +3999,14 @@
       <c r="BY30" s="3"/>
       <c r="BZ30" s="3"/>
       <c r="CA30" s="3"/>
-      <c r="CB30" s="56"/>
-      <c r="CC30" s="56"/>
-      <c r="CD30" s="56"/>
-      <c r="CE30" s="56"/>
-      <c r="CF30" s="56"/>
-      <c r="CG30" s="56"/>
-      <c r="CH30" s="56"/>
-      <c r="CI30" s="56"/>
+      <c r="CB30" s="67"/>
+      <c r="CC30" s="67"/>
+      <c r="CD30" s="67"/>
+      <c r="CE30" s="67"/>
+      <c r="CF30" s="67"/>
+      <c r="CG30" s="67"/>
+      <c r="CH30" s="67"/>
+      <c r="CI30" s="67"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B31" s="3"/>
@@ -3886,14 +4044,14 @@
       <c r="BY31" s="3"/>
       <c r="BZ31" s="3"/>
       <c r="CA31" s="3"/>
-      <c r="CB31" s="56"/>
-      <c r="CC31" s="56"/>
-      <c r="CD31" s="56"/>
-      <c r="CE31" s="56"/>
-      <c r="CF31" s="56"/>
-      <c r="CG31" s="56"/>
-      <c r="CH31" s="56"/>
-      <c r="CI31" s="56"/>
+      <c r="CB31" s="67"/>
+      <c r="CC31" s="67"/>
+      <c r="CD31" s="67"/>
+      <c r="CE31" s="67"/>
+      <c r="CF31" s="67"/>
+      <c r="CG31" s="67"/>
+      <c r="CH31" s="67"/>
+      <c r="CI31" s="67"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B32" s="3"/>
@@ -3931,14 +4089,14 @@
       <c r="BY32" s="3"/>
       <c r="BZ32" s="3"/>
       <c r="CA32" s="3"/>
-      <c r="CB32" s="56"/>
-      <c r="CC32" s="56"/>
-      <c r="CD32" s="56"/>
-      <c r="CE32" s="56"/>
-      <c r="CF32" s="56"/>
-      <c r="CG32" s="56"/>
-      <c r="CH32" s="56"/>
-      <c r="CI32" s="56"/>
+      <c r="CB32" s="67"/>
+      <c r="CC32" s="67"/>
+      <c r="CD32" s="67"/>
+      <c r="CE32" s="67"/>
+      <c r="CF32" s="67"/>
+      <c r="CG32" s="67"/>
+      <c r="CH32" s="67"/>
+      <c r="CI32" s="67"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B33" s="3"/>
@@ -3961,14 +4119,14 @@
       <c r="BY33" s="3"/>
       <c r="BZ33" s="3"/>
       <c r="CA33" s="3"/>
-      <c r="CB33" s="56"/>
-      <c r="CC33" s="56"/>
-      <c r="CD33" s="56"/>
-      <c r="CE33" s="56"/>
-      <c r="CF33" s="56"/>
-      <c r="CG33" s="56"/>
-      <c r="CH33" s="56"/>
-      <c r="CI33" s="56"/>
+      <c r="CB33" s="67"/>
+      <c r="CC33" s="67"/>
+      <c r="CD33" s="67"/>
+      <c r="CE33" s="67"/>
+      <c r="CF33" s="67"/>
+      <c r="CG33" s="67"/>
+      <c r="CH33" s="67"/>
+      <c r="CI33" s="67"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B34" s="3"/>
@@ -4006,14 +4164,14 @@
       <c r="BY34" s="3"/>
       <c r="BZ34" s="3"/>
       <c r="CA34" s="3"/>
-      <c r="CB34" s="56"/>
-      <c r="CC34" s="56"/>
-      <c r="CD34" s="56"/>
-      <c r="CE34" s="56"/>
-      <c r="CF34" s="56"/>
-      <c r="CG34" s="56"/>
-      <c r="CH34" s="56"/>
-      <c r="CI34" s="56"/>
+      <c r="CB34" s="67"/>
+      <c r="CC34" s="67"/>
+      <c r="CD34" s="67"/>
+      <c r="CE34" s="67"/>
+      <c r="CF34" s="67"/>
+      <c r="CG34" s="67"/>
+      <c r="CH34" s="67"/>
+      <c r="CI34" s="67"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B35" s="3"/>
@@ -4051,14 +4209,14 @@
       <c r="BY35" s="3"/>
       <c r="BZ35" s="3"/>
       <c r="CA35" s="3"/>
-      <c r="CB35" s="56"/>
-      <c r="CC35" s="56"/>
-      <c r="CD35" s="56"/>
-      <c r="CE35" s="56"/>
-      <c r="CF35" s="56"/>
-      <c r="CG35" s="56"/>
-      <c r="CH35" s="56"/>
-      <c r="CI35" s="56"/>
+      <c r="CB35" s="67"/>
+      <c r="CC35" s="67"/>
+      <c r="CD35" s="67"/>
+      <c r="CE35" s="67"/>
+      <c r="CF35" s="67"/>
+      <c r="CG35" s="67"/>
+      <c r="CH35" s="67"/>
+      <c r="CI35" s="67"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B36" s="3"/>
@@ -4081,14 +4239,14 @@
       <c r="BY36" s="3"/>
       <c r="BZ36" s="3"/>
       <c r="CA36" s="3"/>
-      <c r="CB36" s="56"/>
-      <c r="CC36" s="56"/>
-      <c r="CD36" s="56"/>
-      <c r="CE36" s="56"/>
-      <c r="CF36" s="56"/>
-      <c r="CG36" s="56"/>
-      <c r="CH36" s="56"/>
-      <c r="CI36" s="56"/>
+      <c r="CB36" s="67"/>
+      <c r="CC36" s="67"/>
+      <c r="CD36" s="67"/>
+      <c r="CE36" s="67"/>
+      <c r="CF36" s="67"/>
+      <c r="CG36" s="67"/>
+      <c r="CH36" s="67"/>
+      <c r="CI36" s="67"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="75:87">
       <c r="BW37" s="3"/>
@@ -4096,14 +4254,14 @@
       <c r="BY37" s="3"/>
       <c r="BZ37" s="3"/>
       <c r="CA37" s="3"/>
-      <c r="CB37" s="56"/>
-      <c r="CC37" s="56"/>
-      <c r="CD37" s="56"/>
-      <c r="CE37" s="56"/>
-      <c r="CF37" s="56"/>
-      <c r="CG37" s="56"/>
-      <c r="CH37" s="56"/>
-      <c r="CI37" s="56"/>
+      <c r="CB37" s="67"/>
+      <c r="CC37" s="67"/>
+      <c r="CD37" s="67"/>
+      <c r="CE37" s="67"/>
+      <c r="CF37" s="67"/>
+      <c r="CG37" s="67"/>
+      <c r="CH37" s="67"/>
+      <c r="CI37" s="67"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="75:87">
       <c r="BW38" s="3"/>
@@ -6596,11 +6754,13 @@
       <c r="CI203" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="203">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="BW4:BX4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="K5:M5"/>
@@ -6650,7 +6810,7 @@
     <mergeCell ref="AJ18:AM18"/>
     <mergeCell ref="AN18:AP18"/>
     <mergeCell ref="B19:AP19"/>
-    <mergeCell ref="AR19:CI19"/>
+    <mergeCell ref="AR19:CJ19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="L20:O20"/>
@@ -6663,7 +6823,7 @@
     <mergeCell ref="AN20:AP20"/>
     <mergeCell ref="BW20:BX20"/>
     <mergeCell ref="BY20:BZ20"/>
-    <mergeCell ref="CG20:CI20"/>
+    <mergeCell ref="CH20:CJ20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="L21:O21"/>
@@ -6676,7 +6836,7 @@
     <mergeCell ref="AN21:AP21"/>
     <mergeCell ref="BW21:BX21"/>
     <mergeCell ref="BY21:BZ21"/>
-    <mergeCell ref="CG21:CI21"/>
+    <mergeCell ref="CH21:CJ21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:O22"/>
@@ -6689,7 +6849,7 @@
     <mergeCell ref="AN22:AP22"/>
     <mergeCell ref="BW22:BX22"/>
     <mergeCell ref="BY22:BZ22"/>
-    <mergeCell ref="CG22:CI22"/>
+    <mergeCell ref="CH22:CJ22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="L23:O23"/>
@@ -6702,7 +6862,7 @@
     <mergeCell ref="AN23:AP23"/>
     <mergeCell ref="BW23:BX23"/>
     <mergeCell ref="BY23:BZ23"/>
-    <mergeCell ref="CG23:CI23"/>
+    <mergeCell ref="CH23:CJ23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="L24:O24"/>
@@ -6715,7 +6875,7 @@
     <mergeCell ref="AN24:AP24"/>
     <mergeCell ref="BW24:BX24"/>
     <mergeCell ref="BY24:BZ24"/>
-    <mergeCell ref="CG24:CI24"/>
+    <mergeCell ref="CH24:CJ24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="L25:O25"/>
@@ -6728,7 +6888,7 @@
     <mergeCell ref="AN25:AP25"/>
     <mergeCell ref="BW25:BX25"/>
     <mergeCell ref="BY25:BZ25"/>
-    <mergeCell ref="CG25:CI25"/>
+    <mergeCell ref="CH25:CJ25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="L26:O26"/>
@@ -6741,7 +6901,7 @@
     <mergeCell ref="AN26:AP26"/>
     <mergeCell ref="BW26:BX26"/>
     <mergeCell ref="BY26:BZ26"/>
-    <mergeCell ref="CG26:CI26"/>
+    <mergeCell ref="CH26:CJ26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="L27:O27"/>
@@ -6754,7 +6914,7 @@
     <mergeCell ref="AN27:AP27"/>
     <mergeCell ref="BW27:BX27"/>
     <mergeCell ref="BY27:BZ27"/>
-    <mergeCell ref="CG27:CI27"/>
+    <mergeCell ref="CH27:CJ27"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L28:O28"/>
@@ -6767,7 +6927,7 @@
     <mergeCell ref="AN28:AP28"/>
     <mergeCell ref="BW28:BX28"/>
     <mergeCell ref="BY28:BZ28"/>
-    <mergeCell ref="CG28:CI28"/>
+    <mergeCell ref="CH28:CJ28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="L29:O29"/>
@@ -6780,23 +6940,24 @@
     <mergeCell ref="AN29:AP29"/>
     <mergeCell ref="BW29:BX29"/>
     <mergeCell ref="BY29:BZ29"/>
-    <mergeCell ref="CG29:CI29"/>
+    <mergeCell ref="CH29:CJ29"/>
     <mergeCell ref="CA17:CA18"/>
     <mergeCell ref="CB17:CB18"/>
     <mergeCell ref="CC17:CC18"/>
     <mergeCell ref="CD17:CD18"/>
     <mergeCell ref="CE17:CE18"/>
     <mergeCell ref="CF17:CF18"/>
-    <mergeCell ref="BW3:BX4"/>
-    <mergeCell ref="AJ5:AL9"/>
+    <mergeCell ref="CG17:CG18"/>
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="N7:Q8"/>
     <mergeCell ref="K9:M10"/>
     <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="AJ10:AL15"/>
     <mergeCell ref="BW17:BX18"/>
     <mergeCell ref="BY17:BZ18"/>
-    <mergeCell ref="CG17:CI18"/>
+    <mergeCell ref="BW2:BX3"/>
+    <mergeCell ref="AJ4:AL8"/>
+    <mergeCell ref="AJ9:AL15"/>
+    <mergeCell ref="CH17:CJ18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/storage/app/excel/child_application_table.xlsx
+++ b/storage/app/excel/child_application_table.xlsx
@@ -217,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -270,6 +270,22 @@
       <charset val="128"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -284,25 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +317,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -331,6 +347,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -339,11 +376,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,36 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,14 +408,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +453,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,37 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,13 +525,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,61 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,30 +615,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -678,6 +678,26 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -769,6 +789,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -813,13 +844,17 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,15 +869,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,7 +892,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,23 +924,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,134 +963,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,26 +1131,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,43 +1161,40 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,107 +1203,83 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1609,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A1:CJ203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1641,41 +1634,41 @@
       <c r="CI1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="44:87">
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="51"/>
-      <c r="BW2" s="52" t="s">
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="37"/>
+      <c r="BX2" s="36"/>
       <c r="BY2" s="3"/>
       <c r="BZ2" s="3"/>
       <c r="CA2" s="3"/>
@@ -1711,39 +1704,39 @@
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="48"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="48"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="51"/>
-      <c r="BW3" s="52"/>
-      <c r="BX3" s="37"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="51"/>
+      <c r="BX3" s="36"/>
       <c r="BY3" s="3"/>
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
@@ -1762,13 +1755,13 @@
       </c>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
-      <c r="AM4" s="27" t="s">
+      <c r="AM4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="38" t="s">
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="9"/>
@@ -1802,7 +1795,7 @@
       <c r="BT4" s="9"/>
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
-      <c r="BW4" s="53"/>
+      <c r="BW4" s="52"/>
       <c r="BX4" s="9"/>
       <c r="BY4" s="3"/>
       <c r="BZ4" s="3"/>
@@ -1839,13 +1832,13 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="27" t="s">
+      <c r="AM5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="38" t="s">
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="AR5" s="9"/>
@@ -1879,7 +1872,7 @@
       <c r="BT5" s="9"/>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
-      <c r="BW5" s="53"/>
+      <c r="BW5" s="52"/>
       <c r="BX5" s="9"/>
       <c r="BY5" s="3"/>
       <c r="BZ5" s="3"/>
@@ -1916,13 +1909,13 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
-      <c r="AM6" s="27" t="s">
+      <c r="AM6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="38" t="s">
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AR6" s="9"/>
@@ -1956,7 +1949,7 @@
       <c r="BT6" s="9"/>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
-      <c r="BW6" s="53"/>
+      <c r="BW6" s="52"/>
       <c r="BX6" s="9"/>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="3"/>
@@ -1993,13 +1986,13 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
-      <c r="AM7" s="27" t="s">
+      <c r="AM7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="38" t="s">
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="37" t="s">
         <v>17</v>
       </c>
       <c r="AR7" s="9"/>
@@ -2033,7 +2026,7 @@
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
-      <c r="BW7" s="53"/>
+      <c r="BW7" s="52"/>
       <c r="BX7" s="9"/>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="3"/>
@@ -2065,51 +2058,51 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="29" t="s">
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="39" t="s">
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="20"/>
-      <c r="BL8" s="20"/>
-      <c r="BM8" s="20"/>
-      <c r="BN8" s="20"/>
-      <c r="BO8" s="20"/>
-      <c r="BP8" s="20"/>
-      <c r="BQ8" s="20"/>
-      <c r="BR8" s="20"/>
-      <c r="BS8" s="20"/>
-      <c r="BT8" s="20"/>
-      <c r="BU8" s="20"/>
-      <c r="BV8" s="20"/>
-      <c r="BW8" s="54"/>
-      <c r="BX8" s="20"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="39"/>
+      <c r="BL8" s="39"/>
+      <c r="BM8" s="39"/>
+      <c r="BN8" s="39"/>
+      <c r="BO8" s="39"/>
+      <c r="BP8" s="39"/>
+      <c r="BQ8" s="39"/>
+      <c r="BR8" s="39"/>
+      <c r="BS8" s="39"/>
+      <c r="BT8" s="39"/>
+      <c r="BU8" s="39"/>
+      <c r="BV8" s="39"/>
+      <c r="BW8" s="53"/>
+      <c r="BX8" s="39"/>
       <c r="BY8" s="3"/>
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
@@ -2142,17 +2135,17 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="AJ9" s="30" t="s">
+      <c r="AJ9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="32" t="s">
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
       <c r="AQ9" s="40" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +2180,7 @@
       <c r="BT9" s="41"/>
       <c r="BU9" s="41"/>
       <c r="BV9" s="41"/>
-      <c r="BW9" s="55"/>
+      <c r="BW9" s="54"/>
       <c r="BX9" s="41"/>
       <c r="BY9" s="3"/>
       <c r="BZ9" s="3"/>
@@ -2219,16 +2212,16 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="27" t="s">
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="38" t="s">
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="37" t="s">
         <v>28</v>
       </c>
       <c r="AR10" s="9"/>
@@ -2262,7 +2255,7 @@
       <c r="BT10" s="9"/>
       <c r="BU10" s="9"/>
       <c r="BV10" s="9"/>
-      <c r="BW10" s="53"/>
+      <c r="BW10" s="52"/>
       <c r="BX10" s="9"/>
       <c r="BY10" s="3"/>
       <c r="BZ10" s="3"/>
@@ -2292,16 +2285,16 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="27" t="s">
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="38" t="s">
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="37" t="s">
         <v>30</v>
       </c>
       <c r="AR11" s="9"/>
@@ -2335,7 +2328,7 @@
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
       <c r="BV11" s="9"/>
-      <c r="BW11" s="53"/>
+      <c r="BW11" s="52"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="3"/>
       <c r="BZ11" s="3"/>
@@ -2365,16 +2358,16 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="27" t="s">
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="38" t="s">
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="37" t="s">
         <v>32</v>
       </c>
       <c r="AR12" s="9"/>
@@ -2408,7 +2401,7 @@
       <c r="BT12" s="9"/>
       <c r="BU12" s="9"/>
       <c r="BV12" s="9"/>
-      <c r="BW12" s="53"/>
+      <c r="BW12" s="52"/>
       <c r="BX12" s="9"/>
       <c r="BY12" s="3"/>
       <c r="BZ12" s="3"/>
@@ -2438,16 +2431,16 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="27" t="s">
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="38" t="s">
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="37" t="s">
         <v>34</v>
       </c>
       <c r="AR13" s="9"/>
@@ -2481,7 +2474,7 @@
       <c r="BT13" s="9"/>
       <c r="BU13" s="9"/>
       <c r="BV13" s="9"/>
-      <c r="BW13" s="53"/>
+      <c r="BW13" s="52"/>
       <c r="BX13" s="9"/>
       <c r="BY13" s="3"/>
       <c r="BZ13" s="3"/>
@@ -2511,16 +2504,16 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="27" t="s">
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="38" t="s">
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="37" t="s">
         <v>36</v>
       </c>
       <c r="AR14" s="9"/>
@@ -2554,7 +2547,7 @@
       <c r="BT14" s="9"/>
       <c r="BU14" s="9"/>
       <c r="BV14" s="9"/>
-      <c r="BW14" s="53"/>
+      <c r="BW14" s="52"/>
       <c r="BX14" s="9"/>
       <c r="BY14" s="3"/>
       <c r="BZ14" s="3"/>
@@ -2584,16 +2577,16 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="27" t="s">
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="38" t="s">
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="37" t="s">
         <v>38</v>
       </c>
       <c r="AR15" s="9"/>
@@ -2627,7 +2620,7 @@
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
       <c r="BV15" s="9"/>
-      <c r="BW15" s="53"/>
+      <c r="BW15" s="52"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="3"/>
       <c r="BZ15" s="3"/>
@@ -2672,133 +2665,133 @@
       <c r="CI16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="44:88">
-      <c r="AR17" s="37">
+      <c r="AR17" s="36">
         <v>1</v>
       </c>
-      <c r="AS17" s="37">
+      <c r="AS17" s="36">
         <v>2</v>
       </c>
-      <c r="AT17" s="37">
+      <c r="AT17" s="36">
         <v>3</v>
       </c>
-      <c r="AU17" s="37">
+      <c r="AU17" s="36">
         <v>4</v>
       </c>
-      <c r="AV17" s="37">
+      <c r="AV17" s="36">
         <v>5</v>
       </c>
-      <c r="AW17" s="37">
+      <c r="AW17" s="36">
         <v>6</v>
       </c>
-      <c r="AX17" s="37">
+      <c r="AX17" s="36">
         <v>7</v>
       </c>
-      <c r="AY17" s="37">
+      <c r="AY17" s="36">
         <v>8</v>
       </c>
-      <c r="AZ17" s="37">
+      <c r="AZ17" s="36">
         <v>9</v>
       </c>
-      <c r="BA17" s="37">
+      <c r="BA17" s="36">
         <v>10</v>
       </c>
-      <c r="BB17" s="37">
+      <c r="BB17" s="36">
         <v>11</v>
       </c>
-      <c r="BC17" s="37">
+      <c r="BC17" s="36">
         <v>12</v>
       </c>
-      <c r="BD17" s="37">
+      <c r="BD17" s="36">
         <v>13</v>
       </c>
-      <c r="BE17" s="37">
+      <c r="BE17" s="36">
         <v>14</v>
       </c>
-      <c r="BF17" s="37">
+      <c r="BF17" s="36">
         <v>15</v>
       </c>
-      <c r="BG17" s="37">
+      <c r="BG17" s="36">
         <v>16</v>
       </c>
-      <c r="BH17" s="37">
+      <c r="BH17" s="36">
         <v>17</v>
       </c>
-      <c r="BI17" s="37">
+      <c r="BI17" s="36">
         <v>18</v>
       </c>
-      <c r="BJ17" s="37">
+      <c r="BJ17" s="36">
         <v>19</v>
       </c>
-      <c r="BK17" s="37">
+      <c r="BK17" s="36">
         <v>20</v>
       </c>
-      <c r="BL17" s="37">
+      <c r="BL17" s="36">
         <v>21</v>
       </c>
-      <c r="BM17" s="37">
+      <c r="BM17" s="36">
         <v>22</v>
       </c>
-      <c r="BN17" s="37">
+      <c r="BN17" s="36">
         <v>23</v>
       </c>
-      <c r="BO17" s="37">
+      <c r="BO17" s="36">
         <v>24</v>
       </c>
-      <c r="BP17" s="37">
+      <c r="BP17" s="36">
         <v>25</v>
       </c>
-      <c r="BQ17" s="37">
+      <c r="BQ17" s="36">
         <v>26</v>
       </c>
-      <c r="BR17" s="37">
+      <c r="BR17" s="36">
         <v>27</v>
       </c>
-      <c r="BS17" s="37">
+      <c r="BS17" s="36">
         <v>28</v>
       </c>
-      <c r="BT17" s="37">
+      <c r="BT17" s="36">
         <v>29</v>
       </c>
-      <c r="BU17" s="37">
+      <c r="BU17" s="36">
         <v>30</v>
       </c>
-      <c r="BV17" s="51">
+      <c r="BV17" s="50">
         <v>31</v>
       </c>
-      <c r="BW17" s="56" t="s">
+      <c r="BW17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="BX17" s="57"/>
-      <c r="BY17" s="58" t="s">
+      <c r="BX17" s="56"/>
+      <c r="BY17" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="BZ17" s="57"/>
-      <c r="CA17" s="59" t="s">
+      <c r="BZ17" s="56"/>
+      <c r="CA17" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="CB17" s="59" t="s">
+      <c r="CB17" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="CC17" s="59" t="s">
+      <c r="CC17" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="CD17" s="59" t="s">
+      <c r="CD17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="CE17" s="59" t="s">
+      <c r="CE17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="CF17" s="59" t="s">
+      <c r="CF17" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="CG17" s="59" t="s">
+      <c r="CG17" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="CH17" s="68" t="s">
+      <c r="CH17" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="CI17" s="68"/>
-      <c r="CJ17" s="68"/>
+      <c r="CI17" s="56"/>
+      <c r="CJ17" s="56"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B18" s="10" t="s">
@@ -2880,10 +2873,10 @@
       <c r="AV18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AW18" s="49" t="s">
+      <c r="AW18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AX18" s="50" t="s">
+      <c r="AX18" s="49" t="s">
         <v>63</v>
       </c>
       <c r="AY18" s="43" t="s">
@@ -2901,10 +2894,10 @@
       <c r="BC18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BD18" s="49" t="s">
+      <c r="BD18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BE18" s="50" t="s">
+      <c r="BE18" s="49" t="s">
         <v>63</v>
       </c>
       <c r="BF18" s="43" t="s">
@@ -2922,10 +2915,10 @@
       <c r="BJ18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BK18" s="49" t="s">
+      <c r="BK18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BL18" s="50" t="s">
+      <c r="BL18" s="49" t="s">
         <v>63</v>
       </c>
       <c r="BM18" s="43" t="s">
@@ -2943,10 +2936,10 @@
       <c r="BQ18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BR18" s="49" t="s">
+      <c r="BR18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BS18" s="50" t="s">
+      <c r="BS18" s="49" t="s">
         <v>63</v>
       </c>
       <c r="BT18" s="43" t="s">
@@ -2955,23 +2948,23 @@
       <c r="BU18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BV18" s="60" t="s">
+      <c r="BV18" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="BW18" s="61"/>
-      <c r="BX18" s="62"/>
-      <c r="BY18" s="62"/>
-      <c r="BZ18" s="62"/>
-      <c r="CA18" s="63"/>
-      <c r="CB18" s="63"/>
-      <c r="CC18" s="63"/>
-      <c r="CD18" s="63"/>
-      <c r="CE18" s="63"/>
-      <c r="CF18" s="63"/>
-      <c r="CG18" s="63"/>
-      <c r="CH18" s="68"/>
-      <c r="CI18" s="68"/>
-      <c r="CJ18" s="68"/>
+      <c r="BW18" s="60"/>
+      <c r="BX18" s="61"/>
+      <c r="BY18" s="61"/>
+      <c r="BZ18" s="61"/>
+      <c r="CA18" s="62"/>
+      <c r="CB18" s="62"/>
+      <c r="CC18" s="62"/>
+      <c r="CD18" s="62"/>
+      <c r="CE18" s="62"/>
+      <c r="CF18" s="62"/>
+      <c r="CG18" s="62"/>
+      <c r="CH18" s="56"/>
+      <c r="CI18" s="56"/>
+      <c r="CJ18" s="56"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="2:88">
       <c r="B19" s="14"/>
@@ -3062,730 +3055,729 @@
       <c r="CI19" s="45"/>
       <c r="CJ19" s="45"/>
     </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17"/>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="18"/>
       <c r="AK20" s="18"/>
       <c r="AL20" s="18"/>
       <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
-      <c r="BK20" s="18"/>
-      <c r="BL20" s="18"/>
-      <c r="BM20" s="18"/>
-      <c r="BN20" s="18"/>
-      <c r="BO20" s="18"/>
-      <c r="BP20" s="18"/>
-      <c r="BQ20" s="18"/>
-      <c r="BR20" s="18"/>
-      <c r="BS20" s="18"/>
-      <c r="BT20" s="18"/>
-      <c r="BU20" s="18"/>
-      <c r="BV20" s="64"/>
-      <c r="BW20" s="65"/>
-      <c r="BX20" s="18"/>
-      <c r="BY20" s="18"/>
-      <c r="BZ20" s="18"/>
-      <c r="CA20" s="18"/>
-      <c r="CB20" s="18"/>
-      <c r="CC20" s="18"/>
-      <c r="CD20" s="18"/>
-      <c r="CE20" s="18"/>
-      <c r="CF20" s="18"/>
-      <c r="CG20" s="16"/>
-      <c r="CH20" s="69"/>
-      <c r="CI20" s="70"/>
-      <c r="CJ20" s="71"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+      <c r="BL20" s="17"/>
+      <c r="BM20" s="17"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="17"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="17"/>
+      <c r="BV20" s="17"/>
+      <c r="BW20" s="17"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="17"/>
+      <c r="BZ20" s="17"/>
+      <c r="CA20" s="17"/>
+      <c r="CB20" s="17"/>
+      <c r="CC20" s="17"/>
+      <c r="CD20" s="17"/>
+      <c r="CE20" s="17"/>
+      <c r="CF20" s="17"/>
+      <c r="CG20" s="17"/>
+      <c r="CH20" s="17"/>
+      <c r="CI20" s="17"/>
+      <c r="CJ20" s="17"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
-      <c r="BO21" s="9"/>
-      <c r="BP21" s="9"/>
-      <c r="BQ21" s="9"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="BT21" s="9"/>
-      <c r="BU21" s="9"/>
-      <c r="BV21" s="6"/>
-      <c r="BW21" s="53"/>
-      <c r="BX21" s="9"/>
-      <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
-      <c r="CD21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="19"/>
-      <c r="CH21" s="69"/>
-      <c r="CI21" s="70"/>
-      <c r="CJ21" s="71"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B22" s="19">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="20"/>
+      <c r="BR21" s="20"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="20"/>
+      <c r="BU21" s="20"/>
+      <c r="BV21" s="20"/>
+      <c r="BW21" s="20"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="20"/>
+      <c r="BZ21" s="20"/>
+      <c r="CA21" s="20"/>
+      <c r="CB21" s="20"/>
+      <c r="CC21" s="20"/>
+      <c r="CD21" s="20"/>
+      <c r="CE21" s="20"/>
+      <c r="CF21" s="20"/>
+      <c r="CG21" s="20"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="6"/>
-      <c r="BW22" s="53"/>
-      <c r="BX22" s="9"/>
-      <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
-      <c r="CD22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="19"/>
-      <c r="CH22" s="69"/>
-      <c r="CI22" s="70"/>
-      <c r="CJ22" s="71"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B23" s="19">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="20"/>
+      <c r="BQ22" s="20"/>
+      <c r="BR22" s="20"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="20"/>
+      <c r="BU22" s="20"/>
+      <c r="BV22" s="20"/>
+      <c r="BW22" s="20"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="20"/>
+      <c r="BZ22" s="20"/>
+      <c r="CA22" s="20"/>
+      <c r="CB22" s="20"/>
+      <c r="CC22" s="20"/>
+      <c r="CD22" s="20"/>
+      <c r="CE22" s="20"/>
+      <c r="CF22" s="20"/>
+      <c r="CG22" s="20"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="9"/>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
-      <c r="BL23" s="9"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
-      <c r="BO23" s="9"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="9"/>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="9"/>
-      <c r="BT23" s="9"/>
-      <c r="BU23" s="9"/>
-      <c r="BV23" s="6"/>
-      <c r="BW23" s="53"/>
-      <c r="BX23" s="9"/>
-      <c r="BY23" s="9"/>
-      <c r="BZ23" s="9"/>
-      <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-      <c r="CC23" s="9"/>
-      <c r="CD23" s="9"/>
-      <c r="CE23" s="9"/>
-      <c r="CF23" s="9"/>
-      <c r="CG23" s="19"/>
-      <c r="CH23" s="69"/>
-      <c r="CI23" s="70"/>
-      <c r="CJ23" s="71"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B24" s="19">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
-      <c r="AV24" s="9"/>
-      <c r="AW24" s="9"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
-      <c r="BG24" s="9"/>
-      <c r="BH24" s="9"/>
-      <c r="BI24" s="9"/>
-      <c r="BJ24" s="9"/>
-      <c r="BK24" s="9"/>
-      <c r="BL24" s="9"/>
-      <c r="BM24" s="9"/>
-      <c r="BN24" s="9"/>
-      <c r="BO24" s="9"/>
-      <c r="BP24" s="9"/>
-      <c r="BQ24" s="9"/>
-      <c r="BR24" s="9"/>
-      <c r="BS24" s="9"/>
-      <c r="BT24" s="9"/>
-      <c r="BU24" s="9"/>
-      <c r="BV24" s="6"/>
-      <c r="BW24" s="53"/>
-      <c r="BX24" s="9"/>
-      <c r="BY24" s="9"/>
-      <c r="BZ24" s="9"/>
-      <c r="CA24" s="9"/>
-      <c r="CB24" s="9"/>
-      <c r="CC24" s="9"/>
-      <c r="CD24" s="9"/>
-      <c r="CE24" s="9"/>
-      <c r="CF24" s="9"/>
-      <c r="CG24" s="19"/>
-      <c r="CH24" s="69"/>
-      <c r="CI24" s="70"/>
-      <c r="CJ24" s="71"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B25" s="19">
-        <v>6</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="20"/>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="20"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
-      <c r="BG25" s="9"/>
-      <c r="BH25" s="9"/>
-      <c r="BI25" s="9"/>
-      <c r="BJ25" s="9"/>
-      <c r="BK25" s="9"/>
-      <c r="BL25" s="9"/>
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="9"/>
-      <c r="BO25" s="9"/>
-      <c r="BP25" s="9"/>
-      <c r="BQ25" s="9"/>
-      <c r="BR25" s="9"/>
-      <c r="BS25" s="9"/>
-      <c r="BT25" s="9"/>
-      <c r="BU25" s="9"/>
-      <c r="BV25" s="6"/>
-      <c r="BW25" s="53"/>
-      <c r="BX25" s="9"/>
-      <c r="BY25" s="9"/>
-      <c r="BZ25" s="9"/>
-      <c r="CA25" s="9"/>
-      <c r="CB25" s="9"/>
-      <c r="CC25" s="9"/>
-      <c r="CD25" s="9"/>
-      <c r="CE25" s="9"/>
-      <c r="CF25" s="9"/>
-      <c r="CG25" s="19"/>
-      <c r="CH25" s="69"/>
-      <c r="CI25" s="70"/>
-      <c r="CJ25" s="71"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B26" s="19">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="20"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="BV25" s="20"/>
+      <c r="BW25" s="20"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="20"/>
+      <c r="CE25" s="20"/>
+      <c r="CF25" s="20"/>
+      <c r="CG25" s="20"/>
+      <c r="CH25" s="17"/>
+      <c r="CI25" s="17"/>
+      <c r="CJ25" s="17"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="9"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
-      <c r="BO26" s="9"/>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="9"/>
-      <c r="BR26" s="9"/>
-      <c r="BS26" s="9"/>
-      <c r="BT26" s="9"/>
-      <c r="BU26" s="9"/>
-      <c r="BV26" s="6"/>
-      <c r="BW26" s="53"/>
-      <c r="BX26" s="9"/>
-      <c r="BY26" s="9"/>
-      <c r="BZ26" s="9"/>
-      <c r="CA26" s="9"/>
-      <c r="CB26" s="9"/>
-      <c r="CC26" s="9"/>
-      <c r="CD26" s="9"/>
-      <c r="CE26" s="9"/>
-      <c r="CF26" s="9"/>
-      <c r="CG26" s="19"/>
-      <c r="CH26" s="69"/>
-      <c r="CI26" s="70"/>
-      <c r="CJ26" s="71"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B27" s="19">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="17"/>
+      <c r="CI26" s="17"/>
+      <c r="CJ26" s="17"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
-      <c r="BG27" s="9"/>
-      <c r="BH27" s="9"/>
-      <c r="BI27" s="9"/>
-      <c r="BJ27" s="9"/>
-      <c r="BK27" s="9"/>
-      <c r="BL27" s="9"/>
-      <c r="BM27" s="9"/>
-      <c r="BN27" s="9"/>
-      <c r="BO27" s="9"/>
-      <c r="BP27" s="9"/>
-      <c r="BQ27" s="9"/>
-      <c r="BR27" s="9"/>
-      <c r="BS27" s="9"/>
-      <c r="BT27" s="9"/>
-      <c r="BU27" s="9"/>
-      <c r="BV27" s="6"/>
-      <c r="BW27" s="53"/>
-      <c r="BX27" s="9"/>
-      <c r="BY27" s="9"/>
-      <c r="BZ27" s="9"/>
-      <c r="CA27" s="9"/>
-      <c r="CB27" s="9"/>
-      <c r="CC27" s="9"/>
-      <c r="CD27" s="9"/>
-      <c r="CE27" s="9"/>
-      <c r="CF27" s="9"/>
-      <c r="CG27" s="19"/>
-      <c r="CH27" s="69"/>
-      <c r="CI27" s="70"/>
-      <c r="CJ27" s="71"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B28" s="19">
-        <v>9</v>
-      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="20"/>
+      <c r="BU27" s="20"/>
+      <c r="BV27" s="20"/>
+      <c r="BW27" s="20"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="20"/>
+      <c r="CE27" s="20"/>
+      <c r="CF27" s="20"/>
+      <c r="CG27" s="20"/>
+      <c r="CH27" s="17"/>
+      <c r="CI27" s="17"/>
+      <c r="CJ27" s="17"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3795,10 +3787,10 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -3826,6 +3818,7 @@
       <c r="AN28" s="20"/>
       <c r="AO28" s="20"/>
       <c r="AP28" s="20"/>
+      <c r="AQ28" s="19"/>
       <c r="AR28" s="20"/>
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
@@ -3856,8 +3849,8 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="20"/>
       <c r="BU28" s="20"/>
-      <c r="BV28" s="66"/>
-      <c r="BW28" s="54"/>
+      <c r="BV28" s="20"/>
+      <c r="BW28" s="20"/>
       <c r="BX28" s="20"/>
       <c r="BY28" s="20"/>
       <c r="BZ28" s="20"/>
@@ -3867,101 +3860,100 @@
       <c r="CD28" s="20"/>
       <c r="CE28" s="20"/>
       <c r="CF28" s="20"/>
-      <c r="CG28" s="72"/>
-      <c r="CH28" s="69"/>
-      <c r="CI28" s="70"/>
-      <c r="CJ28" s="71"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:88">
-      <c r="B29" s="19">
-        <v>10</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="17"/>
+      <c r="CI28" s="17"/>
+      <c r="CJ28" s="17"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:88">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="9"/>
-      <c r="AT29" s="9"/>
-      <c r="AU29" s="9"/>
-      <c r="AV29" s="9"/>
-      <c r="AW29" s="9"/>
-      <c r="AX29" s="9"/>
-      <c r="AY29" s="9"/>
-      <c r="AZ29" s="9"/>
-      <c r="BA29" s="9"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-      <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-      <c r="BF29" s="9"/>
-      <c r="BG29" s="9"/>
-      <c r="BH29" s="9"/>
-      <c r="BI29" s="9"/>
-      <c r="BJ29" s="9"/>
-      <c r="BK29" s="9"/>
-      <c r="BL29" s="9"/>
-      <c r="BM29" s="9"/>
-      <c r="BN29" s="9"/>
-      <c r="BO29" s="9"/>
-      <c r="BP29" s="9"/>
-      <c r="BQ29" s="9"/>
-      <c r="BR29" s="9"/>
-      <c r="BS29" s="9"/>
-      <c r="BT29" s="9"/>
-      <c r="BU29" s="9"/>
-      <c r="BV29" s="9"/>
-      <c r="BW29" s="9"/>
-      <c r="BX29" s="9"/>
-      <c r="BY29" s="9"/>
-      <c r="BZ29" s="9"/>
-      <c r="CA29" s="9"/>
-      <c r="CB29" s="9"/>
-      <c r="CC29" s="9"/>
-      <c r="CD29" s="9"/>
-      <c r="CE29" s="9"/>
-      <c r="CF29" s="9"/>
-      <c r="CG29" s="19"/>
-      <c r="CH29" s="69"/>
-      <c r="CI29" s="70"/>
-      <c r="CJ29" s="71"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AW29" s="20"/>
+      <c r="AX29" s="20"/>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="20"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="20"/>
+      <c r="BG29" s="20"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="20"/>
+      <c r="BM29" s="20"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="20"/>
+      <c r="BR29" s="20"/>
+      <c r="BS29" s="20"/>
+      <c r="BT29" s="20"/>
+      <c r="BU29" s="20"/>
+      <c r="BV29" s="20"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="BZ29" s="20"/>
+      <c r="CA29" s="20"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="20"/>
+      <c r="CE29" s="20"/>
+      <c r="CF29" s="20"/>
+      <c r="CG29" s="20"/>
+      <c r="CH29" s="17"/>
+      <c r="CI29" s="17"/>
+      <c r="CJ29" s="17"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B30" s="3"/>
@@ -3999,14 +3991,14 @@
       <c r="BY30" s="3"/>
       <c r="BZ30" s="3"/>
       <c r="CA30" s="3"/>
-      <c r="CB30" s="67"/>
-      <c r="CC30" s="67"/>
-      <c r="CD30" s="67"/>
-      <c r="CE30" s="67"/>
-      <c r="CF30" s="67"/>
-      <c r="CG30" s="67"/>
-      <c r="CH30" s="67"/>
-      <c r="CI30" s="67"/>
+      <c r="CB30" s="63"/>
+      <c r="CC30" s="63"/>
+      <c r="CD30" s="63"/>
+      <c r="CE30" s="63"/>
+      <c r="CF30" s="63"/>
+      <c r="CG30" s="63"/>
+      <c r="CH30" s="63"/>
+      <c r="CI30" s="63"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B31" s="3"/>
@@ -4044,14 +4036,14 @@
       <c r="BY31" s="3"/>
       <c r="BZ31" s="3"/>
       <c r="CA31" s="3"/>
-      <c r="CB31" s="67"/>
-      <c r="CC31" s="67"/>
-      <c r="CD31" s="67"/>
-      <c r="CE31" s="67"/>
-      <c r="CF31" s="67"/>
-      <c r="CG31" s="67"/>
-      <c r="CH31" s="67"/>
-      <c r="CI31" s="67"/>
+      <c r="CB31" s="63"/>
+      <c r="CC31" s="63"/>
+      <c r="CD31" s="63"/>
+      <c r="CE31" s="63"/>
+      <c r="CF31" s="63"/>
+      <c r="CG31" s="63"/>
+      <c r="CH31" s="63"/>
+      <c r="CI31" s="63"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B32" s="3"/>
@@ -4089,14 +4081,14 @@
       <c r="BY32" s="3"/>
       <c r="BZ32" s="3"/>
       <c r="CA32" s="3"/>
-      <c r="CB32" s="67"/>
-      <c r="CC32" s="67"/>
-      <c r="CD32" s="67"/>
-      <c r="CE32" s="67"/>
-      <c r="CF32" s="67"/>
-      <c r="CG32" s="67"/>
-      <c r="CH32" s="67"/>
-      <c r="CI32" s="67"/>
+      <c r="CB32" s="63"/>
+      <c r="CC32" s="63"/>
+      <c r="CD32" s="63"/>
+      <c r="CE32" s="63"/>
+      <c r="CF32" s="63"/>
+      <c r="CG32" s="63"/>
+      <c r="CH32" s="63"/>
+      <c r="CI32" s="63"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B33" s="3"/>
@@ -4119,14 +4111,14 @@
       <c r="BY33" s="3"/>
       <c r="BZ33" s="3"/>
       <c r="CA33" s="3"/>
-      <c r="CB33" s="67"/>
-      <c r="CC33" s="67"/>
-      <c r="CD33" s="67"/>
-      <c r="CE33" s="67"/>
-      <c r="CF33" s="67"/>
-      <c r="CG33" s="67"/>
-      <c r="CH33" s="67"/>
-      <c r="CI33" s="67"/>
+      <c r="CB33" s="63"/>
+      <c r="CC33" s="63"/>
+      <c r="CD33" s="63"/>
+      <c r="CE33" s="63"/>
+      <c r="CF33" s="63"/>
+      <c r="CG33" s="63"/>
+      <c r="CH33" s="63"/>
+      <c r="CI33" s="63"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B34" s="3"/>
@@ -4164,14 +4156,14 @@
       <c r="BY34" s="3"/>
       <c r="BZ34" s="3"/>
       <c r="CA34" s="3"/>
-      <c r="CB34" s="67"/>
-      <c r="CC34" s="67"/>
-      <c r="CD34" s="67"/>
-      <c r="CE34" s="67"/>
-      <c r="CF34" s="67"/>
-      <c r="CG34" s="67"/>
-      <c r="CH34" s="67"/>
-      <c r="CI34" s="67"/>
+      <c r="CB34" s="63"/>
+      <c r="CC34" s="63"/>
+      <c r="CD34" s="63"/>
+      <c r="CE34" s="63"/>
+      <c r="CF34" s="63"/>
+      <c r="CG34" s="63"/>
+      <c r="CH34" s="63"/>
+      <c r="CI34" s="63"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B35" s="3"/>
@@ -4209,14 +4201,14 @@
       <c r="BY35" s="3"/>
       <c r="BZ35" s="3"/>
       <c r="CA35" s="3"/>
-      <c r="CB35" s="67"/>
-      <c r="CC35" s="67"/>
-      <c r="CD35" s="67"/>
-      <c r="CE35" s="67"/>
-      <c r="CF35" s="67"/>
-      <c r="CG35" s="67"/>
-      <c r="CH35" s="67"/>
-      <c r="CI35" s="67"/>
+      <c r="CB35" s="63"/>
+      <c r="CC35" s="63"/>
+      <c r="CD35" s="63"/>
+      <c r="CE35" s="63"/>
+      <c r="CF35" s="63"/>
+      <c r="CG35" s="63"/>
+      <c r="CH35" s="63"/>
+      <c r="CI35" s="63"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="2:87">
       <c r="B36" s="3"/>
@@ -4239,14 +4231,14 @@
       <c r="BY36" s="3"/>
       <c r="BZ36" s="3"/>
       <c r="CA36" s="3"/>
-      <c r="CB36" s="67"/>
-      <c r="CC36" s="67"/>
-      <c r="CD36" s="67"/>
-      <c r="CE36" s="67"/>
-      <c r="CF36" s="67"/>
-      <c r="CG36" s="67"/>
-      <c r="CH36" s="67"/>
-      <c r="CI36" s="67"/>
+      <c r="CB36" s="63"/>
+      <c r="CC36" s="63"/>
+      <c r="CD36" s="63"/>
+      <c r="CE36" s="63"/>
+      <c r="CF36" s="63"/>
+      <c r="CG36" s="63"/>
+      <c r="CH36" s="63"/>
+      <c r="CI36" s="63"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="75:87">
       <c r="BW37" s="3"/>
@@ -4254,14 +4246,14 @@
       <c r="BY37" s="3"/>
       <c r="BZ37" s="3"/>
       <c r="CA37" s="3"/>
-      <c r="CB37" s="67"/>
-      <c r="CC37" s="67"/>
-      <c r="CD37" s="67"/>
-      <c r="CE37" s="67"/>
-      <c r="CF37" s="67"/>
-      <c r="CG37" s="67"/>
-      <c r="CH37" s="67"/>
-      <c r="CI37" s="67"/>
+      <c r="CB37" s="63"/>
+      <c r="CC37" s="63"/>
+      <c r="CD37" s="63"/>
+      <c r="CE37" s="63"/>
+      <c r="CF37" s="63"/>
+      <c r="CG37" s="63"/>
+      <c r="CH37" s="63"/>
+      <c r="CI37" s="63"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="75:87">
       <c r="BW38" s="3"/>
@@ -6754,7 +6746,7 @@
       <c r="CI203" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="203">
+  <mergeCells count="73">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -6811,136 +6803,6 @@
     <mergeCell ref="AN18:AP18"/>
     <mergeCell ref="B19:AP19"/>
     <mergeCell ref="AR19:CJ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AJ20:AM20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="BW20:BX20"/>
-    <mergeCell ref="BY20:BZ20"/>
-    <mergeCell ref="CH20:CJ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:AC21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="BW21:BX21"/>
-    <mergeCell ref="BY21:BZ21"/>
-    <mergeCell ref="CH21:CJ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="AJ22:AM22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="BW22:BX22"/>
-    <mergeCell ref="BY22:BZ22"/>
-    <mergeCell ref="CH22:CJ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AC23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="BW23:BX23"/>
-    <mergeCell ref="BY23:BZ23"/>
-    <mergeCell ref="CH23:CJ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="BW24:BX24"/>
-    <mergeCell ref="BY24:BZ24"/>
-    <mergeCell ref="CH24:CJ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:AC25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AJ25:AM25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="BW25:BX25"/>
-    <mergeCell ref="BY25:BZ25"/>
-    <mergeCell ref="CH25:CJ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AI26"/>
-    <mergeCell ref="AJ26:AM26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="BW26:BX26"/>
-    <mergeCell ref="BY26:BZ26"/>
-    <mergeCell ref="CH26:CJ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="X27:AC27"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AJ27:AM27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="BW27:BX27"/>
-    <mergeCell ref="BY27:BZ27"/>
-    <mergeCell ref="CH27:CJ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="X28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AI28"/>
-    <mergeCell ref="AJ28:AM28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="BW28:BX28"/>
-    <mergeCell ref="BY28:BZ28"/>
-    <mergeCell ref="CH28:CJ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="X29:AC29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AJ29:AM29"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="BW29:BX29"/>
-    <mergeCell ref="BY29:BZ29"/>
-    <mergeCell ref="CH29:CJ29"/>
     <mergeCell ref="CA17:CA18"/>
     <mergeCell ref="CB17:CB18"/>
     <mergeCell ref="CC17:CC18"/>

--- a/storage/app/excel/child_application_table.xlsx
+++ b/storage/app/excel/child_application_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>合計</t>
   </si>
@@ -158,6 +158,13 @@
     <t>退園日</t>
   </si>
   <si>
+    <t>規定
+日数</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -218,8 +225,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -270,9 +277,76 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,54 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -347,27 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -376,15 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -393,14 +393,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,8 +413,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,7 +460,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,19 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,31 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,61 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,36 +622,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -678,26 +691,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -789,17 +782,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -844,17 +826,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -873,35 +851,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,18 +890,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,15 +938,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,31 +956,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,101 +989,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,10 +1101,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,152 +1124,176 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,10 +1617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CJ203"/>
+  <dimension ref="A1:CR203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1612,8 +1629,12 @@
     <col min="65" max="73" width="3.12380952380952" style="1" customWidth="1"/>
     <col min="74" max="74" width="3.37142857142857" style="1" customWidth="1"/>
     <col min="75" max="78" width="3.37142857142857" style="3" customWidth="1"/>
-    <col min="79" max="87" width="3.12380952380952" style="3" customWidth="1"/>
-    <col min="88" max="125" width="3.12380952380952" style="1" customWidth="1"/>
+    <col min="79" max="85" width="3.12380952380952" style="3" customWidth="1"/>
+    <col min="86" max="86" width="7.85714285714286" style="3" customWidth="1"/>
+    <col min="87" max="87" width="7.71428571428571" style="3" customWidth="1"/>
+    <col min="88" max="88" width="3.12380952380952" style="1" customWidth="1"/>
+    <col min="89" max="89" width="4.71428571428571" style="1" customWidth="1"/>
+    <col min="90" max="125" width="3.12380952380952" style="1" customWidth="1"/>
     <col min="126" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1634,41 +1655,41 @@
       <c r="CI1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="44:87">
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="51" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="33"/>
+      <c r="BR2" s="33"/>
+      <c r="BS2" s="33"/>
+      <c r="BT2" s="33"/>
+      <c r="BU2" s="33"/>
+      <c r="BV2" s="47"/>
+      <c r="BW2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BX2" s="36"/>
+      <c r="BX2" s="33"/>
       <c r="BY2" s="3"/>
       <c r="BZ2" s="3"/>
       <c r="CA2" s="3"/>
@@ -1681,7 +1702,7 @@
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="2:87">
+    <row r="3" s="1" customFormat="1" spans="2:87">
       <c r="B3" s="5">
         <v>44470</v>
       </c>
@@ -1694,7 +1715,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1704,39 +1725,39 @@
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="46"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51"/>
-      <c r="BX3" s="36"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="33"/>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="33"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="48"/>
+      <c r="BX3" s="33"/>
       <c r="BY3" s="3"/>
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
@@ -1755,13 +1776,13 @@
       </c>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
-      <c r="AM4" s="26" t="s">
+      <c r="AM4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="37" t="s">
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="9"/>
@@ -1795,7 +1816,7 @@
       <c r="BT4" s="9"/>
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
-      <c r="BW4" s="52"/>
+      <c r="BW4" s="49"/>
       <c r="BX4" s="9"/>
       <c r="BY4" s="3"/>
       <c r="BZ4" s="3"/>
@@ -1832,13 +1853,13 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="26" t="s">
+      <c r="AM5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="37" t="s">
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="AR5" s="9"/>
@@ -1872,7 +1893,7 @@
       <c r="BT5" s="9"/>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
-      <c r="BW5" s="52"/>
+      <c r="BW5" s="49"/>
       <c r="BX5" s="9"/>
       <c r="BY5" s="3"/>
       <c r="BZ5" s="3"/>
@@ -1909,13 +1930,13 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
-      <c r="AM6" s="26" t="s">
+      <c r="AM6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="37" t="s">
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="AR6" s="9"/>
@@ -1949,7 +1970,7 @@
       <c r="BT6" s="9"/>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
-      <c r="BW6" s="52"/>
+      <c r="BW6" s="49"/>
       <c r="BX6" s="9"/>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="3"/>
@@ -1974,25 +1995,25 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="3"/>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
-      <c r="AM7" s="26" t="s">
+      <c r="AM7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="37" t="s">
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="AR7" s="9"/>
@@ -2026,7 +2047,7 @@
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
-      <c r="BW7" s="52"/>
+      <c r="BW7" s="49"/>
       <c r="BX7" s="9"/>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="3"/>
@@ -2058,51 +2079,51 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="28" t="s">
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="38" t="s">
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="39"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="39"/>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
-      <c r="BJ8" s="39"/>
-      <c r="BK8" s="39"/>
-      <c r="BL8" s="39"/>
-      <c r="BM8" s="39"/>
-      <c r="BN8" s="39"/>
-      <c r="BO8" s="39"/>
-      <c r="BP8" s="39"/>
-      <c r="BQ8" s="39"/>
-      <c r="BR8" s="39"/>
-      <c r="BS8" s="39"/>
-      <c r="BT8" s="39"/>
-      <c r="BU8" s="39"/>
-      <c r="BV8" s="39"/>
-      <c r="BW8" s="53"/>
-      <c r="BX8" s="39"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="36"/>
+      <c r="BQ8" s="36"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="36"/>
       <c r="BY8" s="3"/>
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
@@ -2126,62 +2147,62 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="23"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="AJ9" s="29" t="s">
+      <c r="AJ9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="31" t="s">
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="40" t="s">
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
-      <c r="BJ9" s="41"/>
-      <c r="BK9" s="41"/>
-      <c r="BL9" s="41"/>
-      <c r="BM9" s="41"/>
-      <c r="BN9" s="41"/>
-      <c r="BO9" s="41"/>
-      <c r="BP9" s="41"/>
-      <c r="BQ9" s="41"/>
-      <c r="BR9" s="41"/>
-      <c r="BS9" s="41"/>
-      <c r="BT9" s="41"/>
-      <c r="BU9" s="41"/>
-      <c r="BV9" s="41"/>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="41"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38"/>
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38"/>
+      <c r="BW9" s="51"/>
+      <c r="BX9" s="38"/>
       <c r="BY9" s="3"/>
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
@@ -2212,16 +2233,16 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="26" t="s">
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="37" t="s">
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AR10" s="9"/>
@@ -2255,7 +2276,7 @@
       <c r="BT10" s="9"/>
       <c r="BU10" s="9"/>
       <c r="BV10" s="9"/>
-      <c r="BW10" s="52"/>
+      <c r="BW10" s="49"/>
       <c r="BX10" s="9"/>
       <c r="BY10" s="3"/>
       <c r="BZ10" s="3"/>
@@ -2285,16 +2306,16 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="26" t="s">
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="37" t="s">
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="34" t="s">
         <v>30</v>
       </c>
       <c r="AR11" s="9"/>
@@ -2328,7 +2349,7 @@
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
       <c r="BV11" s="9"/>
-      <c r="BW11" s="52"/>
+      <c r="BW11" s="49"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="3"/>
       <c r="BZ11" s="3"/>
@@ -2358,16 +2379,16 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="26" t="s">
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="37" t="s">
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="AR12" s="9"/>
@@ -2401,7 +2422,7 @@
       <c r="BT12" s="9"/>
       <c r="BU12" s="9"/>
       <c r="BV12" s="9"/>
-      <c r="BW12" s="52"/>
+      <c r="BW12" s="49"/>
       <c r="BX12" s="9"/>
       <c r="BY12" s="3"/>
       <c r="BZ12" s="3"/>
@@ -2431,16 +2452,16 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="26" t="s">
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="37" t="s">
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="34" t="s">
         <v>34</v>
       </c>
       <c r="AR13" s="9"/>
@@ -2474,7 +2495,7 @@
       <c r="BT13" s="9"/>
       <c r="BU13" s="9"/>
       <c r="BV13" s="9"/>
-      <c r="BW13" s="52"/>
+      <c r="BW13" s="49"/>
       <c r="BX13" s="9"/>
       <c r="BY13" s="3"/>
       <c r="BZ13" s="3"/>
@@ -2504,16 +2525,16 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="26" t="s">
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="37" t="s">
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="34" t="s">
         <v>36</v>
       </c>
       <c r="AR14" s="9"/>
@@ -2547,7 +2568,7 @@
       <c r="BT14" s="9"/>
       <c r="BU14" s="9"/>
       <c r="BV14" s="9"/>
-      <c r="BW14" s="52"/>
+      <c r="BW14" s="49"/>
       <c r="BX14" s="9"/>
       <c r="BY14" s="3"/>
       <c r="BZ14" s="3"/>
@@ -2577,16 +2598,16 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="26" t="s">
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="37" t="s">
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="34" t="s">
         <v>38</v>
       </c>
       <c r="AR15" s="9"/>
@@ -2620,7 +2641,7 @@
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
       <c r="BV15" s="9"/>
-      <c r="BW15" s="52"/>
+      <c r="BW15" s="49"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="3"/>
       <c r="BZ15" s="3"/>
@@ -2664,172 +2685,180 @@
       <c r="CH16" s="3"/>
       <c r="CI16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="44:88">
-      <c r="AR17" s="36">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="44:92">
+      <c r="AR17" s="33">
         <v>1</v>
       </c>
-      <c r="AS17" s="36">
+      <c r="AS17" s="33">
         <v>2</v>
       </c>
-      <c r="AT17" s="36">
+      <c r="AT17" s="33">
         <v>3</v>
       </c>
-      <c r="AU17" s="36">
+      <c r="AU17" s="33">
         <v>4</v>
       </c>
-      <c r="AV17" s="36">
+      <c r="AV17" s="33">
         <v>5</v>
       </c>
-      <c r="AW17" s="36">
+      <c r="AW17" s="33">
         <v>6</v>
       </c>
-      <c r="AX17" s="36">
+      <c r="AX17" s="33">
         <v>7</v>
       </c>
-      <c r="AY17" s="36">
+      <c r="AY17" s="33">
         <v>8</v>
       </c>
-      <c r="AZ17" s="36">
+      <c r="AZ17" s="33">
         <v>9</v>
       </c>
-      <c r="BA17" s="36">
+      <c r="BA17" s="33">
         <v>10</v>
       </c>
-      <c r="BB17" s="36">
+      <c r="BB17" s="33">
         <v>11</v>
       </c>
-      <c r="BC17" s="36">
+      <c r="BC17" s="33">
         <v>12</v>
       </c>
-      <c r="BD17" s="36">
+      <c r="BD17" s="33">
         <v>13</v>
       </c>
-      <c r="BE17" s="36">
+      <c r="BE17" s="33">
         <v>14</v>
       </c>
-      <c r="BF17" s="36">
+      <c r="BF17" s="33">
         <v>15</v>
       </c>
-      <c r="BG17" s="36">
+      <c r="BG17" s="33">
         <v>16</v>
       </c>
-      <c r="BH17" s="36">
+      <c r="BH17" s="33">
         <v>17</v>
       </c>
-      <c r="BI17" s="36">
+      <c r="BI17" s="33">
         <v>18</v>
       </c>
-      <c r="BJ17" s="36">
+      <c r="BJ17" s="33">
         <v>19</v>
       </c>
-      <c r="BK17" s="36">
+      <c r="BK17" s="33">
         <v>20</v>
       </c>
-      <c r="BL17" s="36">
+      <c r="BL17" s="33">
         <v>21</v>
       </c>
-      <c r="BM17" s="36">
+      <c r="BM17" s="33">
         <v>22</v>
       </c>
-      <c r="BN17" s="36">
+      <c r="BN17" s="33">
         <v>23</v>
       </c>
-      <c r="BO17" s="36">
+      <c r="BO17" s="33">
         <v>24</v>
       </c>
-      <c r="BP17" s="36">
+      <c r="BP17" s="33">
         <v>25</v>
       </c>
-      <c r="BQ17" s="36">
+      <c r="BQ17" s="33">
         <v>26</v>
       </c>
-      <c r="BR17" s="36">
+      <c r="BR17" s="33">
         <v>27</v>
       </c>
-      <c r="BS17" s="36">
+      <c r="BS17" s="33">
         <v>28</v>
       </c>
-      <c r="BT17" s="36">
+      <c r="BT17" s="33">
         <v>29</v>
       </c>
-      <c r="BU17" s="36">
+      <c r="BU17" s="33">
         <v>30</v>
       </c>
-      <c r="BV17" s="50">
+      <c r="BV17" s="47">
         <v>31</v>
       </c>
-      <c r="BW17" s="55" t="s">
+      <c r="BW17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="BX17" s="56"/>
-      <c r="BY17" s="57" t="s">
+      <c r="BX17" s="53"/>
+      <c r="BY17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="BZ17" s="56"/>
-      <c r="CA17" s="58" t="s">
+      <c r="BZ17" s="53"/>
+      <c r="CA17" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="CB17" s="58" t="s">
+      <c r="CB17" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="CC17" s="58" t="s">
+      <c r="CC17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="CD17" s="58" t="s">
+      <c r="CD17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="CE17" s="58" t="s">
+      <c r="CE17" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="CF17" s="58" t="s">
+      <c r="CF17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="CG17" s="58" t="s">
+      <c r="CG17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="CH17" s="56" t="s">
+      <c r="CH17" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="CI17" s="56"/>
-      <c r="CJ17" s="56"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:88">
+      <c r="CI17" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ17" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK17" s="63"/>
+      <c r="CL17" s="63"/>
+      <c r="CM17" s="63"/>
+      <c r="CN17" s="63"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:92">
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="12"/>
       <c r="L18" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -2837,1993 +2866,5532 @@
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
       <c r="AM18" s="10"/>
       <c r="AN18" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT18" s="43" t="s">
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="AU18" s="43" t="s">
+      <c r="AS18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="AV18" s="43" t="s">
+      <c r="AT18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="AW18" s="48" t="s">
+      <c r="AU18" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AX18" s="49" t="s">
+      <c r="AV18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="AY18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA18" s="43" t="s">
+      <c r="AW18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="BB18" s="43" t="s">
+      <c r="AZ18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="BC18" s="43" t="s">
+      <c r="BA18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="BD18" s="48" t="s">
+      <c r="BB18" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="BE18" s="49" t="s">
+      <c r="BC18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="BF18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH18" s="43" t="s">
+      <c r="BD18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="BI18" s="43" t="s">
+      <c r="BG18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="BJ18" s="43" t="s">
+      <c r="BH18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="BK18" s="48" t="s">
+      <c r="BI18" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="BL18" s="49" t="s">
+      <c r="BJ18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="BM18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="BO18" s="43" t="s">
+      <c r="BK18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="BP18" s="43" t="s">
+      <c r="BN18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="BQ18" s="43" t="s">
+      <c r="BO18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="BR18" s="48" t="s">
+      <c r="BP18" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="BS18" s="49" t="s">
+      <c r="BQ18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="BT18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV18" s="59" t="s">
+      <c r="BR18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="BW18" s="60"/>
-      <c r="BX18" s="61"/>
-      <c r="BY18" s="61"/>
-      <c r="BZ18" s="61"/>
-      <c r="CA18" s="62"/>
-      <c r="CB18" s="62"/>
-      <c r="CC18" s="62"/>
-      <c r="CD18" s="62"/>
-      <c r="CE18" s="62"/>
-      <c r="CF18" s="62"/>
-      <c r="CG18" s="62"/>
-      <c r="CH18" s="56"/>
-      <c r="CI18" s="56"/>
-      <c r="CJ18" s="56"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:88">
+      <c r="BU18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV18" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW18" s="57"/>
+      <c r="BX18" s="58"/>
+      <c r="BY18" s="58"/>
+      <c r="BZ18" s="58"/>
+      <c r="CA18" s="59"/>
+      <c r="CB18" s="59"/>
+      <c r="CC18" s="59"/>
+      <c r="CD18" s="59"/>
+      <c r="CE18" s="59"/>
+      <c r="CF18" s="59"/>
+      <c r="CG18" s="59"/>
+      <c r="CH18" s="64"/>
+      <c r="CI18" s="64"/>
+      <c r="CJ18" s="65"/>
+      <c r="CK18" s="65"/>
+      <c r="CL18" s="65"/>
+      <c r="CM18" s="65"/>
+      <c r="CN18" s="65"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:95">
       <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="44"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="45"/>
-      <c r="BE19" s="45"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="45"/>
-      <c r="BL19" s="45"/>
-      <c r="BM19" s="45"/>
-      <c r="BN19" s="45"/>
-      <c r="BO19" s="45"/>
-      <c r="BP19" s="45"/>
-      <c r="BQ19" s="45"/>
-      <c r="BR19" s="45"/>
-      <c r="BS19" s="45"/>
-      <c r="BT19" s="45"/>
-      <c r="BU19" s="45"/>
-      <c r="BV19" s="45"/>
-      <c r="BW19" s="45"/>
-      <c r="BX19" s="45"/>
-      <c r="BY19" s="45"/>
-      <c r="BZ19" s="45"/>
-      <c r="CA19" s="45"/>
-      <c r="CB19" s="45"/>
-      <c r="CC19" s="45"/>
-      <c r="CD19" s="45"/>
-      <c r="CE19" s="45"/>
-      <c r="CF19" s="45"/>
-      <c r="CG19" s="45"/>
-      <c r="CH19" s="45"/>
-      <c r="CI19" s="45"/>
-      <c r="CJ19" s="45"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
-      <c r="BK21" s="20"/>
-      <c r="BL21" s="20"/>
-      <c r="BM21" s="20"/>
-      <c r="BN21" s="20"/>
-      <c r="BO21" s="20"/>
-      <c r="BP21" s="20"/>
-      <c r="BQ21" s="20"/>
-      <c r="BR21" s="20"/>
-      <c r="BS21" s="20"/>
-      <c r="BT21" s="20"/>
-      <c r="BU21" s="20"/>
-      <c r="BV21" s="20"/>
-      <c r="BW21" s="20"/>
-      <c r="BX21" s="20"/>
-      <c r="BY21" s="20"/>
-      <c r="BZ21" s="20"/>
-      <c r="CA21" s="20"/>
-      <c r="CB21" s="20"/>
-      <c r="CC21" s="20"/>
-      <c r="CD21" s="20"/>
-      <c r="CE21" s="20"/>
-      <c r="CF21" s="20"/>
-      <c r="CG21" s="20"/>
-      <c r="CH21" s="17"/>
-      <c r="CI21" s="17"/>
-      <c r="CJ21" s="17"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
-      <c r="BK22" s="20"/>
-      <c r="BL22" s="20"/>
-      <c r="BM22" s="20"/>
-      <c r="BN22" s="20"/>
-      <c r="BO22" s="20"/>
-      <c r="BP22" s="20"/>
-      <c r="BQ22" s="20"/>
-      <c r="BR22" s="20"/>
-      <c r="BS22" s="20"/>
-      <c r="BT22" s="20"/>
-      <c r="BU22" s="20"/>
-      <c r="BV22" s="20"/>
-      <c r="BW22" s="20"/>
-      <c r="BX22" s="20"/>
-      <c r="BY22" s="20"/>
-      <c r="BZ22" s="20"/>
-      <c r="CA22" s="20"/>
-      <c r="CB22" s="20"/>
-      <c r="CC22" s="20"/>
-      <c r="CD22" s="20"/>
-      <c r="CE22" s="20"/>
-      <c r="CF22" s="20"/>
-      <c r="CG22" s="20"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="42"/>
+      <c r="BN19" s="42"/>
+      <c r="BO19" s="42"/>
+      <c r="BP19" s="42"/>
+      <c r="BQ19" s="42"/>
+      <c r="BR19" s="42"/>
+      <c r="BS19" s="42"/>
+      <c r="BT19" s="42"/>
+      <c r="BU19" s="42"/>
+      <c r="BV19" s="42"/>
+      <c r="BW19" s="42"/>
+      <c r="BX19" s="42"/>
+      <c r="BY19" s="42"/>
+      <c r="BZ19" s="42"/>
+      <c r="CA19" s="42"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="42"/>
+      <c r="CD19" s="42"/>
+      <c r="CE19" s="42"/>
+      <c r="CF19" s="42"/>
+      <c r="CG19" s="42"/>
+      <c r="CH19" s="42"/>
+      <c r="CI19" s="42"/>
+      <c r="CJ19" s="42"/>
+      <c r="CK19" s="42"/>
+      <c r="CL19" s="42"/>
+      <c r="CM19" s="42"/>
+      <c r="CN19" s="66"/>
+      <c r="CO19" s="67"/>
+      <c r="CP19" s="67"/>
+      <c r="CQ19" s="67"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="60"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="60"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="15"/>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CH20" s="15"/>
+      <c r="CI20" s="60"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="68"/>
+      <c r="CL20" s="68"/>
+      <c r="CM20" s="68"/>
+      <c r="CN20" s="68"/>
+      <c r="CO20" s="68"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="61"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="61"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="15"/>
+      <c r="CI21" s="60"/>
+      <c r="CJ21" s="15"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="18"/>
+      <c r="CM21" s="18"/>
+      <c r="CN21" s="18"/>
+      <c r="CO21" s="18"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:96">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="61"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="61"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
       <c r="CH22" s="17"/>
-      <c r="CI22" s="17"/>
+      <c r="CI22" s="61"/>
       <c r="CJ22" s="17"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="20"/>
-      <c r="AZ23" s="20"/>
-      <c r="BA23" s="20"/>
-      <c r="BB23" s="20"/>
-      <c r="BC23" s="20"/>
-      <c r="BD23" s="20"/>
-      <c r="BE23" s="20"/>
-      <c r="BF23" s="20"/>
-      <c r="BG23" s="20"/>
-      <c r="BH23" s="20"/>
-      <c r="BI23" s="20"/>
-      <c r="BJ23" s="20"/>
-      <c r="BK23" s="20"/>
-      <c r="BL23" s="20"/>
-      <c r="BM23" s="20"/>
-      <c r="BN23" s="20"/>
-      <c r="BO23" s="20"/>
-      <c r="BP23" s="20"/>
-      <c r="BQ23" s="20"/>
-      <c r="BR23" s="20"/>
-      <c r="BS23" s="20"/>
-      <c r="BT23" s="20"/>
-      <c r="BU23" s="20"/>
-      <c r="BV23" s="20"/>
-      <c r="BW23" s="20"/>
-      <c r="BX23" s="20"/>
-      <c r="BY23" s="20"/>
-      <c r="BZ23" s="20"/>
-      <c r="CA23" s="20"/>
-      <c r="CB23" s="20"/>
-      <c r="CC23" s="20"/>
-      <c r="CD23" s="20"/>
-      <c r="CE23" s="20"/>
-      <c r="CF23" s="20"/>
-      <c r="CG23" s="20"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="69"/>
+      <c r="CQ22" s="69"/>
+      <c r="CR22" s="69"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:96">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="61"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="61"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
       <c r="CH23" s="17"/>
-      <c r="CI23" s="17"/>
+      <c r="CI23" s="61"/>
       <c r="CJ23" s="17"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="20"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="20"/>
-      <c r="BX24" s="20"/>
-      <c r="BY24" s="20"/>
-      <c r="BZ24" s="20"/>
-      <c r="CA24" s="20"/>
-      <c r="CB24" s="20"/>
-      <c r="CC24" s="20"/>
-      <c r="CD24" s="20"/>
-      <c r="CE24" s="20"/>
-      <c r="CF24" s="20"/>
-      <c r="CG24" s="20"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="69"/>
+      <c r="CQ23" s="69"/>
+      <c r="CR23" s="69"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:96">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="61"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="61"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
       <c r="CH24" s="17"/>
-      <c r="CI24" s="17"/>
+      <c r="CI24" s="61"/>
       <c r="CJ24" s="17"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
-      <c r="BB25" s="20"/>
-      <c r="BC25" s="20"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="20"/>
-      <c r="BF25" s="20"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="20"/>
-      <c r="BJ25" s="20"/>
-      <c r="BK25" s="20"/>
-      <c r="BL25" s="20"/>
-      <c r="BM25" s="20"/>
-      <c r="BN25" s="20"/>
-      <c r="BO25" s="20"/>
-      <c r="BP25" s="20"/>
-      <c r="BQ25" s="20"/>
-      <c r="BR25" s="20"/>
-      <c r="BS25" s="20"/>
-      <c r="BT25" s="20"/>
-      <c r="BU25" s="20"/>
-      <c r="BV25" s="20"/>
-      <c r="BW25" s="20"/>
-      <c r="BX25" s="20"/>
-      <c r="BY25" s="20"/>
-      <c r="BZ25" s="20"/>
-      <c r="CA25" s="20"/>
-      <c r="CB25" s="20"/>
-      <c r="CC25" s="20"/>
-      <c r="CD25" s="20"/>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="20"/>
-      <c r="CH25" s="17"/>
-      <c r="CI25" s="17"/>
-      <c r="CJ25" s="17"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="20"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="20"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="20"/>
-      <c r="BK26" s="20"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
-      <c r="BN26" s="20"/>
-      <c r="BO26" s="20"/>
-      <c r="BP26" s="20"/>
-      <c r="BQ26" s="20"/>
-      <c r="BR26" s="20"/>
-      <c r="BS26" s="20"/>
-      <c r="BT26" s="20"/>
-      <c r="BU26" s="20"/>
-      <c r="BV26" s="20"/>
-      <c r="BW26" s="20"/>
-      <c r="BX26" s="20"/>
-      <c r="BY26" s="20"/>
-      <c r="BZ26" s="20"/>
-      <c r="CA26" s="20"/>
-      <c r="CB26" s="20"/>
-      <c r="CC26" s="20"/>
-      <c r="CD26" s="20"/>
-      <c r="CE26" s="20"/>
-      <c r="CF26" s="20"/>
-      <c r="CG26" s="20"/>
-      <c r="CH26" s="17"/>
-      <c r="CI26" s="17"/>
-      <c r="CJ26" s="17"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="20"/>
-      <c r="AX27" s="20"/>
-      <c r="AY27" s="20"/>
-      <c r="AZ27" s="20"/>
-      <c r="BA27" s="20"/>
-      <c r="BB27" s="20"/>
-      <c r="BC27" s="20"/>
-      <c r="BD27" s="20"/>
-      <c r="BE27" s="20"/>
-      <c r="BF27" s="20"/>
-      <c r="BG27" s="20"/>
-      <c r="BH27" s="20"/>
-      <c r="BI27" s="20"/>
-      <c r="BJ27" s="20"/>
-      <c r="BK27" s="20"/>
-      <c r="BL27" s="20"/>
-      <c r="BM27" s="20"/>
-      <c r="BN27" s="20"/>
-      <c r="BO27" s="20"/>
-      <c r="BP27" s="20"/>
-      <c r="BQ27" s="20"/>
-      <c r="BR27" s="20"/>
-      <c r="BS27" s="20"/>
-      <c r="BT27" s="20"/>
-      <c r="BU27" s="20"/>
-      <c r="BV27" s="20"/>
-      <c r="BW27" s="20"/>
-      <c r="BX27" s="20"/>
-      <c r="BY27" s="20"/>
-      <c r="BZ27" s="20"/>
-      <c r="CA27" s="20"/>
-      <c r="CB27" s="20"/>
-      <c r="CC27" s="20"/>
-      <c r="CD27" s="20"/>
-      <c r="CE27" s="20"/>
-      <c r="CF27" s="20"/>
-      <c r="CG27" s="20"/>
-      <c r="CH27" s="17"/>
-      <c r="CI27" s="17"/>
-      <c r="CJ27" s="17"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="20"/>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="20"/>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="20"/>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="20"/>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="20"/>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="17"/>
-      <c r="CI28" s="17"/>
-      <c r="CJ28" s="17"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:88">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="20"/>
-      <c r="AY29" s="20"/>
-      <c r="AZ29" s="20"/>
-      <c r="BA29" s="20"/>
-      <c r="BB29" s="20"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="20"/>
-      <c r="BE29" s="20"/>
-      <c r="BF29" s="20"/>
-      <c r="BG29" s="20"/>
-      <c r="BH29" s="20"/>
-      <c r="BI29" s="20"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="20"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="20"/>
-      <c r="BN29" s="20"/>
-      <c r="BO29" s="20"/>
-      <c r="BP29" s="20"/>
-      <c r="BQ29" s="20"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
-      <c r="BT29" s="20"/>
-      <c r="BU29" s="20"/>
-      <c r="BV29" s="20"/>
-      <c r="BW29" s="20"/>
-      <c r="BX29" s="20"/>
-      <c r="BY29" s="20"/>
-      <c r="BZ29" s="20"/>
-      <c r="CA29" s="20"/>
-      <c r="CB29" s="20"/>
-      <c r="CC29" s="20"/>
-      <c r="CD29" s="20"/>
-      <c r="CE29" s="20"/>
-      <c r="CF29" s="20"/>
-      <c r="CG29" s="20"/>
-      <c r="CH29" s="17"/>
-      <c r="CI29" s="17"/>
-      <c r="CJ29" s="17"/>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="69"/>
+      <c r="CQ24" s="69"/>
+      <c r="CR24" s="69"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:95">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="17"/>
+      <c r="BL25" s="17"/>
+      <c r="BM25" s="17"/>
+      <c r="BN25" s="17"/>
+      <c r="BO25" s="17"/>
+      <c r="BP25" s="17"/>
+      <c r="BQ25" s="17"/>
+      <c r="BR25" s="17"/>
+      <c r="BS25" s="17"/>
+      <c r="BT25" s="17"/>
+      <c r="BU25" s="17"/>
+      <c r="BV25" s="17"/>
+      <c r="BW25" s="61"/>
+      <c r="BX25" s="17"/>
+      <c r="BY25" s="61"/>
+      <c r="BZ25" s="17"/>
+      <c r="CA25" s="17"/>
+      <c r="CB25" s="17"/>
+      <c r="CC25" s="17"/>
+      <c r="CD25" s="17"/>
+      <c r="CE25" s="17"/>
+      <c r="CF25" s="17"/>
+      <c r="CG25" s="17"/>
+      <c r="CH25" s="18"/>
+      <c r="CI25" s="3"/>
+      <c r="CJ25" s="18"/>
+      <c r="CK25" s="18"/>
+      <c r="CL25" s="18"/>
+      <c r="CM25" s="18"/>
+      <c r="CN25" s="18"/>
+      <c r="CO25" s="70"/>
+      <c r="CP25" s="71"/>
+      <c r="CQ25" s="71"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="17"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="17"/>
+      <c r="BN26" s="17"/>
+      <c r="BO26" s="17"/>
+      <c r="BP26" s="17"/>
+      <c r="BQ26" s="17"/>
+      <c r="BR26" s="17"/>
+      <c r="BS26" s="17"/>
+      <c r="BT26" s="17"/>
+      <c r="BU26" s="17"/>
+      <c r="BV26" s="17"/>
+      <c r="BW26" s="61"/>
+      <c r="BX26" s="17"/>
+      <c r="BY26" s="61"/>
+      <c r="BZ26" s="17"/>
+      <c r="CA26" s="17"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="17"/>
+      <c r="CD26" s="17"/>
+      <c r="CE26" s="17"/>
+      <c r="CF26" s="17"/>
+      <c r="CG26" s="17"/>
+      <c r="CH26" s="15"/>
+      <c r="CI26" s="60"/>
+      <c r="CJ26" s="15"/>
+      <c r="CK26" s="18"/>
+      <c r="CL26" s="18"/>
+      <c r="CM26" s="18"/>
+      <c r="CN26" s="18"/>
+      <c r="CO26" s="18"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="17"/>
+      <c r="BD27" s="17"/>
+      <c r="BE27" s="17"/>
+      <c r="BF27" s="17"/>
+      <c r="BG27" s="17"/>
+      <c r="BH27" s="17"/>
+      <c r="BI27" s="17"/>
+      <c r="BJ27" s="17"/>
+      <c r="BK27" s="17"/>
+      <c r="BL27" s="17"/>
+      <c r="BM27" s="17"/>
+      <c r="BN27" s="17"/>
+      <c r="BO27" s="17"/>
+      <c r="BP27" s="17"/>
+      <c r="BQ27" s="17"/>
+      <c r="BR27" s="17"/>
+      <c r="BS27" s="17"/>
+      <c r="BT27" s="17"/>
+      <c r="BU27" s="17"/>
+      <c r="BV27" s="17"/>
+      <c r="BW27" s="61"/>
+      <c r="BX27" s="17"/>
+      <c r="BY27" s="61"/>
+      <c r="BZ27" s="17"/>
+      <c r="CA27" s="17"/>
+      <c r="CB27" s="17"/>
+      <c r="CC27" s="17"/>
+      <c r="CD27" s="17"/>
+      <c r="CE27" s="17"/>
+      <c r="CF27" s="17"/>
+      <c r="CG27" s="17"/>
+      <c r="CH27" s="15"/>
+      <c r="CI27" s="60"/>
+      <c r="CJ27" s="15"/>
+      <c r="CK27" s="18"/>
+      <c r="CL27" s="18"/>
+      <c r="CM27" s="18"/>
+      <c r="CN27" s="18"/>
+      <c r="CO27" s="18"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="17"/>
+      <c r="BK28" s="17"/>
+      <c r="BL28" s="17"/>
+      <c r="BM28" s="17"/>
+      <c r="BN28" s="17"/>
+      <c r="BO28" s="17"/>
+      <c r="BP28" s="17"/>
+      <c r="BQ28" s="17"/>
+      <c r="BR28" s="17"/>
+      <c r="BS28" s="17"/>
+      <c r="BT28" s="17"/>
+      <c r="BU28" s="17"/>
+      <c r="BV28" s="17"/>
+      <c r="BW28" s="61"/>
+      <c r="BX28" s="17"/>
+      <c r="BY28" s="61"/>
+      <c r="BZ28" s="17"/>
+      <c r="CA28" s="17"/>
+      <c r="CB28" s="17"/>
+      <c r="CC28" s="17"/>
+      <c r="CD28" s="17"/>
+      <c r="CE28" s="17"/>
+      <c r="CF28" s="17"/>
+      <c r="CG28" s="17"/>
+      <c r="CH28" s="15"/>
+      <c r="CI28" s="60"/>
+      <c r="CJ28" s="15"/>
+      <c r="CK28" s="18"/>
+      <c r="CL28" s="18"/>
+      <c r="CM28" s="18"/>
+      <c r="CN28" s="18"/>
+      <c r="CO28" s="18"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="17"/>
+      <c r="AV29" s="17"/>
+      <c r="AW29" s="17"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="17"/>
+      <c r="BD29" s="17"/>
+      <c r="BE29" s="17"/>
+      <c r="BF29" s="17"/>
+      <c r="BG29" s="17"/>
+      <c r="BH29" s="17"/>
+      <c r="BI29" s="17"/>
+      <c r="BJ29" s="17"/>
+      <c r="BK29" s="17"/>
+      <c r="BL29" s="17"/>
+      <c r="BM29" s="17"/>
+      <c r="BN29" s="17"/>
+      <c r="BO29" s="17"/>
+      <c r="BP29" s="17"/>
+      <c r="BQ29" s="17"/>
+      <c r="BR29" s="17"/>
+      <c r="BS29" s="17"/>
+      <c r="BT29" s="17"/>
+      <c r="BU29" s="17"/>
+      <c r="BV29" s="17"/>
+      <c r="BW29" s="61"/>
+      <c r="BX29" s="17"/>
+      <c r="BY29" s="61"/>
+      <c r="BZ29" s="17"/>
+      <c r="CA29" s="17"/>
+      <c r="CB29" s="17"/>
+      <c r="CC29" s="17"/>
+      <c r="CD29" s="17"/>
+      <c r="CE29" s="17"/>
+      <c r="CF29" s="17"/>
+      <c r="CG29" s="17"/>
+      <c r="CH29" s="15"/>
+      <c r="CI29" s="60"/>
+      <c r="CJ29" s="15"/>
+      <c r="CK29" s="18"/>
+      <c r="CL29" s="18"/>
+      <c r="CM29" s="18"/>
+      <c r="CN29" s="18"/>
+      <c r="CO29" s="18"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="18"/>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="18"/>
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="18"/>
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="18"/>
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="18"/>
+      <c r="BQ30" s="18"/>
+      <c r="BR30" s="18"/>
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="18"/>
       <c r="BW30" s="3"/>
-      <c r="BX30" s="3"/>
+      <c r="BX30" s="18"/>
       <c r="BY30" s="3"/>
-      <c r="BZ30" s="3"/>
-      <c r="CA30" s="3"/>
-      <c r="CB30" s="63"/>
-      <c r="CC30" s="63"/>
-      <c r="CD30" s="63"/>
-      <c r="CE30" s="63"/>
-      <c r="CF30" s="63"/>
-      <c r="CG30" s="63"/>
-      <c r="CH30" s="63"/>
-      <c r="CI30" s="63"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="BZ30" s="18"/>
+      <c r="CA30" s="18"/>
+      <c r="CB30" s="18"/>
+      <c r="CC30" s="18"/>
+      <c r="CD30" s="18"/>
+      <c r="CE30" s="18"/>
+      <c r="CF30" s="18"/>
+      <c r="CG30" s="18"/>
+      <c r="CH30" s="18"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="18"/>
+      <c r="CK30" s="18"/>
+      <c r="CL30" s="18"/>
+      <c r="CM30" s="18"/>
+      <c r="CN30" s="18"/>
+      <c r="CO30" s="18"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="18"/>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="18"/>
+      <c r="AV31" s="18"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="18"/>
+      <c r="BA31" s="18"/>
+      <c r="BB31" s="18"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
+      <c r="BE31" s="18"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="18"/>
+      <c r="BI31" s="18"/>
+      <c r="BJ31" s="18"/>
+      <c r="BK31" s="18"/>
+      <c r="BL31" s="18"/>
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="18"/>
+      <c r="BQ31" s="18"/>
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="18"/>
+      <c r="BU31" s="18"/>
+      <c r="BV31" s="18"/>
       <c r="BW31" s="3"/>
-      <c r="BX31" s="3"/>
+      <c r="BX31" s="18"/>
       <c r="BY31" s="3"/>
-      <c r="BZ31" s="3"/>
-      <c r="CA31" s="3"/>
-      <c r="CB31" s="63"/>
-      <c r="CC31" s="63"/>
-      <c r="CD31" s="63"/>
-      <c r="CE31" s="63"/>
-      <c r="CF31" s="63"/>
-      <c r="CG31" s="63"/>
-      <c r="CH31" s="63"/>
-      <c r="CI31" s="63"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
+      <c r="BZ31" s="18"/>
+      <c r="CA31" s="18"/>
+      <c r="CB31" s="18"/>
+      <c r="CC31" s="18"/>
+      <c r="CD31" s="18"/>
+      <c r="CE31" s="18"/>
+      <c r="CF31" s="18"/>
+      <c r="CG31" s="18"/>
+      <c r="CH31" s="18"/>
+      <c r="CI31" s="3"/>
+      <c r="CJ31" s="18"/>
+      <c r="CK31" s="18"/>
+      <c r="CL31" s="18"/>
+      <c r="CM31" s="18"/>
+      <c r="CN31" s="18"/>
+      <c r="CO31" s="18"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="18"/>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="18"/>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="18"/>
+      <c r="BB32" s="18"/>
+      <c r="BC32" s="18"/>
+      <c r="BD32" s="18"/>
+      <c r="BE32" s="18"/>
+      <c r="BF32" s="18"/>
+      <c r="BG32" s="18"/>
+      <c r="BH32" s="18"/>
+      <c r="BI32" s="18"/>
+      <c r="BJ32" s="18"/>
+      <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18"/>
+      <c r="BP32" s="18"/>
+      <c r="BQ32" s="18"/>
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18"/>
+      <c r="BU32" s="18"/>
+      <c r="BV32" s="18"/>
       <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
+      <c r="BX32" s="18"/>
       <c r="BY32" s="3"/>
-      <c r="BZ32" s="3"/>
-      <c r="CA32" s="3"/>
-      <c r="CB32" s="63"/>
-      <c r="CC32" s="63"/>
-      <c r="CD32" s="63"/>
-      <c r="CE32" s="63"/>
-      <c r="CF32" s="63"/>
-      <c r="CG32" s="63"/>
-      <c r="CH32" s="63"/>
-      <c r="CI32" s="63"/>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="BZ32" s="18"/>
+      <c r="CA32" s="18"/>
+      <c r="CB32" s="18"/>
+      <c r="CC32" s="18"/>
+      <c r="CD32" s="18"/>
+      <c r="CE32" s="18"/>
+      <c r="CF32" s="18"/>
+      <c r="CG32" s="18"/>
+      <c r="CH32" s="18"/>
+      <c r="CI32" s="3"/>
+      <c r="CJ32" s="18"/>
+      <c r="CK32" s="18"/>
+      <c r="CL32" s="18"/>
+      <c r="CM32" s="18"/>
+      <c r="CN32" s="18"/>
+      <c r="CO32" s="18"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="18"/>
+      <c r="AS33" s="18"/>
+      <c r="AT33" s="18"/>
+      <c r="AU33" s="18"/>
+      <c r="AV33" s="18"/>
+      <c r="AW33" s="18"/>
+      <c r="AX33" s="18"/>
+      <c r="AY33" s="18"/>
+      <c r="AZ33" s="18"/>
+      <c r="BA33" s="18"/>
+      <c r="BB33" s="18"/>
+      <c r="BC33" s="18"/>
+      <c r="BD33" s="18"/>
+      <c r="BE33" s="18"/>
+      <c r="BF33" s="18"/>
+      <c r="BG33" s="18"/>
+      <c r="BH33" s="18"/>
+      <c r="BI33" s="18"/>
+      <c r="BJ33" s="18"/>
+      <c r="BK33" s="18"/>
+      <c r="BL33" s="18"/>
+      <c r="BM33" s="18"/>
+      <c r="BN33" s="18"/>
+      <c r="BO33" s="18"/>
+      <c r="BP33" s="18"/>
+      <c r="BQ33" s="18"/>
+      <c r="BR33" s="18"/>
+      <c r="BS33" s="18"/>
+      <c r="BT33" s="18"/>
+      <c r="BU33" s="18"/>
+      <c r="BV33" s="18"/>
       <c r="BW33" s="3"/>
-      <c r="BX33" s="3"/>
+      <c r="BX33" s="18"/>
       <c r="BY33" s="3"/>
-      <c r="BZ33" s="3"/>
-      <c r="CA33" s="3"/>
-      <c r="CB33" s="63"/>
-      <c r="CC33" s="63"/>
-      <c r="CD33" s="63"/>
-      <c r="CE33" s="63"/>
-      <c r="CF33" s="63"/>
-      <c r="CG33" s="63"/>
-      <c r="CH33" s="63"/>
-      <c r="CI33" s="63"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
+      <c r="BZ33" s="18"/>
+      <c r="CA33" s="18"/>
+      <c r="CB33" s="18"/>
+      <c r="CC33" s="18"/>
+      <c r="CD33" s="18"/>
+      <c r="CE33" s="18"/>
+      <c r="CF33" s="18"/>
+      <c r="CG33" s="18"/>
+      <c r="CH33" s="18"/>
+      <c r="CI33" s="3"/>
+      <c r="CJ33" s="18"/>
+      <c r="CK33" s="18"/>
+      <c r="CL33" s="18"/>
+      <c r="CM33" s="18"/>
+      <c r="CN33" s="18"/>
+      <c r="CO33" s="18"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="18"/>
+      <c r="AT34" s="18"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="18"/>
+      <c r="BB34" s="18"/>
+      <c r="BC34" s="18"/>
+      <c r="BD34" s="18"/>
+      <c r="BE34" s="18"/>
+      <c r="BF34" s="18"/>
+      <c r="BG34" s="18"/>
+      <c r="BH34" s="18"/>
+      <c r="BI34" s="18"/>
+      <c r="BJ34" s="18"/>
+      <c r="BK34" s="18"/>
+      <c r="BL34" s="18"/>
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="18"/>
+      <c r="BO34" s="18"/>
+      <c r="BP34" s="18"/>
+      <c r="BQ34" s="18"/>
+      <c r="BR34" s="18"/>
+      <c r="BS34" s="18"/>
+      <c r="BT34" s="18"/>
+      <c r="BU34" s="18"/>
+      <c r="BV34" s="18"/>
       <c r="BW34" s="3"/>
-      <c r="BX34" s="3"/>
+      <c r="BX34" s="18"/>
       <c r="BY34" s="3"/>
-      <c r="BZ34" s="3"/>
-      <c r="CA34" s="3"/>
-      <c r="CB34" s="63"/>
-      <c r="CC34" s="63"/>
-      <c r="CD34" s="63"/>
-      <c r="CE34" s="63"/>
-      <c r="CF34" s="63"/>
-      <c r="CG34" s="63"/>
-      <c r="CH34" s="63"/>
-      <c r="CI34" s="63"/>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
+      <c r="BZ34" s="18"/>
+      <c r="CA34" s="18"/>
+      <c r="CB34" s="18"/>
+      <c r="CC34" s="18"/>
+      <c r="CD34" s="18"/>
+      <c r="CE34" s="18"/>
+      <c r="CF34" s="18"/>
+      <c r="CG34" s="18"/>
+      <c r="CH34" s="18"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="18"/>
+      <c r="CK34" s="18"/>
+      <c r="CL34" s="18"/>
+      <c r="CM34" s="18"/>
+      <c r="CN34" s="18"/>
+      <c r="CO34" s="18"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="18"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="18"/>
+      <c r="BH35" s="18"/>
+      <c r="BI35" s="18"/>
+      <c r="BJ35" s="18"/>
+      <c r="BK35" s="18"/>
+      <c r="BL35" s="18"/>
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18"/>
+      <c r="BP35" s="18"/>
+      <c r="BQ35" s="18"/>
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18"/>
+      <c r="BU35" s="18"/>
+      <c r="BV35" s="18"/>
       <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
+      <c r="BX35" s="18"/>
       <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="63"/>
-      <c r="CC35" s="63"/>
-      <c r="CD35" s="63"/>
-      <c r="CE35" s="63"/>
-      <c r="CF35" s="63"/>
-      <c r="CG35" s="63"/>
-      <c r="CH35" s="63"/>
-      <c r="CI35" s="63"/>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="2:87">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="BZ35" s="18"/>
+      <c r="CA35" s="18"/>
+      <c r="CB35" s="18"/>
+      <c r="CC35" s="18"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="18"/>
+      <c r="CF35" s="18"/>
+      <c r="CG35" s="18"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="18"/>
+      <c r="CK35" s="18"/>
+      <c r="CL35" s="18"/>
+      <c r="CM35" s="18"/>
+      <c r="CN35" s="18"/>
+      <c r="CO35" s="18"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="18"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="18"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="18"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="18"/>
+      <c r="BK36" s="18"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="18"/>
+      <c r="BN36" s="18"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="18"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BU36" s="18"/>
+      <c r="BV36" s="18"/>
       <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
+      <c r="BX36" s="18"/>
       <c r="BY36" s="3"/>
-      <c r="BZ36" s="3"/>
-      <c r="CA36" s="3"/>
-      <c r="CB36" s="63"/>
-      <c r="CC36" s="63"/>
-      <c r="CD36" s="63"/>
-      <c r="CE36" s="63"/>
-      <c r="CF36" s="63"/>
-      <c r="CG36" s="63"/>
-      <c r="CH36" s="63"/>
-      <c r="CI36" s="63"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="BZ36" s="18"/>
+      <c r="CA36" s="18"/>
+      <c r="CB36" s="18"/>
+      <c r="CC36" s="18"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="18"/>
+      <c r="CF36" s="18"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="18"/>
+      <c r="CI36" s="3"/>
+      <c r="CJ36" s="18"/>
+      <c r="CK36" s="18"/>
+      <c r="CL36" s="18"/>
+      <c r="CM36" s="18"/>
+      <c r="CN36" s="18"/>
+      <c r="CO36" s="18"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="18"/>
+      <c r="BA37" s="18"/>
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="18"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="18"/>
+      <c r="BF37" s="18"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="18"/>
+      <c r="BI37" s="18"/>
+      <c r="BJ37" s="18"/>
+      <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="18"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="18"/>
+      <c r="BQ37" s="18"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="18"/>
+      <c r="BU37" s="18"/>
+      <c r="BV37" s="18"/>
       <c r="BW37" s="3"/>
-      <c r="BX37" s="3"/>
+      <c r="BX37" s="18"/>
       <c r="BY37" s="3"/>
-      <c r="BZ37" s="3"/>
-      <c r="CA37" s="3"/>
-      <c r="CB37" s="63"/>
-      <c r="CC37" s="63"/>
-      <c r="CD37" s="63"/>
-      <c r="CE37" s="63"/>
-      <c r="CF37" s="63"/>
-      <c r="CG37" s="63"/>
-      <c r="CH37" s="63"/>
-      <c r="CI37" s="63"/>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="BZ37" s="18"/>
+      <c r="CA37" s="18"/>
+      <c r="CB37" s="18"/>
+      <c r="CC37" s="18"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="18"/>
+      <c r="CF37" s="18"/>
+      <c r="CG37" s="18"/>
+      <c r="CH37" s="18"/>
+      <c r="CI37" s="3"/>
+      <c r="CJ37" s="18"/>
+      <c r="CK37" s="18"/>
+      <c r="CL37" s="18"/>
+      <c r="CM37" s="18"/>
+      <c r="CN37" s="18"/>
+      <c r="CO37" s="18"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="18"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="18"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="18"/>
+      <c r="BH38" s="18"/>
+      <c r="BI38" s="18"/>
+      <c r="BJ38" s="18"/>
+      <c r="BK38" s="18"/>
+      <c r="BL38" s="18"/>
+      <c r="BM38" s="18"/>
+      <c r="BN38" s="18"/>
+      <c r="BO38" s="18"/>
+      <c r="BP38" s="18"/>
+      <c r="BQ38" s="18"/>
+      <c r="BR38" s="18"/>
+      <c r="BS38" s="18"/>
+      <c r="BT38" s="18"/>
+      <c r="BU38" s="18"/>
+      <c r="BV38" s="18"/>
       <c r="BW38" s="3"/>
-      <c r="BX38" s="3"/>
+      <c r="BX38" s="18"/>
       <c r="BY38" s="3"/>
-      <c r="BZ38" s="3"/>
-      <c r="CA38" s="3"/>
-      <c r="CB38" s="3"/>
-      <c r="CC38" s="3"/>
-      <c r="CD38" s="3"/>
-      <c r="CE38" s="3"/>
-      <c r="CF38" s="3"/>
-      <c r="CG38" s="3"/>
-      <c r="CH38" s="3"/>
+      <c r="BZ38" s="18"/>
+      <c r="CA38" s="18"/>
+      <c r="CB38" s="18"/>
+      <c r="CC38" s="18"/>
+      <c r="CD38" s="18"/>
+      <c r="CE38" s="18"/>
+      <c r="CF38" s="18"/>
+      <c r="CG38" s="18"/>
+      <c r="CH38" s="18"/>
       <c r="CI38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ38" s="18"/>
+      <c r="CK38" s="18"/>
+      <c r="CL38" s="18"/>
+      <c r="CM38" s="18"/>
+      <c r="CN38" s="18"/>
+      <c r="CO38" s="18"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="18"/>
+      <c r="BB39" s="18"/>
+      <c r="BC39" s="18"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="18"/>
+      <c r="BI39" s="18"/>
+      <c r="BJ39" s="18"/>
+      <c r="BK39" s="18"/>
+      <c r="BL39" s="18"/>
+      <c r="BM39" s="18"/>
+      <c r="BN39" s="18"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="18"/>
+      <c r="BQ39" s="18"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="18"/>
       <c r="BW39" s="3"/>
-      <c r="BX39" s="3"/>
+      <c r="BX39" s="18"/>
       <c r="BY39" s="3"/>
-      <c r="BZ39" s="3"/>
-      <c r="CA39" s="3"/>
-      <c r="CB39" s="3"/>
-      <c r="CC39" s="3"/>
-      <c r="CD39" s="3"/>
-      <c r="CE39" s="3"/>
-      <c r="CF39" s="3"/>
-      <c r="CG39" s="3"/>
-      <c r="CH39" s="3"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="18"/>
+      <c r="CB39" s="18"/>
+      <c r="CC39" s="18"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="18"/>
+      <c r="CF39" s="18"/>
+      <c r="CG39" s="18"/>
+      <c r="CH39" s="18"/>
       <c r="CI39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ39" s="18"/>
+      <c r="CK39" s="18"/>
+      <c r="CL39" s="18"/>
+      <c r="CM39" s="18"/>
+      <c r="CN39" s="18"/>
+      <c r="CO39" s="18"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="18"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="18"/>
+      <c r="AS40" s="18"/>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="18"/>
+      <c r="AV40" s="18"/>
+      <c r="AW40" s="18"/>
+      <c r="AX40" s="18"/>
+      <c r="AY40" s="18"/>
+      <c r="AZ40" s="18"/>
+      <c r="BA40" s="18"/>
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="18"/>
+      <c r="BD40" s="18"/>
+      <c r="BE40" s="18"/>
+      <c r="BF40" s="18"/>
+      <c r="BG40" s="18"/>
+      <c r="BH40" s="18"/>
+      <c r="BI40" s="18"/>
+      <c r="BJ40" s="18"/>
+      <c r="BK40" s="18"/>
+      <c r="BL40" s="18"/>
+      <c r="BM40" s="18"/>
+      <c r="BN40" s="18"/>
+      <c r="BO40" s="18"/>
+      <c r="BP40" s="18"/>
+      <c r="BQ40" s="18"/>
+      <c r="BR40" s="18"/>
+      <c r="BS40" s="18"/>
+      <c r="BT40" s="18"/>
+      <c r="BU40" s="18"/>
+      <c r="BV40" s="18"/>
       <c r="BW40" s="3"/>
-      <c r="BX40" s="3"/>
+      <c r="BX40" s="18"/>
       <c r="BY40" s="3"/>
-      <c r="BZ40" s="3"/>
-      <c r="CA40" s="3"/>
-      <c r="CB40" s="3"/>
-      <c r="CC40" s="3"/>
-      <c r="CD40" s="3"/>
-      <c r="CE40" s="3"/>
-      <c r="CF40" s="3"/>
-      <c r="CG40" s="3"/>
-      <c r="CH40" s="3"/>
+      <c r="BZ40" s="18"/>
+      <c r="CA40" s="18"/>
+      <c r="CB40" s="18"/>
+      <c r="CC40" s="18"/>
+      <c r="CD40" s="18"/>
+      <c r="CE40" s="18"/>
+      <c r="CF40" s="18"/>
+      <c r="CG40" s="18"/>
+      <c r="CH40" s="18"/>
       <c r="CI40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ40" s="18"/>
+      <c r="CK40" s="18"/>
+      <c r="CL40" s="18"/>
+      <c r="CM40" s="18"/>
+      <c r="CN40" s="18"/>
+      <c r="CO40" s="18"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="18"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="18"/>
+      <c r="AS41" s="18"/>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="18"/>
+      <c r="AV41" s="18"/>
+      <c r="AW41" s="18"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18"/>
+      <c r="AZ41" s="18"/>
+      <c r="BA41" s="18"/>
+      <c r="BB41" s="18"/>
+      <c r="BC41" s="18"/>
+      <c r="BD41" s="18"/>
+      <c r="BE41" s="18"/>
+      <c r="BF41" s="18"/>
+      <c r="BG41" s="18"/>
+      <c r="BH41" s="18"/>
+      <c r="BI41" s="18"/>
+      <c r="BJ41" s="18"/>
+      <c r="BK41" s="18"/>
+      <c r="BL41" s="18"/>
+      <c r="BM41" s="18"/>
+      <c r="BN41" s="18"/>
+      <c r="BO41" s="18"/>
+      <c r="BP41" s="18"/>
+      <c r="BQ41" s="18"/>
+      <c r="BR41" s="18"/>
+      <c r="BS41" s="18"/>
+      <c r="BT41" s="18"/>
+      <c r="BU41" s="18"/>
+      <c r="BV41" s="18"/>
       <c r="BW41" s="3"/>
-      <c r="BX41" s="3"/>
+      <c r="BX41" s="18"/>
       <c r="BY41" s="3"/>
-      <c r="BZ41" s="3"/>
-      <c r="CA41" s="3"/>
-      <c r="CB41" s="3"/>
-      <c r="CC41" s="3"/>
-      <c r="CD41" s="3"/>
-      <c r="CE41" s="3"/>
-      <c r="CF41" s="3"/>
-      <c r="CG41" s="3"/>
-      <c r="CH41" s="3"/>
+      <c r="BZ41" s="18"/>
+      <c r="CA41" s="18"/>
+      <c r="CB41" s="18"/>
+      <c r="CC41" s="18"/>
+      <c r="CD41" s="18"/>
+      <c r="CE41" s="18"/>
+      <c r="CF41" s="18"/>
+      <c r="CG41" s="18"/>
+      <c r="CH41" s="18"/>
       <c r="CI41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ41" s="18"/>
+      <c r="CK41" s="18"/>
+      <c r="CL41" s="18"/>
+      <c r="CM41" s="18"/>
+      <c r="CN41" s="18"/>
+      <c r="CO41" s="18"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:93">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
+      <c r="AS42" s="18"/>
+      <c r="AT42" s="18"/>
+      <c r="AU42" s="18"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
+      <c r="AZ42" s="18"/>
+      <c r="BA42" s="18"/>
+      <c r="BB42" s="18"/>
+      <c r="BC42" s="18"/>
+      <c r="BD42" s="18"/>
+      <c r="BE42" s="18"/>
+      <c r="BF42" s="18"/>
+      <c r="BG42" s="18"/>
+      <c r="BH42" s="18"/>
+      <c r="BI42" s="18"/>
+      <c r="BJ42" s="18"/>
+      <c r="BK42" s="18"/>
+      <c r="BL42" s="18"/>
+      <c r="BM42" s="18"/>
+      <c r="BN42" s="18"/>
+      <c r="BO42" s="18"/>
+      <c r="BP42" s="18"/>
+      <c r="BQ42" s="18"/>
+      <c r="BR42" s="18"/>
+      <c r="BS42" s="18"/>
+      <c r="BT42" s="18"/>
+      <c r="BU42" s="18"/>
+      <c r="BV42" s="18"/>
       <c r="BW42" s="3"/>
-      <c r="BX42" s="3"/>
+      <c r="BX42" s="18"/>
       <c r="BY42" s="3"/>
-      <c r="BZ42" s="3"/>
-      <c r="CA42" s="3"/>
-      <c r="CB42" s="3"/>
-      <c r="CC42" s="3"/>
-      <c r="CD42" s="3"/>
-      <c r="CE42" s="3"/>
-      <c r="CF42" s="3"/>
-      <c r="CG42" s="3"/>
-      <c r="CH42" s="3"/>
+      <c r="BZ42" s="18"/>
+      <c r="CA42" s="18"/>
+      <c r="CB42" s="18"/>
+      <c r="CC42" s="18"/>
+      <c r="CD42" s="18"/>
+      <c r="CE42" s="18"/>
+      <c r="CF42" s="18"/>
+      <c r="CG42" s="18"/>
+      <c r="CH42" s="18"/>
       <c r="CI42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ42" s="18"/>
+      <c r="CK42" s="18"/>
+      <c r="CL42" s="18"/>
+      <c r="CM42" s="18"/>
+      <c r="CN42" s="18"/>
+      <c r="CO42" s="18"/>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
+      <c r="AU43" s="18"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="18"/>
+      <c r="AZ43" s="18"/>
+      <c r="BA43" s="18"/>
+      <c r="BB43" s="18"/>
+      <c r="BC43" s="18"/>
+      <c r="BD43" s="18"/>
+      <c r="BE43" s="18"/>
+      <c r="BF43" s="18"/>
+      <c r="BG43" s="18"/>
+      <c r="BH43" s="18"/>
+      <c r="BI43" s="18"/>
+      <c r="BJ43" s="18"/>
+      <c r="BK43" s="18"/>
+      <c r="BL43" s="18"/>
+      <c r="BM43" s="18"/>
+      <c r="BN43" s="18"/>
+      <c r="BO43" s="18"/>
+      <c r="BP43" s="18"/>
+      <c r="BQ43" s="18"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="18"/>
+      <c r="BT43" s="18"/>
+      <c r="BU43" s="18"/>
+      <c r="BV43" s="18"/>
       <c r="BW43" s="3"/>
-      <c r="BX43" s="3"/>
+      <c r="BX43" s="18"/>
       <c r="BY43" s="3"/>
-      <c r="BZ43" s="3"/>
-      <c r="CA43" s="3"/>
-      <c r="CB43" s="3"/>
-      <c r="CC43" s="3"/>
-      <c r="CD43" s="3"/>
-      <c r="CE43" s="3"/>
-      <c r="CF43" s="3"/>
-      <c r="CG43" s="3"/>
-      <c r="CH43" s="3"/>
+      <c r="BZ43" s="18"/>
+      <c r="CA43" s="18"/>
+      <c r="CB43" s="18"/>
+      <c r="CC43" s="18"/>
+      <c r="CD43" s="18"/>
+      <c r="CE43" s="18"/>
+      <c r="CF43" s="18"/>
+      <c r="CG43" s="18"/>
+      <c r="CH43" s="18"/>
       <c r="CI43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ43" s="18"/>
+      <c r="CK43" s="18"/>
+      <c r="CL43" s="18"/>
+      <c r="CM43" s="18"/>
+      <c r="CN43" s="18"/>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="18"/>
+      <c r="AM44" s="18"/>
+      <c r="AN44" s="18"/>
+      <c r="AO44" s="18"/>
+      <c r="AP44" s="18"/>
+      <c r="AQ44" s="18"/>
+      <c r="AR44" s="18"/>
+      <c r="AS44" s="18"/>
+      <c r="AT44" s="18"/>
+      <c r="AU44" s="18"/>
+      <c r="AV44" s="18"/>
+      <c r="AW44" s="18"/>
+      <c r="AX44" s="18"/>
+      <c r="AY44" s="18"/>
+      <c r="AZ44" s="18"/>
+      <c r="BA44" s="18"/>
+      <c r="BB44" s="18"/>
+      <c r="BC44" s="18"/>
+      <c r="BD44" s="18"/>
+      <c r="BE44" s="18"/>
+      <c r="BF44" s="18"/>
+      <c r="BG44" s="18"/>
+      <c r="BH44" s="18"/>
+      <c r="BI44" s="18"/>
+      <c r="BJ44" s="18"/>
+      <c r="BK44" s="18"/>
+      <c r="BL44" s="18"/>
+      <c r="BM44" s="18"/>
+      <c r="BN44" s="18"/>
+      <c r="BO44" s="18"/>
+      <c r="BP44" s="18"/>
+      <c r="BQ44" s="18"/>
+      <c r="BR44" s="18"/>
+      <c r="BS44" s="18"/>
+      <c r="BT44" s="18"/>
+      <c r="BU44" s="18"/>
+      <c r="BV44" s="18"/>
       <c r="BW44" s="3"/>
-      <c r="BX44" s="3"/>
+      <c r="BX44" s="18"/>
       <c r="BY44" s="3"/>
-      <c r="BZ44" s="3"/>
-      <c r="CA44" s="3"/>
-      <c r="CB44" s="3"/>
-      <c r="CC44" s="3"/>
-      <c r="CD44" s="3"/>
-      <c r="CE44" s="3"/>
-      <c r="CF44" s="3"/>
-      <c r="CG44" s="3"/>
-      <c r="CH44" s="3"/>
+      <c r="BZ44" s="18"/>
+      <c r="CA44" s="18"/>
+      <c r="CB44" s="18"/>
+      <c r="CC44" s="18"/>
+      <c r="CD44" s="18"/>
+      <c r="CE44" s="18"/>
+      <c r="CF44" s="18"/>
+      <c r="CG44" s="18"/>
+      <c r="CH44" s="18"/>
       <c r="CI44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ44" s="18"/>
+      <c r="CK44" s="18"/>
+      <c r="CL44" s="18"/>
+      <c r="CM44" s="18"/>
+      <c r="CN44" s="18"/>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="18"/>
+      <c r="AS45" s="18"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="18"/>
+      <c r="AV45" s="18"/>
+      <c r="AW45" s="18"/>
+      <c r="AX45" s="18"/>
+      <c r="AY45" s="18"/>
+      <c r="AZ45" s="18"/>
+      <c r="BA45" s="18"/>
+      <c r="BB45" s="18"/>
+      <c r="BC45" s="18"/>
+      <c r="BD45" s="18"/>
+      <c r="BE45" s="18"/>
+      <c r="BF45" s="18"/>
+      <c r="BG45" s="18"/>
+      <c r="BH45" s="18"/>
+      <c r="BI45" s="18"/>
+      <c r="BJ45" s="18"/>
+      <c r="BK45" s="18"/>
+      <c r="BL45" s="18"/>
+      <c r="BM45" s="18"/>
+      <c r="BN45" s="18"/>
+      <c r="BO45" s="18"/>
+      <c r="BP45" s="18"/>
+      <c r="BQ45" s="18"/>
+      <c r="BR45" s="18"/>
+      <c r="BS45" s="18"/>
+      <c r="BT45" s="18"/>
+      <c r="BU45" s="18"/>
+      <c r="BV45" s="18"/>
       <c r="BW45" s="3"/>
-      <c r="BX45" s="3"/>
+      <c r="BX45" s="18"/>
       <c r="BY45" s="3"/>
-      <c r="BZ45" s="3"/>
-      <c r="CA45" s="3"/>
-      <c r="CB45" s="3"/>
-      <c r="CC45" s="3"/>
-      <c r="CD45" s="3"/>
-      <c r="CE45" s="3"/>
-      <c r="CF45" s="3"/>
-      <c r="CG45" s="3"/>
-      <c r="CH45" s="3"/>
+      <c r="BZ45" s="18"/>
+      <c r="CA45" s="18"/>
+      <c r="CB45" s="18"/>
+      <c r="CC45" s="18"/>
+      <c r="CD45" s="18"/>
+      <c r="CE45" s="18"/>
+      <c r="CF45" s="18"/>
+      <c r="CG45" s="18"/>
+      <c r="CH45" s="18"/>
       <c r="CI45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ45" s="18"/>
+      <c r="CK45" s="18"/>
+      <c r="CL45" s="18"/>
+      <c r="CM45" s="18"/>
+      <c r="CN45" s="18"/>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="18"/>
+      <c r="AQ46" s="18"/>
+      <c r="AR46" s="18"/>
+      <c r="AS46" s="18"/>
+      <c r="AT46" s="18"/>
+      <c r="AU46" s="18"/>
+      <c r="AV46" s="18"/>
+      <c r="AW46" s="18"/>
+      <c r="AX46" s="18"/>
+      <c r="AY46" s="18"/>
+      <c r="AZ46" s="18"/>
+      <c r="BA46" s="18"/>
+      <c r="BB46" s="18"/>
+      <c r="BC46" s="18"/>
+      <c r="BD46" s="18"/>
+      <c r="BE46" s="18"/>
+      <c r="BF46" s="18"/>
+      <c r="BG46" s="18"/>
+      <c r="BH46" s="18"/>
+      <c r="BI46" s="18"/>
+      <c r="BJ46" s="18"/>
+      <c r="BK46" s="18"/>
+      <c r="BL46" s="18"/>
+      <c r="BM46" s="18"/>
+      <c r="BN46" s="18"/>
+      <c r="BO46" s="18"/>
+      <c r="BP46" s="18"/>
+      <c r="BQ46" s="18"/>
+      <c r="BR46" s="18"/>
+      <c r="BS46" s="18"/>
+      <c r="BT46" s="18"/>
+      <c r="BU46" s="18"/>
+      <c r="BV46" s="18"/>
       <c r="BW46" s="3"/>
-      <c r="BX46" s="3"/>
+      <c r="BX46" s="18"/>
       <c r="BY46" s="3"/>
-      <c r="BZ46" s="3"/>
-      <c r="CA46" s="3"/>
-      <c r="CB46" s="3"/>
-      <c r="CC46" s="3"/>
-      <c r="CD46" s="3"/>
-      <c r="CE46" s="3"/>
-      <c r="CF46" s="3"/>
-      <c r="CG46" s="3"/>
-      <c r="CH46" s="3"/>
+      <c r="BZ46" s="18"/>
+      <c r="CA46" s="18"/>
+      <c r="CB46" s="18"/>
+      <c r="CC46" s="18"/>
+      <c r="CD46" s="18"/>
+      <c r="CE46" s="18"/>
+      <c r="CF46" s="18"/>
+      <c r="CG46" s="18"/>
+      <c r="CH46" s="18"/>
       <c r="CI46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ46" s="18"/>
+      <c r="CK46" s="18"/>
+      <c r="CL46" s="18"/>
+      <c r="CM46" s="18"/>
+      <c r="CN46" s="18"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="18"/>
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="18"/>
+      <c r="AS47" s="18"/>
+      <c r="AT47" s="18"/>
+      <c r="AU47" s="18"/>
+      <c r="AV47" s="18"/>
+      <c r="AW47" s="18"/>
+      <c r="AX47" s="18"/>
+      <c r="AY47" s="18"/>
+      <c r="AZ47" s="18"/>
+      <c r="BA47" s="18"/>
+      <c r="BB47" s="18"/>
+      <c r="BC47" s="18"/>
+      <c r="BD47" s="18"/>
+      <c r="BE47" s="18"/>
+      <c r="BF47" s="18"/>
+      <c r="BG47" s="18"/>
+      <c r="BH47" s="18"/>
+      <c r="BI47" s="18"/>
+      <c r="BJ47" s="18"/>
+      <c r="BK47" s="18"/>
+      <c r="BL47" s="18"/>
+      <c r="BM47" s="18"/>
+      <c r="BN47" s="18"/>
+      <c r="BO47" s="18"/>
+      <c r="BP47" s="18"/>
+      <c r="BQ47" s="18"/>
+      <c r="BR47" s="18"/>
+      <c r="BS47" s="18"/>
+      <c r="BT47" s="18"/>
+      <c r="BU47" s="18"/>
+      <c r="BV47" s="18"/>
       <c r="BW47" s="3"/>
-      <c r="BX47" s="3"/>
+      <c r="BX47" s="18"/>
       <c r="BY47" s="3"/>
-      <c r="BZ47" s="3"/>
-      <c r="CA47" s="3"/>
-      <c r="CB47" s="3"/>
-      <c r="CC47" s="3"/>
-      <c r="CD47" s="3"/>
-      <c r="CE47" s="3"/>
-      <c r="CF47" s="3"/>
-      <c r="CG47" s="3"/>
-      <c r="CH47" s="3"/>
+      <c r="BZ47" s="18"/>
+      <c r="CA47" s="18"/>
+      <c r="CB47" s="18"/>
+      <c r="CC47" s="18"/>
+      <c r="CD47" s="18"/>
+      <c r="CE47" s="18"/>
+      <c r="CF47" s="18"/>
+      <c r="CG47" s="18"/>
+      <c r="CH47" s="18"/>
       <c r="CI47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ47" s="18"/>
+      <c r="CK47" s="18"/>
+      <c r="CL47" s="18"/>
+      <c r="CM47" s="18"/>
+      <c r="CN47" s="18"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="18"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="18"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="18"/>
+      <c r="AW48" s="18"/>
+      <c r="AX48" s="18"/>
+      <c r="AY48" s="18"/>
+      <c r="AZ48" s="18"/>
+      <c r="BA48" s="18"/>
+      <c r="BB48" s="18"/>
+      <c r="BC48" s="18"/>
+      <c r="BD48" s="18"/>
+      <c r="BE48" s="18"/>
+      <c r="BF48" s="18"/>
+      <c r="BG48" s="18"/>
+      <c r="BH48" s="18"/>
+      <c r="BI48" s="18"/>
+      <c r="BJ48" s="18"/>
+      <c r="BK48" s="18"/>
+      <c r="BL48" s="18"/>
+      <c r="BM48" s="18"/>
+      <c r="BN48" s="18"/>
+      <c r="BO48" s="18"/>
+      <c r="BP48" s="18"/>
+      <c r="BQ48" s="18"/>
+      <c r="BR48" s="18"/>
+      <c r="BS48" s="18"/>
+      <c r="BT48" s="18"/>
+      <c r="BU48" s="18"/>
+      <c r="BV48" s="18"/>
       <c r="BW48" s="3"/>
-      <c r="BX48" s="3"/>
+      <c r="BX48" s="18"/>
       <c r="BY48" s="3"/>
-      <c r="BZ48" s="3"/>
-      <c r="CA48" s="3"/>
-      <c r="CB48" s="3"/>
-      <c r="CC48" s="3"/>
-      <c r="CD48" s="3"/>
-      <c r="CE48" s="3"/>
-      <c r="CF48" s="3"/>
-      <c r="CG48" s="3"/>
-      <c r="CH48" s="3"/>
+      <c r="BZ48" s="18"/>
+      <c r="CA48" s="18"/>
+      <c r="CB48" s="18"/>
+      <c r="CC48" s="18"/>
+      <c r="CD48" s="18"/>
+      <c r="CE48" s="18"/>
+      <c r="CF48" s="18"/>
+      <c r="CG48" s="18"/>
+      <c r="CH48" s="18"/>
       <c r="CI48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ48" s="18"/>
+      <c r="CK48" s="18"/>
+      <c r="CL48" s="18"/>
+      <c r="CM48" s="18"/>
+      <c r="CN48" s="18"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="18"/>
+      <c r="AS49" s="18"/>
+      <c r="AT49" s="18"/>
+      <c r="AU49" s="18"/>
+      <c r="AV49" s="18"/>
+      <c r="AW49" s="18"/>
+      <c r="AX49" s="18"/>
+      <c r="AY49" s="18"/>
+      <c r="AZ49" s="18"/>
+      <c r="BA49" s="18"/>
+      <c r="BB49" s="18"/>
+      <c r="BC49" s="18"/>
+      <c r="BD49" s="18"/>
+      <c r="BE49" s="18"/>
+      <c r="BF49" s="18"/>
+      <c r="BG49" s="18"/>
+      <c r="BH49" s="18"/>
+      <c r="BI49" s="18"/>
+      <c r="BJ49" s="18"/>
+      <c r="BK49" s="18"/>
+      <c r="BL49" s="18"/>
+      <c r="BM49" s="18"/>
+      <c r="BN49" s="18"/>
+      <c r="BO49" s="18"/>
+      <c r="BP49" s="18"/>
+      <c r="BQ49" s="18"/>
+      <c r="BR49" s="18"/>
+      <c r="BS49" s="18"/>
+      <c r="BT49" s="18"/>
+      <c r="BU49" s="18"/>
+      <c r="BV49" s="18"/>
       <c r="BW49" s="3"/>
-      <c r="BX49" s="3"/>
+      <c r="BX49" s="18"/>
       <c r="BY49" s="3"/>
-      <c r="BZ49" s="3"/>
-      <c r="CA49" s="3"/>
-      <c r="CB49" s="3"/>
-      <c r="CC49" s="3"/>
-      <c r="CD49" s="3"/>
-      <c r="CE49" s="3"/>
-      <c r="CF49" s="3"/>
-      <c r="CG49" s="3"/>
-      <c r="CH49" s="3"/>
+      <c r="BZ49" s="18"/>
+      <c r="CA49" s="18"/>
+      <c r="CB49" s="18"/>
+      <c r="CC49" s="18"/>
+      <c r="CD49" s="18"/>
+      <c r="CE49" s="18"/>
+      <c r="CF49" s="18"/>
+      <c r="CG49" s="18"/>
+      <c r="CH49" s="18"/>
       <c r="CI49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ49" s="18"/>
+      <c r="CK49" s="18"/>
+      <c r="CL49" s="18"/>
+      <c r="CM49" s="18"/>
+      <c r="CN49" s="18"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="18"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="18"/>
+      <c r="AU50" s="18"/>
+      <c r="AV50" s="18"/>
+      <c r="AW50" s="18"/>
+      <c r="AX50" s="18"/>
+      <c r="AY50" s="18"/>
+      <c r="AZ50" s="18"/>
+      <c r="BA50" s="18"/>
+      <c r="BB50" s="18"/>
+      <c r="BC50" s="18"/>
+      <c r="BD50" s="18"/>
+      <c r="BE50" s="18"/>
+      <c r="BF50" s="18"/>
+      <c r="BG50" s="18"/>
+      <c r="BH50" s="18"/>
+      <c r="BI50" s="18"/>
+      <c r="BJ50" s="18"/>
+      <c r="BK50" s="18"/>
+      <c r="BL50" s="18"/>
+      <c r="BM50" s="18"/>
+      <c r="BN50" s="18"/>
+      <c r="BO50" s="18"/>
+      <c r="BP50" s="18"/>
+      <c r="BQ50" s="18"/>
+      <c r="BR50" s="18"/>
+      <c r="BS50" s="18"/>
+      <c r="BT50" s="18"/>
+      <c r="BU50" s="18"/>
+      <c r="BV50" s="18"/>
       <c r="BW50" s="3"/>
-      <c r="BX50" s="3"/>
+      <c r="BX50" s="18"/>
       <c r="BY50" s="3"/>
-      <c r="BZ50" s="3"/>
-      <c r="CA50" s="3"/>
-      <c r="CB50" s="3"/>
-      <c r="CC50" s="3"/>
-      <c r="CD50" s="3"/>
-      <c r="CE50" s="3"/>
-      <c r="CF50" s="3"/>
-      <c r="CG50" s="3"/>
-      <c r="CH50" s="3"/>
+      <c r="BZ50" s="18"/>
+      <c r="CA50" s="18"/>
+      <c r="CB50" s="18"/>
+      <c r="CC50" s="18"/>
+      <c r="CD50" s="18"/>
+      <c r="CE50" s="18"/>
+      <c r="CF50" s="18"/>
+      <c r="CG50" s="18"/>
+      <c r="CH50" s="18"/>
       <c r="CI50" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ50" s="18"/>
+      <c r="CK50" s="18"/>
+      <c r="CL50" s="18"/>
+      <c r="CM50" s="18"/>
+      <c r="CN50" s="18"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18"/>
+      <c r="BC51" s="18"/>
+      <c r="BD51" s="18"/>
+      <c r="BE51" s="18"/>
+      <c r="BF51" s="18"/>
+      <c r="BG51" s="18"/>
+      <c r="BH51" s="18"/>
+      <c r="BI51" s="18"/>
+      <c r="BJ51" s="18"/>
+      <c r="BK51" s="18"/>
+      <c r="BL51" s="18"/>
+      <c r="BM51" s="18"/>
+      <c r="BN51" s="18"/>
+      <c r="BO51" s="18"/>
+      <c r="BP51" s="18"/>
+      <c r="BQ51" s="18"/>
+      <c r="BR51" s="18"/>
+      <c r="BS51" s="18"/>
+      <c r="BT51" s="18"/>
+      <c r="BU51" s="18"/>
+      <c r="BV51" s="18"/>
       <c r="BW51" s="3"/>
-      <c r="BX51" s="3"/>
+      <c r="BX51" s="18"/>
       <c r="BY51" s="3"/>
-      <c r="BZ51" s="3"/>
-      <c r="CA51" s="3"/>
-      <c r="CB51" s="3"/>
-      <c r="CC51" s="3"/>
-      <c r="CD51" s="3"/>
-      <c r="CE51" s="3"/>
-      <c r="CF51" s="3"/>
-      <c r="CG51" s="3"/>
-      <c r="CH51" s="3"/>
+      <c r="BZ51" s="18"/>
+      <c r="CA51" s="18"/>
+      <c r="CB51" s="18"/>
+      <c r="CC51" s="18"/>
+      <c r="CD51" s="18"/>
+      <c r="CE51" s="18"/>
+      <c r="CF51" s="18"/>
+      <c r="CG51" s="18"/>
+      <c r="CH51" s="18"/>
       <c r="CI51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ51" s="18"/>
+      <c r="CK51" s="18"/>
+      <c r="CL51" s="18"/>
+      <c r="CM51" s="18"/>
+      <c r="CN51" s="18"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18"/>
+      <c r="AI52" s="18"/>
+      <c r="AJ52" s="18"/>
+      <c r="AK52" s="18"/>
+      <c r="AL52" s="18"/>
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="18"/>
+      <c r="AR52" s="18"/>
+      <c r="AS52" s="18"/>
+      <c r="AT52" s="18"/>
+      <c r="AU52" s="18"/>
+      <c r="AV52" s="18"/>
+      <c r="AW52" s="18"/>
+      <c r="AX52" s="18"/>
+      <c r="AY52" s="18"/>
+      <c r="AZ52" s="18"/>
+      <c r="BA52" s="18"/>
+      <c r="BB52" s="18"/>
+      <c r="BC52" s="18"/>
+      <c r="BD52" s="18"/>
+      <c r="BE52" s="18"/>
+      <c r="BF52" s="18"/>
+      <c r="BG52" s="18"/>
+      <c r="BH52" s="18"/>
+      <c r="BI52" s="18"/>
+      <c r="BJ52" s="18"/>
+      <c r="BK52" s="18"/>
+      <c r="BL52" s="18"/>
+      <c r="BM52" s="18"/>
+      <c r="BN52" s="18"/>
+      <c r="BO52" s="18"/>
+      <c r="BP52" s="18"/>
+      <c r="BQ52" s="18"/>
+      <c r="BR52" s="18"/>
+      <c r="BS52" s="18"/>
+      <c r="BT52" s="18"/>
+      <c r="BU52" s="18"/>
+      <c r="BV52" s="18"/>
       <c r="BW52" s="3"/>
-      <c r="BX52" s="3"/>
+      <c r="BX52" s="18"/>
       <c r="BY52" s="3"/>
-      <c r="BZ52" s="3"/>
-      <c r="CA52" s="3"/>
-      <c r="CB52" s="3"/>
-      <c r="CC52" s="3"/>
-      <c r="CD52" s="3"/>
-      <c r="CE52" s="3"/>
-      <c r="CF52" s="3"/>
-      <c r="CG52" s="3"/>
-      <c r="CH52" s="3"/>
+      <c r="BZ52" s="18"/>
+      <c r="CA52" s="18"/>
+      <c r="CB52" s="18"/>
+      <c r="CC52" s="18"/>
+      <c r="CD52" s="18"/>
+      <c r="CE52" s="18"/>
+      <c r="CF52" s="18"/>
+      <c r="CG52" s="18"/>
+      <c r="CH52" s="18"/>
       <c r="CI52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ52" s="18"/>
+      <c r="CK52" s="18"/>
+      <c r="CL52" s="18"/>
+      <c r="CM52" s="18"/>
+      <c r="CN52" s="18"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="18"/>
+      <c r="AS53" s="18"/>
+      <c r="AT53" s="18"/>
+      <c r="AU53" s="18"/>
+      <c r="AV53" s="18"/>
+      <c r="AW53" s="18"/>
+      <c r="AX53" s="18"/>
+      <c r="AY53" s="18"/>
+      <c r="AZ53" s="18"/>
+      <c r="BA53" s="18"/>
+      <c r="BB53" s="18"/>
+      <c r="BC53" s="18"/>
+      <c r="BD53" s="18"/>
+      <c r="BE53" s="18"/>
+      <c r="BF53" s="18"/>
+      <c r="BG53" s="18"/>
+      <c r="BH53" s="18"/>
+      <c r="BI53" s="18"/>
+      <c r="BJ53" s="18"/>
+      <c r="BK53" s="18"/>
+      <c r="BL53" s="18"/>
+      <c r="BM53" s="18"/>
+      <c r="BN53" s="18"/>
+      <c r="BO53" s="18"/>
+      <c r="BP53" s="18"/>
+      <c r="BQ53" s="18"/>
+      <c r="BR53" s="18"/>
+      <c r="BS53" s="18"/>
+      <c r="BT53" s="18"/>
+      <c r="BU53" s="18"/>
+      <c r="BV53" s="18"/>
       <c r="BW53" s="3"/>
-      <c r="BX53" s="3"/>
+      <c r="BX53" s="18"/>
       <c r="BY53" s="3"/>
-      <c r="BZ53" s="3"/>
-      <c r="CA53" s="3"/>
-      <c r="CB53" s="3"/>
-      <c r="CC53" s="3"/>
-      <c r="CD53" s="3"/>
-      <c r="CE53" s="3"/>
-      <c r="CF53" s="3"/>
-      <c r="CG53" s="3"/>
-      <c r="CH53" s="3"/>
+      <c r="BZ53" s="18"/>
+      <c r="CA53" s="18"/>
+      <c r="CB53" s="18"/>
+      <c r="CC53" s="18"/>
+      <c r="CD53" s="18"/>
+      <c r="CE53" s="18"/>
+      <c r="CF53" s="18"/>
+      <c r="CG53" s="18"/>
+      <c r="CH53" s="18"/>
       <c r="CI53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ53" s="18"/>
+      <c r="CK53" s="18"/>
+      <c r="CL53" s="18"/>
+      <c r="CM53" s="18"/>
+      <c r="CN53" s="18"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="18"/>
+      <c r="AR54" s="18"/>
+      <c r="AS54" s="18"/>
+      <c r="AT54" s="18"/>
+      <c r="AU54" s="18"/>
+      <c r="AV54" s="18"/>
+      <c r="AW54" s="18"/>
+      <c r="AX54" s="18"/>
+      <c r="AY54" s="18"/>
+      <c r="AZ54" s="18"/>
+      <c r="BA54" s="18"/>
+      <c r="BB54" s="18"/>
+      <c r="BC54" s="18"/>
+      <c r="BD54" s="18"/>
+      <c r="BE54" s="18"/>
+      <c r="BF54" s="18"/>
+      <c r="BG54" s="18"/>
+      <c r="BH54" s="18"/>
+      <c r="BI54" s="18"/>
+      <c r="BJ54" s="18"/>
+      <c r="BK54" s="18"/>
+      <c r="BL54" s="18"/>
+      <c r="BM54" s="18"/>
+      <c r="BN54" s="18"/>
+      <c r="BO54" s="18"/>
+      <c r="BP54" s="18"/>
+      <c r="BQ54" s="18"/>
+      <c r="BR54" s="18"/>
+      <c r="BS54" s="18"/>
+      <c r="BT54" s="18"/>
+      <c r="BU54" s="18"/>
+      <c r="BV54" s="18"/>
       <c r="BW54" s="3"/>
-      <c r="BX54" s="3"/>
+      <c r="BX54" s="18"/>
       <c r="BY54" s="3"/>
-      <c r="BZ54" s="3"/>
-      <c r="CA54" s="3"/>
-      <c r="CB54" s="3"/>
-      <c r="CC54" s="3"/>
-      <c r="CD54" s="3"/>
-      <c r="CE54" s="3"/>
-      <c r="CF54" s="3"/>
-      <c r="CG54" s="3"/>
-      <c r="CH54" s="3"/>
+      <c r="BZ54" s="18"/>
+      <c r="CA54" s="18"/>
+      <c r="CB54" s="18"/>
+      <c r="CC54" s="18"/>
+      <c r="CD54" s="18"/>
+      <c r="CE54" s="18"/>
+      <c r="CF54" s="18"/>
+      <c r="CG54" s="18"/>
+      <c r="CH54" s="18"/>
       <c r="CI54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ54" s="18"/>
+      <c r="CK54" s="18"/>
+      <c r="CL54" s="18"/>
+      <c r="CM54" s="18"/>
+      <c r="CN54" s="18"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="18"/>
+      <c r="AJ55" s="18"/>
+      <c r="AK55" s="18"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="18"/>
+      <c r="AR55" s="18"/>
+      <c r="AS55" s="18"/>
+      <c r="AT55" s="18"/>
+      <c r="AU55" s="18"/>
+      <c r="AV55" s="18"/>
+      <c r="AW55" s="18"/>
+      <c r="AX55" s="18"/>
+      <c r="AY55" s="18"/>
+      <c r="AZ55" s="18"/>
+      <c r="BA55" s="18"/>
+      <c r="BB55" s="18"/>
+      <c r="BC55" s="18"/>
+      <c r="BD55" s="18"/>
+      <c r="BE55" s="18"/>
+      <c r="BF55" s="18"/>
+      <c r="BG55" s="18"/>
+      <c r="BH55" s="18"/>
+      <c r="BI55" s="18"/>
+      <c r="BJ55" s="18"/>
+      <c r="BK55" s="18"/>
+      <c r="BL55" s="18"/>
+      <c r="BM55" s="18"/>
+      <c r="BN55" s="18"/>
+      <c r="BO55" s="18"/>
+      <c r="BP55" s="18"/>
+      <c r="BQ55" s="18"/>
+      <c r="BR55" s="18"/>
+      <c r="BS55" s="18"/>
+      <c r="BT55" s="18"/>
+      <c r="BU55" s="18"/>
+      <c r="BV55" s="18"/>
       <c r="BW55" s="3"/>
-      <c r="BX55" s="3"/>
+      <c r="BX55" s="18"/>
       <c r="BY55" s="3"/>
-      <c r="BZ55" s="3"/>
-      <c r="CA55" s="3"/>
-      <c r="CB55" s="3"/>
-      <c r="CC55" s="3"/>
-      <c r="CD55" s="3"/>
-      <c r="CE55" s="3"/>
-      <c r="CF55" s="3"/>
-      <c r="CG55" s="3"/>
-      <c r="CH55" s="3"/>
+      <c r="BZ55" s="18"/>
+      <c r="CA55" s="18"/>
+      <c r="CB55" s="18"/>
+      <c r="CC55" s="18"/>
+      <c r="CD55" s="18"/>
+      <c r="CE55" s="18"/>
+      <c r="CF55" s="18"/>
+      <c r="CG55" s="18"/>
+      <c r="CH55" s="18"/>
       <c r="CI55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ55" s="18"/>
+      <c r="CK55" s="18"/>
+      <c r="CL55" s="18"/>
+      <c r="CM55" s="18"/>
+      <c r="CN55" s="18"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="18"/>
+      <c r="AS56" s="18"/>
+      <c r="AT56" s="18"/>
+      <c r="AU56" s="18"/>
+      <c r="AV56" s="18"/>
+      <c r="AW56" s="18"/>
+      <c r="AX56" s="18"/>
+      <c r="AY56" s="18"/>
+      <c r="AZ56" s="18"/>
+      <c r="BA56" s="18"/>
+      <c r="BB56" s="18"/>
+      <c r="BC56" s="18"/>
+      <c r="BD56" s="18"/>
+      <c r="BE56" s="18"/>
+      <c r="BF56" s="18"/>
+      <c r="BG56" s="18"/>
+      <c r="BH56" s="18"/>
+      <c r="BI56" s="18"/>
+      <c r="BJ56" s="18"/>
+      <c r="BK56" s="18"/>
+      <c r="BL56" s="18"/>
+      <c r="BM56" s="18"/>
+      <c r="BN56" s="18"/>
+      <c r="BO56" s="18"/>
+      <c r="BP56" s="18"/>
+      <c r="BQ56" s="18"/>
+      <c r="BR56" s="18"/>
+      <c r="BS56" s="18"/>
+      <c r="BT56" s="18"/>
+      <c r="BU56" s="18"/>
+      <c r="BV56" s="18"/>
       <c r="BW56" s="3"/>
-      <c r="BX56" s="3"/>
+      <c r="BX56" s="18"/>
       <c r="BY56" s="3"/>
-      <c r="BZ56" s="3"/>
-      <c r="CA56" s="3"/>
-      <c r="CB56" s="3"/>
-      <c r="CC56" s="3"/>
-      <c r="CD56" s="3"/>
-      <c r="CE56" s="3"/>
-      <c r="CF56" s="3"/>
-      <c r="CG56" s="3"/>
-      <c r="CH56" s="3"/>
+      <c r="BZ56" s="18"/>
+      <c r="CA56" s="18"/>
+      <c r="CB56" s="18"/>
+      <c r="CC56" s="18"/>
+      <c r="CD56" s="18"/>
+      <c r="CE56" s="18"/>
+      <c r="CF56" s="18"/>
+      <c r="CG56" s="18"/>
+      <c r="CH56" s="18"/>
       <c r="CI56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ56" s="18"/>
+      <c r="CK56" s="18"/>
+      <c r="CL56" s="18"/>
+      <c r="CM56" s="18"/>
+      <c r="CN56" s="18"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="18"/>
+      <c r="AS57" s="18"/>
+      <c r="AT57" s="18"/>
+      <c r="AU57" s="18"/>
+      <c r="AV57" s="18"/>
+      <c r="AW57" s="18"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="18"/>
+      <c r="AZ57" s="18"/>
+      <c r="BA57" s="18"/>
+      <c r="BB57" s="18"/>
+      <c r="BC57" s="18"/>
+      <c r="BD57" s="18"/>
+      <c r="BE57" s="18"/>
+      <c r="BF57" s="18"/>
+      <c r="BG57" s="18"/>
+      <c r="BH57" s="18"/>
+      <c r="BI57" s="18"/>
+      <c r="BJ57" s="18"/>
+      <c r="BK57" s="18"/>
+      <c r="BL57" s="18"/>
+      <c r="BM57" s="18"/>
+      <c r="BN57" s="18"/>
+      <c r="BO57" s="18"/>
+      <c r="BP57" s="18"/>
+      <c r="BQ57" s="18"/>
+      <c r="BR57" s="18"/>
+      <c r="BS57" s="18"/>
+      <c r="BT57" s="18"/>
+      <c r="BU57" s="18"/>
+      <c r="BV57" s="18"/>
       <c r="BW57" s="3"/>
-      <c r="BX57" s="3"/>
+      <c r="BX57" s="18"/>
       <c r="BY57" s="3"/>
-      <c r="BZ57" s="3"/>
-      <c r="CA57" s="3"/>
-      <c r="CB57" s="3"/>
-      <c r="CC57" s="3"/>
-      <c r="CD57" s="3"/>
-      <c r="CE57" s="3"/>
-      <c r="CF57" s="3"/>
-      <c r="CG57" s="3"/>
-      <c r="CH57" s="3"/>
+      <c r="BZ57" s="18"/>
+      <c r="CA57" s="18"/>
+      <c r="CB57" s="18"/>
+      <c r="CC57" s="18"/>
+      <c r="CD57" s="18"/>
+      <c r="CE57" s="18"/>
+      <c r="CF57" s="18"/>
+      <c r="CG57" s="18"/>
+      <c r="CH57" s="18"/>
       <c r="CI57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ57" s="18"/>
+      <c r="CK57" s="18"/>
+      <c r="CL57" s="18"/>
+      <c r="CM57" s="18"/>
+      <c r="CN57" s="18"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="18"/>
+      <c r="AS58" s="18"/>
+      <c r="AT58" s="18"/>
+      <c r="AU58" s="18"/>
+      <c r="AV58" s="18"/>
+      <c r="AW58" s="18"/>
+      <c r="AX58" s="18"/>
+      <c r="AY58" s="18"/>
+      <c r="AZ58" s="18"/>
+      <c r="BA58" s="18"/>
+      <c r="BB58" s="18"/>
+      <c r="BC58" s="18"/>
+      <c r="BD58" s="18"/>
+      <c r="BE58" s="18"/>
+      <c r="BF58" s="18"/>
+      <c r="BG58" s="18"/>
+      <c r="BH58" s="18"/>
+      <c r="BI58" s="18"/>
+      <c r="BJ58" s="18"/>
+      <c r="BK58" s="18"/>
+      <c r="BL58" s="18"/>
+      <c r="BM58" s="18"/>
+      <c r="BN58" s="18"/>
+      <c r="BO58" s="18"/>
+      <c r="BP58" s="18"/>
+      <c r="BQ58" s="18"/>
+      <c r="BR58" s="18"/>
+      <c r="BS58" s="18"/>
+      <c r="BT58" s="18"/>
+      <c r="BU58" s="18"/>
+      <c r="BV58" s="18"/>
       <c r="BW58" s="3"/>
-      <c r="BX58" s="3"/>
+      <c r="BX58" s="18"/>
       <c r="BY58" s="3"/>
-      <c r="BZ58" s="3"/>
-      <c r="CA58" s="3"/>
-      <c r="CB58" s="3"/>
-      <c r="CC58" s="3"/>
-      <c r="CD58" s="3"/>
-      <c r="CE58" s="3"/>
-      <c r="CF58" s="3"/>
-      <c r="CG58" s="3"/>
-      <c r="CH58" s="3"/>
+      <c r="BZ58" s="18"/>
+      <c r="CA58" s="18"/>
+      <c r="CB58" s="18"/>
+      <c r="CC58" s="18"/>
+      <c r="CD58" s="18"/>
+      <c r="CE58" s="18"/>
+      <c r="CF58" s="18"/>
+      <c r="CG58" s="18"/>
+      <c r="CH58" s="18"/>
       <c r="CI58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ58" s="18"/>
+      <c r="CK58" s="18"/>
+      <c r="CL58" s="18"/>
+      <c r="CM58" s="18"/>
+      <c r="CN58" s="18"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="18"/>
+      <c r="AT59" s="18"/>
+      <c r="AU59" s="18"/>
+      <c r="AV59" s="18"/>
+      <c r="AW59" s="18"/>
+      <c r="AX59" s="18"/>
+      <c r="AY59" s="18"/>
+      <c r="AZ59" s="18"/>
+      <c r="BA59" s="18"/>
+      <c r="BB59" s="18"/>
+      <c r="BC59" s="18"/>
+      <c r="BD59" s="18"/>
+      <c r="BE59" s="18"/>
+      <c r="BF59" s="18"/>
+      <c r="BG59" s="18"/>
+      <c r="BH59" s="18"/>
+      <c r="BI59" s="18"/>
+      <c r="BJ59" s="18"/>
+      <c r="BK59" s="18"/>
+      <c r="BL59" s="18"/>
+      <c r="BM59" s="18"/>
+      <c r="BN59" s="18"/>
+      <c r="BO59" s="18"/>
+      <c r="BP59" s="18"/>
+      <c r="BQ59" s="18"/>
+      <c r="BR59" s="18"/>
+      <c r="BS59" s="18"/>
+      <c r="BT59" s="18"/>
+      <c r="BU59" s="18"/>
+      <c r="BV59" s="18"/>
       <c r="BW59" s="3"/>
-      <c r="BX59" s="3"/>
+      <c r="BX59" s="18"/>
       <c r="BY59" s="3"/>
-      <c r="BZ59" s="3"/>
-      <c r="CA59" s="3"/>
-      <c r="CB59" s="3"/>
-      <c r="CC59" s="3"/>
-      <c r="CD59" s="3"/>
-      <c r="CE59" s="3"/>
-      <c r="CF59" s="3"/>
-      <c r="CG59" s="3"/>
-      <c r="CH59" s="3"/>
+      <c r="BZ59" s="18"/>
+      <c r="CA59" s="18"/>
+      <c r="CB59" s="18"/>
+      <c r="CC59" s="18"/>
+      <c r="CD59" s="18"/>
+      <c r="CE59" s="18"/>
+      <c r="CF59" s="18"/>
+      <c r="CG59" s="18"/>
+      <c r="CH59" s="18"/>
       <c r="CI59" s="3"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ59" s="18"/>
+      <c r="CK59" s="18"/>
+      <c r="CL59" s="18"/>
+      <c r="CM59" s="18"/>
+      <c r="CN59" s="18"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+      <c r="AA60" s="18"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="18"/>
+      <c r="AJ60" s="18"/>
+      <c r="AK60" s="18"/>
+      <c r="AL60" s="18"/>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="18"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18"/>
+      <c r="AQ60" s="18"/>
+      <c r="AR60" s="18"/>
+      <c r="AS60" s="18"/>
+      <c r="AT60" s="18"/>
+      <c r="AU60" s="18"/>
+      <c r="AV60" s="18"/>
+      <c r="AW60" s="18"/>
+      <c r="AX60" s="18"/>
+      <c r="AY60" s="18"/>
+      <c r="AZ60" s="18"/>
+      <c r="BA60" s="18"/>
+      <c r="BB60" s="18"/>
+      <c r="BC60" s="18"/>
+      <c r="BD60" s="18"/>
+      <c r="BE60" s="18"/>
+      <c r="BF60" s="18"/>
+      <c r="BG60" s="18"/>
+      <c r="BH60" s="18"/>
+      <c r="BI60" s="18"/>
+      <c r="BJ60" s="18"/>
+      <c r="BK60" s="18"/>
+      <c r="BL60" s="18"/>
+      <c r="BM60" s="18"/>
+      <c r="BN60" s="18"/>
+      <c r="BO60" s="18"/>
+      <c r="BP60" s="18"/>
+      <c r="BQ60" s="18"/>
+      <c r="BR60" s="18"/>
+      <c r="BS60" s="18"/>
+      <c r="BT60" s="18"/>
+      <c r="BU60" s="18"/>
+      <c r="BV60" s="18"/>
       <c r="BW60" s="3"/>
-      <c r="BX60" s="3"/>
+      <c r="BX60" s="18"/>
       <c r="BY60" s="3"/>
-      <c r="BZ60" s="3"/>
-      <c r="CA60" s="3"/>
-      <c r="CB60" s="3"/>
-      <c r="CC60" s="3"/>
-      <c r="CD60" s="3"/>
-      <c r="CE60" s="3"/>
-      <c r="CF60" s="3"/>
-      <c r="CG60" s="3"/>
-      <c r="CH60" s="3"/>
+      <c r="BZ60" s="18"/>
+      <c r="CA60" s="18"/>
+      <c r="CB60" s="18"/>
+      <c r="CC60" s="18"/>
+      <c r="CD60" s="18"/>
+      <c r="CE60" s="18"/>
+      <c r="CF60" s="18"/>
+      <c r="CG60" s="18"/>
+      <c r="CH60" s="18"/>
       <c r="CI60" s="3"/>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ60" s="18"/>
+      <c r="CK60" s="18"/>
+      <c r="CL60" s="18"/>
+      <c r="CM60" s="18"/>
+      <c r="CN60" s="18"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+      <c r="AA61" s="18"/>
+      <c r="AB61" s="18"/>
+      <c r="AC61" s="18"/>
+      <c r="AD61" s="18"/>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="18"/>
+      <c r="AI61" s="18"/>
+      <c r="AJ61" s="18"/>
+      <c r="AK61" s="18"/>
+      <c r="AL61" s="18"/>
+      <c r="AM61" s="18"/>
+      <c r="AN61" s="18"/>
+      <c r="AO61" s="18"/>
+      <c r="AP61" s="18"/>
+      <c r="AQ61" s="18"/>
+      <c r="AR61" s="18"/>
+      <c r="AS61" s="18"/>
+      <c r="AT61" s="18"/>
+      <c r="AU61" s="18"/>
+      <c r="AV61" s="18"/>
+      <c r="AW61" s="18"/>
+      <c r="AX61" s="18"/>
+      <c r="AY61" s="18"/>
+      <c r="AZ61" s="18"/>
+      <c r="BA61" s="18"/>
+      <c r="BB61" s="18"/>
+      <c r="BC61" s="18"/>
+      <c r="BD61" s="18"/>
+      <c r="BE61" s="18"/>
+      <c r="BF61" s="18"/>
+      <c r="BG61" s="18"/>
+      <c r="BH61" s="18"/>
+      <c r="BI61" s="18"/>
+      <c r="BJ61" s="18"/>
+      <c r="BK61" s="18"/>
+      <c r="BL61" s="18"/>
+      <c r="BM61" s="18"/>
+      <c r="BN61" s="18"/>
+      <c r="BO61" s="18"/>
+      <c r="BP61" s="18"/>
+      <c r="BQ61" s="18"/>
+      <c r="BR61" s="18"/>
+      <c r="BS61" s="18"/>
+      <c r="BT61" s="18"/>
+      <c r="BU61" s="18"/>
+      <c r="BV61" s="18"/>
       <c r="BW61" s="3"/>
-      <c r="BX61" s="3"/>
+      <c r="BX61" s="18"/>
       <c r="BY61" s="3"/>
-      <c r="BZ61" s="3"/>
-      <c r="CA61" s="3"/>
-      <c r="CB61" s="3"/>
-      <c r="CC61" s="3"/>
-      <c r="CD61" s="3"/>
-      <c r="CE61" s="3"/>
-      <c r="CF61" s="3"/>
-      <c r="CG61" s="3"/>
-      <c r="CH61" s="3"/>
+      <c r="BZ61" s="18"/>
+      <c r="CA61" s="18"/>
+      <c r="CB61" s="18"/>
+      <c r="CC61" s="18"/>
+      <c r="CD61" s="18"/>
+      <c r="CE61" s="18"/>
+      <c r="CF61" s="18"/>
+      <c r="CG61" s="18"/>
+      <c r="CH61" s="18"/>
       <c r="CI61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ61" s="18"/>
+      <c r="CK61" s="18"/>
+      <c r="CL61" s="18"/>
+      <c r="CM61" s="18"/>
+      <c r="CN61" s="18"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="18"/>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="18"/>
+      <c r="AR62" s="18"/>
+      <c r="AS62" s="18"/>
+      <c r="AT62" s="18"/>
+      <c r="AU62" s="18"/>
+      <c r="AV62" s="18"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="18"/>
+      <c r="AZ62" s="18"/>
+      <c r="BA62" s="18"/>
+      <c r="BB62" s="18"/>
+      <c r="BC62" s="18"/>
+      <c r="BD62" s="18"/>
+      <c r="BE62" s="18"/>
+      <c r="BF62" s="18"/>
+      <c r="BG62" s="18"/>
+      <c r="BH62" s="18"/>
+      <c r="BI62" s="18"/>
+      <c r="BJ62" s="18"/>
+      <c r="BK62" s="18"/>
+      <c r="BL62" s="18"/>
+      <c r="BM62" s="18"/>
+      <c r="BN62" s="18"/>
+      <c r="BO62" s="18"/>
+      <c r="BP62" s="18"/>
+      <c r="BQ62" s="18"/>
+      <c r="BR62" s="18"/>
+      <c r="BS62" s="18"/>
+      <c r="BT62" s="18"/>
+      <c r="BU62" s="18"/>
+      <c r="BV62" s="18"/>
       <c r="BW62" s="3"/>
-      <c r="BX62" s="3"/>
+      <c r="BX62" s="18"/>
       <c r="BY62" s="3"/>
-      <c r="BZ62" s="3"/>
-      <c r="CA62" s="3"/>
-      <c r="CB62" s="3"/>
-      <c r="CC62" s="3"/>
-      <c r="CD62" s="3"/>
-      <c r="CE62" s="3"/>
-      <c r="CF62" s="3"/>
-      <c r="CG62" s="3"/>
-      <c r="CH62" s="3"/>
+      <c r="BZ62" s="18"/>
+      <c r="CA62" s="18"/>
+      <c r="CB62" s="18"/>
+      <c r="CC62" s="18"/>
+      <c r="CD62" s="18"/>
+      <c r="CE62" s="18"/>
+      <c r="CF62" s="18"/>
+      <c r="CG62" s="18"/>
+      <c r="CH62" s="18"/>
       <c r="CI62" s="3"/>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ62" s="18"/>
+      <c r="CK62" s="18"/>
+      <c r="CL62" s="18"/>
+      <c r="CM62" s="18"/>
+      <c r="CN62" s="18"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="18"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="18"/>
+      <c r="AH63" s="18"/>
+      <c r="AI63" s="18"/>
+      <c r="AJ63" s="18"/>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="18"/>
+      <c r="AM63" s="18"/>
+      <c r="AN63" s="18"/>
+      <c r="AO63" s="18"/>
+      <c r="AP63" s="18"/>
+      <c r="AQ63" s="18"/>
+      <c r="AR63" s="18"/>
+      <c r="AS63" s="18"/>
+      <c r="AT63" s="18"/>
+      <c r="AU63" s="18"/>
+      <c r="AV63" s="18"/>
+      <c r="AW63" s="18"/>
+      <c r="AX63" s="18"/>
+      <c r="AY63" s="18"/>
+      <c r="AZ63" s="18"/>
+      <c r="BA63" s="18"/>
+      <c r="BB63" s="18"/>
+      <c r="BC63" s="18"/>
+      <c r="BD63" s="18"/>
+      <c r="BE63" s="18"/>
+      <c r="BF63" s="18"/>
+      <c r="BG63" s="18"/>
+      <c r="BH63" s="18"/>
+      <c r="BI63" s="18"/>
+      <c r="BJ63" s="18"/>
+      <c r="BK63" s="18"/>
+      <c r="BL63" s="18"/>
+      <c r="BM63" s="18"/>
+      <c r="BN63" s="18"/>
+      <c r="BO63" s="18"/>
+      <c r="BP63" s="18"/>
+      <c r="BQ63" s="18"/>
+      <c r="BR63" s="18"/>
+      <c r="BS63" s="18"/>
+      <c r="BT63" s="18"/>
+      <c r="BU63" s="18"/>
+      <c r="BV63" s="18"/>
       <c r="BW63" s="3"/>
-      <c r="BX63" s="3"/>
+      <c r="BX63" s="18"/>
       <c r="BY63" s="3"/>
-      <c r="BZ63" s="3"/>
-      <c r="CA63" s="3"/>
-      <c r="CB63" s="3"/>
-      <c r="CC63" s="3"/>
-      <c r="CD63" s="3"/>
-      <c r="CE63" s="3"/>
-      <c r="CF63" s="3"/>
-      <c r="CG63" s="3"/>
-      <c r="CH63" s="3"/>
+      <c r="BZ63" s="18"/>
+      <c r="CA63" s="18"/>
+      <c r="CB63" s="18"/>
+      <c r="CC63" s="18"/>
+      <c r="CD63" s="18"/>
+      <c r="CE63" s="18"/>
+      <c r="CF63" s="18"/>
+      <c r="CG63" s="18"/>
+      <c r="CH63" s="18"/>
       <c r="CI63" s="3"/>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ63" s="18"/>
+      <c r="CK63" s="18"/>
+      <c r="CL63" s="18"/>
+      <c r="CM63" s="18"/>
+      <c r="CN63" s="18"/>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="18"/>
+      <c r="AB64" s="18"/>
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="18"/>
+      <c r="AE64" s="18"/>
+      <c r="AF64" s="18"/>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="18"/>
+      <c r="AI64" s="18"/>
+      <c r="AJ64" s="18"/>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="18"/>
+      <c r="AM64" s="18"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="18"/>
+      <c r="AQ64" s="18"/>
+      <c r="AR64" s="18"/>
+      <c r="AS64" s="18"/>
+      <c r="AT64" s="18"/>
+      <c r="AU64" s="18"/>
+      <c r="AV64" s="18"/>
+      <c r="AW64" s="18"/>
+      <c r="AX64" s="18"/>
+      <c r="AY64" s="18"/>
+      <c r="AZ64" s="18"/>
+      <c r="BA64" s="18"/>
+      <c r="BB64" s="18"/>
+      <c r="BC64" s="18"/>
+      <c r="BD64" s="18"/>
+      <c r="BE64" s="18"/>
+      <c r="BF64" s="18"/>
+      <c r="BG64" s="18"/>
+      <c r="BH64" s="18"/>
+      <c r="BI64" s="18"/>
+      <c r="BJ64" s="18"/>
+      <c r="BK64" s="18"/>
+      <c r="BL64" s="18"/>
+      <c r="BM64" s="18"/>
+      <c r="BN64" s="18"/>
+      <c r="BO64" s="18"/>
+      <c r="BP64" s="18"/>
+      <c r="BQ64" s="18"/>
+      <c r="BR64" s="18"/>
+      <c r="BS64" s="18"/>
+      <c r="BT64" s="18"/>
+      <c r="BU64" s="18"/>
+      <c r="BV64" s="18"/>
       <c r="BW64" s="3"/>
-      <c r="BX64" s="3"/>
+      <c r="BX64" s="18"/>
       <c r="BY64" s="3"/>
-      <c r="BZ64" s="3"/>
-      <c r="CA64" s="3"/>
-      <c r="CB64" s="3"/>
-      <c r="CC64" s="3"/>
-      <c r="CD64" s="3"/>
-      <c r="CE64" s="3"/>
-      <c r="CF64" s="3"/>
-      <c r="CG64" s="3"/>
-      <c r="CH64" s="3"/>
+      <c r="BZ64" s="18"/>
+      <c r="CA64" s="18"/>
+      <c r="CB64" s="18"/>
+      <c r="CC64" s="18"/>
+      <c r="CD64" s="18"/>
+      <c r="CE64" s="18"/>
+      <c r="CF64" s="18"/>
+      <c r="CG64" s="18"/>
+      <c r="CH64" s="18"/>
       <c r="CI64" s="3"/>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ64" s="18"/>
+      <c r="CK64" s="18"/>
+      <c r="CL64" s="18"/>
+      <c r="CM64" s="18"/>
+      <c r="CN64" s="18"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="18"/>
+      <c r="AB65" s="18"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="18"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18"/>
+      <c r="AO65" s="18"/>
+      <c r="AP65" s="18"/>
+      <c r="AQ65" s="18"/>
+      <c r="AR65" s="18"/>
+      <c r="AS65" s="18"/>
+      <c r="AT65" s="18"/>
+      <c r="AU65" s="18"/>
+      <c r="AV65" s="18"/>
+      <c r="AW65" s="18"/>
+      <c r="AX65" s="18"/>
+      <c r="AY65" s="18"/>
+      <c r="AZ65" s="18"/>
+      <c r="BA65" s="18"/>
+      <c r="BB65" s="18"/>
+      <c r="BC65" s="18"/>
+      <c r="BD65" s="18"/>
+      <c r="BE65" s="18"/>
+      <c r="BF65" s="18"/>
+      <c r="BG65" s="18"/>
+      <c r="BH65" s="18"/>
+      <c r="BI65" s="18"/>
+      <c r="BJ65" s="18"/>
+      <c r="BK65" s="18"/>
+      <c r="BL65" s="18"/>
+      <c r="BM65" s="18"/>
+      <c r="BN65" s="18"/>
+      <c r="BO65" s="18"/>
+      <c r="BP65" s="18"/>
+      <c r="BQ65" s="18"/>
+      <c r="BR65" s="18"/>
+      <c r="BS65" s="18"/>
+      <c r="BT65" s="18"/>
+      <c r="BU65" s="18"/>
+      <c r="BV65" s="18"/>
       <c r="BW65" s="3"/>
-      <c r="BX65" s="3"/>
+      <c r="BX65" s="18"/>
       <c r="BY65" s="3"/>
-      <c r="BZ65" s="3"/>
-      <c r="CA65" s="3"/>
-      <c r="CB65" s="3"/>
-      <c r="CC65" s="3"/>
-      <c r="CD65" s="3"/>
-      <c r="CE65" s="3"/>
-      <c r="CF65" s="3"/>
-      <c r="CG65" s="3"/>
-      <c r="CH65" s="3"/>
+      <c r="BZ65" s="18"/>
+      <c r="CA65" s="18"/>
+      <c r="CB65" s="18"/>
+      <c r="CC65" s="18"/>
+      <c r="CD65" s="18"/>
+      <c r="CE65" s="18"/>
+      <c r="CF65" s="18"/>
+      <c r="CG65" s="18"/>
+      <c r="CH65" s="18"/>
       <c r="CI65" s="3"/>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ65" s="18"/>
+      <c r="CK65" s="18"/>
+      <c r="CL65" s="18"/>
+      <c r="CM65" s="18"/>
+      <c r="CN65" s="18"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="18"/>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="18"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="18"/>
+      <c r="AI66" s="18"/>
+      <c r="AJ66" s="18"/>
+      <c r="AK66" s="18"/>
+      <c r="AL66" s="18"/>
+      <c r="AM66" s="18"/>
+      <c r="AN66" s="18"/>
+      <c r="AO66" s="18"/>
+      <c r="AP66" s="18"/>
+      <c r="AQ66" s="18"/>
+      <c r="AR66" s="18"/>
+      <c r="AS66" s="18"/>
+      <c r="AT66" s="18"/>
+      <c r="AU66" s="18"/>
+      <c r="AV66" s="18"/>
+      <c r="AW66" s="18"/>
+      <c r="AX66" s="18"/>
+      <c r="AY66" s="18"/>
+      <c r="AZ66" s="18"/>
+      <c r="BA66" s="18"/>
+      <c r="BB66" s="18"/>
+      <c r="BC66" s="18"/>
+      <c r="BD66" s="18"/>
+      <c r="BE66" s="18"/>
+      <c r="BF66" s="18"/>
+      <c r="BG66" s="18"/>
+      <c r="BH66" s="18"/>
+      <c r="BI66" s="18"/>
+      <c r="BJ66" s="18"/>
+      <c r="BK66" s="18"/>
+      <c r="BL66" s="18"/>
+      <c r="BM66" s="18"/>
+      <c r="BN66" s="18"/>
+      <c r="BO66" s="18"/>
+      <c r="BP66" s="18"/>
+      <c r="BQ66" s="18"/>
+      <c r="BR66" s="18"/>
+      <c r="BS66" s="18"/>
+      <c r="BT66" s="18"/>
+      <c r="BU66" s="18"/>
+      <c r="BV66" s="18"/>
       <c r="BW66" s="3"/>
-      <c r="BX66" s="3"/>
+      <c r="BX66" s="18"/>
       <c r="BY66" s="3"/>
-      <c r="BZ66" s="3"/>
-      <c r="CA66" s="3"/>
-      <c r="CB66" s="3"/>
-      <c r="CC66" s="3"/>
-      <c r="CD66" s="3"/>
-      <c r="CE66" s="3"/>
-      <c r="CF66" s="3"/>
-      <c r="CG66" s="3"/>
-      <c r="CH66" s="3"/>
+      <c r="BZ66" s="18"/>
+      <c r="CA66" s="18"/>
+      <c r="CB66" s="18"/>
+      <c r="CC66" s="18"/>
+      <c r="CD66" s="18"/>
+      <c r="CE66" s="18"/>
+      <c r="CF66" s="18"/>
+      <c r="CG66" s="18"/>
+      <c r="CH66" s="18"/>
       <c r="CI66" s="3"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ66" s="18"/>
+      <c r="CK66" s="18"/>
+      <c r="CL66" s="18"/>
+      <c r="CM66" s="18"/>
+      <c r="CN66" s="18"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="18"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="18"/>
+      <c r="AI67" s="18"/>
+      <c r="AJ67" s="18"/>
+      <c r="AK67" s="18"/>
+      <c r="AL67" s="18"/>
+      <c r="AM67" s="18"/>
+      <c r="AN67" s="18"/>
+      <c r="AO67" s="18"/>
+      <c r="AP67" s="18"/>
+      <c r="AQ67" s="18"/>
+      <c r="AR67" s="18"/>
+      <c r="AS67" s="18"/>
+      <c r="AT67" s="18"/>
+      <c r="AU67" s="18"/>
+      <c r="AV67" s="18"/>
+      <c r="AW67" s="18"/>
+      <c r="AX67" s="18"/>
+      <c r="AY67" s="18"/>
+      <c r="AZ67" s="18"/>
+      <c r="BA67" s="18"/>
+      <c r="BB67" s="18"/>
+      <c r="BC67" s="18"/>
+      <c r="BD67" s="18"/>
+      <c r="BE67" s="18"/>
+      <c r="BF67" s="18"/>
+      <c r="BG67" s="18"/>
+      <c r="BH67" s="18"/>
+      <c r="BI67" s="18"/>
+      <c r="BJ67" s="18"/>
+      <c r="BK67" s="18"/>
+      <c r="BL67" s="18"/>
+      <c r="BM67" s="18"/>
+      <c r="BN67" s="18"/>
+      <c r="BO67" s="18"/>
+      <c r="BP67" s="18"/>
+      <c r="BQ67" s="18"/>
+      <c r="BR67" s="18"/>
+      <c r="BS67" s="18"/>
+      <c r="BT67" s="18"/>
+      <c r="BU67" s="18"/>
+      <c r="BV67" s="18"/>
       <c r="BW67" s="3"/>
-      <c r="BX67" s="3"/>
+      <c r="BX67" s="18"/>
       <c r="BY67" s="3"/>
-      <c r="BZ67" s="3"/>
-      <c r="CA67" s="3"/>
-      <c r="CB67" s="3"/>
-      <c r="CC67" s="3"/>
-      <c r="CD67" s="3"/>
-      <c r="CE67" s="3"/>
-      <c r="CF67" s="3"/>
-      <c r="CG67" s="3"/>
-      <c r="CH67" s="3"/>
+      <c r="BZ67" s="18"/>
+      <c r="CA67" s="18"/>
+      <c r="CB67" s="18"/>
+      <c r="CC67" s="18"/>
+      <c r="CD67" s="18"/>
+      <c r="CE67" s="18"/>
+      <c r="CF67" s="18"/>
+      <c r="CG67" s="18"/>
+      <c r="CH67" s="18"/>
       <c r="CI67" s="3"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ67" s="18"/>
+      <c r="CK67" s="18"/>
+      <c r="CL67" s="18"/>
+      <c r="CM67" s="18"/>
+      <c r="CN67" s="18"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+      <c r="AA68" s="18"/>
+      <c r="AB68" s="18"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="18"/>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="18"/>
+      <c r="AG68" s="18"/>
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="18"/>
+      <c r="AJ68" s="18"/>
+      <c r="AK68" s="18"/>
+      <c r="AL68" s="18"/>
+      <c r="AM68" s="18"/>
+      <c r="AN68" s="18"/>
+      <c r="AO68" s="18"/>
+      <c r="AP68" s="18"/>
+      <c r="AQ68" s="18"/>
+      <c r="AR68" s="18"/>
+      <c r="AS68" s="18"/>
+      <c r="AT68" s="18"/>
+      <c r="AU68" s="18"/>
+      <c r="AV68" s="18"/>
+      <c r="AW68" s="18"/>
+      <c r="AX68" s="18"/>
+      <c r="AY68" s="18"/>
+      <c r="AZ68" s="18"/>
+      <c r="BA68" s="18"/>
+      <c r="BB68" s="18"/>
+      <c r="BC68" s="18"/>
+      <c r="BD68" s="18"/>
+      <c r="BE68" s="18"/>
+      <c r="BF68" s="18"/>
+      <c r="BG68" s="18"/>
+      <c r="BH68" s="18"/>
+      <c r="BI68" s="18"/>
+      <c r="BJ68" s="18"/>
+      <c r="BK68" s="18"/>
+      <c r="BL68" s="18"/>
+      <c r="BM68" s="18"/>
+      <c r="BN68" s="18"/>
+      <c r="BO68" s="18"/>
+      <c r="BP68" s="18"/>
+      <c r="BQ68" s="18"/>
+      <c r="BR68" s="18"/>
+      <c r="BS68" s="18"/>
+      <c r="BT68" s="18"/>
+      <c r="BU68" s="18"/>
+      <c r="BV68" s="18"/>
       <c r="BW68" s="3"/>
-      <c r="BX68" s="3"/>
+      <c r="BX68" s="18"/>
       <c r="BY68" s="3"/>
-      <c r="BZ68" s="3"/>
-      <c r="CA68" s="3"/>
-      <c r="CB68" s="3"/>
-      <c r="CC68" s="3"/>
-      <c r="CD68" s="3"/>
-      <c r="CE68" s="3"/>
-      <c r="CF68" s="3"/>
-      <c r="CG68" s="3"/>
-      <c r="CH68" s="3"/>
+      <c r="BZ68" s="18"/>
+      <c r="CA68" s="18"/>
+      <c r="CB68" s="18"/>
+      <c r="CC68" s="18"/>
+      <c r="CD68" s="18"/>
+      <c r="CE68" s="18"/>
+      <c r="CF68" s="18"/>
+      <c r="CG68" s="18"/>
+      <c r="CH68" s="18"/>
       <c r="CI68" s="3"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ68" s="18"/>
+      <c r="CK68" s="18"/>
+      <c r="CL68" s="18"/>
+      <c r="CM68" s="18"/>
+      <c r="CN68" s="18"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+      <c r="AA69" s="18"/>
+      <c r="AB69" s="18"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="18"/>
+      <c r="AE69" s="18"/>
+      <c r="AF69" s="18"/>
+      <c r="AG69" s="18"/>
+      <c r="AH69" s="18"/>
+      <c r="AI69" s="18"/>
+      <c r="AJ69" s="18"/>
+      <c r="AK69" s="18"/>
+      <c r="AL69" s="18"/>
+      <c r="AM69" s="18"/>
+      <c r="AN69" s="18"/>
+      <c r="AO69" s="18"/>
+      <c r="AP69" s="18"/>
+      <c r="AQ69" s="18"/>
+      <c r="AR69" s="18"/>
+      <c r="AS69" s="18"/>
+      <c r="AT69" s="18"/>
+      <c r="AU69" s="18"/>
+      <c r="AV69" s="18"/>
+      <c r="AW69" s="18"/>
+      <c r="AX69" s="18"/>
+      <c r="AY69" s="18"/>
+      <c r="AZ69" s="18"/>
+      <c r="BA69" s="18"/>
+      <c r="BB69" s="18"/>
+      <c r="BC69" s="18"/>
+      <c r="BD69" s="18"/>
+      <c r="BE69" s="18"/>
+      <c r="BF69" s="18"/>
+      <c r="BG69" s="18"/>
+      <c r="BH69" s="18"/>
+      <c r="BI69" s="18"/>
+      <c r="BJ69" s="18"/>
+      <c r="BK69" s="18"/>
+      <c r="BL69" s="18"/>
+      <c r="BM69" s="18"/>
+      <c r="BN69" s="18"/>
+      <c r="BO69" s="18"/>
+      <c r="BP69" s="18"/>
+      <c r="BQ69" s="18"/>
+      <c r="BR69" s="18"/>
+      <c r="BS69" s="18"/>
+      <c r="BT69" s="18"/>
+      <c r="BU69" s="18"/>
+      <c r="BV69" s="18"/>
       <c r="BW69" s="3"/>
-      <c r="BX69" s="3"/>
+      <c r="BX69" s="18"/>
       <c r="BY69" s="3"/>
-      <c r="BZ69" s="3"/>
-      <c r="CA69" s="3"/>
-      <c r="CB69" s="3"/>
-      <c r="CC69" s="3"/>
-      <c r="CD69" s="3"/>
-      <c r="CE69" s="3"/>
-      <c r="CF69" s="3"/>
-      <c r="CG69" s="3"/>
-      <c r="CH69" s="3"/>
+      <c r="BZ69" s="18"/>
+      <c r="CA69" s="18"/>
+      <c r="CB69" s="18"/>
+      <c r="CC69" s="18"/>
+      <c r="CD69" s="18"/>
+      <c r="CE69" s="18"/>
+      <c r="CF69" s="18"/>
+      <c r="CG69" s="18"/>
+      <c r="CH69" s="18"/>
       <c r="CI69" s="3"/>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ69" s="18"/>
+      <c r="CK69" s="18"/>
+      <c r="CL69" s="18"/>
+      <c r="CM69" s="18"/>
+      <c r="CN69" s="18"/>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18"/>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="18"/>
+      <c r="AQ70" s="18"/>
+      <c r="AR70" s="18"/>
+      <c r="AS70" s="18"/>
+      <c r="AT70" s="18"/>
+      <c r="AU70" s="18"/>
+      <c r="AV70" s="18"/>
+      <c r="AW70" s="18"/>
+      <c r="AX70" s="18"/>
+      <c r="AY70" s="18"/>
+      <c r="AZ70" s="18"/>
+      <c r="BA70" s="18"/>
+      <c r="BB70" s="18"/>
+      <c r="BC70" s="18"/>
+      <c r="BD70" s="18"/>
+      <c r="BE70" s="18"/>
+      <c r="BF70" s="18"/>
+      <c r="BG70" s="18"/>
+      <c r="BH70" s="18"/>
+      <c r="BI70" s="18"/>
+      <c r="BJ70" s="18"/>
+      <c r="BK70" s="18"/>
+      <c r="BL70" s="18"/>
+      <c r="BM70" s="18"/>
+      <c r="BN70" s="18"/>
+      <c r="BO70" s="18"/>
+      <c r="BP70" s="18"/>
+      <c r="BQ70" s="18"/>
+      <c r="BR70" s="18"/>
+      <c r="BS70" s="18"/>
+      <c r="BT70" s="18"/>
+      <c r="BU70" s="18"/>
+      <c r="BV70" s="18"/>
       <c r="BW70" s="3"/>
-      <c r="BX70" s="3"/>
+      <c r="BX70" s="18"/>
       <c r="BY70" s="3"/>
-      <c r="BZ70" s="3"/>
-      <c r="CA70" s="3"/>
-      <c r="CB70" s="3"/>
-      <c r="CC70" s="3"/>
-      <c r="CD70" s="3"/>
-      <c r="CE70" s="3"/>
-      <c r="CF70" s="3"/>
-      <c r="CG70" s="3"/>
-      <c r="CH70" s="3"/>
+      <c r="BZ70" s="18"/>
+      <c r="CA70" s="18"/>
+      <c r="CB70" s="18"/>
+      <c r="CC70" s="18"/>
+      <c r="CD70" s="18"/>
+      <c r="CE70" s="18"/>
+      <c r="CF70" s="18"/>
+      <c r="CG70" s="18"/>
+      <c r="CH70" s="18"/>
       <c r="CI70" s="3"/>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ70" s="18"/>
+      <c r="CK70" s="18"/>
+      <c r="CL70" s="18"/>
+      <c r="CM70" s="18"/>
+      <c r="CN70" s="18"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="18"/>
+      <c r="AC71" s="18"/>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="18"/>
+      <c r="AF71" s="18"/>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="18"/>
+      <c r="AI71" s="18"/>
+      <c r="AJ71" s="18"/>
+      <c r="AK71" s="18"/>
+      <c r="AL71" s="18"/>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="18"/>
+      <c r="AO71" s="18"/>
+      <c r="AP71" s="18"/>
+      <c r="AQ71" s="18"/>
+      <c r="AR71" s="18"/>
+      <c r="AS71" s="18"/>
+      <c r="AT71" s="18"/>
+      <c r="AU71" s="18"/>
+      <c r="AV71" s="18"/>
+      <c r="AW71" s="18"/>
+      <c r="AX71" s="18"/>
+      <c r="AY71" s="18"/>
+      <c r="AZ71" s="18"/>
+      <c r="BA71" s="18"/>
+      <c r="BB71" s="18"/>
+      <c r="BC71" s="18"/>
+      <c r="BD71" s="18"/>
+      <c r="BE71" s="18"/>
+      <c r="BF71" s="18"/>
+      <c r="BG71" s="18"/>
+      <c r="BH71" s="18"/>
+      <c r="BI71" s="18"/>
+      <c r="BJ71" s="18"/>
+      <c r="BK71" s="18"/>
+      <c r="BL71" s="18"/>
+      <c r="BM71" s="18"/>
+      <c r="BN71" s="18"/>
+      <c r="BO71" s="18"/>
+      <c r="BP71" s="18"/>
+      <c r="BQ71" s="18"/>
+      <c r="BR71" s="18"/>
+      <c r="BS71" s="18"/>
+      <c r="BT71" s="18"/>
+      <c r="BU71" s="18"/>
+      <c r="BV71" s="18"/>
       <c r="BW71" s="3"/>
-      <c r="BX71" s="3"/>
+      <c r="BX71" s="18"/>
       <c r="BY71" s="3"/>
-      <c r="BZ71" s="3"/>
-      <c r="CA71" s="3"/>
-      <c r="CB71" s="3"/>
-      <c r="CC71" s="3"/>
-      <c r="CD71" s="3"/>
-      <c r="CE71" s="3"/>
-      <c r="CF71" s="3"/>
-      <c r="CG71" s="3"/>
-      <c r="CH71" s="3"/>
+      <c r="BZ71" s="18"/>
+      <c r="CA71" s="18"/>
+      <c r="CB71" s="18"/>
+      <c r="CC71" s="18"/>
+      <c r="CD71" s="18"/>
+      <c r="CE71" s="18"/>
+      <c r="CF71" s="18"/>
+      <c r="CG71" s="18"/>
+      <c r="CH71" s="18"/>
       <c r="CI71" s="3"/>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ71" s="18"/>
+      <c r="CK71" s="18"/>
+      <c r="CL71" s="18"/>
+      <c r="CM71" s="18"/>
+      <c r="CN71" s="18"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="18"/>
+      <c r="AG72" s="18"/>
+      <c r="AH72" s="18"/>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="18"/>
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18"/>
+      <c r="AO72" s="18"/>
+      <c r="AP72" s="18"/>
+      <c r="AQ72" s="18"/>
+      <c r="AR72" s="18"/>
+      <c r="AS72" s="18"/>
+      <c r="AT72" s="18"/>
+      <c r="AU72" s="18"/>
+      <c r="AV72" s="18"/>
+      <c r="AW72" s="18"/>
+      <c r="AX72" s="18"/>
+      <c r="AY72" s="18"/>
+      <c r="AZ72" s="18"/>
+      <c r="BA72" s="18"/>
+      <c r="BB72" s="18"/>
+      <c r="BC72" s="18"/>
+      <c r="BD72" s="18"/>
+      <c r="BE72" s="18"/>
+      <c r="BF72" s="18"/>
+      <c r="BG72" s="18"/>
+      <c r="BH72" s="18"/>
+      <c r="BI72" s="18"/>
+      <c r="BJ72" s="18"/>
+      <c r="BK72" s="18"/>
+      <c r="BL72" s="18"/>
+      <c r="BM72" s="18"/>
+      <c r="BN72" s="18"/>
+      <c r="BO72" s="18"/>
+      <c r="BP72" s="18"/>
+      <c r="BQ72" s="18"/>
+      <c r="BR72" s="18"/>
+      <c r="BS72" s="18"/>
+      <c r="BT72" s="18"/>
+      <c r="BU72" s="18"/>
+      <c r="BV72" s="18"/>
       <c r="BW72" s="3"/>
-      <c r="BX72" s="3"/>
+      <c r="BX72" s="18"/>
       <c r="BY72" s="3"/>
-      <c r="BZ72" s="3"/>
-      <c r="CA72" s="3"/>
-      <c r="CB72" s="3"/>
-      <c r="CC72" s="3"/>
-      <c r="CD72" s="3"/>
-      <c r="CE72" s="3"/>
-      <c r="CF72" s="3"/>
-      <c r="CG72" s="3"/>
-      <c r="CH72" s="3"/>
+      <c r="BZ72" s="18"/>
+      <c r="CA72" s="18"/>
+      <c r="CB72" s="18"/>
+      <c r="CC72" s="18"/>
+      <c r="CD72" s="18"/>
+      <c r="CE72" s="18"/>
+      <c r="CF72" s="18"/>
+      <c r="CG72" s="18"/>
+      <c r="CH72" s="18"/>
       <c r="CI72" s="3"/>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ72" s="18"/>
+      <c r="CK72" s="18"/>
+      <c r="CL72" s="18"/>
+      <c r="CM72" s="18"/>
+      <c r="CN72" s="18"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="18"/>
+      <c r="AA73" s="18"/>
+      <c r="AB73" s="18"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="18"/>
+      <c r="AE73" s="18"/>
+      <c r="AF73" s="18"/>
+      <c r="AG73" s="18"/>
+      <c r="AH73" s="18"/>
+      <c r="AI73" s="18"/>
+      <c r="AJ73" s="18"/>
+      <c r="AK73" s="18"/>
+      <c r="AL73" s="18"/>
+      <c r="AM73" s="18"/>
+      <c r="AN73" s="18"/>
+      <c r="AO73" s="18"/>
+      <c r="AP73" s="18"/>
+      <c r="AQ73" s="18"/>
+      <c r="AR73" s="18"/>
+      <c r="AS73" s="18"/>
+      <c r="AT73" s="18"/>
+      <c r="AU73" s="18"/>
+      <c r="AV73" s="18"/>
+      <c r="AW73" s="18"/>
+      <c r="AX73" s="18"/>
+      <c r="AY73" s="18"/>
+      <c r="AZ73" s="18"/>
+      <c r="BA73" s="18"/>
+      <c r="BB73" s="18"/>
+      <c r="BC73" s="18"/>
+      <c r="BD73" s="18"/>
+      <c r="BE73" s="18"/>
+      <c r="BF73" s="18"/>
+      <c r="BG73" s="18"/>
+      <c r="BH73" s="18"/>
+      <c r="BI73" s="18"/>
+      <c r="BJ73" s="18"/>
+      <c r="BK73" s="18"/>
+      <c r="BL73" s="18"/>
+      <c r="BM73" s="18"/>
+      <c r="BN73" s="18"/>
+      <c r="BO73" s="18"/>
+      <c r="BP73" s="18"/>
+      <c r="BQ73" s="18"/>
+      <c r="BR73" s="18"/>
+      <c r="BS73" s="18"/>
+      <c r="BT73" s="18"/>
+      <c r="BU73" s="18"/>
+      <c r="BV73" s="18"/>
       <c r="BW73" s="3"/>
-      <c r="BX73" s="3"/>
+      <c r="BX73" s="18"/>
       <c r="BY73" s="3"/>
-      <c r="BZ73" s="3"/>
-      <c r="CA73" s="3"/>
-      <c r="CB73" s="3"/>
-      <c r="CC73" s="3"/>
-      <c r="CD73" s="3"/>
-      <c r="CE73" s="3"/>
-      <c r="CF73" s="3"/>
-      <c r="CG73" s="3"/>
-      <c r="CH73" s="3"/>
+      <c r="BZ73" s="18"/>
+      <c r="CA73" s="18"/>
+      <c r="CB73" s="18"/>
+      <c r="CC73" s="18"/>
+      <c r="CD73" s="18"/>
+      <c r="CE73" s="18"/>
+      <c r="CF73" s="18"/>
+      <c r="CG73" s="18"/>
+      <c r="CH73" s="18"/>
       <c r="CI73" s="3"/>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ73" s="18"/>
+      <c r="CK73" s="18"/>
+      <c r="CL73" s="18"/>
+      <c r="CM73" s="18"/>
+      <c r="CN73" s="18"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="18"/>
+      <c r="AB74" s="18"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="18"/>
+      <c r="AE74" s="18"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="18"/>
+      <c r="AI74" s="18"/>
+      <c r="AJ74" s="18"/>
+      <c r="AK74" s="18"/>
+      <c r="AL74" s="18"/>
+      <c r="AM74" s="18"/>
+      <c r="AN74" s="18"/>
+      <c r="AO74" s="18"/>
+      <c r="AP74" s="18"/>
+      <c r="AQ74" s="18"/>
+      <c r="AR74" s="18"/>
+      <c r="AS74" s="18"/>
+      <c r="AT74" s="18"/>
+      <c r="AU74" s="18"/>
+      <c r="AV74" s="18"/>
+      <c r="AW74" s="18"/>
+      <c r="AX74" s="18"/>
+      <c r="AY74" s="18"/>
+      <c r="AZ74" s="18"/>
+      <c r="BA74" s="18"/>
+      <c r="BB74" s="18"/>
+      <c r="BC74" s="18"/>
+      <c r="BD74" s="18"/>
+      <c r="BE74" s="18"/>
+      <c r="BF74" s="18"/>
+      <c r="BG74" s="18"/>
+      <c r="BH74" s="18"/>
+      <c r="BI74" s="18"/>
+      <c r="BJ74" s="18"/>
+      <c r="BK74" s="18"/>
+      <c r="BL74" s="18"/>
+      <c r="BM74" s="18"/>
+      <c r="BN74" s="18"/>
+      <c r="BO74" s="18"/>
+      <c r="BP74" s="18"/>
+      <c r="BQ74" s="18"/>
+      <c r="BR74" s="18"/>
+      <c r="BS74" s="18"/>
+      <c r="BT74" s="18"/>
+      <c r="BU74" s="18"/>
+      <c r="BV74" s="18"/>
       <c r="BW74" s="3"/>
-      <c r="BX74" s="3"/>
+      <c r="BX74" s="18"/>
       <c r="BY74" s="3"/>
-      <c r="BZ74" s="3"/>
-      <c r="CA74" s="3"/>
-      <c r="CB74" s="3"/>
-      <c r="CC74" s="3"/>
-      <c r="CD74" s="3"/>
-      <c r="CE74" s="3"/>
-      <c r="CF74" s="3"/>
-      <c r="CG74" s="3"/>
-      <c r="CH74" s="3"/>
+      <c r="BZ74" s="18"/>
+      <c r="CA74" s="18"/>
+      <c r="CB74" s="18"/>
+      <c r="CC74" s="18"/>
+      <c r="CD74" s="18"/>
+      <c r="CE74" s="18"/>
+      <c r="CF74" s="18"/>
+      <c r="CG74" s="18"/>
+      <c r="CH74" s="18"/>
       <c r="CI74" s="3"/>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="75:87">
+      <c r="CJ74" s="18"/>
+      <c r="CK74" s="18"/>
+      <c r="CL74" s="18"/>
+      <c r="CM74" s="18"/>
+      <c r="CN74" s="18"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:92">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="18"/>
+      <c r="AB75" s="18"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="18"/>
+      <c r="AE75" s="18"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="18"/>
+      <c r="AH75" s="18"/>
+      <c r="AI75" s="18"/>
+      <c r="AJ75" s="18"/>
+      <c r="AK75" s="18"/>
+      <c r="AL75" s="18"/>
+      <c r="AM75" s="18"/>
+      <c r="AN75" s="18"/>
+      <c r="AO75" s="18"/>
+      <c r="AP75" s="18"/>
+      <c r="AQ75" s="18"/>
+      <c r="AR75" s="18"/>
+      <c r="AS75" s="18"/>
+      <c r="AT75" s="18"/>
+      <c r="AU75" s="18"/>
+      <c r="AV75" s="18"/>
+      <c r="AW75" s="18"/>
+      <c r="AX75" s="18"/>
+      <c r="AY75" s="18"/>
+      <c r="AZ75" s="18"/>
+      <c r="BA75" s="18"/>
+      <c r="BB75" s="18"/>
+      <c r="BC75" s="18"/>
+      <c r="BD75" s="18"/>
+      <c r="BE75" s="18"/>
+      <c r="BF75" s="18"/>
+      <c r="BG75" s="18"/>
+      <c r="BH75" s="18"/>
+      <c r="BI75" s="18"/>
+      <c r="BJ75" s="18"/>
+      <c r="BK75" s="18"/>
+      <c r="BL75" s="18"/>
+      <c r="BM75" s="18"/>
+      <c r="BN75" s="18"/>
+      <c r="BO75" s="18"/>
+      <c r="BP75" s="18"/>
+      <c r="BQ75" s="18"/>
+      <c r="BR75" s="18"/>
+      <c r="BS75" s="18"/>
+      <c r="BT75" s="18"/>
+      <c r="BU75" s="18"/>
+      <c r="BV75" s="18"/>
       <c r="BW75" s="3"/>
-      <c r="BX75" s="3"/>
+      <c r="BX75" s="18"/>
       <c r="BY75" s="3"/>
-      <c r="BZ75" s="3"/>
-      <c r="CA75" s="3"/>
-      <c r="CB75" s="3"/>
-      <c r="CC75" s="3"/>
-      <c r="CD75" s="3"/>
-      <c r="CE75" s="3"/>
-      <c r="CF75" s="3"/>
-      <c r="CG75" s="3"/>
-      <c r="CH75" s="3"/>
+      <c r="BZ75" s="18"/>
+      <c r="CA75" s="18"/>
+      <c r="CB75" s="18"/>
+      <c r="CC75" s="18"/>
+      <c r="CD75" s="18"/>
+      <c r="CE75" s="18"/>
+      <c r="CF75" s="18"/>
+      <c r="CG75" s="18"/>
+      <c r="CH75" s="18"/>
       <c r="CI75" s="3"/>
+      <c r="CJ75" s="18"/>
+      <c r="CK75" s="18"/>
+      <c r="CL75" s="18"/>
+      <c r="CM75" s="18"/>
+      <c r="CN75" s="18"/>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="75:87">
       <c r="BW76" s="3"/>
@@ -6746,7 +10314,7 @@
       <c r="CI203" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="75">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -6802,7 +10370,7 @@
     <mergeCell ref="AJ18:AM18"/>
     <mergeCell ref="AN18:AP18"/>
     <mergeCell ref="B19:AP19"/>
-    <mergeCell ref="AR19:CJ19"/>
+    <mergeCell ref="AR19:CN19"/>
     <mergeCell ref="CA17:CA18"/>
     <mergeCell ref="CB17:CB18"/>
     <mergeCell ref="CC17:CC18"/>
@@ -6810,6 +10378,8 @@
     <mergeCell ref="CE17:CE18"/>
     <mergeCell ref="CF17:CF18"/>
     <mergeCell ref="CG17:CG18"/>
+    <mergeCell ref="CH17:CH18"/>
+    <mergeCell ref="CI17:CI18"/>
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="N7:Q8"/>
     <mergeCell ref="K9:M10"/>
@@ -6819,7 +10389,7 @@
     <mergeCell ref="BW2:BX3"/>
     <mergeCell ref="AJ4:AL8"/>
     <mergeCell ref="AJ9:AL15"/>
-    <mergeCell ref="CH17:CJ18"/>
+    <mergeCell ref="CJ17:CN18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/storage/app/excel/child_application_table.xlsx
+++ b/storage/app/excel/child_application_table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LK_sources\storage\app\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB3A92-234C-4F84-BC3E-696E7FACA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62608D1-1F42-45EB-9CD9-06A5E958BA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="90" windowWidth="25290" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CQ$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CO$64</definedName>
   </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>定員</t>
   </si>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>登園
-日数</t>
-  </si>
-  <si>
-    <t>欠席
 日数</t>
   </si>
   <si>
@@ -707,6 +703,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +832,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,17 +862,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DQ191"/>
+  <dimension ref="A1:DO191"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
@@ -1200,54 +1196,54 @@
     <col min="51" max="51" width="3.28515625" style="1" customWidth="1"/>
     <col min="52" max="72" width="3.28515625" style="11" customWidth="1"/>
     <col min="73" max="81" width="3.140625" style="11" customWidth="1"/>
-    <col min="82" max="86" width="3.28515625" style="11" customWidth="1"/>
-    <col min="87" max="93" width="3.140625" style="72" customWidth="1"/>
-    <col min="94" max="94" width="7.85546875" style="1" customWidth="1"/>
-    <col min="95" max="95" width="7.85546875" style="11" customWidth="1"/>
-    <col min="96" max="99" width="7.85546875" style="14" customWidth="1"/>
-    <col min="100" max="120" width="3.140625" style="1" customWidth="1"/>
-    <col min="121" max="121" width="9" style="1"/>
+    <col min="82" max="84" width="3.28515625" style="11" customWidth="1"/>
+    <col min="85" max="91" width="3.140625" style="21" customWidth="1"/>
+    <col min="92" max="92" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.85546875" style="11" customWidth="1"/>
+    <col min="94" max="97" width="7.85546875" style="14" customWidth="1"/>
+    <col min="98" max="118" width="3.140625" style="1" customWidth="1"/>
+    <col min="119" max="119" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
       <c r="CR1" s="2"/>
       <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-    </row>
-    <row r="2" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
       <c r="CR2" s="2"/>
       <c r="CS2" s="2"/>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-    </row>
-    <row r="3" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="33" t="s">
+    </row>
+    <row r="3" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="34" t="s">
+      <c r="T3" s="31"/>
+      <c r="U3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="33"/>
-      <c r="W3" s="30"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="31"/>
       <c r="AZ3" s="17"/>
       <c r="BA3" s="17"/>
       <c r="BB3" s="17"/>
@@ -1279,16 +1275,16 @@
       <c r="CB3" s="17"/>
       <c r="CC3" s="17"/>
       <c r="CD3" s="18"/>
-      <c r="CE3" s="22" t="s">
+      <c r="CE3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="CF3" s="23"/>
+      <c r="CF3" s="24"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
       <c r="CR3" s="2"/>
       <c r="CS3" s="2"/>
-      <c r="CT3" s="2"/>
-      <c r="CU3" s="2"/>
-    </row>
-    <row r="4" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AZ4" s="17"/>
       <c r="BA4" s="17"/>
       <c r="BB4" s="17"/>
@@ -1320,44 +1316,44 @@
       <c r="CB4" s="17"/>
       <c r="CC4" s="17"/>
       <c r="CD4" s="17"/>
-      <c r="CE4" s="24"/>
-      <c r="CF4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="26"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
-      <c r="CT4" s="2"/>
-      <c r="CU4" s="2"/>
-    </row>
-    <row r="5" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+    </row>
+    <row r="5" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="30"/>
-      <c r="K5" s="35" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="31"/>
+      <c r="K5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="30"/>
-      <c r="AQ5" s="53" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="31"/>
+      <c r="AQ5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="21" t="s">
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
       <c r="AY5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1392,42 +1388,42 @@
       <c r="CB5" s="19"/>
       <c r="CC5" s="19"/>
       <c r="CD5" s="19"/>
-      <c r="CE5" s="29"/>
-      <c r="CF5" s="30"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="31"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
       <c r="CR5" s="2"/>
       <c r="CS5" s="2"/>
-      <c r="CT5" s="2"/>
-      <c r="CU5" s="2"/>
-    </row>
-    <row r="6" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+    </row>
+    <row r="6" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="30"/>
-      <c r="K6" s="35" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="31"/>
+      <c r="K6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="30"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="21" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="31"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
       <c r="AY6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1462,42 +1458,42 @@
       <c r="CB6" s="19"/>
       <c r="CC6" s="19"/>
       <c r="CD6" s="19"/>
-      <c r="CE6" s="29"/>
-      <c r="CF6" s="30"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="31"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
       <c r="CR6" s="2"/>
       <c r="CS6" s="2"/>
-      <c r="CT6" s="2"/>
-      <c r="CU6" s="2"/>
-    </row>
-    <row r="7" spans="2:99" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+    </row>
+    <row r="7" spans="2:97" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="30"/>
-      <c r="K7" s="44" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="31"/>
+      <c r="K7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="21" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
       <c r="AY7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1532,40 +1528,40 @@
       <c r="CB7" s="19"/>
       <c r="CC7" s="19"/>
       <c r="CD7" s="19"/>
-      <c r="CE7" s="29"/>
-      <c r="CF7" s="30"/>
+      <c r="CE7" s="30"/>
+      <c r="CF7" s="31"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
       <c r="CR7" s="2"/>
       <c r="CS7" s="2"/>
-      <c r="CT7" s="2"/>
-      <c r="CU7" s="2"/>
-    </row>
-    <row r="8" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+    </row>
+    <row r="8" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="30"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="21" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="31"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
       <c r="AY8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1600,42 +1596,42 @@
       <c r="CB8" s="19"/>
       <c r="CC8" s="19"/>
       <c r="CD8" s="19"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="31"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
       <c r="CR8" s="2"/>
       <c r="CS8" s="2"/>
-      <c r="CT8" s="2"/>
-      <c r="CU8" s="2"/>
-    </row>
-    <row r="9" spans="2:99" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+    </row>
+    <row r="9" spans="2:97" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="30"/>
-      <c r="K9" s="44" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="31"/>
+      <c r="K9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="21" t="s">
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
       <c r="AY9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1670,30 +1666,30 @@
       <c r="CB9" s="20"/>
       <c r="CC9" s="20"/>
       <c r="CD9" s="20"/>
-      <c r="CE9" s="51"/>
-      <c r="CF9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="53"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
       <c r="CR9" s="2"/>
       <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-    </row>
-    <row r="10" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    </row>
+    <row r="10" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="30"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="31"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
@@ -1736,12 +1732,12 @@
       <c r="CD10" s="5"/>
       <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
       <c r="CR10" s="2"/>
       <c r="CS10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CU10" s="2"/>
-    </row>
-    <row r="11" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
@@ -1784,12 +1780,12 @@
       <c r="CD11" s="4"/>
       <c r="CE11" s="4"/>
       <c r="CF11" s="4"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
       <c r="CR11" s="2"/>
       <c r="CS11" s="2"/>
-      <c r="CT11" s="2"/>
-      <c r="CU11" s="2"/>
-    </row>
-    <row r="12" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
@@ -1832,12 +1828,12 @@
       <c r="CD12" s="4"/>
       <c r="CE12" s="4"/>
       <c r="CF12" s="4"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
-      <c r="CT12" s="2"/>
-      <c r="CU12" s="2"/>
-    </row>
-    <row r="13" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
@@ -1880,12 +1876,12 @@
       <c r="CD13" s="4"/>
       <c r="CE13" s="4"/>
       <c r="CF13" s="4"/>
+      <c r="CP13" s="2"/>
+      <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
-      <c r="CT13" s="2"/>
-      <c r="CU13" s="2"/>
-    </row>
-    <row r="14" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
@@ -1928,12 +1924,12 @@
       <c r="CD14" s="4"/>
       <c r="CE14" s="4"/>
       <c r="CF14" s="4"/>
+      <c r="CP14" s="2"/>
+      <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
-      <c r="CT14" s="2"/>
-      <c r="CU14" s="2"/>
-    </row>
-    <row r="15" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
@@ -1976,18 +1972,18 @@
       <c r="CD15" s="4"/>
       <c r="CE15" s="4"/>
       <c r="CF15" s="4"/>
+      <c r="CP15" s="2"/>
+      <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
-      <c r="CT15" s="2"/>
-      <c r="CU15" s="2"/>
-    </row>
-    <row r="16" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CP16" s="2"/>
+      <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
-      <c r="CT16" s="2"/>
-      <c r="CU16" s="2"/>
-    </row>
-    <row r="17" spans="2:99" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:97" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AZ17" s="17"/>
       <c r="BA17" s="17"/>
       <c r="BB17" s="17"/>
@@ -2019,120 +2015,116 @@
       <c r="CB17" s="17"/>
       <c r="CC17" s="17"/>
       <c r="CD17" s="18"/>
-      <c r="CE17" s="67" t="s">
+      <c r="CE17" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="CF17" s="68"/>
-      <c r="CG17" s="71" t="s">
+      <c r="CF17" s="71"/>
+      <c r="CG17" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="CH17" s="68"/>
-      <c r="CI17" s="73" t="s">
+      <c r="CH17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="CJ17" s="73" t="s">
+      <c r="CI17" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="CK17" s="73" t="s">
+      <c r="CJ17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK17" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="CL17" s="73" t="s">
-        <v>24</v>
+      <c r="CL17" s="64" t="s">
+        <v>25</v>
       </c>
-      <c r="CM17" s="73" t="s">
+      <c r="CM17" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="CN17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="CN17" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="CO17" s="73" t="s">
+      <c r="CO17" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="CP17" s="63" t="s">
+      <c r="CP17" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="CQ17" s="59"/>
+      <c r="CR17" s="59"/>
+      <c r="CS17" s="59"/>
+    </row>
+    <row r="18" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CQ17" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="CR17" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="CS17" s="58"/>
-      <c r="CT17" s="58"/>
-      <c r="CU17" s="58"/>
-    </row>
-    <row r="18" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57" t="s">
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57" t="s">
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57" t="s">
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57" t="s">
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57" t="s">
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57" t="s">
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
       <c r="AY18" s="9"/>
       <c r="AZ18" s="17"/>
       <c r="BA18" s="17"/>
@@ -2165,124 +2157,120 @@
       <c r="CB18" s="17"/>
       <c r="CC18" s="17"/>
       <c r="CD18" s="18"/>
-      <c r="CE18" s="69"/>
-      <c r="CF18" s="70"/>
-      <c r="CG18" s="70"/>
-      <c r="CH18" s="70"/>
-      <c r="CI18" s="74"/>
-      <c r="CJ18" s="74"/>
-      <c r="CK18" s="74"/>
-      <c r="CL18" s="74"/>
-      <c r="CM18" s="74"/>
-      <c r="CN18" s="74"/>
-      <c r="CO18" s="74"/>
-      <c r="CP18" s="64"/>
-      <c r="CQ18" s="66"/>
-      <c r="CR18" s="59"/>
-      <c r="CS18" s="59"/>
-      <c r="CT18" s="59"/>
-      <c r="CU18" s="59"/>
-    </row>
-    <row r="19" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AZ19" s="60"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="61"/>
-      <c r="BC19" s="61"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="61"/>
-      <c r="BK19" s="61"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="61"/>
-      <c r="BN19" s="61"/>
-      <c r="BO19" s="61"/>
-      <c r="BP19" s="61"/>
-      <c r="BQ19" s="61"/>
-      <c r="BR19" s="61"/>
-      <c r="BS19" s="61"/>
-      <c r="BT19" s="61"/>
-      <c r="BU19" s="61"/>
-      <c r="BV19" s="61"/>
-      <c r="BW19" s="61"/>
-      <c r="BX19" s="61"/>
-      <c r="BY19" s="61"/>
-      <c r="BZ19" s="61"/>
-      <c r="CA19" s="61"/>
-      <c r="CB19" s="61"/>
-      <c r="CC19" s="61"/>
-      <c r="CD19" s="61"/>
-      <c r="CE19" s="61"/>
-      <c r="CF19" s="61"/>
-      <c r="CG19" s="61"/>
-      <c r="CH19" s="61"/>
-      <c r="CI19" s="61"/>
-      <c r="CJ19" s="61"/>
-      <c r="CK19" s="61"/>
-      <c r="CL19" s="61"/>
-      <c r="CM19" s="61"/>
-      <c r="CN19" s="61"/>
-      <c r="CO19" s="61"/>
-      <c r="CP19" s="61"/>
-      <c r="CQ19" s="61"/>
-      <c r="CR19" s="61"/>
-      <c r="CS19" s="61"/>
-      <c r="CT19" s="61"/>
-      <c r="CU19" s="62"/>
-    </row>
-    <row r="20" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CE18" s="72"/>
+      <c r="CF18" s="73"/>
+      <c r="CG18" s="65"/>
+      <c r="CH18" s="65"/>
+      <c r="CI18" s="65"/>
+      <c r="CJ18" s="65"/>
+      <c r="CK18" s="65"/>
+      <c r="CL18" s="65"/>
+      <c r="CM18" s="65"/>
+      <c r="CN18" s="67"/>
+      <c r="CO18" s="69"/>
+      <c r="CP18" s="60"/>
+      <c r="CQ18" s="60"/>
+      <c r="CR18" s="60"/>
+      <c r="CS18" s="60"/>
+    </row>
+    <row r="19" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="62"/>
+      <c r="BQ19" s="62"/>
+      <c r="BR19" s="62"/>
+      <c r="BS19" s="62"/>
+      <c r="BT19" s="62"/>
+      <c r="BU19" s="62"/>
+      <c r="BV19" s="62"/>
+      <c r="BW19" s="62"/>
+      <c r="BX19" s="62"/>
+      <c r="BY19" s="62"/>
+      <c r="BZ19" s="62"/>
+      <c r="CA19" s="62"/>
+      <c r="CB19" s="62"/>
+      <c r="CC19" s="62"/>
+      <c r="CD19" s="62"/>
+      <c r="CE19" s="62"/>
+      <c r="CF19" s="62"/>
+      <c r="CG19" s="62"/>
+      <c r="CH19" s="62"/>
+      <c r="CI19" s="62"/>
+      <c r="CJ19" s="62"/>
+      <c r="CK19" s="62"/>
+      <c r="CL19" s="62"/>
+      <c r="CM19" s="62"/>
+      <c r="CN19" s="62"/>
+      <c r="CO19" s="62"/>
+      <c r="CP19" s="62"/>
+      <c r="CQ19" s="62"/>
+      <c r="CR19" s="62"/>
+      <c r="CS19" s="63"/>
+    </row>
+    <row r="20" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
@@ -2330,22 +2318,21 @@
       <c r="CD20" s="11"/>
       <c r="CE20" s="11"/>
       <c r="CF20" s="11"/>
-      <c r="CG20" s="11"/>
-      <c r="CH20" s="11"/>
-      <c r="CI20" s="72"/>
-      <c r="CJ20" s="72"/>
-      <c r="CK20" s="72"/>
-      <c r="CL20" s="72"/>
-      <c r="CM20" s="72"/>
-      <c r="CN20" s="72"/>
-      <c r="CO20" s="72"/>
-      <c r="CQ20" s="11"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" s="21"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="21"/>
+      <c r="CK20" s="21"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="74"/>
+      <c r="CO20" s="11"/>
+      <c r="CP20" s="15"/>
+      <c r="CQ20" s="15"/>
       <c r="CR20" s="15"/>
       <c r="CS20" s="15"/>
-      <c r="CT20" s="15"/>
-      <c r="CU20" s="15"/>
-    </row>
-    <row r="21" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
@@ -2393,22 +2380,20 @@
       <c r="CD21" s="11"/>
       <c r="CE21" s="11"/>
       <c r="CF21" s="11"/>
-      <c r="CG21" s="11"/>
-      <c r="CH21" s="11"/>
-      <c r="CI21" s="72"/>
-      <c r="CJ21" s="72"/>
-      <c r="CK21" s="72"/>
-      <c r="CL21" s="72"/>
-      <c r="CM21" s="72"/>
-      <c r="CN21" s="72"/>
-      <c r="CO21" s="72"/>
-      <c r="CQ21" s="11"/>
-      <c r="CR21" s="16"/>
+      <c r="CG21" s="21"/>
+      <c r="CH21" s="21"/>
+      <c r="CI21" s="21"/>
+      <c r="CJ21" s="21"/>
+      <c r="CK21" s="21"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CO21" s="11"/>
+      <c r="CP21" s="16"/>
+      <c r="CQ21" s="14"/>
+      <c r="CR21" s="14"/>
       <c r="CS21" s="14"/>
-      <c r="CT21" s="14"/>
-      <c r="CU21" s="14"/>
-    </row>
-    <row r="22" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
@@ -2456,22 +2441,20 @@
       <c r="CD22" s="11"/>
       <c r="CE22" s="11"/>
       <c r="CF22" s="11"/>
-      <c r="CG22" s="11"/>
-      <c r="CH22" s="11"/>
-      <c r="CI22" s="72"/>
-      <c r="CJ22" s="72"/>
-      <c r="CK22" s="72"/>
-      <c r="CL22" s="72"/>
-      <c r="CM22" s="72"/>
-      <c r="CN22" s="72"/>
-      <c r="CO22" s="72"/>
-      <c r="CQ22" s="11"/>
+      <c r="CG22" s="21"/>
+      <c r="CH22" s="21"/>
+      <c r="CI22" s="21"/>
+      <c r="CJ22" s="21"/>
+      <c r="CK22" s="21"/>
+      <c r="CL22" s="21"/>
+      <c r="CM22" s="21"/>
+      <c r="CO22" s="11"/>
+      <c r="CP22" s="14"/>
+      <c r="CQ22" s="14"/>
       <c r="CR22" s="14"/>
       <c r="CS22" s="14"/>
-      <c r="CT22" s="14"/>
-      <c r="CU22" s="14"/>
-    </row>
-    <row r="23" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
@@ -2519,22 +2502,20 @@
       <c r="CD23" s="11"/>
       <c r="CE23" s="11"/>
       <c r="CF23" s="11"/>
-      <c r="CG23" s="11"/>
-      <c r="CH23" s="11"/>
-      <c r="CI23" s="72"/>
-      <c r="CJ23" s="72"/>
-      <c r="CK23" s="72"/>
-      <c r="CL23" s="72"/>
-      <c r="CM23" s="72"/>
-      <c r="CN23" s="72"/>
-      <c r="CO23" s="72"/>
-      <c r="CQ23" s="11"/>
+      <c r="CG23" s="21"/>
+      <c r="CH23" s="21"/>
+      <c r="CI23" s="21"/>
+      <c r="CJ23" s="21"/>
+      <c r="CK23" s="21"/>
+      <c r="CL23" s="21"/>
+      <c r="CM23" s="21"/>
+      <c r="CO23" s="11"/>
+      <c r="CP23" s="14"/>
+      <c r="CQ23" s="14"/>
       <c r="CR23" s="14"/>
       <c r="CS23" s="14"/>
-      <c r="CT23" s="14"/>
-      <c r="CU23" s="14"/>
-    </row>
-    <row r="24" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -2582,22 +2563,20 @@
       <c r="CD24" s="11"/>
       <c r="CE24" s="11"/>
       <c r="CF24" s="11"/>
-      <c r="CG24" s="11"/>
-      <c r="CH24" s="11"/>
-      <c r="CI24" s="72"/>
-      <c r="CJ24" s="72"/>
-      <c r="CK24" s="72"/>
-      <c r="CL24" s="72"/>
-      <c r="CM24" s="72"/>
-      <c r="CN24" s="72"/>
-      <c r="CO24" s="72"/>
-      <c r="CQ24" s="11"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" s="21"/>
+      <c r="CI24" s="21"/>
+      <c r="CJ24" s="21"/>
+      <c r="CK24" s="21"/>
+      <c r="CL24" s="21"/>
+      <c r="CM24" s="21"/>
+      <c r="CO24" s="11"/>
+      <c r="CP24" s="14"/>
+      <c r="CQ24" s="14"/>
       <c r="CR24" s="14"/>
       <c r="CS24" s="14"/>
-      <c r="CT24" s="14"/>
-      <c r="CU24" s="14"/>
-    </row>
-    <row r="25" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -2645,22 +2624,20 @@
       <c r="CD25" s="11"/>
       <c r="CE25" s="11"/>
       <c r="CF25" s="11"/>
-      <c r="CG25" s="11"/>
-      <c r="CH25" s="11"/>
-      <c r="CI25" s="72"/>
-      <c r="CJ25" s="72"/>
-      <c r="CK25" s="72"/>
-      <c r="CL25" s="72"/>
-      <c r="CM25" s="72"/>
-      <c r="CN25" s="72"/>
-      <c r="CO25" s="72"/>
-      <c r="CQ25" s="11"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
+      <c r="CI25" s="21"/>
+      <c r="CJ25" s="21"/>
+      <c r="CK25" s="21"/>
+      <c r="CL25" s="21"/>
+      <c r="CM25" s="21"/>
+      <c r="CO25" s="11"/>
+      <c r="CP25" s="14"/>
+      <c r="CQ25" s="14"/>
       <c r="CR25" s="14"/>
       <c r="CS25" s="14"/>
-      <c r="CT25" s="14"/>
-      <c r="CU25" s="14"/>
-    </row>
-    <row r="26" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -2708,22 +2685,20 @@
       <c r="CD26" s="11"/>
       <c r="CE26" s="11"/>
       <c r="CF26" s="11"/>
-      <c r="CG26" s="11"/>
-      <c r="CH26" s="11"/>
-      <c r="CI26" s="72"/>
-      <c r="CJ26" s="72"/>
-      <c r="CK26" s="72"/>
-      <c r="CL26" s="72"/>
-      <c r="CM26" s="72"/>
-      <c r="CN26" s="72"/>
-      <c r="CO26" s="72"/>
-      <c r="CQ26" s="11"/>
-      <c r="CR26" s="16"/>
+      <c r="CG26" s="21"/>
+      <c r="CH26" s="21"/>
+      <c r="CI26" s="21"/>
+      <c r="CJ26" s="21"/>
+      <c r="CK26" s="21"/>
+      <c r="CL26" s="21"/>
+      <c r="CM26" s="21"/>
+      <c r="CO26" s="11"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="14"/>
+      <c r="CR26" s="14"/>
       <c r="CS26" s="14"/>
-      <c r="CT26" s="14"/>
-      <c r="CU26" s="14"/>
-    </row>
-    <row r="27" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -2771,22 +2746,20 @@
       <c r="CD27" s="11"/>
       <c r="CE27" s="11"/>
       <c r="CF27" s="11"/>
-      <c r="CG27" s="11"/>
-      <c r="CH27" s="11"/>
-      <c r="CI27" s="72"/>
-      <c r="CJ27" s="72"/>
-      <c r="CK27" s="72"/>
-      <c r="CL27" s="72"/>
-      <c r="CM27" s="72"/>
-      <c r="CN27" s="72"/>
-      <c r="CO27" s="72"/>
-      <c r="CQ27" s="11"/>
-      <c r="CR27" s="16"/>
+      <c r="CG27" s="21"/>
+      <c r="CH27" s="21"/>
+      <c r="CI27" s="21"/>
+      <c r="CJ27" s="21"/>
+      <c r="CK27" s="21"/>
+      <c r="CL27" s="21"/>
+      <c r="CM27" s="21"/>
+      <c r="CO27" s="11"/>
+      <c r="CP27" s="16"/>
+      <c r="CQ27" s="14"/>
+      <c r="CR27" s="14"/>
       <c r="CS27" s="14"/>
-      <c r="CT27" s="14"/>
-      <c r="CU27" s="14"/>
-    </row>
-    <row r="28" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -2834,22 +2807,20 @@
       <c r="CD28" s="11"/>
       <c r="CE28" s="11"/>
       <c r="CF28" s="11"/>
-      <c r="CG28" s="11"/>
-      <c r="CH28" s="11"/>
-      <c r="CI28" s="72"/>
-      <c r="CJ28" s="72"/>
-      <c r="CK28" s="72"/>
-      <c r="CL28" s="72"/>
-      <c r="CM28" s="72"/>
-      <c r="CN28" s="72"/>
-      <c r="CO28" s="72"/>
-      <c r="CQ28" s="11"/>
-      <c r="CR28" s="16"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="21"/>
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21"/>
+      <c r="CM28" s="21"/>
+      <c r="CO28" s="11"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="14"/>
+      <c r="CR28" s="14"/>
       <c r="CS28" s="14"/>
-      <c r="CT28" s="14"/>
-      <c r="CU28" s="14"/>
-    </row>
-    <row r="29" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -2897,22 +2868,20 @@
       <c r="CD29" s="11"/>
       <c r="CE29" s="11"/>
       <c r="CF29" s="11"/>
-      <c r="CG29" s="11"/>
-      <c r="CH29" s="11"/>
-      <c r="CI29" s="72"/>
-      <c r="CJ29" s="72"/>
-      <c r="CK29" s="72"/>
-      <c r="CL29" s="72"/>
-      <c r="CM29" s="72"/>
-      <c r="CN29" s="72"/>
-      <c r="CO29" s="72"/>
-      <c r="CQ29" s="11"/>
-      <c r="CR29" s="16"/>
+      <c r="CG29" s="21"/>
+      <c r="CH29" s="21"/>
+      <c r="CI29" s="21"/>
+      <c r="CJ29" s="21"/>
+      <c r="CK29" s="21"/>
+      <c r="CL29" s="21"/>
+      <c r="CM29" s="21"/>
+      <c r="CO29" s="11"/>
+      <c r="CP29" s="16"/>
+      <c r="CQ29" s="14"/>
+      <c r="CR29" s="14"/>
       <c r="CS29" s="14"/>
-      <c r="CT29" s="14"/>
-      <c r="CU29" s="14"/>
-    </row>
-    <row r="30" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -2960,22 +2929,20 @@
       <c r="CD30" s="11"/>
       <c r="CE30" s="11"/>
       <c r="CF30" s="11"/>
-      <c r="CG30" s="11"/>
-      <c r="CH30" s="11"/>
-      <c r="CI30" s="72"/>
-      <c r="CJ30" s="72"/>
-      <c r="CK30" s="72"/>
-      <c r="CL30" s="72"/>
-      <c r="CM30" s="72"/>
-      <c r="CN30" s="72"/>
-      <c r="CO30" s="72"/>
-      <c r="CQ30" s="11"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21"/>
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CO30" s="11"/>
+      <c r="CP30" s="14"/>
+      <c r="CQ30" s="14"/>
       <c r="CR30" s="14"/>
       <c r="CS30" s="14"/>
-      <c r="CT30" s="14"/>
-      <c r="CU30" s="14"/>
-    </row>
-    <row r="31" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -3023,22 +2990,20 @@
       <c r="CD31" s="11"/>
       <c r="CE31" s="11"/>
       <c r="CF31" s="11"/>
-      <c r="CG31" s="11"/>
-      <c r="CH31" s="11"/>
-      <c r="CI31" s="72"/>
-      <c r="CJ31" s="72"/>
-      <c r="CK31" s="72"/>
-      <c r="CL31" s="72"/>
-      <c r="CM31" s="72"/>
-      <c r="CN31" s="72"/>
-      <c r="CO31" s="72"/>
-      <c r="CQ31" s="11"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" s="21"/>
+      <c r="CI31" s="21"/>
+      <c r="CJ31" s="21"/>
+      <c r="CK31" s="21"/>
+      <c r="CL31" s="21"/>
+      <c r="CM31" s="21"/>
+      <c r="CO31" s="11"/>
+      <c r="CP31" s="14"/>
+      <c r="CQ31" s="14"/>
       <c r="CR31" s="14"/>
       <c r="CS31" s="14"/>
-      <c r="CT31" s="14"/>
-      <c r="CU31" s="14"/>
-    </row>
-    <row r="32" spans="2:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
@@ -3086,22 +3051,20 @@
       <c r="CD32" s="11"/>
       <c r="CE32" s="11"/>
       <c r="CF32" s="11"/>
-      <c r="CG32" s="11"/>
-      <c r="CH32" s="11"/>
-      <c r="CI32" s="72"/>
-      <c r="CJ32" s="72"/>
-      <c r="CK32" s="72"/>
-      <c r="CL32" s="72"/>
-      <c r="CM32" s="72"/>
-      <c r="CN32" s="72"/>
-      <c r="CO32" s="72"/>
-      <c r="CQ32" s="11"/>
+      <c r="CG32" s="21"/>
+      <c r="CH32" s="21"/>
+      <c r="CI32" s="21"/>
+      <c r="CJ32" s="21"/>
+      <c r="CK32" s="21"/>
+      <c r="CL32" s="21"/>
+      <c r="CM32" s="21"/>
+      <c r="CO32" s="11"/>
+      <c r="CP32" s="14"/>
+      <c r="CQ32" s="14"/>
       <c r="CR32" s="14"/>
       <c r="CS32" s="14"/>
-      <c r="CT32" s="14"/>
-      <c r="CU32" s="14"/>
-    </row>
-    <row r="33" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
@@ -3149,22 +3112,20 @@
       <c r="CD33" s="11"/>
       <c r="CE33" s="11"/>
       <c r="CF33" s="11"/>
-      <c r="CG33" s="11"/>
-      <c r="CH33" s="11"/>
-      <c r="CI33" s="72"/>
-      <c r="CJ33" s="72"/>
-      <c r="CK33" s="72"/>
-      <c r="CL33" s="72"/>
-      <c r="CM33" s="72"/>
-      <c r="CN33" s="72"/>
-      <c r="CO33" s="72"/>
-      <c r="CQ33" s="11"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
+      <c r="CO33" s="11"/>
+      <c r="CP33" s="14"/>
+      <c r="CQ33" s="14"/>
       <c r="CR33" s="14"/>
       <c r="CS33" s="14"/>
-      <c r="CT33" s="14"/>
-      <c r="CU33" s="14"/>
-    </row>
-    <row r="34" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
@@ -3212,22 +3173,20 @@
       <c r="CD34" s="11"/>
       <c r="CE34" s="11"/>
       <c r="CF34" s="11"/>
-      <c r="CG34" s="11"/>
-      <c r="CH34" s="11"/>
-      <c r="CI34" s="72"/>
-      <c r="CJ34" s="72"/>
-      <c r="CK34" s="72"/>
-      <c r="CL34" s="72"/>
-      <c r="CM34" s="72"/>
-      <c r="CN34" s="72"/>
-      <c r="CO34" s="72"/>
-      <c r="CQ34" s="11"/>
+      <c r="CG34" s="21"/>
+      <c r="CH34" s="21"/>
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CO34" s="11"/>
+      <c r="CP34" s="14"/>
+      <c r="CQ34" s="14"/>
       <c r="CR34" s="14"/>
       <c r="CS34" s="14"/>
-      <c r="CT34" s="14"/>
-      <c r="CU34" s="14"/>
-    </row>
-    <row r="35" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
@@ -3275,22 +3234,20 @@
       <c r="CD35" s="11"/>
       <c r="CE35" s="11"/>
       <c r="CF35" s="11"/>
-      <c r="CG35" s="11"/>
-      <c r="CH35" s="11"/>
-      <c r="CI35" s="72"/>
-      <c r="CJ35" s="72"/>
-      <c r="CK35" s="72"/>
-      <c r="CL35" s="72"/>
-      <c r="CM35" s="72"/>
-      <c r="CN35" s="72"/>
-      <c r="CO35" s="72"/>
-      <c r="CQ35" s="11"/>
+      <c r="CG35" s="21"/>
+      <c r="CH35" s="21"/>
+      <c r="CI35" s="21"/>
+      <c r="CJ35" s="21"/>
+      <c r="CK35" s="21"/>
+      <c r="CL35" s="21"/>
+      <c r="CM35" s="21"/>
+      <c r="CO35" s="11"/>
+      <c r="CP35" s="14"/>
+      <c r="CQ35" s="14"/>
       <c r="CR35" s="14"/>
       <c r="CS35" s="14"/>
-      <c r="CT35" s="14"/>
-      <c r="CU35" s="14"/>
-    </row>
-    <row r="36" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
@@ -3338,22 +3295,20 @@
       <c r="CD36" s="11"/>
       <c r="CE36" s="11"/>
       <c r="CF36" s="11"/>
-      <c r="CG36" s="11"/>
-      <c r="CH36" s="11"/>
-      <c r="CI36" s="72"/>
-      <c r="CJ36" s="72"/>
-      <c r="CK36" s="72"/>
-      <c r="CL36" s="72"/>
-      <c r="CM36" s="72"/>
-      <c r="CN36" s="72"/>
-      <c r="CO36" s="72"/>
-      <c r="CQ36" s="11"/>
+      <c r="CG36" s="21"/>
+      <c r="CH36" s="21"/>
+      <c r="CI36" s="21"/>
+      <c r="CJ36" s="21"/>
+      <c r="CK36" s="21"/>
+      <c r="CL36" s="21"/>
+      <c r="CM36" s="21"/>
+      <c r="CO36" s="11"/>
+      <c r="CP36" s="14"/>
+      <c r="CQ36" s="14"/>
       <c r="CR36" s="14"/>
       <c r="CS36" s="14"/>
-      <c r="CT36" s="14"/>
-      <c r="CU36" s="14"/>
-    </row>
-    <row r="37" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
@@ -3401,22 +3356,20 @@
       <c r="CD37" s="11"/>
       <c r="CE37" s="11"/>
       <c r="CF37" s="11"/>
-      <c r="CG37" s="11"/>
-      <c r="CH37" s="11"/>
-      <c r="CI37" s="72"/>
-      <c r="CJ37" s="72"/>
-      <c r="CK37" s="72"/>
-      <c r="CL37" s="72"/>
-      <c r="CM37" s="72"/>
-      <c r="CN37" s="72"/>
-      <c r="CO37" s="72"/>
-      <c r="CQ37" s="11"/>
+      <c r="CG37" s="21"/>
+      <c r="CH37" s="21"/>
+      <c r="CI37" s="21"/>
+      <c r="CJ37" s="21"/>
+      <c r="CK37" s="21"/>
+      <c r="CL37" s="21"/>
+      <c r="CM37" s="21"/>
+      <c r="CO37" s="11"/>
+      <c r="CP37" s="14"/>
+      <c r="CQ37" s="14"/>
       <c r="CR37" s="14"/>
       <c r="CS37" s="14"/>
-      <c r="CT37" s="14"/>
-      <c r="CU37" s="14"/>
-    </row>
-    <row r="38" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
@@ -3464,22 +3417,20 @@
       <c r="CD38" s="11"/>
       <c r="CE38" s="11"/>
       <c r="CF38" s="11"/>
-      <c r="CG38" s="11"/>
-      <c r="CH38" s="11"/>
-      <c r="CI38" s="72"/>
-      <c r="CJ38" s="72"/>
-      <c r="CK38" s="72"/>
-      <c r="CL38" s="72"/>
-      <c r="CM38" s="72"/>
-      <c r="CN38" s="72"/>
-      <c r="CO38" s="72"/>
-      <c r="CQ38" s="11"/>
+      <c r="CG38" s="21"/>
+      <c r="CH38" s="21"/>
+      <c r="CI38" s="21"/>
+      <c r="CJ38" s="21"/>
+      <c r="CK38" s="21"/>
+      <c r="CL38" s="21"/>
+      <c r="CM38" s="21"/>
+      <c r="CO38" s="11"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
       <c r="CR38" s="14"/>
       <c r="CS38" s="14"/>
-      <c r="CT38" s="14"/>
-      <c r="CU38" s="14"/>
-    </row>
-    <row r="39" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
@@ -3527,22 +3478,20 @@
       <c r="CD39" s="11"/>
       <c r="CE39" s="11"/>
       <c r="CF39" s="11"/>
-      <c r="CG39" s="11"/>
-      <c r="CH39" s="11"/>
-      <c r="CI39" s="72"/>
-      <c r="CJ39" s="72"/>
-      <c r="CK39" s="72"/>
-      <c r="CL39" s="72"/>
-      <c r="CM39" s="72"/>
-      <c r="CN39" s="72"/>
-      <c r="CO39" s="72"/>
-      <c r="CQ39" s="11"/>
+      <c r="CG39" s="21"/>
+      <c r="CH39" s="21"/>
+      <c r="CI39" s="21"/>
+      <c r="CJ39" s="21"/>
+      <c r="CK39" s="21"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CO39" s="11"/>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
       <c r="CR39" s="14"/>
       <c r="CS39" s="14"/>
-      <c r="CT39" s="14"/>
-      <c r="CU39" s="14"/>
-    </row>
-    <row r="40" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
@@ -3590,22 +3539,20 @@
       <c r="CD40" s="11"/>
       <c r="CE40" s="11"/>
       <c r="CF40" s="11"/>
-      <c r="CG40" s="11"/>
-      <c r="CH40" s="11"/>
-      <c r="CI40" s="72"/>
-      <c r="CJ40" s="72"/>
-      <c r="CK40" s="72"/>
-      <c r="CL40" s="72"/>
-      <c r="CM40" s="72"/>
-      <c r="CN40" s="72"/>
-      <c r="CO40" s="72"/>
-      <c r="CQ40" s="11"/>
+      <c r="CG40" s="21"/>
+      <c r="CH40" s="21"/>
+      <c r="CI40" s="21"/>
+      <c r="CJ40" s="21"/>
+      <c r="CK40" s="21"/>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CO40" s="11"/>
+      <c r="CP40" s="14"/>
+      <c r="CQ40" s="14"/>
       <c r="CR40" s="14"/>
       <c r="CS40" s="14"/>
-      <c r="CT40" s="14"/>
-      <c r="CU40" s="14"/>
-    </row>
-    <row r="41" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
@@ -3653,22 +3600,20 @@
       <c r="CD41" s="11"/>
       <c r="CE41" s="11"/>
       <c r="CF41" s="11"/>
-      <c r="CG41" s="11"/>
-      <c r="CH41" s="11"/>
-      <c r="CI41" s="72"/>
-      <c r="CJ41" s="72"/>
-      <c r="CK41" s="72"/>
-      <c r="CL41" s="72"/>
-      <c r="CM41" s="72"/>
-      <c r="CN41" s="72"/>
-      <c r="CO41" s="72"/>
-      <c r="CQ41" s="11"/>
+      <c r="CG41" s="21"/>
+      <c r="CH41" s="21"/>
+      <c r="CI41" s="21"/>
+      <c r="CJ41" s="21"/>
+      <c r="CK41" s="21"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CO41" s="11"/>
+      <c r="CP41" s="14"/>
+      <c r="CQ41" s="14"/>
       <c r="CR41" s="14"/>
       <c r="CS41" s="14"/>
-      <c r="CT41" s="14"/>
-      <c r="CU41" s="14"/>
-    </row>
-    <row r="42" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
@@ -3716,22 +3661,20 @@
       <c r="CD42" s="11"/>
       <c r="CE42" s="11"/>
       <c r="CF42" s="11"/>
-      <c r="CG42" s="11"/>
-      <c r="CH42" s="11"/>
-      <c r="CI42" s="72"/>
-      <c r="CJ42" s="72"/>
-      <c r="CK42" s="72"/>
-      <c r="CL42" s="72"/>
-      <c r="CM42" s="72"/>
-      <c r="CN42" s="72"/>
-      <c r="CO42" s="72"/>
-      <c r="CQ42" s="11"/>
+      <c r="CG42" s="21"/>
+      <c r="CH42" s="21"/>
+      <c r="CI42" s="21"/>
+      <c r="CJ42" s="21"/>
+      <c r="CK42" s="21"/>
+      <c r="CL42" s="21"/>
+      <c r="CM42" s="21"/>
+      <c r="CO42" s="11"/>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
       <c r="CR42" s="14"/>
       <c r="CS42" s="14"/>
-      <c r="CT42" s="14"/>
-      <c r="CU42" s="14"/>
-    </row>
-    <row r="43" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
@@ -3779,22 +3722,20 @@
       <c r="CD43" s="11"/>
       <c r="CE43" s="11"/>
       <c r="CF43" s="11"/>
-      <c r="CG43" s="11"/>
-      <c r="CH43" s="11"/>
-      <c r="CI43" s="72"/>
-      <c r="CJ43" s="72"/>
-      <c r="CK43" s="72"/>
-      <c r="CL43" s="72"/>
-      <c r="CM43" s="72"/>
-      <c r="CN43" s="72"/>
-      <c r="CO43" s="72"/>
-      <c r="CQ43" s="11"/>
+      <c r="CG43" s="21"/>
+      <c r="CH43" s="21"/>
+      <c r="CI43" s="21"/>
+      <c r="CJ43" s="21"/>
+      <c r="CK43" s="21"/>
+      <c r="CL43" s="21"/>
+      <c r="CM43" s="21"/>
+      <c r="CO43" s="11"/>
+      <c r="CP43" s="14"/>
+      <c r="CQ43" s="14"/>
       <c r="CR43" s="14"/>
       <c r="CS43" s="14"/>
-      <c r="CT43" s="14"/>
-      <c r="CU43" s="14"/>
-    </row>
-    <row r="44" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
@@ -3842,22 +3783,20 @@
       <c r="CD44" s="11"/>
       <c r="CE44" s="11"/>
       <c r="CF44" s="11"/>
-      <c r="CG44" s="11"/>
-      <c r="CH44" s="11"/>
-      <c r="CI44" s="72"/>
-      <c r="CJ44" s="72"/>
-      <c r="CK44" s="72"/>
-      <c r="CL44" s="72"/>
-      <c r="CM44" s="72"/>
-      <c r="CN44" s="72"/>
-      <c r="CO44" s="72"/>
-      <c r="CQ44" s="11"/>
+      <c r="CG44" s="21"/>
+      <c r="CH44" s="21"/>
+      <c r="CI44" s="21"/>
+      <c r="CJ44" s="21"/>
+      <c r="CK44" s="21"/>
+      <c r="CL44" s="21"/>
+      <c r="CM44" s="21"/>
+      <c r="CO44" s="11"/>
+      <c r="CP44" s="14"/>
+      <c r="CQ44" s="14"/>
       <c r="CR44" s="14"/>
       <c r="CS44" s="14"/>
-      <c r="CT44" s="14"/>
-      <c r="CU44" s="14"/>
-    </row>
-    <row r="45" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
@@ -3905,22 +3844,20 @@
       <c r="CD45" s="11"/>
       <c r="CE45" s="11"/>
       <c r="CF45" s="11"/>
-      <c r="CG45" s="11"/>
-      <c r="CH45" s="11"/>
-      <c r="CI45" s="72"/>
-      <c r="CJ45" s="72"/>
-      <c r="CK45" s="72"/>
-      <c r="CL45" s="72"/>
-      <c r="CM45" s="72"/>
-      <c r="CN45" s="72"/>
-      <c r="CO45" s="72"/>
-      <c r="CQ45" s="11"/>
+      <c r="CG45" s="21"/>
+      <c r="CH45" s="21"/>
+      <c r="CI45" s="21"/>
+      <c r="CJ45" s="21"/>
+      <c r="CK45" s="21"/>
+      <c r="CL45" s="21"/>
+      <c r="CM45" s="21"/>
+      <c r="CO45" s="11"/>
+      <c r="CP45" s="14"/>
+      <c r="CQ45" s="14"/>
       <c r="CR45" s="14"/>
       <c r="CS45" s="14"/>
-      <c r="CT45" s="14"/>
-      <c r="CU45" s="14"/>
-    </row>
-    <row r="46" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
@@ -3968,22 +3905,20 @@
       <c r="CD46" s="11"/>
       <c r="CE46" s="11"/>
       <c r="CF46" s="11"/>
-      <c r="CG46" s="11"/>
-      <c r="CH46" s="11"/>
-      <c r="CI46" s="72"/>
-      <c r="CJ46" s="72"/>
-      <c r="CK46" s="72"/>
-      <c r="CL46" s="72"/>
-      <c r="CM46" s="72"/>
-      <c r="CN46" s="72"/>
-      <c r="CO46" s="72"/>
-      <c r="CQ46" s="11"/>
+      <c r="CG46" s="21"/>
+      <c r="CH46" s="21"/>
+      <c r="CI46" s="21"/>
+      <c r="CJ46" s="21"/>
+      <c r="CK46" s="21"/>
+      <c r="CL46" s="21"/>
+      <c r="CM46" s="21"/>
+      <c r="CO46" s="11"/>
+      <c r="CP46" s="14"/>
+      <c r="CQ46" s="14"/>
       <c r="CR46" s="14"/>
       <c r="CS46" s="14"/>
-      <c r="CT46" s="14"/>
-      <c r="CU46" s="14"/>
-    </row>
-    <row r="47" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
@@ -4031,22 +3966,20 @@
       <c r="CD47" s="11"/>
       <c r="CE47" s="11"/>
       <c r="CF47" s="11"/>
-      <c r="CG47" s="11"/>
-      <c r="CH47" s="11"/>
-      <c r="CI47" s="72"/>
-      <c r="CJ47" s="72"/>
-      <c r="CK47" s="72"/>
-      <c r="CL47" s="72"/>
-      <c r="CM47" s="72"/>
-      <c r="CN47" s="72"/>
-      <c r="CO47" s="72"/>
-      <c r="CQ47" s="11"/>
+      <c r="CG47" s="21"/>
+      <c r="CH47" s="21"/>
+      <c r="CI47" s="21"/>
+      <c r="CJ47" s="21"/>
+      <c r="CK47" s="21"/>
+      <c r="CL47" s="21"/>
+      <c r="CM47" s="21"/>
+      <c r="CO47" s="11"/>
+      <c r="CP47" s="14"/>
+      <c r="CQ47" s="14"/>
       <c r="CR47" s="14"/>
       <c r="CS47" s="14"/>
-      <c r="CT47" s="14"/>
-      <c r="CU47" s="14"/>
-    </row>
-    <row r="48" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
@@ -4094,22 +4027,20 @@
       <c r="CD48" s="11"/>
       <c r="CE48" s="11"/>
       <c r="CF48" s="11"/>
-      <c r="CG48" s="11"/>
-      <c r="CH48" s="11"/>
-      <c r="CI48" s="72"/>
-      <c r="CJ48" s="72"/>
-      <c r="CK48" s="72"/>
-      <c r="CL48" s="72"/>
-      <c r="CM48" s="72"/>
-      <c r="CN48" s="72"/>
-      <c r="CO48" s="72"/>
-      <c r="CQ48" s="11"/>
+      <c r="CG48" s="21"/>
+      <c r="CH48" s="21"/>
+      <c r="CI48" s="21"/>
+      <c r="CJ48" s="21"/>
+      <c r="CK48" s="21"/>
+      <c r="CL48" s="21"/>
+      <c r="CM48" s="21"/>
+      <c r="CO48" s="11"/>
+      <c r="CP48" s="14"/>
+      <c r="CQ48" s="14"/>
       <c r="CR48" s="14"/>
       <c r="CS48" s="14"/>
-      <c r="CT48" s="14"/>
-      <c r="CU48" s="14"/>
-    </row>
-    <row r="49" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
@@ -4157,22 +4088,20 @@
       <c r="CD49" s="11"/>
       <c r="CE49" s="11"/>
       <c r="CF49" s="11"/>
-      <c r="CG49" s="11"/>
-      <c r="CH49" s="11"/>
-      <c r="CI49" s="72"/>
-      <c r="CJ49" s="72"/>
-      <c r="CK49" s="72"/>
-      <c r="CL49" s="72"/>
-      <c r="CM49" s="72"/>
-      <c r="CN49" s="72"/>
-      <c r="CO49" s="72"/>
-      <c r="CQ49" s="11"/>
+      <c r="CG49" s="21"/>
+      <c r="CH49" s="21"/>
+      <c r="CI49" s="21"/>
+      <c r="CJ49" s="21"/>
+      <c r="CK49" s="21"/>
+      <c r="CL49" s="21"/>
+      <c r="CM49" s="21"/>
+      <c r="CO49" s="11"/>
+      <c r="CP49" s="14"/>
+      <c r="CQ49" s="14"/>
       <c r="CR49" s="14"/>
       <c r="CS49" s="14"/>
-      <c r="CT49" s="14"/>
-      <c r="CU49" s="14"/>
-    </row>
-    <row r="50" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
@@ -4220,22 +4149,20 @@
       <c r="CD50" s="11"/>
       <c r="CE50" s="11"/>
       <c r="CF50" s="11"/>
-      <c r="CG50" s="11"/>
-      <c r="CH50" s="11"/>
-      <c r="CI50" s="72"/>
-      <c r="CJ50" s="72"/>
-      <c r="CK50" s="72"/>
-      <c r="CL50" s="72"/>
-      <c r="CM50" s="72"/>
-      <c r="CN50" s="72"/>
-      <c r="CO50" s="72"/>
-      <c r="CQ50" s="11"/>
+      <c r="CG50" s="21"/>
+      <c r="CH50" s="21"/>
+      <c r="CI50" s="21"/>
+      <c r="CJ50" s="21"/>
+      <c r="CK50" s="21"/>
+      <c r="CL50" s="21"/>
+      <c r="CM50" s="21"/>
+      <c r="CO50" s="11"/>
+      <c r="CP50" s="14"/>
+      <c r="CQ50" s="14"/>
       <c r="CR50" s="14"/>
       <c r="CS50" s="14"/>
-      <c r="CT50" s="14"/>
-      <c r="CU50" s="14"/>
-    </row>
-    <row r="51" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
@@ -4283,22 +4210,20 @@
       <c r="CD51" s="11"/>
       <c r="CE51" s="11"/>
       <c r="CF51" s="11"/>
-      <c r="CG51" s="11"/>
-      <c r="CH51" s="11"/>
-      <c r="CI51" s="72"/>
-      <c r="CJ51" s="72"/>
-      <c r="CK51" s="72"/>
-      <c r="CL51" s="72"/>
-      <c r="CM51" s="72"/>
-      <c r="CN51" s="72"/>
-      <c r="CO51" s="72"/>
-      <c r="CQ51" s="11"/>
+      <c r="CG51" s="21"/>
+      <c r="CH51" s="21"/>
+      <c r="CI51" s="21"/>
+      <c r="CJ51" s="21"/>
+      <c r="CK51" s="21"/>
+      <c r="CL51" s="21"/>
+      <c r="CM51" s="21"/>
+      <c r="CO51" s="11"/>
+      <c r="CP51" s="14"/>
+      <c r="CQ51" s="14"/>
       <c r="CR51" s="14"/>
       <c r="CS51" s="14"/>
-      <c r="CT51" s="14"/>
-      <c r="CU51" s="14"/>
-    </row>
-    <row r="52" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
@@ -4346,22 +4271,20 @@
       <c r="CD52" s="11"/>
       <c r="CE52" s="11"/>
       <c r="CF52" s="11"/>
-      <c r="CG52" s="11"/>
-      <c r="CH52" s="11"/>
-      <c r="CI52" s="72"/>
-      <c r="CJ52" s="72"/>
-      <c r="CK52" s="72"/>
-      <c r="CL52" s="72"/>
-      <c r="CM52" s="72"/>
-      <c r="CN52" s="72"/>
-      <c r="CO52" s="72"/>
-      <c r="CQ52" s="11"/>
+      <c r="CG52" s="21"/>
+      <c r="CH52" s="21"/>
+      <c r="CI52" s="21"/>
+      <c r="CJ52" s="21"/>
+      <c r="CK52" s="21"/>
+      <c r="CL52" s="21"/>
+      <c r="CM52" s="21"/>
+      <c r="CO52" s="11"/>
+      <c r="CP52" s="14"/>
+      <c r="CQ52" s="14"/>
       <c r="CR52" s="14"/>
       <c r="CS52" s="14"/>
-      <c r="CT52" s="14"/>
-      <c r="CU52" s="14"/>
-    </row>
-    <row r="53" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
@@ -4409,22 +4332,20 @@
       <c r="CD53" s="11"/>
       <c r="CE53" s="11"/>
       <c r="CF53" s="11"/>
-      <c r="CG53" s="11"/>
-      <c r="CH53" s="11"/>
-      <c r="CI53" s="72"/>
-      <c r="CJ53" s="72"/>
-      <c r="CK53" s="72"/>
-      <c r="CL53" s="72"/>
-      <c r="CM53" s="72"/>
-      <c r="CN53" s="72"/>
-      <c r="CO53" s="72"/>
-      <c r="CQ53" s="11"/>
+      <c r="CG53" s="21"/>
+      <c r="CH53" s="21"/>
+      <c r="CI53" s="21"/>
+      <c r="CJ53" s="21"/>
+      <c r="CK53" s="21"/>
+      <c r="CL53" s="21"/>
+      <c r="CM53" s="21"/>
+      <c r="CO53" s="11"/>
+      <c r="CP53" s="14"/>
+      <c r="CQ53" s="14"/>
       <c r="CR53" s="14"/>
       <c r="CS53" s="14"/>
-      <c r="CT53" s="14"/>
-      <c r="CU53" s="14"/>
-    </row>
-    <row r="54" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
@@ -4472,22 +4393,20 @@
       <c r="CD54" s="11"/>
       <c r="CE54" s="11"/>
       <c r="CF54" s="11"/>
-      <c r="CG54" s="11"/>
-      <c r="CH54" s="11"/>
-      <c r="CI54" s="72"/>
-      <c r="CJ54" s="72"/>
-      <c r="CK54" s="72"/>
-      <c r="CL54" s="72"/>
-      <c r="CM54" s="72"/>
-      <c r="CN54" s="72"/>
-      <c r="CO54" s="72"/>
-      <c r="CQ54" s="11"/>
+      <c r="CG54" s="21"/>
+      <c r="CH54" s="21"/>
+      <c r="CI54" s="21"/>
+      <c r="CJ54" s="21"/>
+      <c r="CK54" s="21"/>
+      <c r="CL54" s="21"/>
+      <c r="CM54" s="21"/>
+      <c r="CO54" s="11"/>
+      <c r="CP54" s="14"/>
+      <c r="CQ54" s="14"/>
       <c r="CR54" s="14"/>
       <c r="CS54" s="14"/>
-      <c r="CT54" s="14"/>
-      <c r="CU54" s="14"/>
-    </row>
-    <row r="55" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -4535,22 +4454,20 @@
       <c r="CD55" s="11"/>
       <c r="CE55" s="11"/>
       <c r="CF55" s="11"/>
-      <c r="CG55" s="11"/>
-      <c r="CH55" s="11"/>
-      <c r="CI55" s="72"/>
-      <c r="CJ55" s="72"/>
-      <c r="CK55" s="72"/>
-      <c r="CL55" s="72"/>
-      <c r="CM55" s="72"/>
-      <c r="CN55" s="72"/>
-      <c r="CO55" s="72"/>
-      <c r="CQ55" s="11"/>
+      <c r="CG55" s="21"/>
+      <c r="CH55" s="21"/>
+      <c r="CI55" s="21"/>
+      <c r="CJ55" s="21"/>
+      <c r="CK55" s="21"/>
+      <c r="CL55" s="21"/>
+      <c r="CM55" s="21"/>
+      <c r="CO55" s="11"/>
+      <c r="CP55" s="14"/>
+      <c r="CQ55" s="14"/>
       <c r="CR55" s="14"/>
       <c r="CS55" s="14"/>
-      <c r="CT55" s="14"/>
-      <c r="CU55" s="14"/>
-    </row>
-    <row r="56" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
@@ -4598,22 +4515,20 @@
       <c r="CD56" s="11"/>
       <c r="CE56" s="11"/>
       <c r="CF56" s="11"/>
-      <c r="CG56" s="11"/>
-      <c r="CH56" s="11"/>
-      <c r="CI56" s="72"/>
-      <c r="CJ56" s="72"/>
-      <c r="CK56" s="72"/>
-      <c r="CL56" s="72"/>
-      <c r="CM56" s="72"/>
-      <c r="CN56" s="72"/>
-      <c r="CO56" s="72"/>
-      <c r="CQ56" s="11"/>
+      <c r="CG56" s="21"/>
+      <c r="CH56" s="21"/>
+      <c r="CI56" s="21"/>
+      <c r="CJ56" s="21"/>
+      <c r="CK56" s="21"/>
+      <c r="CL56" s="21"/>
+      <c r="CM56" s="21"/>
+      <c r="CO56" s="11"/>
+      <c r="CP56" s="14"/>
+      <c r="CQ56" s="14"/>
       <c r="CR56" s="14"/>
       <c r="CS56" s="14"/>
-      <c r="CT56" s="14"/>
-      <c r="CU56" s="14"/>
-    </row>
-    <row r="57" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
@@ -4661,22 +4576,20 @@
       <c r="CD57" s="11"/>
       <c r="CE57" s="11"/>
       <c r="CF57" s="11"/>
-      <c r="CG57" s="11"/>
-      <c r="CH57" s="11"/>
-      <c r="CI57" s="72"/>
-      <c r="CJ57" s="72"/>
-      <c r="CK57" s="72"/>
-      <c r="CL57" s="72"/>
-      <c r="CM57" s="72"/>
-      <c r="CN57" s="72"/>
-      <c r="CO57" s="72"/>
-      <c r="CQ57" s="11"/>
+      <c r="CG57" s="21"/>
+      <c r="CH57" s="21"/>
+      <c r="CI57" s="21"/>
+      <c r="CJ57" s="21"/>
+      <c r="CK57" s="21"/>
+      <c r="CL57" s="21"/>
+      <c r="CM57" s="21"/>
+      <c r="CO57" s="11"/>
+      <c r="CP57" s="14"/>
+      <c r="CQ57" s="14"/>
       <c r="CR57" s="14"/>
       <c r="CS57" s="14"/>
-      <c r="CT57" s="14"/>
-      <c r="CU57" s="14"/>
-    </row>
-    <row r="58" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
@@ -4724,22 +4637,20 @@
       <c r="CD58" s="11"/>
       <c r="CE58" s="11"/>
       <c r="CF58" s="11"/>
-      <c r="CG58" s="11"/>
-      <c r="CH58" s="11"/>
-      <c r="CI58" s="72"/>
-      <c r="CJ58" s="72"/>
-      <c r="CK58" s="72"/>
-      <c r="CL58" s="72"/>
-      <c r="CM58" s="72"/>
-      <c r="CN58" s="72"/>
-      <c r="CO58" s="72"/>
-      <c r="CQ58" s="11"/>
+      <c r="CG58" s="21"/>
+      <c r="CH58" s="21"/>
+      <c r="CI58" s="21"/>
+      <c r="CJ58" s="21"/>
+      <c r="CK58" s="21"/>
+      <c r="CL58" s="21"/>
+      <c r="CM58" s="21"/>
+      <c r="CO58" s="11"/>
+      <c r="CP58" s="14"/>
+      <c r="CQ58" s="14"/>
       <c r="CR58" s="14"/>
       <c r="CS58" s="14"/>
-      <c r="CT58" s="14"/>
-      <c r="CU58" s="14"/>
-    </row>
-    <row r="59" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
@@ -4787,22 +4698,20 @@
       <c r="CD59" s="11"/>
       <c r="CE59" s="11"/>
       <c r="CF59" s="11"/>
-      <c r="CG59" s="11"/>
-      <c r="CH59" s="11"/>
-      <c r="CI59" s="72"/>
-      <c r="CJ59" s="72"/>
-      <c r="CK59" s="72"/>
-      <c r="CL59" s="72"/>
-      <c r="CM59" s="72"/>
-      <c r="CN59" s="72"/>
-      <c r="CO59" s="72"/>
-      <c r="CQ59" s="11"/>
+      <c r="CG59" s="21"/>
+      <c r="CH59" s="21"/>
+      <c r="CI59" s="21"/>
+      <c r="CJ59" s="21"/>
+      <c r="CK59" s="21"/>
+      <c r="CL59" s="21"/>
+      <c r="CM59" s="21"/>
+      <c r="CO59" s="11"/>
+      <c r="CP59" s="14"/>
+      <c r="CQ59" s="14"/>
       <c r="CR59" s="14"/>
       <c r="CS59" s="14"/>
-      <c r="CT59" s="14"/>
-      <c r="CU59" s="14"/>
-    </row>
-    <row r="60" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
@@ -4850,22 +4759,20 @@
       <c r="CD60" s="11"/>
       <c r="CE60" s="11"/>
       <c r="CF60" s="11"/>
-      <c r="CG60" s="11"/>
-      <c r="CH60" s="11"/>
-      <c r="CI60" s="72"/>
-      <c r="CJ60" s="72"/>
-      <c r="CK60" s="72"/>
-      <c r="CL60" s="72"/>
-      <c r="CM60" s="72"/>
-      <c r="CN60" s="72"/>
-      <c r="CO60" s="72"/>
-      <c r="CQ60" s="11"/>
+      <c r="CG60" s="21"/>
+      <c r="CH60" s="21"/>
+      <c r="CI60" s="21"/>
+      <c r="CJ60" s="21"/>
+      <c r="CK60" s="21"/>
+      <c r="CL60" s="21"/>
+      <c r="CM60" s="21"/>
+      <c r="CO60" s="11"/>
+      <c r="CP60" s="14"/>
+      <c r="CQ60" s="14"/>
       <c r="CR60" s="14"/>
       <c r="CS60" s="14"/>
-      <c r="CT60" s="14"/>
-      <c r="CU60" s="14"/>
-    </row>
-    <row r="61" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
@@ -4913,22 +4820,20 @@
       <c r="CD61" s="11"/>
       <c r="CE61" s="11"/>
       <c r="CF61" s="11"/>
-      <c r="CG61" s="11"/>
-      <c r="CH61" s="11"/>
-      <c r="CI61" s="72"/>
-      <c r="CJ61" s="72"/>
-      <c r="CK61" s="72"/>
-      <c r="CL61" s="72"/>
-      <c r="CM61" s="72"/>
-      <c r="CN61" s="72"/>
-      <c r="CO61" s="72"/>
-      <c r="CQ61" s="11"/>
+      <c r="CG61" s="21"/>
+      <c r="CH61" s="21"/>
+      <c r="CI61" s="21"/>
+      <c r="CJ61" s="21"/>
+      <c r="CK61" s="21"/>
+      <c r="CL61" s="21"/>
+      <c r="CM61" s="21"/>
+      <c r="CO61" s="11"/>
+      <c r="CP61" s="14"/>
+      <c r="CQ61" s="14"/>
       <c r="CR61" s="14"/>
       <c r="CS61" s="14"/>
-      <c r="CT61" s="14"/>
-      <c r="CU61" s="14"/>
-    </row>
-    <row r="62" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
@@ -4976,22 +4881,20 @@
       <c r="CD62" s="11"/>
       <c r="CE62" s="11"/>
       <c r="CF62" s="11"/>
-      <c r="CG62" s="11"/>
-      <c r="CH62" s="11"/>
-      <c r="CI62" s="72"/>
-      <c r="CJ62" s="72"/>
-      <c r="CK62" s="72"/>
-      <c r="CL62" s="72"/>
-      <c r="CM62" s="72"/>
-      <c r="CN62" s="72"/>
-      <c r="CO62" s="72"/>
-      <c r="CQ62" s="11"/>
+      <c r="CG62" s="21"/>
+      <c r="CH62" s="21"/>
+      <c r="CI62" s="21"/>
+      <c r="CJ62" s="21"/>
+      <c r="CK62" s="21"/>
+      <c r="CL62" s="21"/>
+      <c r="CM62" s="21"/>
+      <c r="CO62" s="11"/>
+      <c r="CP62" s="14"/>
+      <c r="CQ62" s="14"/>
       <c r="CR62" s="14"/>
       <c r="CS62" s="14"/>
-      <c r="CT62" s="14"/>
-      <c r="CU62" s="14"/>
-    </row>
-    <row r="63" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -5039,22 +4942,20 @@
       <c r="CD63" s="11"/>
       <c r="CE63" s="11"/>
       <c r="CF63" s="11"/>
-      <c r="CG63" s="11"/>
-      <c r="CH63" s="11"/>
-      <c r="CI63" s="72"/>
-      <c r="CJ63" s="72"/>
-      <c r="CK63" s="72"/>
-      <c r="CL63" s="72"/>
-      <c r="CM63" s="72"/>
-      <c r="CN63" s="72"/>
-      <c r="CO63" s="72"/>
-      <c r="CQ63" s="11"/>
+      <c r="CG63" s="21"/>
+      <c r="CH63" s="21"/>
+      <c r="CI63" s="21"/>
+      <c r="CJ63" s="21"/>
+      <c r="CK63" s="21"/>
+      <c r="CL63" s="21"/>
+      <c r="CM63" s="21"/>
+      <c r="CO63" s="11"/>
+      <c r="CP63" s="14"/>
+      <c r="CQ63" s="14"/>
       <c r="CR63" s="14"/>
       <c r="CS63" s="14"/>
-      <c r="CT63" s="14"/>
-      <c r="CU63" s="14"/>
-    </row>
-    <row r="64" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
@@ -5102,22 +5003,20 @@
       <c r="CD64" s="11"/>
       <c r="CE64" s="11"/>
       <c r="CF64" s="11"/>
-      <c r="CG64" s="11"/>
-      <c r="CH64" s="11"/>
-      <c r="CI64" s="72"/>
-      <c r="CJ64" s="72"/>
-      <c r="CK64" s="72"/>
-      <c r="CL64" s="72"/>
-      <c r="CM64" s="72"/>
-      <c r="CN64" s="72"/>
-      <c r="CO64" s="72"/>
-      <c r="CQ64" s="11"/>
+      <c r="CG64" s="21"/>
+      <c r="CH64" s="21"/>
+      <c r="CI64" s="21"/>
+      <c r="CJ64" s="21"/>
+      <c r="CK64" s="21"/>
+      <c r="CL64" s="21"/>
+      <c r="CM64" s="21"/>
+      <c r="CO64" s="11"/>
+      <c r="CP64" s="14"/>
+      <c r="CQ64" s="14"/>
       <c r="CR64" s="14"/>
       <c r="CS64" s="14"/>
-      <c r="CT64" s="14"/>
-      <c r="CU64" s="14"/>
-    </row>
-    <row r="65" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
@@ -5165,22 +5064,20 @@
       <c r="CD65" s="11"/>
       <c r="CE65" s="11"/>
       <c r="CF65" s="11"/>
-      <c r="CG65" s="11"/>
-      <c r="CH65" s="11"/>
-      <c r="CI65" s="72"/>
-      <c r="CJ65" s="72"/>
-      <c r="CK65" s="72"/>
-      <c r="CL65" s="72"/>
-      <c r="CM65" s="72"/>
-      <c r="CN65" s="72"/>
-      <c r="CO65" s="72"/>
-      <c r="CQ65" s="11"/>
+      <c r="CG65" s="21"/>
+      <c r="CH65" s="21"/>
+      <c r="CI65" s="21"/>
+      <c r="CJ65" s="21"/>
+      <c r="CK65" s="21"/>
+      <c r="CL65" s="21"/>
+      <c r="CM65" s="21"/>
+      <c r="CO65" s="11"/>
+      <c r="CP65" s="14"/>
+      <c r="CQ65" s="14"/>
       <c r="CR65" s="14"/>
       <c r="CS65" s="14"/>
-      <c r="CT65" s="14"/>
-      <c r="CU65" s="14"/>
-    </row>
-    <row r="66" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
@@ -5228,22 +5125,20 @@
       <c r="CD66" s="11"/>
       <c r="CE66" s="11"/>
       <c r="CF66" s="11"/>
-      <c r="CG66" s="11"/>
-      <c r="CH66" s="11"/>
-      <c r="CI66" s="72"/>
-      <c r="CJ66" s="72"/>
-      <c r="CK66" s="72"/>
-      <c r="CL66" s="72"/>
-      <c r="CM66" s="72"/>
-      <c r="CN66" s="72"/>
-      <c r="CO66" s="72"/>
-      <c r="CQ66" s="11"/>
+      <c r="CG66" s="21"/>
+      <c r="CH66" s="21"/>
+      <c r="CI66" s="21"/>
+      <c r="CJ66" s="21"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="21"/>
+      <c r="CM66" s="21"/>
+      <c r="CO66" s="11"/>
+      <c r="CP66" s="14"/>
+      <c r="CQ66" s="14"/>
       <c r="CR66" s="14"/>
       <c r="CS66" s="14"/>
-      <c r="CT66" s="14"/>
-      <c r="CU66" s="14"/>
-    </row>
-    <row r="67" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -5291,22 +5186,20 @@
       <c r="CD67" s="11"/>
       <c r="CE67" s="11"/>
       <c r="CF67" s="11"/>
-      <c r="CG67" s="11"/>
-      <c r="CH67" s="11"/>
-      <c r="CI67" s="72"/>
-      <c r="CJ67" s="72"/>
-      <c r="CK67" s="72"/>
-      <c r="CL67" s="72"/>
-      <c r="CM67" s="72"/>
-      <c r="CN67" s="72"/>
-      <c r="CO67" s="72"/>
-      <c r="CQ67" s="11"/>
+      <c r="CG67" s="21"/>
+      <c r="CH67" s="21"/>
+      <c r="CI67" s="21"/>
+      <c r="CJ67" s="21"/>
+      <c r="CK67" s="21"/>
+      <c r="CL67" s="21"/>
+      <c r="CM67" s="21"/>
+      <c r="CO67" s="11"/>
+      <c r="CP67" s="14"/>
+      <c r="CQ67" s="14"/>
       <c r="CR67" s="14"/>
       <c r="CS67" s="14"/>
-      <c r="CT67" s="14"/>
-      <c r="CU67" s="14"/>
-    </row>
-    <row r="68" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
@@ -5354,22 +5247,20 @@
       <c r="CD68" s="11"/>
       <c r="CE68" s="11"/>
       <c r="CF68" s="11"/>
-      <c r="CG68" s="11"/>
-      <c r="CH68" s="11"/>
-      <c r="CI68" s="72"/>
-      <c r="CJ68" s="72"/>
-      <c r="CK68" s="72"/>
-      <c r="CL68" s="72"/>
-      <c r="CM68" s="72"/>
-      <c r="CN68" s="72"/>
-      <c r="CO68" s="72"/>
-      <c r="CQ68" s="11"/>
+      <c r="CG68" s="21"/>
+      <c r="CH68" s="21"/>
+      <c r="CI68" s="21"/>
+      <c r="CJ68" s="21"/>
+      <c r="CK68" s="21"/>
+      <c r="CL68" s="21"/>
+      <c r="CM68" s="21"/>
+      <c r="CO68" s="11"/>
+      <c r="CP68" s="14"/>
+      <c r="CQ68" s="14"/>
       <c r="CR68" s="14"/>
       <c r="CS68" s="14"/>
-      <c r="CT68" s="14"/>
-      <c r="CU68" s="14"/>
-    </row>
-    <row r="69" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
@@ -5417,22 +5308,20 @@
       <c r="CD69" s="11"/>
       <c r="CE69" s="11"/>
       <c r="CF69" s="11"/>
-      <c r="CG69" s="11"/>
-      <c r="CH69" s="11"/>
-      <c r="CI69" s="72"/>
-      <c r="CJ69" s="72"/>
-      <c r="CK69" s="72"/>
-      <c r="CL69" s="72"/>
-      <c r="CM69" s="72"/>
-      <c r="CN69" s="72"/>
-      <c r="CO69" s="72"/>
-      <c r="CQ69" s="11"/>
+      <c r="CG69" s="21"/>
+      <c r="CH69" s="21"/>
+      <c r="CI69" s="21"/>
+      <c r="CJ69" s="21"/>
+      <c r="CK69" s="21"/>
+      <c r="CL69" s="21"/>
+      <c r="CM69" s="21"/>
+      <c r="CO69" s="11"/>
+      <c r="CP69" s="14"/>
+      <c r="CQ69" s="14"/>
       <c r="CR69" s="14"/>
       <c r="CS69" s="14"/>
-      <c r="CT69" s="14"/>
-      <c r="CU69" s="14"/>
-    </row>
-    <row r="70" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
@@ -5480,22 +5369,20 @@
       <c r="CD70" s="11"/>
       <c r="CE70" s="11"/>
       <c r="CF70" s="11"/>
-      <c r="CG70" s="11"/>
-      <c r="CH70" s="11"/>
-      <c r="CI70" s="72"/>
-      <c r="CJ70" s="72"/>
-      <c r="CK70" s="72"/>
-      <c r="CL70" s="72"/>
-      <c r="CM70" s="72"/>
-      <c r="CN70" s="72"/>
-      <c r="CO70" s="72"/>
-      <c r="CQ70" s="11"/>
+      <c r="CG70" s="21"/>
+      <c r="CH70" s="21"/>
+      <c r="CI70" s="21"/>
+      <c r="CJ70" s="21"/>
+      <c r="CK70" s="21"/>
+      <c r="CL70" s="21"/>
+      <c r="CM70" s="21"/>
+      <c r="CO70" s="11"/>
+      <c r="CP70" s="14"/>
+      <c r="CQ70" s="14"/>
       <c r="CR70" s="14"/>
       <c r="CS70" s="14"/>
-      <c r="CT70" s="14"/>
-      <c r="CU70" s="14"/>
-    </row>
-    <row r="71" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
@@ -5543,22 +5430,20 @@
       <c r="CD71" s="11"/>
       <c r="CE71" s="11"/>
       <c r="CF71" s="11"/>
-      <c r="CG71" s="11"/>
-      <c r="CH71" s="11"/>
-      <c r="CI71" s="72"/>
-      <c r="CJ71" s="72"/>
-      <c r="CK71" s="72"/>
-      <c r="CL71" s="72"/>
-      <c r="CM71" s="72"/>
-      <c r="CN71" s="72"/>
-      <c r="CO71" s="72"/>
-      <c r="CQ71" s="11"/>
+      <c r="CG71" s="21"/>
+      <c r="CH71" s="21"/>
+      <c r="CI71" s="21"/>
+      <c r="CJ71" s="21"/>
+      <c r="CK71" s="21"/>
+      <c r="CL71" s="21"/>
+      <c r="CM71" s="21"/>
+      <c r="CO71" s="11"/>
+      <c r="CP71" s="14"/>
+      <c r="CQ71" s="14"/>
       <c r="CR71" s="14"/>
       <c r="CS71" s="14"/>
-      <c r="CT71" s="14"/>
-      <c r="CU71" s="14"/>
-    </row>
-    <row r="72" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
@@ -5606,22 +5491,20 @@
       <c r="CD72" s="11"/>
       <c r="CE72" s="11"/>
       <c r="CF72" s="11"/>
-      <c r="CG72" s="11"/>
-      <c r="CH72" s="11"/>
-      <c r="CI72" s="72"/>
-      <c r="CJ72" s="72"/>
-      <c r="CK72" s="72"/>
-      <c r="CL72" s="72"/>
-      <c r="CM72" s="72"/>
-      <c r="CN72" s="72"/>
-      <c r="CO72" s="72"/>
-      <c r="CQ72" s="11"/>
+      <c r="CG72" s="21"/>
+      <c r="CH72" s="21"/>
+      <c r="CI72" s="21"/>
+      <c r="CJ72" s="21"/>
+      <c r="CK72" s="21"/>
+      <c r="CL72" s="21"/>
+      <c r="CM72" s="21"/>
+      <c r="CO72" s="11"/>
+      <c r="CP72" s="14"/>
+      <c r="CQ72" s="14"/>
       <c r="CR72" s="14"/>
       <c r="CS72" s="14"/>
-      <c r="CT72" s="14"/>
-      <c r="CU72" s="14"/>
-    </row>
-    <row r="73" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
@@ -5669,22 +5552,20 @@
       <c r="CD73" s="11"/>
       <c r="CE73" s="11"/>
       <c r="CF73" s="11"/>
-      <c r="CG73" s="11"/>
-      <c r="CH73" s="11"/>
-      <c r="CI73" s="72"/>
-      <c r="CJ73" s="72"/>
-      <c r="CK73" s="72"/>
-      <c r="CL73" s="72"/>
-      <c r="CM73" s="72"/>
-      <c r="CN73" s="72"/>
-      <c r="CO73" s="72"/>
-      <c r="CQ73" s="11"/>
+      <c r="CG73" s="21"/>
+      <c r="CH73" s="21"/>
+      <c r="CI73" s="21"/>
+      <c r="CJ73" s="21"/>
+      <c r="CK73" s="21"/>
+      <c r="CL73" s="21"/>
+      <c r="CM73" s="21"/>
+      <c r="CO73" s="11"/>
+      <c r="CP73" s="14"/>
+      <c r="CQ73" s="14"/>
       <c r="CR73" s="14"/>
       <c r="CS73" s="14"/>
-      <c r="CT73" s="14"/>
-      <c r="CU73" s="14"/>
-    </row>
-    <row r="74" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
@@ -5732,22 +5613,20 @@
       <c r="CD74" s="11"/>
       <c r="CE74" s="11"/>
       <c r="CF74" s="11"/>
-      <c r="CG74" s="11"/>
-      <c r="CH74" s="11"/>
-      <c r="CI74" s="72"/>
-      <c r="CJ74" s="72"/>
-      <c r="CK74" s="72"/>
-      <c r="CL74" s="72"/>
-      <c r="CM74" s="72"/>
-      <c r="CN74" s="72"/>
-      <c r="CO74" s="72"/>
-      <c r="CQ74" s="11"/>
+      <c r="CG74" s="21"/>
+      <c r="CH74" s="21"/>
+      <c r="CI74" s="21"/>
+      <c r="CJ74" s="21"/>
+      <c r="CK74" s="21"/>
+      <c r="CL74" s="21"/>
+      <c r="CM74" s="21"/>
+      <c r="CO74" s="11"/>
+      <c r="CP74" s="14"/>
+      <c r="CQ74" s="14"/>
       <c r="CR74" s="14"/>
       <c r="CS74" s="14"/>
-      <c r="CT74" s="14"/>
-      <c r="CU74" s="14"/>
-    </row>
-    <row r="75" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
@@ -5795,22 +5674,20 @@
       <c r="CD75" s="11"/>
       <c r="CE75" s="11"/>
       <c r="CF75" s="11"/>
-      <c r="CG75" s="11"/>
-      <c r="CH75" s="11"/>
-      <c r="CI75" s="72"/>
-      <c r="CJ75" s="72"/>
-      <c r="CK75" s="72"/>
-      <c r="CL75" s="72"/>
-      <c r="CM75" s="72"/>
-      <c r="CN75" s="72"/>
-      <c r="CO75" s="72"/>
-      <c r="CQ75" s="11"/>
+      <c r="CG75" s="21"/>
+      <c r="CH75" s="21"/>
+      <c r="CI75" s="21"/>
+      <c r="CJ75" s="21"/>
+      <c r="CK75" s="21"/>
+      <c r="CL75" s="21"/>
+      <c r="CM75" s="21"/>
+      <c r="CO75" s="11"/>
+      <c r="CP75" s="14"/>
+      <c r="CQ75" s="14"/>
       <c r="CR75" s="14"/>
       <c r="CS75" s="14"/>
-      <c r="CT75" s="14"/>
-      <c r="CU75" s="14"/>
-    </row>
-    <row r="76" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
@@ -5858,22 +5735,20 @@
       <c r="CD76" s="11"/>
       <c r="CE76" s="11"/>
       <c r="CF76" s="11"/>
-      <c r="CG76" s="11"/>
-      <c r="CH76" s="11"/>
-      <c r="CI76" s="72"/>
-      <c r="CJ76" s="72"/>
-      <c r="CK76" s="72"/>
-      <c r="CL76" s="72"/>
-      <c r="CM76" s="72"/>
-      <c r="CN76" s="72"/>
-      <c r="CO76" s="72"/>
-      <c r="CQ76" s="11"/>
+      <c r="CG76" s="21"/>
+      <c r="CH76" s="21"/>
+      <c r="CI76" s="21"/>
+      <c r="CJ76" s="21"/>
+      <c r="CK76" s="21"/>
+      <c r="CL76" s="21"/>
+      <c r="CM76" s="21"/>
+      <c r="CO76" s="11"/>
+      <c r="CP76" s="14"/>
+      <c r="CQ76" s="14"/>
       <c r="CR76" s="14"/>
       <c r="CS76" s="14"/>
-      <c r="CT76" s="14"/>
-      <c r="CU76" s="14"/>
-    </row>
-    <row r="77" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
@@ -5921,22 +5796,20 @@
       <c r="CD77" s="11"/>
       <c r="CE77" s="11"/>
       <c r="CF77" s="11"/>
-      <c r="CG77" s="11"/>
-      <c r="CH77" s="11"/>
-      <c r="CI77" s="72"/>
-      <c r="CJ77" s="72"/>
-      <c r="CK77" s="72"/>
-      <c r="CL77" s="72"/>
-      <c r="CM77" s="72"/>
-      <c r="CN77" s="72"/>
-      <c r="CO77" s="72"/>
-      <c r="CQ77" s="11"/>
+      <c r="CG77" s="21"/>
+      <c r="CH77" s="21"/>
+      <c r="CI77" s="21"/>
+      <c r="CJ77" s="21"/>
+      <c r="CK77" s="21"/>
+      <c r="CL77" s="21"/>
+      <c r="CM77" s="21"/>
+      <c r="CO77" s="11"/>
+      <c r="CP77" s="14"/>
+      <c r="CQ77" s="14"/>
       <c r="CR77" s="14"/>
       <c r="CS77" s="14"/>
-      <c r="CT77" s="14"/>
-      <c r="CU77" s="14"/>
-    </row>
-    <row r="78" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -5984,22 +5857,20 @@
       <c r="CD78" s="11"/>
       <c r="CE78" s="11"/>
       <c r="CF78" s="11"/>
-      <c r="CG78" s="11"/>
-      <c r="CH78" s="11"/>
-      <c r="CI78" s="72"/>
-      <c r="CJ78" s="72"/>
-      <c r="CK78" s="72"/>
-      <c r="CL78" s="72"/>
-      <c r="CM78" s="72"/>
-      <c r="CN78" s="72"/>
-      <c r="CO78" s="72"/>
-      <c r="CQ78" s="11"/>
+      <c r="CG78" s="21"/>
+      <c r="CH78" s="21"/>
+      <c r="CI78" s="21"/>
+      <c r="CJ78" s="21"/>
+      <c r="CK78" s="21"/>
+      <c r="CL78" s="21"/>
+      <c r="CM78" s="21"/>
+      <c r="CO78" s="11"/>
+      <c r="CP78" s="14"/>
+      <c r="CQ78" s="14"/>
       <c r="CR78" s="14"/>
       <c r="CS78" s="14"/>
-      <c r="CT78" s="14"/>
-      <c r="CU78" s="14"/>
-    </row>
-    <row r="79" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
@@ -6047,22 +5918,20 @@
       <c r="CD79" s="11"/>
       <c r="CE79" s="11"/>
       <c r="CF79" s="11"/>
-      <c r="CG79" s="11"/>
-      <c r="CH79" s="11"/>
-      <c r="CI79" s="72"/>
-      <c r="CJ79" s="72"/>
-      <c r="CK79" s="72"/>
-      <c r="CL79" s="72"/>
-      <c r="CM79" s="72"/>
-      <c r="CN79" s="72"/>
-      <c r="CO79" s="72"/>
-      <c r="CQ79" s="11"/>
+      <c r="CG79" s="21"/>
+      <c r="CH79" s="21"/>
+      <c r="CI79" s="21"/>
+      <c r="CJ79" s="21"/>
+      <c r="CK79" s="21"/>
+      <c r="CL79" s="21"/>
+      <c r="CM79" s="21"/>
+      <c r="CO79" s="11"/>
+      <c r="CP79" s="14"/>
+      <c r="CQ79" s="14"/>
       <c r="CR79" s="14"/>
       <c r="CS79" s="14"/>
-      <c r="CT79" s="14"/>
-      <c r="CU79" s="14"/>
-    </row>
-    <row r="80" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
@@ -6110,22 +5979,20 @@
       <c r="CD80" s="11"/>
       <c r="CE80" s="11"/>
       <c r="CF80" s="11"/>
-      <c r="CG80" s="11"/>
-      <c r="CH80" s="11"/>
-      <c r="CI80" s="72"/>
-      <c r="CJ80" s="72"/>
-      <c r="CK80" s="72"/>
-      <c r="CL80" s="72"/>
-      <c r="CM80" s="72"/>
-      <c r="CN80" s="72"/>
-      <c r="CO80" s="72"/>
-      <c r="CQ80" s="11"/>
+      <c r="CG80" s="21"/>
+      <c r="CH80" s="21"/>
+      <c r="CI80" s="21"/>
+      <c r="CJ80" s="21"/>
+      <c r="CK80" s="21"/>
+      <c r="CL80" s="21"/>
+      <c r="CM80" s="21"/>
+      <c r="CO80" s="11"/>
+      <c r="CP80" s="14"/>
+      <c r="CQ80" s="14"/>
       <c r="CR80" s="14"/>
       <c r="CS80" s="14"/>
-      <c r="CT80" s="14"/>
-      <c r="CU80" s="14"/>
-    </row>
-    <row r="81" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
@@ -6173,22 +6040,20 @@
       <c r="CD81" s="11"/>
       <c r="CE81" s="11"/>
       <c r="CF81" s="11"/>
-      <c r="CG81" s="11"/>
-      <c r="CH81" s="11"/>
-      <c r="CI81" s="72"/>
-      <c r="CJ81" s="72"/>
-      <c r="CK81" s="72"/>
-      <c r="CL81" s="72"/>
-      <c r="CM81" s="72"/>
-      <c r="CN81" s="72"/>
-      <c r="CO81" s="72"/>
-      <c r="CQ81" s="11"/>
+      <c r="CG81" s="21"/>
+      <c r="CH81" s="21"/>
+      <c r="CI81" s="21"/>
+      <c r="CJ81" s="21"/>
+      <c r="CK81" s="21"/>
+      <c r="CL81" s="21"/>
+      <c r="CM81" s="21"/>
+      <c r="CO81" s="11"/>
+      <c r="CP81" s="14"/>
+      <c r="CQ81" s="14"/>
       <c r="CR81" s="14"/>
       <c r="CS81" s="14"/>
-      <c r="CT81" s="14"/>
-      <c r="CU81" s="14"/>
-    </row>
-    <row r="82" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
@@ -6236,22 +6101,20 @@
       <c r="CD82" s="11"/>
       <c r="CE82" s="11"/>
       <c r="CF82" s="11"/>
-      <c r="CG82" s="11"/>
-      <c r="CH82" s="11"/>
-      <c r="CI82" s="72"/>
-      <c r="CJ82" s="72"/>
-      <c r="CK82" s="72"/>
-      <c r="CL82" s="72"/>
-      <c r="CM82" s="72"/>
-      <c r="CN82" s="72"/>
-      <c r="CO82" s="72"/>
-      <c r="CQ82" s="11"/>
+      <c r="CG82" s="21"/>
+      <c r="CH82" s="21"/>
+      <c r="CI82" s="21"/>
+      <c r="CJ82" s="21"/>
+      <c r="CK82" s="21"/>
+      <c r="CL82" s="21"/>
+      <c r="CM82" s="21"/>
+      <c r="CO82" s="11"/>
+      <c r="CP82" s="14"/>
+      <c r="CQ82" s="14"/>
       <c r="CR82" s="14"/>
       <c r="CS82" s="14"/>
-      <c r="CT82" s="14"/>
-      <c r="CU82" s="14"/>
-    </row>
-    <row r="83" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
@@ -6299,22 +6162,20 @@
       <c r="CD83" s="11"/>
       <c r="CE83" s="11"/>
       <c r="CF83" s="11"/>
-      <c r="CG83" s="11"/>
-      <c r="CH83" s="11"/>
-      <c r="CI83" s="72"/>
-      <c r="CJ83" s="72"/>
-      <c r="CK83" s="72"/>
-      <c r="CL83" s="72"/>
-      <c r="CM83" s="72"/>
-      <c r="CN83" s="72"/>
-      <c r="CO83" s="72"/>
-      <c r="CQ83" s="11"/>
+      <c r="CG83" s="21"/>
+      <c r="CH83" s="21"/>
+      <c r="CI83" s="21"/>
+      <c r="CJ83" s="21"/>
+      <c r="CK83" s="21"/>
+      <c r="CL83" s="21"/>
+      <c r="CM83" s="21"/>
+      <c r="CO83" s="11"/>
+      <c r="CP83" s="14"/>
+      <c r="CQ83" s="14"/>
       <c r="CR83" s="14"/>
       <c r="CS83" s="14"/>
-      <c r="CT83" s="14"/>
-      <c r="CU83" s="14"/>
-    </row>
-    <row r="84" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
@@ -6362,22 +6223,20 @@
       <c r="CD84" s="11"/>
       <c r="CE84" s="11"/>
       <c r="CF84" s="11"/>
-      <c r="CG84" s="11"/>
-      <c r="CH84" s="11"/>
-      <c r="CI84" s="72"/>
-      <c r="CJ84" s="72"/>
-      <c r="CK84" s="72"/>
-      <c r="CL84" s="72"/>
-      <c r="CM84" s="72"/>
-      <c r="CN84" s="72"/>
-      <c r="CO84" s="72"/>
-      <c r="CQ84" s="11"/>
+      <c r="CG84" s="21"/>
+      <c r="CH84" s="21"/>
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21"/>
+      <c r="CM84" s="21"/>
+      <c r="CO84" s="11"/>
+      <c r="CP84" s="14"/>
+      <c r="CQ84" s="14"/>
       <c r="CR84" s="14"/>
       <c r="CS84" s="14"/>
-      <c r="CT84" s="14"/>
-      <c r="CU84" s="14"/>
-    </row>
-    <row r="85" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
@@ -6425,22 +6284,20 @@
       <c r="CD85" s="11"/>
       <c r="CE85" s="11"/>
       <c r="CF85" s="11"/>
-      <c r="CG85" s="11"/>
-      <c r="CH85" s="11"/>
-      <c r="CI85" s="72"/>
-      <c r="CJ85" s="72"/>
-      <c r="CK85" s="72"/>
-      <c r="CL85" s="72"/>
-      <c r="CM85" s="72"/>
-      <c r="CN85" s="72"/>
-      <c r="CO85" s="72"/>
-      <c r="CQ85" s="11"/>
+      <c r="CG85" s="21"/>
+      <c r="CH85" s="21"/>
+      <c r="CI85" s="21"/>
+      <c r="CJ85" s="21"/>
+      <c r="CK85" s="21"/>
+      <c r="CL85" s="21"/>
+      <c r="CM85" s="21"/>
+      <c r="CO85" s="11"/>
+      <c r="CP85" s="14"/>
+      <c r="CQ85" s="14"/>
       <c r="CR85" s="14"/>
       <c r="CS85" s="14"/>
-      <c r="CT85" s="14"/>
-      <c r="CU85" s="14"/>
-    </row>
-    <row r="86" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
@@ -6488,22 +6345,20 @@
       <c r="CD86" s="11"/>
       <c r="CE86" s="11"/>
       <c r="CF86" s="11"/>
-      <c r="CG86" s="11"/>
-      <c r="CH86" s="11"/>
-      <c r="CI86" s="72"/>
-      <c r="CJ86" s="72"/>
-      <c r="CK86" s="72"/>
-      <c r="CL86" s="72"/>
-      <c r="CM86" s="72"/>
-      <c r="CN86" s="72"/>
-      <c r="CO86" s="72"/>
-      <c r="CQ86" s="11"/>
+      <c r="CG86" s="21"/>
+      <c r="CH86" s="21"/>
+      <c r="CI86" s="21"/>
+      <c r="CJ86" s="21"/>
+      <c r="CK86" s="21"/>
+      <c r="CL86" s="21"/>
+      <c r="CM86" s="21"/>
+      <c r="CO86" s="11"/>
+      <c r="CP86" s="14"/>
+      <c r="CQ86" s="14"/>
       <c r="CR86" s="14"/>
       <c r="CS86" s="14"/>
-      <c r="CT86" s="14"/>
-      <c r="CU86" s="14"/>
-    </row>
-    <row r="87" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
@@ -6551,22 +6406,20 @@
       <c r="CD87" s="11"/>
       <c r="CE87" s="11"/>
       <c r="CF87" s="11"/>
-      <c r="CG87" s="11"/>
-      <c r="CH87" s="11"/>
-      <c r="CI87" s="72"/>
-      <c r="CJ87" s="72"/>
-      <c r="CK87" s="72"/>
-      <c r="CL87" s="72"/>
-      <c r="CM87" s="72"/>
-      <c r="CN87" s="72"/>
-      <c r="CO87" s="72"/>
-      <c r="CQ87" s="11"/>
+      <c r="CG87" s="21"/>
+      <c r="CH87" s="21"/>
+      <c r="CI87" s="21"/>
+      <c r="CJ87" s="21"/>
+      <c r="CK87" s="21"/>
+      <c r="CL87" s="21"/>
+      <c r="CM87" s="21"/>
+      <c r="CO87" s="11"/>
+      <c r="CP87" s="14"/>
+      <c r="CQ87" s="14"/>
       <c r="CR87" s="14"/>
       <c r="CS87" s="14"/>
-      <c r="CT87" s="14"/>
-      <c r="CU87" s="14"/>
-    </row>
-    <row r="88" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
@@ -6614,22 +6467,20 @@
       <c r="CD88" s="11"/>
       <c r="CE88" s="11"/>
       <c r="CF88" s="11"/>
-      <c r="CG88" s="11"/>
-      <c r="CH88" s="11"/>
-      <c r="CI88" s="72"/>
-      <c r="CJ88" s="72"/>
-      <c r="CK88" s="72"/>
-      <c r="CL88" s="72"/>
-      <c r="CM88" s="72"/>
-      <c r="CN88" s="72"/>
-      <c r="CO88" s="72"/>
-      <c r="CQ88" s="11"/>
+      <c r="CG88" s="21"/>
+      <c r="CH88" s="21"/>
+      <c r="CI88" s="21"/>
+      <c r="CJ88" s="21"/>
+      <c r="CK88" s="21"/>
+      <c r="CL88" s="21"/>
+      <c r="CM88" s="21"/>
+      <c r="CO88" s="11"/>
+      <c r="CP88" s="14"/>
+      <c r="CQ88" s="14"/>
       <c r="CR88" s="14"/>
       <c r="CS88" s="14"/>
-      <c r="CT88" s="14"/>
-      <c r="CU88" s="14"/>
-    </row>
-    <row r="89" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
@@ -6677,22 +6528,20 @@
       <c r="CD89" s="11"/>
       <c r="CE89" s="11"/>
       <c r="CF89" s="11"/>
-      <c r="CG89" s="11"/>
-      <c r="CH89" s="11"/>
-      <c r="CI89" s="72"/>
-      <c r="CJ89" s="72"/>
-      <c r="CK89" s="72"/>
-      <c r="CL89" s="72"/>
-      <c r="CM89" s="72"/>
-      <c r="CN89" s="72"/>
-      <c r="CO89" s="72"/>
-      <c r="CQ89" s="11"/>
+      <c r="CG89" s="21"/>
+      <c r="CH89" s="21"/>
+      <c r="CI89" s="21"/>
+      <c r="CJ89" s="21"/>
+      <c r="CK89" s="21"/>
+      <c r="CL89" s="21"/>
+      <c r="CM89" s="21"/>
+      <c r="CO89" s="11"/>
+      <c r="CP89" s="14"/>
+      <c r="CQ89" s="14"/>
       <c r="CR89" s="14"/>
       <c r="CS89" s="14"/>
-      <c r="CT89" s="14"/>
-      <c r="CU89" s="14"/>
-    </row>
-    <row r="90" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
@@ -6740,22 +6589,20 @@
       <c r="CD90" s="11"/>
       <c r="CE90" s="11"/>
       <c r="CF90" s="11"/>
-      <c r="CG90" s="11"/>
-      <c r="CH90" s="11"/>
-      <c r="CI90" s="72"/>
-      <c r="CJ90" s="72"/>
-      <c r="CK90" s="72"/>
-      <c r="CL90" s="72"/>
-      <c r="CM90" s="72"/>
-      <c r="CN90" s="72"/>
-      <c r="CO90" s="72"/>
-      <c r="CQ90" s="11"/>
+      <c r="CG90" s="21"/>
+      <c r="CH90" s="21"/>
+      <c r="CI90" s="21"/>
+      <c r="CJ90" s="21"/>
+      <c r="CK90" s="21"/>
+      <c r="CL90" s="21"/>
+      <c r="CM90" s="21"/>
+      <c r="CO90" s="11"/>
+      <c r="CP90" s="14"/>
+      <c r="CQ90" s="14"/>
       <c r="CR90" s="14"/>
       <c r="CS90" s="14"/>
-      <c r="CT90" s="14"/>
-      <c r="CU90" s="14"/>
-    </row>
-    <row r="91" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
@@ -6803,22 +6650,20 @@
       <c r="CD91" s="11"/>
       <c r="CE91" s="11"/>
       <c r="CF91" s="11"/>
-      <c r="CG91" s="11"/>
-      <c r="CH91" s="11"/>
-      <c r="CI91" s="72"/>
-      <c r="CJ91" s="72"/>
-      <c r="CK91" s="72"/>
-      <c r="CL91" s="72"/>
-      <c r="CM91" s="72"/>
-      <c r="CN91" s="72"/>
-      <c r="CO91" s="72"/>
-      <c r="CQ91" s="11"/>
+      <c r="CG91" s="21"/>
+      <c r="CH91" s="21"/>
+      <c r="CI91" s="21"/>
+      <c r="CJ91" s="21"/>
+      <c r="CK91" s="21"/>
+      <c r="CL91" s="21"/>
+      <c r="CM91" s="21"/>
+      <c r="CO91" s="11"/>
+      <c r="CP91" s="14"/>
+      <c r="CQ91" s="14"/>
       <c r="CR91" s="14"/>
       <c r="CS91" s="14"/>
-      <c r="CT91" s="14"/>
-      <c r="CU91" s="14"/>
-    </row>
-    <row r="92" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
@@ -6866,22 +6711,20 @@
       <c r="CD92" s="11"/>
       <c r="CE92" s="11"/>
       <c r="CF92" s="11"/>
-      <c r="CG92" s="11"/>
-      <c r="CH92" s="11"/>
-      <c r="CI92" s="72"/>
-      <c r="CJ92" s="72"/>
-      <c r="CK92" s="72"/>
-      <c r="CL92" s="72"/>
-      <c r="CM92" s="72"/>
-      <c r="CN92" s="72"/>
-      <c r="CO92" s="72"/>
-      <c r="CQ92" s="11"/>
+      <c r="CG92" s="21"/>
+      <c r="CH92" s="21"/>
+      <c r="CI92" s="21"/>
+      <c r="CJ92" s="21"/>
+      <c r="CK92" s="21"/>
+      <c r="CL92" s="21"/>
+      <c r="CM92" s="21"/>
+      <c r="CO92" s="11"/>
+      <c r="CP92" s="14"/>
+      <c r="CQ92" s="14"/>
       <c r="CR92" s="14"/>
       <c r="CS92" s="14"/>
-      <c r="CT92" s="14"/>
-      <c r="CU92" s="14"/>
-    </row>
-    <row r="93" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
@@ -6929,22 +6772,20 @@
       <c r="CD93" s="11"/>
       <c r="CE93" s="11"/>
       <c r="CF93" s="11"/>
-      <c r="CG93" s="11"/>
-      <c r="CH93" s="11"/>
-      <c r="CI93" s="72"/>
-      <c r="CJ93" s="72"/>
-      <c r="CK93" s="72"/>
-      <c r="CL93" s="72"/>
-      <c r="CM93" s="72"/>
-      <c r="CN93" s="72"/>
-      <c r="CO93" s="72"/>
-      <c r="CQ93" s="11"/>
+      <c r="CG93" s="21"/>
+      <c r="CH93" s="21"/>
+      <c r="CI93" s="21"/>
+      <c r="CJ93" s="21"/>
+      <c r="CK93" s="21"/>
+      <c r="CL93" s="21"/>
+      <c r="CM93" s="21"/>
+      <c r="CO93" s="11"/>
+      <c r="CP93" s="14"/>
+      <c r="CQ93" s="14"/>
       <c r="CR93" s="14"/>
       <c r="CS93" s="14"/>
-      <c r="CT93" s="14"/>
-      <c r="CU93" s="14"/>
-    </row>
-    <row r="94" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
@@ -6992,22 +6833,20 @@
       <c r="CD94" s="11"/>
       <c r="CE94" s="11"/>
       <c r="CF94" s="11"/>
-      <c r="CG94" s="11"/>
-      <c r="CH94" s="11"/>
-      <c r="CI94" s="72"/>
-      <c r="CJ94" s="72"/>
-      <c r="CK94" s="72"/>
-      <c r="CL94" s="72"/>
-      <c r="CM94" s="72"/>
-      <c r="CN94" s="72"/>
-      <c r="CO94" s="72"/>
-      <c r="CQ94" s="11"/>
+      <c r="CG94" s="21"/>
+      <c r="CH94" s="21"/>
+      <c r="CI94" s="21"/>
+      <c r="CJ94" s="21"/>
+      <c r="CK94" s="21"/>
+      <c r="CL94" s="21"/>
+      <c r="CM94" s="21"/>
+      <c r="CO94" s="11"/>
+      <c r="CP94" s="14"/>
+      <c r="CQ94" s="14"/>
       <c r="CR94" s="14"/>
       <c r="CS94" s="14"/>
-      <c r="CT94" s="14"/>
-      <c r="CU94" s="14"/>
-    </row>
-    <row r="95" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
@@ -7055,22 +6894,20 @@
       <c r="CD95" s="11"/>
       <c r="CE95" s="11"/>
       <c r="CF95" s="11"/>
-      <c r="CG95" s="11"/>
-      <c r="CH95" s="11"/>
-      <c r="CI95" s="72"/>
-      <c r="CJ95" s="72"/>
-      <c r="CK95" s="72"/>
-      <c r="CL95" s="72"/>
-      <c r="CM95" s="72"/>
-      <c r="CN95" s="72"/>
-      <c r="CO95" s="72"/>
-      <c r="CQ95" s="11"/>
+      <c r="CG95" s="21"/>
+      <c r="CH95" s="21"/>
+      <c r="CI95" s="21"/>
+      <c r="CJ95" s="21"/>
+      <c r="CK95" s="21"/>
+      <c r="CL95" s="21"/>
+      <c r="CM95" s="21"/>
+      <c r="CO95" s="11"/>
+      <c r="CP95" s="14"/>
+      <c r="CQ95" s="14"/>
       <c r="CR95" s="14"/>
       <c r="CS95" s="14"/>
-      <c r="CT95" s="14"/>
-      <c r="CU95" s="14"/>
-    </row>
-    <row r="96" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
@@ -7118,22 +6955,20 @@
       <c r="CD96" s="11"/>
       <c r="CE96" s="11"/>
       <c r="CF96" s="11"/>
-      <c r="CG96" s="11"/>
-      <c r="CH96" s="11"/>
-      <c r="CI96" s="72"/>
-      <c r="CJ96" s="72"/>
-      <c r="CK96" s="72"/>
-      <c r="CL96" s="72"/>
-      <c r="CM96" s="72"/>
-      <c r="CN96" s="72"/>
-      <c r="CO96" s="72"/>
-      <c r="CQ96" s="11"/>
+      <c r="CG96" s="21"/>
+      <c r="CH96" s="21"/>
+      <c r="CI96" s="21"/>
+      <c r="CJ96" s="21"/>
+      <c r="CK96" s="21"/>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CO96" s="11"/>
+      <c r="CP96" s="14"/>
+      <c r="CQ96" s="14"/>
       <c r="CR96" s="14"/>
       <c r="CS96" s="14"/>
-      <c r="CT96" s="14"/>
-      <c r="CU96" s="14"/>
-    </row>
-    <row r="97" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
@@ -7181,22 +7016,20 @@
       <c r="CD97" s="11"/>
       <c r="CE97" s="11"/>
       <c r="CF97" s="11"/>
-      <c r="CG97" s="11"/>
-      <c r="CH97" s="11"/>
-      <c r="CI97" s="72"/>
-      <c r="CJ97" s="72"/>
-      <c r="CK97" s="72"/>
-      <c r="CL97" s="72"/>
-      <c r="CM97" s="72"/>
-      <c r="CN97" s="72"/>
-      <c r="CO97" s="72"/>
-      <c r="CQ97" s="11"/>
+      <c r="CG97" s="21"/>
+      <c r="CH97" s="21"/>
+      <c r="CI97" s="21"/>
+      <c r="CJ97" s="21"/>
+      <c r="CK97" s="21"/>
+      <c r="CL97" s="21"/>
+      <c r="CM97" s="21"/>
+      <c r="CO97" s="11"/>
+      <c r="CP97" s="14"/>
+      <c r="CQ97" s="14"/>
       <c r="CR97" s="14"/>
       <c r="CS97" s="14"/>
-      <c r="CT97" s="14"/>
-      <c r="CU97" s="14"/>
-    </row>
-    <row r="98" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
@@ -7244,22 +7077,20 @@
       <c r="CD98" s="11"/>
       <c r="CE98" s="11"/>
       <c r="CF98" s="11"/>
-      <c r="CG98" s="11"/>
-      <c r="CH98" s="11"/>
-      <c r="CI98" s="72"/>
-      <c r="CJ98" s="72"/>
-      <c r="CK98" s="72"/>
-      <c r="CL98" s="72"/>
-      <c r="CM98" s="72"/>
-      <c r="CN98" s="72"/>
-      <c r="CO98" s="72"/>
-      <c r="CQ98" s="11"/>
+      <c r="CG98" s="21"/>
+      <c r="CH98" s="21"/>
+      <c r="CI98" s="21"/>
+      <c r="CJ98" s="21"/>
+      <c r="CK98" s="21"/>
+      <c r="CL98" s="21"/>
+      <c r="CM98" s="21"/>
+      <c r="CO98" s="11"/>
+      <c r="CP98" s="14"/>
+      <c r="CQ98" s="14"/>
       <c r="CR98" s="14"/>
       <c r="CS98" s="14"/>
-      <c r="CT98" s="14"/>
-      <c r="CU98" s="14"/>
-    </row>
-    <row r="99" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
@@ -7307,22 +7138,20 @@
       <c r="CD99" s="11"/>
       <c r="CE99" s="11"/>
       <c r="CF99" s="11"/>
-      <c r="CG99" s="11"/>
-      <c r="CH99" s="11"/>
-      <c r="CI99" s="72"/>
-      <c r="CJ99" s="72"/>
-      <c r="CK99" s="72"/>
-      <c r="CL99" s="72"/>
-      <c r="CM99" s="72"/>
-      <c r="CN99" s="72"/>
-      <c r="CO99" s="72"/>
-      <c r="CQ99" s="11"/>
+      <c r="CG99" s="21"/>
+      <c r="CH99" s="21"/>
+      <c r="CI99" s="21"/>
+      <c r="CJ99" s="21"/>
+      <c r="CK99" s="21"/>
+      <c r="CL99" s="21"/>
+      <c r="CM99" s="21"/>
+      <c r="CO99" s="11"/>
+      <c r="CP99" s="14"/>
+      <c r="CQ99" s="14"/>
       <c r="CR99" s="14"/>
       <c r="CS99" s="14"/>
-      <c r="CT99" s="14"/>
-      <c r="CU99" s="14"/>
-    </row>
-    <row r="100" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
@@ -7370,22 +7199,20 @@
       <c r="CD100" s="11"/>
       <c r="CE100" s="11"/>
       <c r="CF100" s="11"/>
-      <c r="CG100" s="11"/>
-      <c r="CH100" s="11"/>
-      <c r="CI100" s="72"/>
-      <c r="CJ100" s="72"/>
-      <c r="CK100" s="72"/>
-      <c r="CL100" s="72"/>
-      <c r="CM100" s="72"/>
-      <c r="CN100" s="72"/>
-      <c r="CO100" s="72"/>
-      <c r="CQ100" s="11"/>
+      <c r="CG100" s="21"/>
+      <c r="CH100" s="21"/>
+      <c r="CI100" s="21"/>
+      <c r="CJ100" s="21"/>
+      <c r="CK100" s="21"/>
+      <c r="CL100" s="21"/>
+      <c r="CM100" s="21"/>
+      <c r="CO100" s="11"/>
+      <c r="CP100" s="14"/>
+      <c r="CQ100" s="14"/>
       <c r="CR100" s="14"/>
       <c r="CS100" s="14"/>
-      <c r="CT100" s="14"/>
-      <c r="CU100" s="14"/>
-    </row>
-    <row r="101" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
@@ -7433,22 +7260,20 @@
       <c r="CD101" s="11"/>
       <c r="CE101" s="11"/>
       <c r="CF101" s="11"/>
-      <c r="CG101" s="11"/>
-      <c r="CH101" s="11"/>
-      <c r="CI101" s="72"/>
-      <c r="CJ101" s="72"/>
-      <c r="CK101" s="72"/>
-      <c r="CL101" s="72"/>
-      <c r="CM101" s="72"/>
-      <c r="CN101" s="72"/>
-      <c r="CO101" s="72"/>
-      <c r="CQ101" s="11"/>
+      <c r="CG101" s="21"/>
+      <c r="CH101" s="21"/>
+      <c r="CI101" s="21"/>
+      <c r="CJ101" s="21"/>
+      <c r="CK101" s="21"/>
+      <c r="CL101" s="21"/>
+      <c r="CM101" s="21"/>
+      <c r="CO101" s="11"/>
+      <c r="CP101" s="14"/>
+      <c r="CQ101" s="14"/>
       <c r="CR101" s="14"/>
       <c r="CS101" s="14"/>
-      <c r="CT101" s="14"/>
-      <c r="CU101" s="14"/>
-    </row>
-    <row r="102" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
@@ -7496,22 +7321,20 @@
       <c r="CD102" s="11"/>
       <c r="CE102" s="11"/>
       <c r="CF102" s="11"/>
-      <c r="CG102" s="11"/>
-      <c r="CH102" s="11"/>
-      <c r="CI102" s="72"/>
-      <c r="CJ102" s="72"/>
-      <c r="CK102" s="72"/>
-      <c r="CL102" s="72"/>
-      <c r="CM102" s="72"/>
-      <c r="CN102" s="72"/>
-      <c r="CO102" s="72"/>
-      <c r="CQ102" s="11"/>
+      <c r="CG102" s="21"/>
+      <c r="CH102" s="21"/>
+      <c r="CI102" s="21"/>
+      <c r="CJ102" s="21"/>
+      <c r="CK102" s="21"/>
+      <c r="CL102" s="21"/>
+      <c r="CM102" s="21"/>
+      <c r="CO102" s="11"/>
+      <c r="CP102" s="14"/>
+      <c r="CQ102" s="14"/>
       <c r="CR102" s="14"/>
       <c r="CS102" s="14"/>
-      <c r="CT102" s="14"/>
-      <c r="CU102" s="14"/>
-    </row>
-    <row r="103" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
@@ -7559,22 +7382,20 @@
       <c r="CD103" s="11"/>
       <c r="CE103" s="11"/>
       <c r="CF103" s="11"/>
-      <c r="CG103" s="11"/>
-      <c r="CH103" s="11"/>
-      <c r="CI103" s="72"/>
-      <c r="CJ103" s="72"/>
-      <c r="CK103" s="72"/>
-      <c r="CL103" s="72"/>
-      <c r="CM103" s="72"/>
-      <c r="CN103" s="72"/>
-      <c r="CO103" s="72"/>
-      <c r="CQ103" s="11"/>
+      <c r="CG103" s="21"/>
+      <c r="CH103" s="21"/>
+      <c r="CI103" s="21"/>
+      <c r="CJ103" s="21"/>
+      <c r="CK103" s="21"/>
+      <c r="CL103" s="21"/>
+      <c r="CM103" s="21"/>
+      <c r="CO103" s="11"/>
+      <c r="CP103" s="14"/>
+      <c r="CQ103" s="14"/>
       <c r="CR103" s="14"/>
       <c r="CS103" s="14"/>
-      <c r="CT103" s="14"/>
-      <c r="CU103" s="14"/>
-    </row>
-    <row r="104" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
@@ -7622,22 +7443,20 @@
       <c r="CD104" s="11"/>
       <c r="CE104" s="11"/>
       <c r="CF104" s="11"/>
-      <c r="CG104" s="11"/>
-      <c r="CH104" s="11"/>
-      <c r="CI104" s="72"/>
-      <c r="CJ104" s="72"/>
-      <c r="CK104" s="72"/>
-      <c r="CL104" s="72"/>
-      <c r="CM104" s="72"/>
-      <c r="CN104" s="72"/>
-      <c r="CO104" s="72"/>
-      <c r="CQ104" s="11"/>
+      <c r="CG104" s="21"/>
+      <c r="CH104" s="21"/>
+      <c r="CI104" s="21"/>
+      <c r="CJ104" s="21"/>
+      <c r="CK104" s="21"/>
+      <c r="CL104" s="21"/>
+      <c r="CM104" s="21"/>
+      <c r="CO104" s="11"/>
+      <c r="CP104" s="14"/>
+      <c r="CQ104" s="14"/>
       <c r="CR104" s="14"/>
       <c r="CS104" s="14"/>
-      <c r="CT104" s="14"/>
-      <c r="CU104" s="14"/>
-    </row>
-    <row r="105" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
@@ -7685,22 +7504,20 @@
       <c r="CD105" s="11"/>
       <c r="CE105" s="11"/>
       <c r="CF105" s="11"/>
-      <c r="CG105" s="11"/>
-      <c r="CH105" s="11"/>
-      <c r="CI105" s="72"/>
-      <c r="CJ105" s="72"/>
-      <c r="CK105" s="72"/>
-      <c r="CL105" s="72"/>
-      <c r="CM105" s="72"/>
-      <c r="CN105" s="72"/>
-      <c r="CO105" s="72"/>
-      <c r="CQ105" s="11"/>
+      <c r="CG105" s="21"/>
+      <c r="CH105" s="21"/>
+      <c r="CI105" s="21"/>
+      <c r="CJ105" s="21"/>
+      <c r="CK105" s="21"/>
+      <c r="CL105" s="21"/>
+      <c r="CM105" s="21"/>
+      <c r="CO105" s="11"/>
+      <c r="CP105" s="14"/>
+      <c r="CQ105" s="14"/>
       <c r="CR105" s="14"/>
       <c r="CS105" s="14"/>
-      <c r="CT105" s="14"/>
-      <c r="CU105" s="14"/>
-    </row>
-    <row r="106" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X106" s="13"/>
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
@@ -7748,22 +7565,20 @@
       <c r="CD106" s="11"/>
       <c r="CE106" s="11"/>
       <c r="CF106" s="11"/>
-      <c r="CG106" s="11"/>
-      <c r="CH106" s="11"/>
-      <c r="CI106" s="72"/>
-      <c r="CJ106" s="72"/>
-      <c r="CK106" s="72"/>
-      <c r="CL106" s="72"/>
-      <c r="CM106" s="72"/>
-      <c r="CN106" s="72"/>
-      <c r="CO106" s="72"/>
-      <c r="CQ106" s="11"/>
+      <c r="CG106" s="21"/>
+      <c r="CH106" s="21"/>
+      <c r="CI106" s="21"/>
+      <c r="CJ106" s="21"/>
+      <c r="CK106" s="21"/>
+      <c r="CL106" s="21"/>
+      <c r="CM106" s="21"/>
+      <c r="CO106" s="11"/>
+      <c r="CP106" s="14"/>
+      <c r="CQ106" s="14"/>
       <c r="CR106" s="14"/>
       <c r="CS106" s="14"/>
-      <c r="CT106" s="14"/>
-      <c r="CU106" s="14"/>
-    </row>
-    <row r="107" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
@@ -7811,22 +7626,20 @@
       <c r="CD107" s="11"/>
       <c r="CE107" s="11"/>
       <c r="CF107" s="11"/>
-      <c r="CG107" s="11"/>
-      <c r="CH107" s="11"/>
-      <c r="CI107" s="72"/>
-      <c r="CJ107" s="72"/>
-      <c r="CK107" s="72"/>
-      <c r="CL107" s="72"/>
-      <c r="CM107" s="72"/>
-      <c r="CN107" s="72"/>
-      <c r="CO107" s="72"/>
-      <c r="CQ107" s="11"/>
+      <c r="CG107" s="21"/>
+      <c r="CH107" s="21"/>
+      <c r="CI107" s="21"/>
+      <c r="CJ107" s="21"/>
+      <c r="CK107" s="21"/>
+      <c r="CL107" s="21"/>
+      <c r="CM107" s="21"/>
+      <c r="CO107" s="11"/>
+      <c r="CP107" s="14"/>
+      <c r="CQ107" s="14"/>
       <c r="CR107" s="14"/>
       <c r="CS107" s="14"/>
-      <c r="CT107" s="14"/>
-      <c r="CU107" s="14"/>
-    </row>
-    <row r="108" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
@@ -7874,22 +7687,20 @@
       <c r="CD108" s="11"/>
       <c r="CE108" s="11"/>
       <c r="CF108" s="11"/>
-      <c r="CG108" s="11"/>
-      <c r="CH108" s="11"/>
-      <c r="CI108" s="72"/>
-      <c r="CJ108" s="72"/>
-      <c r="CK108" s="72"/>
-      <c r="CL108" s="72"/>
-      <c r="CM108" s="72"/>
-      <c r="CN108" s="72"/>
-      <c r="CO108" s="72"/>
-      <c r="CQ108" s="11"/>
+      <c r="CG108" s="21"/>
+      <c r="CH108" s="21"/>
+      <c r="CI108" s="21"/>
+      <c r="CJ108" s="21"/>
+      <c r="CK108" s="21"/>
+      <c r="CL108" s="21"/>
+      <c r="CM108" s="21"/>
+      <c r="CO108" s="11"/>
+      <c r="CP108" s="14"/>
+      <c r="CQ108" s="14"/>
       <c r="CR108" s="14"/>
       <c r="CS108" s="14"/>
-      <c r="CT108" s="14"/>
-      <c r="CU108" s="14"/>
-    </row>
-    <row r="109" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
@@ -7937,22 +7748,20 @@
       <c r="CD109" s="11"/>
       <c r="CE109" s="11"/>
       <c r="CF109" s="11"/>
-      <c r="CG109" s="11"/>
-      <c r="CH109" s="11"/>
-      <c r="CI109" s="72"/>
-      <c r="CJ109" s="72"/>
-      <c r="CK109" s="72"/>
-      <c r="CL109" s="72"/>
-      <c r="CM109" s="72"/>
-      <c r="CN109" s="72"/>
-      <c r="CO109" s="72"/>
-      <c r="CQ109" s="11"/>
+      <c r="CG109" s="21"/>
+      <c r="CH109" s="21"/>
+      <c r="CI109" s="21"/>
+      <c r="CJ109" s="21"/>
+      <c r="CK109" s="21"/>
+      <c r="CL109" s="21"/>
+      <c r="CM109" s="21"/>
+      <c r="CO109" s="11"/>
+      <c r="CP109" s="14"/>
+      <c r="CQ109" s="14"/>
       <c r="CR109" s="14"/>
       <c r="CS109" s="14"/>
-      <c r="CT109" s="14"/>
-      <c r="CU109" s="14"/>
-    </row>
-    <row r="110" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
@@ -8000,22 +7809,20 @@
       <c r="CD110" s="11"/>
       <c r="CE110" s="11"/>
       <c r="CF110" s="11"/>
-      <c r="CG110" s="11"/>
-      <c r="CH110" s="11"/>
-      <c r="CI110" s="72"/>
-      <c r="CJ110" s="72"/>
-      <c r="CK110" s="72"/>
-      <c r="CL110" s="72"/>
-      <c r="CM110" s="72"/>
-      <c r="CN110" s="72"/>
-      <c r="CO110" s="72"/>
-      <c r="CQ110" s="11"/>
+      <c r="CG110" s="21"/>
+      <c r="CH110" s="21"/>
+      <c r="CI110" s="21"/>
+      <c r="CJ110" s="21"/>
+      <c r="CK110" s="21"/>
+      <c r="CL110" s="21"/>
+      <c r="CM110" s="21"/>
+      <c r="CO110" s="11"/>
+      <c r="CP110" s="14"/>
+      <c r="CQ110" s="14"/>
       <c r="CR110" s="14"/>
       <c r="CS110" s="14"/>
-      <c r="CT110" s="14"/>
-      <c r="CU110" s="14"/>
-    </row>
-    <row r="111" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
@@ -8063,22 +7870,20 @@
       <c r="CD111" s="11"/>
       <c r="CE111" s="11"/>
       <c r="CF111" s="11"/>
-      <c r="CG111" s="11"/>
-      <c r="CH111" s="11"/>
-      <c r="CI111" s="72"/>
-      <c r="CJ111" s="72"/>
-      <c r="CK111" s="72"/>
-      <c r="CL111" s="72"/>
-      <c r="CM111" s="72"/>
-      <c r="CN111" s="72"/>
-      <c r="CO111" s="72"/>
-      <c r="CQ111" s="11"/>
+      <c r="CG111" s="21"/>
+      <c r="CH111" s="21"/>
+      <c r="CI111" s="21"/>
+      <c r="CJ111" s="21"/>
+      <c r="CK111" s="21"/>
+      <c r="CL111" s="21"/>
+      <c r="CM111" s="21"/>
+      <c r="CO111" s="11"/>
+      <c r="CP111" s="14"/>
+      <c r="CQ111" s="14"/>
       <c r="CR111" s="14"/>
       <c r="CS111" s="14"/>
-      <c r="CT111" s="14"/>
-      <c r="CU111" s="14"/>
-    </row>
-    <row r="112" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
@@ -8126,22 +7931,20 @@
       <c r="CD112" s="11"/>
       <c r="CE112" s="11"/>
       <c r="CF112" s="11"/>
-      <c r="CG112" s="11"/>
-      <c r="CH112" s="11"/>
-      <c r="CI112" s="72"/>
-      <c r="CJ112" s="72"/>
-      <c r="CK112" s="72"/>
-      <c r="CL112" s="72"/>
-      <c r="CM112" s="72"/>
-      <c r="CN112" s="72"/>
-      <c r="CO112" s="72"/>
-      <c r="CQ112" s="11"/>
+      <c r="CG112" s="21"/>
+      <c r="CH112" s="21"/>
+      <c r="CI112" s="21"/>
+      <c r="CJ112" s="21"/>
+      <c r="CK112" s="21"/>
+      <c r="CL112" s="21"/>
+      <c r="CM112" s="21"/>
+      <c r="CO112" s="11"/>
+      <c r="CP112" s="14"/>
+      <c r="CQ112" s="14"/>
       <c r="CR112" s="14"/>
       <c r="CS112" s="14"/>
-      <c r="CT112" s="14"/>
-      <c r="CU112" s="14"/>
-    </row>
-    <row r="113" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
@@ -8189,22 +7992,20 @@
       <c r="CD113" s="11"/>
       <c r="CE113" s="11"/>
       <c r="CF113" s="11"/>
-      <c r="CG113" s="11"/>
-      <c r="CH113" s="11"/>
-      <c r="CI113" s="72"/>
-      <c r="CJ113" s="72"/>
-      <c r="CK113" s="72"/>
-      <c r="CL113" s="72"/>
-      <c r="CM113" s="72"/>
-      <c r="CN113" s="72"/>
-      <c r="CO113" s="72"/>
-      <c r="CQ113" s="11"/>
+      <c r="CG113" s="21"/>
+      <c r="CH113" s="21"/>
+      <c r="CI113" s="21"/>
+      <c r="CJ113" s="21"/>
+      <c r="CK113" s="21"/>
+      <c r="CL113" s="21"/>
+      <c r="CM113" s="21"/>
+      <c r="CO113" s="11"/>
+      <c r="CP113" s="14"/>
+      <c r="CQ113" s="14"/>
       <c r="CR113" s="14"/>
       <c r="CS113" s="14"/>
-      <c r="CT113" s="14"/>
-      <c r="CU113" s="14"/>
-    </row>
-    <row r="114" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
@@ -8252,22 +8053,20 @@
       <c r="CD114" s="11"/>
       <c r="CE114" s="11"/>
       <c r="CF114" s="11"/>
-      <c r="CG114" s="11"/>
-      <c r="CH114" s="11"/>
-      <c r="CI114" s="72"/>
-      <c r="CJ114" s="72"/>
-      <c r="CK114" s="72"/>
-      <c r="CL114" s="72"/>
-      <c r="CM114" s="72"/>
-      <c r="CN114" s="72"/>
-      <c r="CO114" s="72"/>
-      <c r="CQ114" s="11"/>
+      <c r="CG114" s="21"/>
+      <c r="CH114" s="21"/>
+      <c r="CI114" s="21"/>
+      <c r="CJ114" s="21"/>
+      <c r="CK114" s="21"/>
+      <c r="CL114" s="21"/>
+      <c r="CM114" s="21"/>
+      <c r="CO114" s="11"/>
+      <c r="CP114" s="14"/>
+      <c r="CQ114" s="14"/>
       <c r="CR114" s="14"/>
       <c r="CS114" s="14"/>
-      <c r="CT114" s="14"/>
-      <c r="CU114" s="14"/>
-    </row>
-    <row r="115" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X115" s="13"/>
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
@@ -8315,22 +8114,20 @@
       <c r="CD115" s="11"/>
       <c r="CE115" s="11"/>
       <c r="CF115" s="11"/>
-      <c r="CG115" s="11"/>
-      <c r="CH115" s="11"/>
-      <c r="CI115" s="72"/>
-      <c r="CJ115" s="72"/>
-      <c r="CK115" s="72"/>
-      <c r="CL115" s="72"/>
-      <c r="CM115" s="72"/>
-      <c r="CN115" s="72"/>
-      <c r="CO115" s="72"/>
-      <c r="CQ115" s="11"/>
+      <c r="CG115" s="21"/>
+      <c r="CH115" s="21"/>
+      <c r="CI115" s="21"/>
+      <c r="CJ115" s="21"/>
+      <c r="CK115" s="21"/>
+      <c r="CL115" s="21"/>
+      <c r="CM115" s="21"/>
+      <c r="CO115" s="11"/>
+      <c r="CP115" s="14"/>
+      <c r="CQ115" s="14"/>
       <c r="CR115" s="14"/>
       <c r="CS115" s="14"/>
-      <c r="CT115" s="14"/>
-      <c r="CU115" s="14"/>
-    </row>
-    <row r="116" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X116" s="13"/>
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
@@ -8378,22 +8175,20 @@
       <c r="CD116" s="11"/>
       <c r="CE116" s="11"/>
       <c r="CF116" s="11"/>
-      <c r="CG116" s="11"/>
-      <c r="CH116" s="11"/>
-      <c r="CI116" s="72"/>
-      <c r="CJ116" s="72"/>
-      <c r="CK116" s="72"/>
-      <c r="CL116" s="72"/>
-      <c r="CM116" s="72"/>
-      <c r="CN116" s="72"/>
-      <c r="CO116" s="72"/>
-      <c r="CQ116" s="11"/>
+      <c r="CG116" s="21"/>
+      <c r="CH116" s="21"/>
+      <c r="CI116" s="21"/>
+      <c r="CJ116" s="21"/>
+      <c r="CK116" s="21"/>
+      <c r="CL116" s="21"/>
+      <c r="CM116" s="21"/>
+      <c r="CO116" s="11"/>
+      <c r="CP116" s="14"/>
+      <c r="CQ116" s="14"/>
       <c r="CR116" s="14"/>
       <c r="CS116" s="14"/>
-      <c r="CT116" s="14"/>
-      <c r="CU116" s="14"/>
-    </row>
-    <row r="117" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X117" s="13"/>
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
@@ -8441,22 +8236,20 @@
       <c r="CD117" s="11"/>
       <c r="CE117" s="11"/>
       <c r="CF117" s="11"/>
-      <c r="CG117" s="11"/>
-      <c r="CH117" s="11"/>
-      <c r="CI117" s="72"/>
-      <c r="CJ117" s="72"/>
-      <c r="CK117" s="72"/>
-      <c r="CL117" s="72"/>
-      <c r="CM117" s="72"/>
-      <c r="CN117" s="72"/>
-      <c r="CO117" s="72"/>
-      <c r="CQ117" s="11"/>
+      <c r="CG117" s="21"/>
+      <c r="CH117" s="21"/>
+      <c r="CI117" s="21"/>
+      <c r="CJ117" s="21"/>
+      <c r="CK117" s="21"/>
+      <c r="CL117" s="21"/>
+      <c r="CM117" s="21"/>
+      <c r="CO117" s="11"/>
+      <c r="CP117" s="14"/>
+      <c r="CQ117" s="14"/>
       <c r="CR117" s="14"/>
       <c r="CS117" s="14"/>
-      <c r="CT117" s="14"/>
-      <c r="CU117" s="14"/>
-    </row>
-    <row r="118" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X118" s="13"/>
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
@@ -8504,22 +8297,20 @@
       <c r="CD118" s="11"/>
       <c r="CE118" s="11"/>
       <c r="CF118" s="11"/>
-      <c r="CG118" s="11"/>
-      <c r="CH118" s="11"/>
-      <c r="CI118" s="72"/>
-      <c r="CJ118" s="72"/>
-      <c r="CK118" s="72"/>
-      <c r="CL118" s="72"/>
-      <c r="CM118" s="72"/>
-      <c r="CN118" s="72"/>
-      <c r="CO118" s="72"/>
-      <c r="CQ118" s="11"/>
+      <c r="CG118" s="21"/>
+      <c r="CH118" s="21"/>
+      <c r="CI118" s="21"/>
+      <c r="CJ118" s="21"/>
+      <c r="CK118" s="21"/>
+      <c r="CL118" s="21"/>
+      <c r="CM118" s="21"/>
+      <c r="CO118" s="11"/>
+      <c r="CP118" s="14"/>
+      <c r="CQ118" s="14"/>
       <c r="CR118" s="14"/>
       <c r="CS118" s="14"/>
-      <c r="CT118" s="14"/>
-      <c r="CU118" s="14"/>
-    </row>
-    <row r="119" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X119" s="13"/>
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
@@ -8567,22 +8358,20 @@
       <c r="CD119" s="11"/>
       <c r="CE119" s="11"/>
       <c r="CF119" s="11"/>
-      <c r="CG119" s="11"/>
-      <c r="CH119" s="11"/>
-      <c r="CI119" s="72"/>
-      <c r="CJ119" s="72"/>
-      <c r="CK119" s="72"/>
-      <c r="CL119" s="72"/>
-      <c r="CM119" s="72"/>
-      <c r="CN119" s="72"/>
-      <c r="CO119" s="72"/>
-      <c r="CQ119" s="11"/>
+      <c r="CG119" s="21"/>
+      <c r="CH119" s="21"/>
+      <c r="CI119" s="21"/>
+      <c r="CJ119" s="21"/>
+      <c r="CK119" s="21"/>
+      <c r="CL119" s="21"/>
+      <c r="CM119" s="21"/>
+      <c r="CO119" s="11"/>
+      <c r="CP119" s="14"/>
+      <c r="CQ119" s="14"/>
       <c r="CR119" s="14"/>
       <c r="CS119" s="14"/>
-      <c r="CT119" s="14"/>
-      <c r="CU119" s="14"/>
-    </row>
-    <row r="120" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X120" s="13"/>
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
@@ -8630,22 +8419,20 @@
       <c r="CD120" s="11"/>
       <c r="CE120" s="11"/>
       <c r="CF120" s="11"/>
-      <c r="CG120" s="11"/>
-      <c r="CH120" s="11"/>
-      <c r="CI120" s="72"/>
-      <c r="CJ120" s="72"/>
-      <c r="CK120" s="72"/>
-      <c r="CL120" s="72"/>
-      <c r="CM120" s="72"/>
-      <c r="CN120" s="72"/>
-      <c r="CO120" s="72"/>
-      <c r="CQ120" s="11"/>
+      <c r="CG120" s="21"/>
+      <c r="CH120" s="21"/>
+      <c r="CI120" s="21"/>
+      <c r="CJ120" s="21"/>
+      <c r="CK120" s="21"/>
+      <c r="CL120" s="21"/>
+      <c r="CM120" s="21"/>
+      <c r="CO120" s="11"/>
+      <c r="CP120" s="14"/>
+      <c r="CQ120" s="14"/>
       <c r="CR120" s="14"/>
       <c r="CS120" s="14"/>
-      <c r="CT120" s="14"/>
-      <c r="CU120" s="14"/>
-    </row>
-    <row r="121" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X121" s="13"/>
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
@@ -8693,22 +8480,20 @@
       <c r="CD121" s="11"/>
       <c r="CE121" s="11"/>
       <c r="CF121" s="11"/>
-      <c r="CG121" s="11"/>
-      <c r="CH121" s="11"/>
-      <c r="CI121" s="72"/>
-      <c r="CJ121" s="72"/>
-      <c r="CK121" s="72"/>
-      <c r="CL121" s="72"/>
-      <c r="CM121" s="72"/>
-      <c r="CN121" s="72"/>
-      <c r="CO121" s="72"/>
-      <c r="CQ121" s="11"/>
+      <c r="CG121" s="21"/>
+      <c r="CH121" s="21"/>
+      <c r="CI121" s="21"/>
+      <c r="CJ121" s="21"/>
+      <c r="CK121" s="21"/>
+      <c r="CL121" s="21"/>
+      <c r="CM121" s="21"/>
+      <c r="CO121" s="11"/>
+      <c r="CP121" s="14"/>
+      <c r="CQ121" s="14"/>
       <c r="CR121" s="14"/>
       <c r="CS121" s="14"/>
-      <c r="CT121" s="14"/>
-      <c r="CU121" s="14"/>
-    </row>
-    <row r="122" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X122" s="13"/>
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
@@ -8756,22 +8541,20 @@
       <c r="CD122" s="11"/>
       <c r="CE122" s="11"/>
       <c r="CF122" s="11"/>
-      <c r="CG122" s="11"/>
-      <c r="CH122" s="11"/>
-      <c r="CI122" s="72"/>
-      <c r="CJ122" s="72"/>
-      <c r="CK122" s="72"/>
-      <c r="CL122" s="72"/>
-      <c r="CM122" s="72"/>
-      <c r="CN122" s="72"/>
-      <c r="CO122" s="72"/>
-      <c r="CQ122" s="11"/>
+      <c r="CG122" s="21"/>
+      <c r="CH122" s="21"/>
+      <c r="CI122" s="21"/>
+      <c r="CJ122" s="21"/>
+      <c r="CK122" s="21"/>
+      <c r="CL122" s="21"/>
+      <c r="CM122" s="21"/>
+      <c r="CO122" s="11"/>
+      <c r="CP122" s="14"/>
+      <c r="CQ122" s="14"/>
       <c r="CR122" s="14"/>
       <c r="CS122" s="14"/>
-      <c r="CT122" s="14"/>
-      <c r="CU122" s="14"/>
-    </row>
-    <row r="123" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X123" s="13"/>
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
@@ -8819,22 +8602,20 @@
       <c r="CD123" s="11"/>
       <c r="CE123" s="11"/>
       <c r="CF123" s="11"/>
-      <c r="CG123" s="11"/>
-      <c r="CH123" s="11"/>
-      <c r="CI123" s="72"/>
-      <c r="CJ123" s="72"/>
-      <c r="CK123" s="72"/>
-      <c r="CL123" s="72"/>
-      <c r="CM123" s="72"/>
-      <c r="CN123" s="72"/>
-      <c r="CO123" s="72"/>
-      <c r="CQ123" s="11"/>
+      <c r="CG123" s="21"/>
+      <c r="CH123" s="21"/>
+      <c r="CI123" s="21"/>
+      <c r="CJ123" s="21"/>
+      <c r="CK123" s="21"/>
+      <c r="CL123" s="21"/>
+      <c r="CM123" s="21"/>
+      <c r="CO123" s="11"/>
+      <c r="CP123" s="14"/>
+      <c r="CQ123" s="14"/>
       <c r="CR123" s="14"/>
       <c r="CS123" s="14"/>
-      <c r="CT123" s="14"/>
-      <c r="CU123" s="14"/>
-    </row>
-    <row r="124" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X124" s="13"/>
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
@@ -8882,22 +8663,20 @@
       <c r="CD124" s="11"/>
       <c r="CE124" s="11"/>
       <c r="CF124" s="11"/>
-      <c r="CG124" s="11"/>
-      <c r="CH124" s="11"/>
-      <c r="CI124" s="72"/>
-      <c r="CJ124" s="72"/>
-      <c r="CK124" s="72"/>
-      <c r="CL124" s="72"/>
-      <c r="CM124" s="72"/>
-      <c r="CN124" s="72"/>
-      <c r="CO124" s="72"/>
-      <c r="CQ124" s="11"/>
+      <c r="CG124" s="21"/>
+      <c r="CH124" s="21"/>
+      <c r="CI124" s="21"/>
+      <c r="CJ124" s="21"/>
+      <c r="CK124" s="21"/>
+      <c r="CL124" s="21"/>
+      <c r="CM124" s="21"/>
+      <c r="CO124" s="11"/>
+      <c r="CP124" s="14"/>
+      <c r="CQ124" s="14"/>
       <c r="CR124" s="14"/>
       <c r="CS124" s="14"/>
-      <c r="CT124" s="14"/>
-      <c r="CU124" s="14"/>
-    </row>
-    <row r="125" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X125" s="13"/>
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
@@ -8945,22 +8724,20 @@
       <c r="CD125" s="11"/>
       <c r="CE125" s="11"/>
       <c r="CF125" s="11"/>
-      <c r="CG125" s="11"/>
-      <c r="CH125" s="11"/>
-      <c r="CI125" s="72"/>
-      <c r="CJ125" s="72"/>
-      <c r="CK125" s="72"/>
-      <c r="CL125" s="72"/>
-      <c r="CM125" s="72"/>
-      <c r="CN125" s="72"/>
-      <c r="CO125" s="72"/>
-      <c r="CQ125" s="11"/>
+      <c r="CG125" s="21"/>
+      <c r="CH125" s="21"/>
+      <c r="CI125" s="21"/>
+      <c r="CJ125" s="21"/>
+      <c r="CK125" s="21"/>
+      <c r="CL125" s="21"/>
+      <c r="CM125" s="21"/>
+      <c r="CO125" s="11"/>
+      <c r="CP125" s="14"/>
+      <c r="CQ125" s="14"/>
       <c r="CR125" s="14"/>
       <c r="CS125" s="14"/>
-      <c r="CT125" s="14"/>
-      <c r="CU125" s="14"/>
-    </row>
-    <row r="126" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X126" s="13"/>
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
@@ -9008,22 +8785,20 @@
       <c r="CD126" s="11"/>
       <c r="CE126" s="11"/>
       <c r="CF126" s="11"/>
-      <c r="CG126" s="11"/>
-      <c r="CH126" s="11"/>
-      <c r="CI126" s="72"/>
-      <c r="CJ126" s="72"/>
-      <c r="CK126" s="72"/>
-      <c r="CL126" s="72"/>
-      <c r="CM126" s="72"/>
-      <c r="CN126" s="72"/>
-      <c r="CO126" s="72"/>
-      <c r="CQ126" s="11"/>
+      <c r="CG126" s="21"/>
+      <c r="CH126" s="21"/>
+      <c r="CI126" s="21"/>
+      <c r="CJ126" s="21"/>
+      <c r="CK126" s="21"/>
+      <c r="CL126" s="21"/>
+      <c r="CM126" s="21"/>
+      <c r="CO126" s="11"/>
+      <c r="CP126" s="14"/>
+      <c r="CQ126" s="14"/>
       <c r="CR126" s="14"/>
       <c r="CS126" s="14"/>
-      <c r="CT126" s="14"/>
-      <c r="CU126" s="14"/>
-    </row>
-    <row r="127" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X127" s="13"/>
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
@@ -9071,22 +8846,20 @@
       <c r="CD127" s="11"/>
       <c r="CE127" s="11"/>
       <c r="CF127" s="11"/>
-      <c r="CG127" s="11"/>
-      <c r="CH127" s="11"/>
-      <c r="CI127" s="72"/>
-      <c r="CJ127" s="72"/>
-      <c r="CK127" s="72"/>
-      <c r="CL127" s="72"/>
-      <c r="CM127" s="72"/>
-      <c r="CN127" s="72"/>
-      <c r="CO127" s="72"/>
-      <c r="CQ127" s="11"/>
+      <c r="CG127" s="21"/>
+      <c r="CH127" s="21"/>
+      <c r="CI127" s="21"/>
+      <c r="CJ127" s="21"/>
+      <c r="CK127" s="21"/>
+      <c r="CL127" s="21"/>
+      <c r="CM127" s="21"/>
+      <c r="CO127" s="11"/>
+      <c r="CP127" s="14"/>
+      <c r="CQ127" s="14"/>
       <c r="CR127" s="14"/>
       <c r="CS127" s="14"/>
-      <c r="CT127" s="14"/>
-      <c r="CU127" s="14"/>
-    </row>
-    <row r="128" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X128" s="13"/>
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
@@ -9134,22 +8907,20 @@
       <c r="CD128" s="11"/>
       <c r="CE128" s="11"/>
       <c r="CF128" s="11"/>
-      <c r="CG128" s="11"/>
-      <c r="CH128" s="11"/>
-      <c r="CI128" s="72"/>
-      <c r="CJ128" s="72"/>
-      <c r="CK128" s="72"/>
-      <c r="CL128" s="72"/>
-      <c r="CM128" s="72"/>
-      <c r="CN128" s="72"/>
-      <c r="CO128" s="72"/>
-      <c r="CQ128" s="11"/>
+      <c r="CG128" s="21"/>
+      <c r="CH128" s="21"/>
+      <c r="CI128" s="21"/>
+      <c r="CJ128" s="21"/>
+      <c r="CK128" s="21"/>
+      <c r="CL128" s="21"/>
+      <c r="CM128" s="21"/>
+      <c r="CO128" s="11"/>
+      <c r="CP128" s="14"/>
+      <c r="CQ128" s="14"/>
       <c r="CR128" s="14"/>
       <c r="CS128" s="14"/>
-      <c r="CT128" s="14"/>
-      <c r="CU128" s="14"/>
-    </row>
-    <row r="129" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X129" s="13"/>
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
@@ -9197,22 +8968,20 @@
       <c r="CD129" s="11"/>
       <c r="CE129" s="11"/>
       <c r="CF129" s="11"/>
-      <c r="CG129" s="11"/>
-      <c r="CH129" s="11"/>
-      <c r="CI129" s="72"/>
-      <c r="CJ129" s="72"/>
-      <c r="CK129" s="72"/>
-      <c r="CL129" s="72"/>
-      <c r="CM129" s="72"/>
-      <c r="CN129" s="72"/>
-      <c r="CO129" s="72"/>
-      <c r="CQ129" s="11"/>
+      <c r="CG129" s="21"/>
+      <c r="CH129" s="21"/>
+      <c r="CI129" s="21"/>
+      <c r="CJ129" s="21"/>
+      <c r="CK129" s="21"/>
+      <c r="CL129" s="21"/>
+      <c r="CM129" s="21"/>
+      <c r="CO129" s="11"/>
+      <c r="CP129" s="14"/>
+      <c r="CQ129" s="14"/>
       <c r="CR129" s="14"/>
       <c r="CS129" s="14"/>
-      <c r="CT129" s="14"/>
-      <c r="CU129" s="14"/>
-    </row>
-    <row r="130" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X130" s="13"/>
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
@@ -9260,22 +9029,20 @@
       <c r="CD130" s="11"/>
       <c r="CE130" s="11"/>
       <c r="CF130" s="11"/>
-      <c r="CG130" s="11"/>
-      <c r="CH130" s="11"/>
-      <c r="CI130" s="72"/>
-      <c r="CJ130" s="72"/>
-      <c r="CK130" s="72"/>
-      <c r="CL130" s="72"/>
-      <c r="CM130" s="72"/>
-      <c r="CN130" s="72"/>
-      <c r="CO130" s="72"/>
-      <c r="CQ130" s="11"/>
+      <c r="CG130" s="21"/>
+      <c r="CH130" s="21"/>
+      <c r="CI130" s="21"/>
+      <c r="CJ130" s="21"/>
+      <c r="CK130" s="21"/>
+      <c r="CL130" s="21"/>
+      <c r="CM130" s="21"/>
+      <c r="CO130" s="11"/>
+      <c r="CP130" s="14"/>
+      <c r="CQ130" s="14"/>
       <c r="CR130" s="14"/>
       <c r="CS130" s="14"/>
-      <c r="CT130" s="14"/>
-      <c r="CU130" s="14"/>
-    </row>
-    <row r="131" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X131" s="13"/>
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
@@ -9323,22 +9090,20 @@
       <c r="CD131" s="11"/>
       <c r="CE131" s="11"/>
       <c r="CF131" s="11"/>
-      <c r="CG131" s="11"/>
-      <c r="CH131" s="11"/>
-      <c r="CI131" s="72"/>
-      <c r="CJ131" s="72"/>
-      <c r="CK131" s="72"/>
-      <c r="CL131" s="72"/>
-      <c r="CM131" s="72"/>
-      <c r="CN131" s="72"/>
-      <c r="CO131" s="72"/>
-      <c r="CQ131" s="11"/>
+      <c r="CG131" s="21"/>
+      <c r="CH131" s="21"/>
+      <c r="CI131" s="21"/>
+      <c r="CJ131" s="21"/>
+      <c r="CK131" s="21"/>
+      <c r="CL131" s="21"/>
+      <c r="CM131" s="21"/>
+      <c r="CO131" s="11"/>
+      <c r="CP131" s="14"/>
+      <c r="CQ131" s="14"/>
       <c r="CR131" s="14"/>
       <c r="CS131" s="14"/>
-      <c r="CT131" s="14"/>
-      <c r="CU131" s="14"/>
-    </row>
-    <row r="132" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X132" s="13"/>
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
@@ -9386,22 +9151,20 @@
       <c r="CD132" s="11"/>
       <c r="CE132" s="11"/>
       <c r="CF132" s="11"/>
-      <c r="CG132" s="11"/>
-      <c r="CH132" s="11"/>
-      <c r="CI132" s="72"/>
-      <c r="CJ132" s="72"/>
-      <c r="CK132" s="72"/>
-      <c r="CL132" s="72"/>
-      <c r="CM132" s="72"/>
-      <c r="CN132" s="72"/>
-      <c r="CO132" s="72"/>
-      <c r="CQ132" s="11"/>
+      <c r="CG132" s="21"/>
+      <c r="CH132" s="21"/>
+      <c r="CI132" s="21"/>
+      <c r="CJ132" s="21"/>
+      <c r="CK132" s="21"/>
+      <c r="CL132" s="21"/>
+      <c r="CM132" s="21"/>
+      <c r="CO132" s="11"/>
+      <c r="CP132" s="14"/>
+      <c r="CQ132" s="14"/>
       <c r="CR132" s="14"/>
       <c r="CS132" s="14"/>
-      <c r="CT132" s="14"/>
-      <c r="CU132" s="14"/>
-    </row>
-    <row r="133" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X133" s="13"/>
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
@@ -9449,22 +9212,20 @@
       <c r="CD133" s="11"/>
       <c r="CE133" s="11"/>
       <c r="CF133" s="11"/>
-      <c r="CG133" s="11"/>
-      <c r="CH133" s="11"/>
-      <c r="CI133" s="72"/>
-      <c r="CJ133" s="72"/>
-      <c r="CK133" s="72"/>
-      <c r="CL133" s="72"/>
-      <c r="CM133" s="72"/>
-      <c r="CN133" s="72"/>
-      <c r="CO133" s="72"/>
-      <c r="CQ133" s="11"/>
+      <c r="CG133" s="21"/>
+      <c r="CH133" s="21"/>
+      <c r="CI133" s="21"/>
+      <c r="CJ133" s="21"/>
+      <c r="CK133" s="21"/>
+      <c r="CL133" s="21"/>
+      <c r="CM133" s="21"/>
+      <c r="CO133" s="11"/>
+      <c r="CP133" s="14"/>
+      <c r="CQ133" s="14"/>
       <c r="CR133" s="14"/>
       <c r="CS133" s="14"/>
-      <c r="CT133" s="14"/>
-      <c r="CU133" s="14"/>
-    </row>
-    <row r="134" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
@@ -9512,22 +9273,20 @@
       <c r="CD134" s="11"/>
       <c r="CE134" s="11"/>
       <c r="CF134" s="11"/>
-      <c r="CG134" s="11"/>
-      <c r="CH134" s="11"/>
-      <c r="CI134" s="72"/>
-      <c r="CJ134" s="72"/>
-      <c r="CK134" s="72"/>
-      <c r="CL134" s="72"/>
-      <c r="CM134" s="72"/>
-      <c r="CN134" s="72"/>
-      <c r="CO134" s="72"/>
-      <c r="CQ134" s="11"/>
+      <c r="CG134" s="21"/>
+      <c r="CH134" s="21"/>
+      <c r="CI134" s="21"/>
+      <c r="CJ134" s="21"/>
+      <c r="CK134" s="21"/>
+      <c r="CL134" s="21"/>
+      <c r="CM134" s="21"/>
+      <c r="CO134" s="11"/>
+      <c r="CP134" s="14"/>
+      <c r="CQ134" s="14"/>
       <c r="CR134" s="14"/>
       <c r="CS134" s="14"/>
-      <c r="CT134" s="14"/>
-      <c r="CU134" s="14"/>
-    </row>
-    <row r="135" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X135" s="13"/>
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
@@ -9575,22 +9334,20 @@
       <c r="CD135" s="11"/>
       <c r="CE135" s="11"/>
       <c r="CF135" s="11"/>
-      <c r="CG135" s="11"/>
-      <c r="CH135" s="11"/>
-      <c r="CI135" s="72"/>
-      <c r="CJ135" s="72"/>
-      <c r="CK135" s="72"/>
-      <c r="CL135" s="72"/>
-      <c r="CM135" s="72"/>
-      <c r="CN135" s="72"/>
-      <c r="CO135" s="72"/>
-      <c r="CQ135" s="11"/>
+      <c r="CG135" s="21"/>
+      <c r="CH135" s="21"/>
+      <c r="CI135" s="21"/>
+      <c r="CJ135" s="21"/>
+      <c r="CK135" s="21"/>
+      <c r="CL135" s="21"/>
+      <c r="CM135" s="21"/>
+      <c r="CO135" s="11"/>
+      <c r="CP135" s="14"/>
+      <c r="CQ135" s="14"/>
       <c r="CR135" s="14"/>
       <c r="CS135" s="14"/>
-      <c r="CT135" s="14"/>
-      <c r="CU135" s="14"/>
-    </row>
-    <row r="136" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X136" s="13"/>
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
@@ -9638,22 +9395,20 @@
       <c r="CD136" s="11"/>
       <c r="CE136" s="11"/>
       <c r="CF136" s="11"/>
-      <c r="CG136" s="11"/>
-      <c r="CH136" s="11"/>
-      <c r="CI136" s="72"/>
-      <c r="CJ136" s="72"/>
-      <c r="CK136" s="72"/>
-      <c r="CL136" s="72"/>
-      <c r="CM136" s="72"/>
-      <c r="CN136" s="72"/>
-      <c r="CO136" s="72"/>
-      <c r="CQ136" s="11"/>
+      <c r="CG136" s="21"/>
+      <c r="CH136" s="21"/>
+      <c r="CI136" s="21"/>
+      <c r="CJ136" s="21"/>
+      <c r="CK136" s="21"/>
+      <c r="CL136" s="21"/>
+      <c r="CM136" s="21"/>
+      <c r="CO136" s="11"/>
+      <c r="CP136" s="14"/>
+      <c r="CQ136" s="14"/>
       <c r="CR136" s="14"/>
       <c r="CS136" s="14"/>
-      <c r="CT136" s="14"/>
-      <c r="CU136" s="14"/>
-    </row>
-    <row r="137" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X137" s="13"/>
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
@@ -9701,22 +9456,20 @@
       <c r="CD137" s="11"/>
       <c r="CE137" s="11"/>
       <c r="CF137" s="11"/>
-      <c r="CG137" s="11"/>
-      <c r="CH137" s="11"/>
-      <c r="CI137" s="72"/>
-      <c r="CJ137" s="72"/>
-      <c r="CK137" s="72"/>
-      <c r="CL137" s="72"/>
-      <c r="CM137" s="72"/>
-      <c r="CN137" s="72"/>
-      <c r="CO137" s="72"/>
-      <c r="CQ137" s="11"/>
+      <c r="CG137" s="21"/>
+      <c r="CH137" s="21"/>
+      <c r="CI137" s="21"/>
+      <c r="CJ137" s="21"/>
+      <c r="CK137" s="21"/>
+      <c r="CL137" s="21"/>
+      <c r="CM137" s="21"/>
+      <c r="CO137" s="11"/>
+      <c r="CP137" s="14"/>
+      <c r="CQ137" s="14"/>
       <c r="CR137" s="14"/>
       <c r="CS137" s="14"/>
-      <c r="CT137" s="14"/>
-      <c r="CU137" s="14"/>
-    </row>
-    <row r="138" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X138" s="13"/>
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
@@ -9764,22 +9517,20 @@
       <c r="CD138" s="11"/>
       <c r="CE138" s="11"/>
       <c r="CF138" s="11"/>
-      <c r="CG138" s="11"/>
-      <c r="CH138" s="11"/>
-      <c r="CI138" s="72"/>
-      <c r="CJ138" s="72"/>
-      <c r="CK138" s="72"/>
-      <c r="CL138" s="72"/>
-      <c r="CM138" s="72"/>
-      <c r="CN138" s="72"/>
-      <c r="CO138" s="72"/>
-      <c r="CQ138" s="11"/>
+      <c r="CG138" s="21"/>
+      <c r="CH138" s="21"/>
+      <c r="CI138" s="21"/>
+      <c r="CJ138" s="21"/>
+      <c r="CK138" s="21"/>
+      <c r="CL138" s="21"/>
+      <c r="CM138" s="21"/>
+      <c r="CO138" s="11"/>
+      <c r="CP138" s="14"/>
+      <c r="CQ138" s="14"/>
       <c r="CR138" s="14"/>
       <c r="CS138" s="14"/>
-      <c r="CT138" s="14"/>
-      <c r="CU138" s="14"/>
-    </row>
-    <row r="139" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X139" s="13"/>
       <c r="Y139" s="13"/>
       <c r="Z139" s="13"/>
@@ -9827,22 +9578,20 @@
       <c r="CD139" s="11"/>
       <c r="CE139" s="11"/>
       <c r="CF139" s="11"/>
-      <c r="CG139" s="11"/>
-      <c r="CH139" s="11"/>
-      <c r="CI139" s="72"/>
-      <c r="CJ139" s="72"/>
-      <c r="CK139" s="72"/>
-      <c r="CL139" s="72"/>
-      <c r="CM139" s="72"/>
-      <c r="CN139" s="72"/>
-      <c r="CO139" s="72"/>
-      <c r="CQ139" s="11"/>
+      <c r="CG139" s="21"/>
+      <c r="CH139" s="21"/>
+      <c r="CI139" s="21"/>
+      <c r="CJ139" s="21"/>
+      <c r="CK139" s="21"/>
+      <c r="CL139" s="21"/>
+      <c r="CM139" s="21"/>
+      <c r="CO139" s="11"/>
+      <c r="CP139" s="14"/>
+      <c r="CQ139" s="14"/>
       <c r="CR139" s="14"/>
       <c r="CS139" s="14"/>
-      <c r="CT139" s="14"/>
-      <c r="CU139" s="14"/>
-    </row>
-    <row r="140" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X140" s="13"/>
       <c r="Y140" s="13"/>
       <c r="Z140" s="13"/>
@@ -9890,22 +9639,20 @@
       <c r="CD140" s="11"/>
       <c r="CE140" s="11"/>
       <c r="CF140" s="11"/>
-      <c r="CG140" s="11"/>
-      <c r="CH140" s="11"/>
-      <c r="CI140" s="72"/>
-      <c r="CJ140" s="72"/>
-      <c r="CK140" s="72"/>
-      <c r="CL140" s="72"/>
-      <c r="CM140" s="72"/>
-      <c r="CN140" s="72"/>
-      <c r="CO140" s="72"/>
-      <c r="CQ140" s="11"/>
+      <c r="CG140" s="21"/>
+      <c r="CH140" s="21"/>
+      <c r="CI140" s="21"/>
+      <c r="CJ140" s="21"/>
+      <c r="CK140" s="21"/>
+      <c r="CL140" s="21"/>
+      <c r="CM140" s="21"/>
+      <c r="CO140" s="11"/>
+      <c r="CP140" s="14"/>
+      <c r="CQ140" s="14"/>
       <c r="CR140" s="14"/>
       <c r="CS140" s="14"/>
-      <c r="CT140" s="14"/>
-      <c r="CU140" s="14"/>
-    </row>
-    <row r="141" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X141" s="13"/>
       <c r="Y141" s="13"/>
       <c r="Z141" s="13"/>
@@ -9953,22 +9700,20 @@
       <c r="CD141" s="11"/>
       <c r="CE141" s="11"/>
       <c r="CF141" s="11"/>
-      <c r="CG141" s="11"/>
-      <c r="CH141" s="11"/>
-      <c r="CI141" s="72"/>
-      <c r="CJ141" s="72"/>
-      <c r="CK141" s="72"/>
-      <c r="CL141" s="72"/>
-      <c r="CM141" s="72"/>
-      <c r="CN141" s="72"/>
-      <c r="CO141" s="72"/>
-      <c r="CQ141" s="11"/>
+      <c r="CG141" s="21"/>
+      <c r="CH141" s="21"/>
+      <c r="CI141" s="21"/>
+      <c r="CJ141" s="21"/>
+      <c r="CK141" s="21"/>
+      <c r="CL141" s="21"/>
+      <c r="CM141" s="21"/>
+      <c r="CO141" s="11"/>
+      <c r="CP141" s="14"/>
+      <c r="CQ141" s="14"/>
       <c r="CR141" s="14"/>
       <c r="CS141" s="14"/>
-      <c r="CT141" s="14"/>
-      <c r="CU141" s="14"/>
-    </row>
-    <row r="142" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X142" s="13"/>
       <c r="Y142" s="13"/>
       <c r="Z142" s="13"/>
@@ -10016,22 +9761,20 @@
       <c r="CD142" s="11"/>
       <c r="CE142" s="11"/>
       <c r="CF142" s="11"/>
-      <c r="CG142" s="11"/>
-      <c r="CH142" s="11"/>
-      <c r="CI142" s="72"/>
-      <c r="CJ142" s="72"/>
-      <c r="CK142" s="72"/>
-      <c r="CL142" s="72"/>
-      <c r="CM142" s="72"/>
-      <c r="CN142" s="72"/>
-      <c r="CO142" s="72"/>
-      <c r="CQ142" s="11"/>
+      <c r="CG142" s="21"/>
+      <c r="CH142" s="21"/>
+      <c r="CI142" s="21"/>
+      <c r="CJ142" s="21"/>
+      <c r="CK142" s="21"/>
+      <c r="CL142" s="21"/>
+      <c r="CM142" s="21"/>
+      <c r="CO142" s="11"/>
+      <c r="CP142" s="14"/>
+      <c r="CQ142" s="14"/>
       <c r="CR142" s="14"/>
       <c r="CS142" s="14"/>
-      <c r="CT142" s="14"/>
-      <c r="CU142" s="14"/>
-    </row>
-    <row r="143" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X143" s="13"/>
       <c r="Y143" s="13"/>
       <c r="Z143" s="13"/>
@@ -10079,22 +9822,20 @@
       <c r="CD143" s="11"/>
       <c r="CE143" s="11"/>
       <c r="CF143" s="11"/>
-      <c r="CG143" s="11"/>
-      <c r="CH143" s="11"/>
-      <c r="CI143" s="72"/>
-      <c r="CJ143" s="72"/>
-      <c r="CK143" s="72"/>
-      <c r="CL143" s="72"/>
-      <c r="CM143" s="72"/>
-      <c r="CN143" s="72"/>
-      <c r="CO143" s="72"/>
-      <c r="CQ143" s="11"/>
+      <c r="CG143" s="21"/>
+      <c r="CH143" s="21"/>
+      <c r="CI143" s="21"/>
+      <c r="CJ143" s="21"/>
+      <c r="CK143" s="21"/>
+      <c r="CL143" s="21"/>
+      <c r="CM143" s="21"/>
+      <c r="CO143" s="11"/>
+      <c r="CP143" s="14"/>
+      <c r="CQ143" s="14"/>
       <c r="CR143" s="14"/>
       <c r="CS143" s="14"/>
-      <c r="CT143" s="14"/>
-      <c r="CU143" s="14"/>
-    </row>
-    <row r="144" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X144" s="13"/>
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
@@ -10142,22 +9883,20 @@
       <c r="CD144" s="11"/>
       <c r="CE144" s="11"/>
       <c r="CF144" s="11"/>
-      <c r="CG144" s="11"/>
-      <c r="CH144" s="11"/>
-      <c r="CI144" s="72"/>
-      <c r="CJ144" s="72"/>
-      <c r="CK144" s="72"/>
-      <c r="CL144" s="72"/>
-      <c r="CM144" s="72"/>
-      <c r="CN144" s="72"/>
-      <c r="CO144" s="72"/>
-      <c r="CQ144" s="11"/>
+      <c r="CG144" s="21"/>
+      <c r="CH144" s="21"/>
+      <c r="CI144" s="21"/>
+      <c r="CJ144" s="21"/>
+      <c r="CK144" s="21"/>
+      <c r="CL144" s="21"/>
+      <c r="CM144" s="21"/>
+      <c r="CO144" s="11"/>
+      <c r="CP144" s="14"/>
+      <c r="CQ144" s="14"/>
       <c r="CR144" s="14"/>
       <c r="CS144" s="14"/>
-      <c r="CT144" s="14"/>
-      <c r="CU144" s="14"/>
-    </row>
-    <row r="145" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X145" s="13"/>
       <c r="Y145" s="13"/>
       <c r="Z145" s="13"/>
@@ -10205,22 +9944,20 @@
       <c r="CD145" s="11"/>
       <c r="CE145" s="11"/>
       <c r="CF145" s="11"/>
-      <c r="CG145" s="11"/>
-      <c r="CH145" s="11"/>
-      <c r="CI145" s="72"/>
-      <c r="CJ145" s="72"/>
-      <c r="CK145" s="72"/>
-      <c r="CL145" s="72"/>
-      <c r="CM145" s="72"/>
-      <c r="CN145" s="72"/>
-      <c r="CO145" s="72"/>
-      <c r="CQ145" s="11"/>
+      <c r="CG145" s="21"/>
+      <c r="CH145" s="21"/>
+      <c r="CI145" s="21"/>
+      <c r="CJ145" s="21"/>
+      <c r="CK145" s="21"/>
+      <c r="CL145" s="21"/>
+      <c r="CM145" s="21"/>
+      <c r="CO145" s="11"/>
+      <c r="CP145" s="14"/>
+      <c r="CQ145" s="14"/>
       <c r="CR145" s="14"/>
       <c r="CS145" s="14"/>
-      <c r="CT145" s="14"/>
-      <c r="CU145" s="14"/>
-    </row>
-    <row r="146" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X146" s="13"/>
       <c r="Y146" s="13"/>
       <c r="Z146" s="13"/>
@@ -10268,22 +10005,20 @@
       <c r="CD146" s="11"/>
       <c r="CE146" s="11"/>
       <c r="CF146" s="11"/>
-      <c r="CG146" s="11"/>
-      <c r="CH146" s="11"/>
-      <c r="CI146" s="72"/>
-      <c r="CJ146" s="72"/>
-      <c r="CK146" s="72"/>
-      <c r="CL146" s="72"/>
-      <c r="CM146" s="72"/>
-      <c r="CN146" s="72"/>
-      <c r="CO146" s="72"/>
-      <c r="CQ146" s="11"/>
+      <c r="CG146" s="21"/>
+      <c r="CH146" s="21"/>
+      <c r="CI146" s="21"/>
+      <c r="CJ146" s="21"/>
+      <c r="CK146" s="21"/>
+      <c r="CL146" s="21"/>
+      <c r="CM146" s="21"/>
+      <c r="CO146" s="11"/>
+      <c r="CP146" s="14"/>
+      <c r="CQ146" s="14"/>
       <c r="CR146" s="14"/>
       <c r="CS146" s="14"/>
-      <c r="CT146" s="14"/>
-      <c r="CU146" s="14"/>
-    </row>
-    <row r="147" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X147" s="13"/>
       <c r="Y147" s="13"/>
       <c r="Z147" s="13"/>
@@ -10331,22 +10066,20 @@
       <c r="CD147" s="11"/>
       <c r="CE147" s="11"/>
       <c r="CF147" s="11"/>
-      <c r="CG147" s="11"/>
-      <c r="CH147" s="11"/>
-      <c r="CI147" s="72"/>
-      <c r="CJ147" s="72"/>
-      <c r="CK147" s="72"/>
-      <c r="CL147" s="72"/>
-      <c r="CM147" s="72"/>
-      <c r="CN147" s="72"/>
-      <c r="CO147" s="72"/>
-      <c r="CQ147" s="11"/>
+      <c r="CG147" s="21"/>
+      <c r="CH147" s="21"/>
+      <c r="CI147" s="21"/>
+      <c r="CJ147" s="21"/>
+      <c r="CK147" s="21"/>
+      <c r="CL147" s="21"/>
+      <c r="CM147" s="21"/>
+      <c r="CO147" s="11"/>
+      <c r="CP147" s="14"/>
+      <c r="CQ147" s="14"/>
       <c r="CR147" s="14"/>
       <c r="CS147" s="14"/>
-      <c r="CT147" s="14"/>
-      <c r="CU147" s="14"/>
-    </row>
-    <row r="148" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X148" s="13"/>
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
@@ -10394,22 +10127,20 @@
       <c r="CD148" s="11"/>
       <c r="CE148" s="11"/>
       <c r="CF148" s="11"/>
-      <c r="CG148" s="11"/>
-      <c r="CH148" s="11"/>
-      <c r="CI148" s="72"/>
-      <c r="CJ148" s="72"/>
-      <c r="CK148" s="72"/>
-      <c r="CL148" s="72"/>
-      <c r="CM148" s="72"/>
-      <c r="CN148" s="72"/>
-      <c r="CO148" s="72"/>
-      <c r="CQ148" s="11"/>
+      <c r="CG148" s="21"/>
+      <c r="CH148" s="21"/>
+      <c r="CI148" s="21"/>
+      <c r="CJ148" s="21"/>
+      <c r="CK148" s="21"/>
+      <c r="CL148" s="21"/>
+      <c r="CM148" s="21"/>
+      <c r="CO148" s="11"/>
+      <c r="CP148" s="14"/>
+      <c r="CQ148" s="14"/>
       <c r="CR148" s="14"/>
       <c r="CS148" s="14"/>
-      <c r="CT148" s="14"/>
-      <c r="CU148" s="14"/>
-    </row>
-    <row r="149" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X149" s="13"/>
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
@@ -10457,22 +10188,20 @@
       <c r="CD149" s="11"/>
       <c r="CE149" s="11"/>
       <c r="CF149" s="11"/>
-      <c r="CG149" s="11"/>
-      <c r="CH149" s="11"/>
-      <c r="CI149" s="72"/>
-      <c r="CJ149" s="72"/>
-      <c r="CK149" s="72"/>
-      <c r="CL149" s="72"/>
-      <c r="CM149" s="72"/>
-      <c r="CN149" s="72"/>
-      <c r="CO149" s="72"/>
-      <c r="CQ149" s="11"/>
+      <c r="CG149" s="21"/>
+      <c r="CH149" s="21"/>
+      <c r="CI149" s="21"/>
+      <c r="CJ149" s="21"/>
+      <c r="CK149" s="21"/>
+      <c r="CL149" s="21"/>
+      <c r="CM149" s="21"/>
+      <c r="CO149" s="11"/>
+      <c r="CP149" s="14"/>
+      <c r="CQ149" s="14"/>
       <c r="CR149" s="14"/>
       <c r="CS149" s="14"/>
-      <c r="CT149" s="14"/>
-      <c r="CU149" s="14"/>
-    </row>
-    <row r="150" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
@@ -10520,22 +10249,20 @@
       <c r="CD150" s="11"/>
       <c r="CE150" s="11"/>
       <c r="CF150" s="11"/>
-      <c r="CG150" s="11"/>
-      <c r="CH150" s="11"/>
-      <c r="CI150" s="72"/>
-      <c r="CJ150" s="72"/>
-      <c r="CK150" s="72"/>
-      <c r="CL150" s="72"/>
-      <c r="CM150" s="72"/>
-      <c r="CN150" s="72"/>
-      <c r="CO150" s="72"/>
-      <c r="CQ150" s="11"/>
+      <c r="CG150" s="21"/>
+      <c r="CH150" s="21"/>
+      <c r="CI150" s="21"/>
+      <c r="CJ150" s="21"/>
+      <c r="CK150" s="21"/>
+      <c r="CL150" s="21"/>
+      <c r="CM150" s="21"/>
+      <c r="CO150" s="11"/>
+      <c r="CP150" s="14"/>
+      <c r="CQ150" s="14"/>
       <c r="CR150" s="14"/>
       <c r="CS150" s="14"/>
-      <c r="CT150" s="14"/>
-      <c r="CU150" s="14"/>
-    </row>
-    <row r="151" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X151" s="13"/>
       <c r="Y151" s="13"/>
       <c r="Z151" s="13"/>
@@ -10583,22 +10310,20 @@
       <c r="CD151" s="11"/>
       <c r="CE151" s="11"/>
       <c r="CF151" s="11"/>
-      <c r="CG151" s="11"/>
-      <c r="CH151" s="11"/>
-      <c r="CI151" s="72"/>
-      <c r="CJ151" s="72"/>
-      <c r="CK151" s="72"/>
-      <c r="CL151" s="72"/>
-      <c r="CM151" s="72"/>
-      <c r="CN151" s="72"/>
-      <c r="CO151" s="72"/>
-      <c r="CQ151" s="11"/>
+      <c r="CG151" s="21"/>
+      <c r="CH151" s="21"/>
+      <c r="CI151" s="21"/>
+      <c r="CJ151" s="21"/>
+      <c r="CK151" s="21"/>
+      <c r="CL151" s="21"/>
+      <c r="CM151" s="21"/>
+      <c r="CO151" s="11"/>
+      <c r="CP151" s="14"/>
+      <c r="CQ151" s="14"/>
       <c r="CR151" s="14"/>
       <c r="CS151" s="14"/>
-      <c r="CT151" s="14"/>
-      <c r="CU151" s="14"/>
-    </row>
-    <row r="152" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X152" s="13"/>
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
@@ -10646,22 +10371,20 @@
       <c r="CD152" s="11"/>
       <c r="CE152" s="11"/>
       <c r="CF152" s="11"/>
-      <c r="CG152" s="11"/>
-      <c r="CH152" s="11"/>
-      <c r="CI152" s="72"/>
-      <c r="CJ152" s="72"/>
-      <c r="CK152" s="72"/>
-      <c r="CL152" s="72"/>
-      <c r="CM152" s="72"/>
-      <c r="CN152" s="72"/>
-      <c r="CO152" s="72"/>
-      <c r="CQ152" s="11"/>
+      <c r="CG152" s="21"/>
+      <c r="CH152" s="21"/>
+      <c r="CI152" s="21"/>
+      <c r="CJ152" s="21"/>
+      <c r="CK152" s="21"/>
+      <c r="CL152" s="21"/>
+      <c r="CM152" s="21"/>
+      <c r="CO152" s="11"/>
+      <c r="CP152" s="14"/>
+      <c r="CQ152" s="14"/>
       <c r="CR152" s="14"/>
       <c r="CS152" s="14"/>
-      <c r="CT152" s="14"/>
-      <c r="CU152" s="14"/>
-    </row>
-    <row r="153" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X153" s="13"/>
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
@@ -10709,22 +10432,20 @@
       <c r="CD153" s="11"/>
       <c r="CE153" s="11"/>
       <c r="CF153" s="11"/>
-      <c r="CG153" s="11"/>
-      <c r="CH153" s="11"/>
-      <c r="CI153" s="72"/>
-      <c r="CJ153" s="72"/>
-      <c r="CK153" s="72"/>
-      <c r="CL153" s="72"/>
-      <c r="CM153" s="72"/>
-      <c r="CN153" s="72"/>
-      <c r="CO153" s="72"/>
-      <c r="CQ153" s="11"/>
+      <c r="CG153" s="21"/>
+      <c r="CH153" s="21"/>
+      <c r="CI153" s="21"/>
+      <c r="CJ153" s="21"/>
+      <c r="CK153" s="21"/>
+      <c r="CL153" s="21"/>
+      <c r="CM153" s="21"/>
+      <c r="CO153" s="11"/>
+      <c r="CP153" s="14"/>
+      <c r="CQ153" s="14"/>
       <c r="CR153" s="14"/>
       <c r="CS153" s="14"/>
-      <c r="CT153" s="14"/>
-      <c r="CU153" s="14"/>
-    </row>
-    <row r="154" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X154" s="13"/>
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
@@ -10772,22 +10493,20 @@
       <c r="CD154" s="11"/>
       <c r="CE154" s="11"/>
       <c r="CF154" s="11"/>
-      <c r="CG154" s="11"/>
-      <c r="CH154" s="11"/>
-      <c r="CI154" s="72"/>
-      <c r="CJ154" s="72"/>
-      <c r="CK154" s="72"/>
-      <c r="CL154" s="72"/>
-      <c r="CM154" s="72"/>
-      <c r="CN154" s="72"/>
-      <c r="CO154" s="72"/>
-      <c r="CQ154" s="11"/>
+      <c r="CG154" s="21"/>
+      <c r="CH154" s="21"/>
+      <c r="CI154" s="21"/>
+      <c r="CJ154" s="21"/>
+      <c r="CK154" s="21"/>
+      <c r="CL154" s="21"/>
+      <c r="CM154" s="21"/>
+      <c r="CO154" s="11"/>
+      <c r="CP154" s="14"/>
+      <c r="CQ154" s="14"/>
       <c r="CR154" s="14"/>
       <c r="CS154" s="14"/>
-      <c r="CT154" s="14"/>
-      <c r="CU154" s="14"/>
-    </row>
-    <row r="155" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X155" s="13"/>
       <c r="Y155" s="13"/>
       <c r="Z155" s="13"/>
@@ -10835,22 +10554,20 @@
       <c r="CD155" s="11"/>
       <c r="CE155" s="11"/>
       <c r="CF155" s="11"/>
-      <c r="CG155" s="11"/>
-      <c r="CH155" s="11"/>
-      <c r="CI155" s="72"/>
-      <c r="CJ155" s="72"/>
-      <c r="CK155" s="72"/>
-      <c r="CL155" s="72"/>
-      <c r="CM155" s="72"/>
-      <c r="CN155" s="72"/>
-      <c r="CO155" s="72"/>
-      <c r="CQ155" s="11"/>
+      <c r="CG155" s="21"/>
+      <c r="CH155" s="21"/>
+      <c r="CI155" s="21"/>
+      <c r="CJ155" s="21"/>
+      <c r="CK155" s="21"/>
+      <c r="CL155" s="21"/>
+      <c r="CM155" s="21"/>
+      <c r="CO155" s="11"/>
+      <c r="CP155" s="14"/>
+      <c r="CQ155" s="14"/>
       <c r="CR155" s="14"/>
       <c r="CS155" s="14"/>
-      <c r="CT155" s="14"/>
-      <c r="CU155" s="14"/>
-    </row>
-    <row r="156" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X156" s="13"/>
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
@@ -10898,22 +10615,20 @@
       <c r="CD156" s="11"/>
       <c r="CE156" s="11"/>
       <c r="CF156" s="11"/>
-      <c r="CG156" s="11"/>
-      <c r="CH156" s="11"/>
-      <c r="CI156" s="72"/>
-      <c r="CJ156" s="72"/>
-      <c r="CK156" s="72"/>
-      <c r="CL156" s="72"/>
-      <c r="CM156" s="72"/>
-      <c r="CN156" s="72"/>
-      <c r="CO156" s="72"/>
-      <c r="CQ156" s="11"/>
+      <c r="CG156" s="21"/>
+      <c r="CH156" s="21"/>
+      <c r="CI156" s="21"/>
+      <c r="CJ156" s="21"/>
+      <c r="CK156" s="21"/>
+      <c r="CL156" s="21"/>
+      <c r="CM156" s="21"/>
+      <c r="CO156" s="11"/>
+      <c r="CP156" s="14"/>
+      <c r="CQ156" s="14"/>
       <c r="CR156" s="14"/>
       <c r="CS156" s="14"/>
-      <c r="CT156" s="14"/>
-      <c r="CU156" s="14"/>
-    </row>
-    <row r="157" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X157" s="13"/>
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
@@ -10961,22 +10676,20 @@
       <c r="CD157" s="11"/>
       <c r="CE157" s="11"/>
       <c r="CF157" s="11"/>
-      <c r="CG157" s="11"/>
-      <c r="CH157" s="11"/>
-      <c r="CI157" s="72"/>
-      <c r="CJ157" s="72"/>
-      <c r="CK157" s="72"/>
-      <c r="CL157" s="72"/>
-      <c r="CM157" s="72"/>
-      <c r="CN157" s="72"/>
-      <c r="CO157" s="72"/>
-      <c r="CQ157" s="11"/>
+      <c r="CG157" s="21"/>
+      <c r="CH157" s="21"/>
+      <c r="CI157" s="21"/>
+      <c r="CJ157" s="21"/>
+      <c r="CK157" s="21"/>
+      <c r="CL157" s="21"/>
+      <c r="CM157" s="21"/>
+      <c r="CO157" s="11"/>
+      <c r="CP157" s="14"/>
+      <c r="CQ157" s="14"/>
       <c r="CR157" s="14"/>
       <c r="CS157" s="14"/>
-      <c r="CT157" s="14"/>
-      <c r="CU157" s="14"/>
-    </row>
-    <row r="158" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X158" s="13"/>
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
@@ -11024,22 +10737,20 @@
       <c r="CD158" s="11"/>
       <c r="CE158" s="11"/>
       <c r="CF158" s="11"/>
-      <c r="CG158" s="11"/>
-      <c r="CH158" s="11"/>
-      <c r="CI158" s="72"/>
-      <c r="CJ158" s="72"/>
-      <c r="CK158" s="72"/>
-      <c r="CL158" s="72"/>
-      <c r="CM158" s="72"/>
-      <c r="CN158" s="72"/>
-      <c r="CO158" s="72"/>
-      <c r="CQ158" s="11"/>
+      <c r="CG158" s="21"/>
+      <c r="CH158" s="21"/>
+      <c r="CI158" s="21"/>
+      <c r="CJ158" s="21"/>
+      <c r="CK158" s="21"/>
+      <c r="CL158" s="21"/>
+      <c r="CM158" s="21"/>
+      <c r="CO158" s="11"/>
+      <c r="CP158" s="14"/>
+      <c r="CQ158" s="14"/>
       <c r="CR158" s="14"/>
       <c r="CS158" s="14"/>
-      <c r="CT158" s="14"/>
-      <c r="CU158" s="14"/>
-    </row>
-    <row r="159" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X159" s="13"/>
       <c r="Y159" s="13"/>
       <c r="Z159" s="13"/>
@@ -11087,22 +10798,20 @@
       <c r="CD159" s="11"/>
       <c r="CE159" s="11"/>
       <c r="CF159" s="11"/>
-      <c r="CG159" s="11"/>
-      <c r="CH159" s="11"/>
-      <c r="CI159" s="72"/>
-      <c r="CJ159" s="72"/>
-      <c r="CK159" s="72"/>
-      <c r="CL159" s="72"/>
-      <c r="CM159" s="72"/>
-      <c r="CN159" s="72"/>
-      <c r="CO159" s="72"/>
-      <c r="CQ159" s="11"/>
+      <c r="CG159" s="21"/>
+      <c r="CH159" s="21"/>
+      <c r="CI159" s="21"/>
+      <c r="CJ159" s="21"/>
+      <c r="CK159" s="21"/>
+      <c r="CL159" s="21"/>
+      <c r="CM159" s="21"/>
+      <c r="CO159" s="11"/>
+      <c r="CP159" s="14"/>
+      <c r="CQ159" s="14"/>
       <c r="CR159" s="14"/>
       <c r="CS159" s="14"/>
-      <c r="CT159" s="14"/>
-      <c r="CU159" s="14"/>
-    </row>
-    <row r="160" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X160" s="13"/>
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
@@ -11150,22 +10859,20 @@
       <c r="CD160" s="11"/>
       <c r="CE160" s="11"/>
       <c r="CF160" s="11"/>
-      <c r="CG160" s="11"/>
-      <c r="CH160" s="11"/>
-      <c r="CI160" s="72"/>
-      <c r="CJ160" s="72"/>
-      <c r="CK160" s="72"/>
-      <c r="CL160" s="72"/>
-      <c r="CM160" s="72"/>
-      <c r="CN160" s="72"/>
-      <c r="CO160" s="72"/>
-      <c r="CQ160" s="11"/>
+      <c r="CG160" s="21"/>
+      <c r="CH160" s="21"/>
+      <c r="CI160" s="21"/>
+      <c r="CJ160" s="21"/>
+      <c r="CK160" s="21"/>
+      <c r="CL160" s="21"/>
+      <c r="CM160" s="21"/>
+      <c r="CO160" s="11"/>
+      <c r="CP160" s="14"/>
+      <c r="CQ160" s="14"/>
       <c r="CR160" s="14"/>
       <c r="CS160" s="14"/>
-      <c r="CT160" s="14"/>
-      <c r="CU160" s="14"/>
-    </row>
-    <row r="161" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X161" s="13"/>
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
@@ -11213,22 +10920,20 @@
       <c r="CD161" s="11"/>
       <c r="CE161" s="11"/>
       <c r="CF161" s="11"/>
-      <c r="CG161" s="11"/>
-      <c r="CH161" s="11"/>
-      <c r="CI161" s="72"/>
-      <c r="CJ161" s="72"/>
-      <c r="CK161" s="72"/>
-      <c r="CL161" s="72"/>
-      <c r="CM161" s="72"/>
-      <c r="CN161" s="72"/>
-      <c r="CO161" s="72"/>
-      <c r="CQ161" s="11"/>
+      <c r="CG161" s="21"/>
+      <c r="CH161" s="21"/>
+      <c r="CI161" s="21"/>
+      <c r="CJ161" s="21"/>
+      <c r="CK161" s="21"/>
+      <c r="CL161" s="21"/>
+      <c r="CM161" s="21"/>
+      <c r="CO161" s="11"/>
+      <c r="CP161" s="14"/>
+      <c r="CQ161" s="14"/>
       <c r="CR161" s="14"/>
       <c r="CS161" s="14"/>
-      <c r="CT161" s="14"/>
-      <c r="CU161" s="14"/>
-    </row>
-    <row r="162" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X162" s="13"/>
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
@@ -11276,22 +10981,20 @@
       <c r="CD162" s="11"/>
       <c r="CE162" s="11"/>
       <c r="CF162" s="11"/>
-      <c r="CG162" s="11"/>
-      <c r="CH162" s="11"/>
-      <c r="CI162" s="72"/>
-      <c r="CJ162" s="72"/>
-      <c r="CK162" s="72"/>
-      <c r="CL162" s="72"/>
-      <c r="CM162" s="72"/>
-      <c r="CN162" s="72"/>
-      <c r="CO162" s="72"/>
-      <c r="CQ162" s="11"/>
+      <c r="CG162" s="21"/>
+      <c r="CH162" s="21"/>
+      <c r="CI162" s="21"/>
+      <c r="CJ162" s="21"/>
+      <c r="CK162" s="21"/>
+      <c r="CL162" s="21"/>
+      <c r="CM162" s="21"/>
+      <c r="CO162" s="11"/>
+      <c r="CP162" s="14"/>
+      <c r="CQ162" s="14"/>
       <c r="CR162" s="14"/>
       <c r="CS162" s="14"/>
-      <c r="CT162" s="14"/>
-      <c r="CU162" s="14"/>
-    </row>
-    <row r="163" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X163" s="13"/>
       <c r="Y163" s="13"/>
       <c r="Z163" s="13"/>
@@ -11339,22 +11042,20 @@
       <c r="CD163" s="11"/>
       <c r="CE163" s="11"/>
       <c r="CF163" s="11"/>
-      <c r="CG163" s="11"/>
-      <c r="CH163" s="11"/>
-      <c r="CI163" s="72"/>
-      <c r="CJ163" s="72"/>
-      <c r="CK163" s="72"/>
-      <c r="CL163" s="72"/>
-      <c r="CM163" s="72"/>
-      <c r="CN163" s="72"/>
-      <c r="CO163" s="72"/>
-      <c r="CQ163" s="11"/>
+      <c r="CG163" s="21"/>
+      <c r="CH163" s="21"/>
+      <c r="CI163" s="21"/>
+      <c r="CJ163" s="21"/>
+      <c r="CK163" s="21"/>
+      <c r="CL163" s="21"/>
+      <c r="CM163" s="21"/>
+      <c r="CO163" s="11"/>
+      <c r="CP163" s="14"/>
+      <c r="CQ163" s="14"/>
       <c r="CR163" s="14"/>
       <c r="CS163" s="14"/>
-      <c r="CT163" s="14"/>
-      <c r="CU163" s="14"/>
-    </row>
-    <row r="164" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X164" s="13"/>
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
@@ -11402,22 +11103,20 @@
       <c r="CD164" s="11"/>
       <c r="CE164" s="11"/>
       <c r="CF164" s="11"/>
-      <c r="CG164" s="11"/>
-      <c r="CH164" s="11"/>
-      <c r="CI164" s="72"/>
-      <c r="CJ164" s="72"/>
-      <c r="CK164" s="72"/>
-      <c r="CL164" s="72"/>
-      <c r="CM164" s="72"/>
-      <c r="CN164" s="72"/>
-      <c r="CO164" s="72"/>
-      <c r="CQ164" s="11"/>
+      <c r="CG164" s="21"/>
+      <c r="CH164" s="21"/>
+      <c r="CI164" s="21"/>
+      <c r="CJ164" s="21"/>
+      <c r="CK164" s="21"/>
+      <c r="CL164" s="21"/>
+      <c r="CM164" s="21"/>
+      <c r="CO164" s="11"/>
+      <c r="CP164" s="14"/>
+      <c r="CQ164" s="14"/>
       <c r="CR164" s="14"/>
       <c r="CS164" s="14"/>
-      <c r="CT164" s="14"/>
-      <c r="CU164" s="14"/>
-    </row>
-    <row r="165" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X165" s="13"/>
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
@@ -11465,22 +11164,20 @@
       <c r="CD165" s="11"/>
       <c r="CE165" s="11"/>
       <c r="CF165" s="11"/>
-      <c r="CG165" s="11"/>
-      <c r="CH165" s="11"/>
-      <c r="CI165" s="72"/>
-      <c r="CJ165" s="72"/>
-      <c r="CK165" s="72"/>
-      <c r="CL165" s="72"/>
-      <c r="CM165" s="72"/>
-      <c r="CN165" s="72"/>
-      <c r="CO165" s="72"/>
-      <c r="CQ165" s="11"/>
+      <c r="CG165" s="21"/>
+      <c r="CH165" s="21"/>
+      <c r="CI165" s="21"/>
+      <c r="CJ165" s="21"/>
+      <c r="CK165" s="21"/>
+      <c r="CL165" s="21"/>
+      <c r="CM165" s="21"/>
+      <c r="CO165" s="11"/>
+      <c r="CP165" s="14"/>
+      <c r="CQ165" s="14"/>
       <c r="CR165" s="14"/>
       <c r="CS165" s="14"/>
-      <c r="CT165" s="14"/>
-      <c r="CU165" s="14"/>
-    </row>
-    <row r="166" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X166" s="13"/>
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
@@ -11528,22 +11225,20 @@
       <c r="CD166" s="11"/>
       <c r="CE166" s="11"/>
       <c r="CF166" s="11"/>
-      <c r="CG166" s="11"/>
-      <c r="CH166" s="11"/>
-      <c r="CI166" s="72"/>
-      <c r="CJ166" s="72"/>
-      <c r="CK166" s="72"/>
-      <c r="CL166" s="72"/>
-      <c r="CM166" s="72"/>
-      <c r="CN166" s="72"/>
-      <c r="CO166" s="72"/>
-      <c r="CQ166" s="11"/>
+      <c r="CG166" s="21"/>
+      <c r="CH166" s="21"/>
+      <c r="CI166" s="21"/>
+      <c r="CJ166" s="21"/>
+      <c r="CK166" s="21"/>
+      <c r="CL166" s="21"/>
+      <c r="CM166" s="21"/>
+      <c r="CO166" s="11"/>
+      <c r="CP166" s="14"/>
+      <c r="CQ166" s="14"/>
       <c r="CR166" s="14"/>
       <c r="CS166" s="14"/>
-      <c r="CT166" s="14"/>
-      <c r="CU166" s="14"/>
-    </row>
-    <row r="167" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X167" s="13"/>
       <c r="Y167" s="13"/>
       <c r="Z167" s="13"/>
@@ -11591,22 +11286,20 @@
       <c r="CD167" s="11"/>
       <c r="CE167" s="11"/>
       <c r="CF167" s="11"/>
-      <c r="CG167" s="11"/>
-      <c r="CH167" s="11"/>
-      <c r="CI167" s="72"/>
-      <c r="CJ167" s="72"/>
-      <c r="CK167" s="72"/>
-      <c r="CL167" s="72"/>
-      <c r="CM167" s="72"/>
-      <c r="CN167" s="72"/>
-      <c r="CO167" s="72"/>
-      <c r="CQ167" s="11"/>
+      <c r="CG167" s="21"/>
+      <c r="CH167" s="21"/>
+      <c r="CI167" s="21"/>
+      <c r="CJ167" s="21"/>
+      <c r="CK167" s="21"/>
+      <c r="CL167" s="21"/>
+      <c r="CM167" s="21"/>
+      <c r="CO167" s="11"/>
+      <c r="CP167" s="14"/>
+      <c r="CQ167" s="14"/>
       <c r="CR167" s="14"/>
       <c r="CS167" s="14"/>
-      <c r="CT167" s="14"/>
-      <c r="CU167" s="14"/>
-    </row>
-    <row r="168" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X168" s="13"/>
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
@@ -11654,22 +11347,20 @@
       <c r="CD168" s="11"/>
       <c r="CE168" s="11"/>
       <c r="CF168" s="11"/>
-      <c r="CG168" s="11"/>
-      <c r="CH168" s="11"/>
-      <c r="CI168" s="72"/>
-      <c r="CJ168" s="72"/>
-      <c r="CK168" s="72"/>
-      <c r="CL168" s="72"/>
-      <c r="CM168" s="72"/>
-      <c r="CN168" s="72"/>
-      <c r="CO168" s="72"/>
-      <c r="CQ168" s="11"/>
+      <c r="CG168" s="21"/>
+      <c r="CH168" s="21"/>
+      <c r="CI168" s="21"/>
+      <c r="CJ168" s="21"/>
+      <c r="CK168" s="21"/>
+      <c r="CL168" s="21"/>
+      <c r="CM168" s="21"/>
+      <c r="CO168" s="11"/>
+      <c r="CP168" s="14"/>
+      <c r="CQ168" s="14"/>
       <c r="CR168" s="14"/>
       <c r="CS168" s="14"/>
-      <c r="CT168" s="14"/>
-      <c r="CU168" s="14"/>
-    </row>
-    <row r="169" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X169" s="13"/>
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
@@ -11717,22 +11408,20 @@
       <c r="CD169" s="11"/>
       <c r="CE169" s="11"/>
       <c r="CF169" s="11"/>
-      <c r="CG169" s="11"/>
-      <c r="CH169" s="11"/>
-      <c r="CI169" s="72"/>
-      <c r="CJ169" s="72"/>
-      <c r="CK169" s="72"/>
-      <c r="CL169" s="72"/>
-      <c r="CM169" s="72"/>
-      <c r="CN169" s="72"/>
-      <c r="CO169" s="72"/>
-      <c r="CQ169" s="11"/>
+      <c r="CG169" s="21"/>
+      <c r="CH169" s="21"/>
+      <c r="CI169" s="21"/>
+      <c r="CJ169" s="21"/>
+      <c r="CK169" s="21"/>
+      <c r="CL169" s="21"/>
+      <c r="CM169" s="21"/>
+      <c r="CO169" s="11"/>
+      <c r="CP169" s="14"/>
+      <c r="CQ169" s="14"/>
       <c r="CR169" s="14"/>
       <c r="CS169" s="14"/>
-      <c r="CT169" s="14"/>
-      <c r="CU169" s="14"/>
-    </row>
-    <row r="170" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X170" s="13"/>
       <c r="Y170" s="13"/>
       <c r="Z170" s="13"/>
@@ -11780,22 +11469,20 @@
       <c r="CD170" s="11"/>
       <c r="CE170" s="11"/>
       <c r="CF170" s="11"/>
-      <c r="CG170" s="11"/>
-      <c r="CH170" s="11"/>
-      <c r="CI170" s="72"/>
-      <c r="CJ170" s="72"/>
-      <c r="CK170" s="72"/>
-      <c r="CL170" s="72"/>
-      <c r="CM170" s="72"/>
-      <c r="CN170" s="72"/>
-      <c r="CO170" s="72"/>
-      <c r="CQ170" s="11"/>
+      <c r="CG170" s="21"/>
+      <c r="CH170" s="21"/>
+      <c r="CI170" s="21"/>
+      <c r="CJ170" s="21"/>
+      <c r="CK170" s="21"/>
+      <c r="CL170" s="21"/>
+      <c r="CM170" s="21"/>
+      <c r="CO170" s="11"/>
+      <c r="CP170" s="14"/>
+      <c r="CQ170" s="14"/>
       <c r="CR170" s="14"/>
       <c r="CS170" s="14"/>
-      <c r="CT170" s="14"/>
-      <c r="CU170" s="14"/>
-    </row>
-    <row r="171" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X171" s="13"/>
       <c r="Y171" s="13"/>
       <c r="Z171" s="13"/>
@@ -11843,22 +11530,20 @@
       <c r="CD171" s="11"/>
       <c r="CE171" s="11"/>
       <c r="CF171" s="11"/>
-      <c r="CG171" s="11"/>
-      <c r="CH171" s="11"/>
-      <c r="CI171" s="72"/>
-      <c r="CJ171" s="72"/>
-      <c r="CK171" s="72"/>
-      <c r="CL171" s="72"/>
-      <c r="CM171" s="72"/>
-      <c r="CN171" s="72"/>
-      <c r="CO171" s="72"/>
-      <c r="CQ171" s="11"/>
+      <c r="CG171" s="21"/>
+      <c r="CH171" s="21"/>
+      <c r="CI171" s="21"/>
+      <c r="CJ171" s="21"/>
+      <c r="CK171" s="21"/>
+      <c r="CL171" s="21"/>
+      <c r="CM171" s="21"/>
+      <c r="CO171" s="11"/>
+      <c r="CP171" s="14"/>
+      <c r="CQ171" s="14"/>
       <c r="CR171" s="14"/>
       <c r="CS171" s="14"/>
-      <c r="CT171" s="14"/>
-      <c r="CU171" s="14"/>
-    </row>
-    <row r="172" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X172" s="13"/>
       <c r="Y172" s="13"/>
       <c r="Z172" s="13"/>
@@ -11906,22 +11591,20 @@
       <c r="CD172" s="11"/>
       <c r="CE172" s="11"/>
       <c r="CF172" s="11"/>
-      <c r="CG172" s="11"/>
-      <c r="CH172" s="11"/>
-      <c r="CI172" s="72"/>
-      <c r="CJ172" s="72"/>
-      <c r="CK172" s="72"/>
-      <c r="CL172" s="72"/>
-      <c r="CM172" s="72"/>
-      <c r="CN172" s="72"/>
-      <c r="CO172" s="72"/>
-      <c r="CQ172" s="11"/>
+      <c r="CG172" s="21"/>
+      <c r="CH172" s="21"/>
+      <c r="CI172" s="21"/>
+      <c r="CJ172" s="21"/>
+      <c r="CK172" s="21"/>
+      <c r="CL172" s="21"/>
+      <c r="CM172" s="21"/>
+      <c r="CO172" s="11"/>
+      <c r="CP172" s="14"/>
+      <c r="CQ172" s="14"/>
       <c r="CR172" s="14"/>
       <c r="CS172" s="14"/>
-      <c r="CT172" s="14"/>
-      <c r="CU172" s="14"/>
-    </row>
-    <row r="173" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X173" s="13"/>
       <c r="Y173" s="13"/>
       <c r="Z173" s="13"/>
@@ -11969,22 +11652,20 @@
       <c r="CD173" s="11"/>
       <c r="CE173" s="11"/>
       <c r="CF173" s="11"/>
-      <c r="CG173" s="11"/>
-      <c r="CH173" s="11"/>
-      <c r="CI173" s="72"/>
-      <c r="CJ173" s="72"/>
-      <c r="CK173" s="72"/>
-      <c r="CL173" s="72"/>
-      <c r="CM173" s="72"/>
-      <c r="CN173" s="72"/>
-      <c r="CO173" s="72"/>
-      <c r="CQ173" s="11"/>
+      <c r="CG173" s="21"/>
+      <c r="CH173" s="21"/>
+      <c r="CI173" s="21"/>
+      <c r="CJ173" s="21"/>
+      <c r="CK173" s="21"/>
+      <c r="CL173" s="21"/>
+      <c r="CM173" s="21"/>
+      <c r="CO173" s="11"/>
+      <c r="CP173" s="14"/>
+      <c r="CQ173" s="14"/>
       <c r="CR173" s="14"/>
       <c r="CS173" s="14"/>
-      <c r="CT173" s="14"/>
-      <c r="CU173" s="14"/>
-    </row>
-    <row r="174" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X174" s="13"/>
       <c r="Y174" s="13"/>
       <c r="Z174" s="13"/>
@@ -12032,22 +11713,20 @@
       <c r="CD174" s="11"/>
       <c r="CE174" s="11"/>
       <c r="CF174" s="11"/>
-      <c r="CG174" s="11"/>
-      <c r="CH174" s="11"/>
-      <c r="CI174" s="72"/>
-      <c r="CJ174" s="72"/>
-      <c r="CK174" s="72"/>
-      <c r="CL174" s="72"/>
-      <c r="CM174" s="72"/>
-      <c r="CN174" s="72"/>
-      <c r="CO174" s="72"/>
-      <c r="CQ174" s="11"/>
+      <c r="CG174" s="21"/>
+      <c r="CH174" s="21"/>
+      <c r="CI174" s="21"/>
+      <c r="CJ174" s="21"/>
+      <c r="CK174" s="21"/>
+      <c r="CL174" s="21"/>
+      <c r="CM174" s="21"/>
+      <c r="CO174" s="11"/>
+      <c r="CP174" s="14"/>
+      <c r="CQ174" s="14"/>
       <c r="CR174" s="14"/>
       <c r="CS174" s="14"/>
-      <c r="CT174" s="14"/>
-      <c r="CU174" s="14"/>
-    </row>
-    <row r="175" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X175" s="13"/>
       <c r="Y175" s="13"/>
       <c r="Z175" s="13"/>
@@ -12095,22 +11774,20 @@
       <c r="CD175" s="11"/>
       <c r="CE175" s="11"/>
       <c r="CF175" s="11"/>
-      <c r="CG175" s="11"/>
-      <c r="CH175" s="11"/>
-      <c r="CI175" s="72"/>
-      <c r="CJ175" s="72"/>
-      <c r="CK175" s="72"/>
-      <c r="CL175" s="72"/>
-      <c r="CM175" s="72"/>
-      <c r="CN175" s="72"/>
-      <c r="CO175" s="72"/>
-      <c r="CQ175" s="11"/>
+      <c r="CG175" s="21"/>
+      <c r="CH175" s="21"/>
+      <c r="CI175" s="21"/>
+      <c r="CJ175" s="21"/>
+      <c r="CK175" s="21"/>
+      <c r="CL175" s="21"/>
+      <c r="CM175" s="21"/>
+      <c r="CO175" s="11"/>
+      <c r="CP175" s="14"/>
+      <c r="CQ175" s="14"/>
       <c r="CR175" s="14"/>
       <c r="CS175" s="14"/>
-      <c r="CT175" s="14"/>
-      <c r="CU175" s="14"/>
-    </row>
-    <row r="176" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X176" s="13"/>
       <c r="Y176" s="13"/>
       <c r="Z176" s="13"/>
@@ -12158,22 +11835,20 @@
       <c r="CD176" s="11"/>
       <c r="CE176" s="11"/>
       <c r="CF176" s="11"/>
-      <c r="CG176" s="11"/>
-      <c r="CH176" s="11"/>
-      <c r="CI176" s="72"/>
-      <c r="CJ176" s="72"/>
-      <c r="CK176" s="72"/>
-      <c r="CL176" s="72"/>
-      <c r="CM176" s="72"/>
-      <c r="CN176" s="72"/>
-      <c r="CO176" s="72"/>
-      <c r="CQ176" s="11"/>
+      <c r="CG176" s="21"/>
+      <c r="CH176" s="21"/>
+      <c r="CI176" s="21"/>
+      <c r="CJ176" s="21"/>
+      <c r="CK176" s="21"/>
+      <c r="CL176" s="21"/>
+      <c r="CM176" s="21"/>
+      <c r="CO176" s="11"/>
+      <c r="CP176" s="14"/>
+      <c r="CQ176" s="14"/>
       <c r="CR176" s="14"/>
       <c r="CS176" s="14"/>
-      <c r="CT176" s="14"/>
-      <c r="CU176" s="14"/>
-    </row>
-    <row r="177" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X177" s="13"/>
       <c r="Y177" s="13"/>
       <c r="Z177" s="13"/>
@@ -12221,22 +11896,20 @@
       <c r="CD177" s="11"/>
       <c r="CE177" s="11"/>
       <c r="CF177" s="11"/>
-      <c r="CG177" s="11"/>
-      <c r="CH177" s="11"/>
-      <c r="CI177" s="72"/>
-      <c r="CJ177" s="72"/>
-      <c r="CK177" s="72"/>
-      <c r="CL177" s="72"/>
-      <c r="CM177" s="72"/>
-      <c r="CN177" s="72"/>
-      <c r="CO177" s="72"/>
-      <c r="CQ177" s="11"/>
+      <c r="CG177" s="21"/>
+      <c r="CH177" s="21"/>
+      <c r="CI177" s="21"/>
+      <c r="CJ177" s="21"/>
+      <c r="CK177" s="21"/>
+      <c r="CL177" s="21"/>
+      <c r="CM177" s="21"/>
+      <c r="CO177" s="11"/>
+      <c r="CP177" s="14"/>
+      <c r="CQ177" s="14"/>
       <c r="CR177" s="14"/>
       <c r="CS177" s="14"/>
-      <c r="CT177" s="14"/>
-      <c r="CU177" s="14"/>
-    </row>
-    <row r="178" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X178" s="13"/>
       <c r="Y178" s="13"/>
       <c r="Z178" s="13"/>
@@ -12284,22 +11957,20 @@
       <c r="CD178" s="11"/>
       <c r="CE178" s="11"/>
       <c r="CF178" s="11"/>
-      <c r="CG178" s="11"/>
-      <c r="CH178" s="11"/>
-      <c r="CI178" s="72"/>
-      <c r="CJ178" s="72"/>
-      <c r="CK178" s="72"/>
-      <c r="CL178" s="72"/>
-      <c r="CM178" s="72"/>
-      <c r="CN178" s="72"/>
-      <c r="CO178" s="72"/>
-      <c r="CQ178" s="11"/>
+      <c r="CG178" s="21"/>
+      <c r="CH178" s="21"/>
+      <c r="CI178" s="21"/>
+      <c r="CJ178" s="21"/>
+      <c r="CK178" s="21"/>
+      <c r="CL178" s="21"/>
+      <c r="CM178" s="21"/>
+      <c r="CO178" s="11"/>
+      <c r="CP178" s="14"/>
+      <c r="CQ178" s="14"/>
       <c r="CR178" s="14"/>
       <c r="CS178" s="14"/>
-      <c r="CT178" s="14"/>
-      <c r="CU178" s="14"/>
-    </row>
-    <row r="179" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X179" s="13"/>
       <c r="Y179" s="13"/>
       <c r="Z179" s="13"/>
@@ -12347,22 +12018,20 @@
       <c r="CD179" s="11"/>
       <c r="CE179" s="11"/>
       <c r="CF179" s="11"/>
-      <c r="CG179" s="11"/>
-      <c r="CH179" s="11"/>
-      <c r="CI179" s="72"/>
-      <c r="CJ179" s="72"/>
-      <c r="CK179" s="72"/>
-      <c r="CL179" s="72"/>
-      <c r="CM179" s="72"/>
-      <c r="CN179" s="72"/>
-      <c r="CO179" s="72"/>
-      <c r="CQ179" s="11"/>
+      <c r="CG179" s="21"/>
+      <c r="CH179" s="21"/>
+      <c r="CI179" s="21"/>
+      <c r="CJ179" s="21"/>
+      <c r="CK179" s="21"/>
+      <c r="CL179" s="21"/>
+      <c r="CM179" s="21"/>
+      <c r="CO179" s="11"/>
+      <c r="CP179" s="14"/>
+      <c r="CQ179" s="14"/>
       <c r="CR179" s="14"/>
       <c r="CS179" s="14"/>
-      <c r="CT179" s="14"/>
-      <c r="CU179" s="14"/>
-    </row>
-    <row r="180" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X180" s="13"/>
       <c r="Y180" s="13"/>
       <c r="Z180" s="13"/>
@@ -12410,22 +12079,20 @@
       <c r="CD180" s="11"/>
       <c r="CE180" s="11"/>
       <c r="CF180" s="11"/>
-      <c r="CG180" s="11"/>
-      <c r="CH180" s="11"/>
-      <c r="CI180" s="72"/>
-      <c r="CJ180" s="72"/>
-      <c r="CK180" s="72"/>
-      <c r="CL180" s="72"/>
-      <c r="CM180" s="72"/>
-      <c r="CN180" s="72"/>
-      <c r="CO180" s="72"/>
-      <c r="CQ180" s="11"/>
+      <c r="CG180" s="21"/>
+      <c r="CH180" s="21"/>
+      <c r="CI180" s="21"/>
+      <c r="CJ180" s="21"/>
+      <c r="CK180" s="21"/>
+      <c r="CL180" s="21"/>
+      <c r="CM180" s="21"/>
+      <c r="CO180" s="11"/>
+      <c r="CP180" s="14"/>
+      <c r="CQ180" s="14"/>
       <c r="CR180" s="14"/>
       <c r="CS180" s="14"/>
-      <c r="CT180" s="14"/>
-      <c r="CU180" s="14"/>
-    </row>
-    <row r="181" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X181" s="13"/>
       <c r="Y181" s="13"/>
       <c r="Z181" s="13"/>
@@ -12473,22 +12140,20 @@
       <c r="CD181" s="11"/>
       <c r="CE181" s="11"/>
       <c r="CF181" s="11"/>
-      <c r="CG181" s="11"/>
-      <c r="CH181" s="11"/>
-      <c r="CI181" s="72"/>
-      <c r="CJ181" s="72"/>
-      <c r="CK181" s="72"/>
-      <c r="CL181" s="72"/>
-      <c r="CM181" s="72"/>
-      <c r="CN181" s="72"/>
-      <c r="CO181" s="72"/>
-      <c r="CQ181" s="11"/>
+      <c r="CG181" s="21"/>
+      <c r="CH181" s="21"/>
+      <c r="CI181" s="21"/>
+      <c r="CJ181" s="21"/>
+      <c r="CK181" s="21"/>
+      <c r="CL181" s="21"/>
+      <c r="CM181" s="21"/>
+      <c r="CO181" s="11"/>
+      <c r="CP181" s="14"/>
+      <c r="CQ181" s="14"/>
       <c r="CR181" s="14"/>
       <c r="CS181" s="14"/>
-      <c r="CT181" s="14"/>
-      <c r="CU181" s="14"/>
-    </row>
-    <row r="182" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X182" s="13"/>
       <c r="Y182" s="13"/>
       <c r="Z182" s="13"/>
@@ -12536,22 +12201,20 @@
       <c r="CD182" s="11"/>
       <c r="CE182" s="11"/>
       <c r="CF182" s="11"/>
-      <c r="CG182" s="11"/>
-      <c r="CH182" s="11"/>
-      <c r="CI182" s="72"/>
-      <c r="CJ182" s="72"/>
-      <c r="CK182" s="72"/>
-      <c r="CL182" s="72"/>
-      <c r="CM182" s="72"/>
-      <c r="CN182" s="72"/>
-      <c r="CO182" s="72"/>
-      <c r="CQ182" s="11"/>
+      <c r="CG182" s="21"/>
+      <c r="CH182" s="21"/>
+      <c r="CI182" s="21"/>
+      <c r="CJ182" s="21"/>
+      <c r="CK182" s="21"/>
+      <c r="CL182" s="21"/>
+      <c r="CM182" s="21"/>
+      <c r="CO182" s="11"/>
+      <c r="CP182" s="14"/>
+      <c r="CQ182" s="14"/>
       <c r="CR182" s="14"/>
       <c r="CS182" s="14"/>
-      <c r="CT182" s="14"/>
-      <c r="CU182" s="14"/>
-    </row>
-    <row r="183" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X183" s="13"/>
       <c r="Y183" s="13"/>
       <c r="Z183" s="13"/>
@@ -12599,22 +12262,20 @@
       <c r="CD183" s="11"/>
       <c r="CE183" s="11"/>
       <c r="CF183" s="11"/>
-      <c r="CG183" s="11"/>
-      <c r="CH183" s="11"/>
-      <c r="CI183" s="72"/>
-      <c r="CJ183" s="72"/>
-      <c r="CK183" s="72"/>
-      <c r="CL183" s="72"/>
-      <c r="CM183" s="72"/>
-      <c r="CN183" s="72"/>
-      <c r="CO183" s="72"/>
-      <c r="CQ183" s="11"/>
+      <c r="CG183" s="21"/>
+      <c r="CH183" s="21"/>
+      <c r="CI183" s="21"/>
+      <c r="CJ183" s="21"/>
+      <c r="CK183" s="21"/>
+      <c r="CL183" s="21"/>
+      <c r="CM183" s="21"/>
+      <c r="CO183" s="11"/>
+      <c r="CP183" s="14"/>
+      <c r="CQ183" s="14"/>
       <c r="CR183" s="14"/>
       <c r="CS183" s="14"/>
-      <c r="CT183" s="14"/>
-      <c r="CU183" s="14"/>
-    </row>
-    <row r="184" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X184" s="13"/>
       <c r="Y184" s="13"/>
       <c r="Z184" s="13"/>
@@ -12662,22 +12323,20 @@
       <c r="CD184" s="11"/>
       <c r="CE184" s="11"/>
       <c r="CF184" s="11"/>
-      <c r="CG184" s="11"/>
-      <c r="CH184" s="11"/>
-      <c r="CI184" s="72"/>
-      <c r="CJ184" s="72"/>
-      <c r="CK184" s="72"/>
-      <c r="CL184" s="72"/>
-      <c r="CM184" s="72"/>
-      <c r="CN184" s="72"/>
-      <c r="CO184" s="72"/>
-      <c r="CQ184" s="11"/>
+      <c r="CG184" s="21"/>
+      <c r="CH184" s="21"/>
+      <c r="CI184" s="21"/>
+      <c r="CJ184" s="21"/>
+      <c r="CK184" s="21"/>
+      <c r="CL184" s="21"/>
+      <c r="CM184" s="21"/>
+      <c r="CO184" s="11"/>
+      <c r="CP184" s="14"/>
+      <c r="CQ184" s="14"/>
       <c r="CR184" s="14"/>
       <c r="CS184" s="14"/>
-      <c r="CT184" s="14"/>
-      <c r="CU184" s="14"/>
-    </row>
-    <row r="185" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X185" s="13"/>
       <c r="Y185" s="13"/>
       <c r="Z185" s="13"/>
@@ -12725,22 +12384,20 @@
       <c r="CD185" s="11"/>
       <c r="CE185" s="11"/>
       <c r="CF185" s="11"/>
-      <c r="CG185" s="11"/>
-      <c r="CH185" s="11"/>
-      <c r="CI185" s="72"/>
-      <c r="CJ185" s="72"/>
-      <c r="CK185" s="72"/>
-      <c r="CL185" s="72"/>
-      <c r="CM185" s="72"/>
-      <c r="CN185" s="72"/>
-      <c r="CO185" s="72"/>
-      <c r="CQ185" s="11"/>
+      <c r="CG185" s="21"/>
+      <c r="CH185" s="21"/>
+      <c r="CI185" s="21"/>
+      <c r="CJ185" s="21"/>
+      <c r="CK185" s="21"/>
+      <c r="CL185" s="21"/>
+      <c r="CM185" s="21"/>
+      <c r="CO185" s="11"/>
+      <c r="CP185" s="14"/>
+      <c r="CQ185" s="14"/>
       <c r="CR185" s="14"/>
       <c r="CS185" s="14"/>
-      <c r="CT185" s="14"/>
-      <c r="CU185" s="14"/>
-    </row>
-    <row r="186" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X186" s="13"/>
       <c r="Y186" s="13"/>
       <c r="Z186" s="13"/>
@@ -12788,22 +12445,20 @@
       <c r="CD186" s="11"/>
       <c r="CE186" s="11"/>
       <c r="CF186" s="11"/>
-      <c r="CG186" s="11"/>
-      <c r="CH186" s="11"/>
-      <c r="CI186" s="72"/>
-      <c r="CJ186" s="72"/>
-      <c r="CK186" s="72"/>
-      <c r="CL186" s="72"/>
-      <c r="CM186" s="72"/>
-      <c r="CN186" s="72"/>
-      <c r="CO186" s="72"/>
-      <c r="CQ186" s="11"/>
+      <c r="CG186" s="21"/>
+      <c r="CH186" s="21"/>
+      <c r="CI186" s="21"/>
+      <c r="CJ186" s="21"/>
+      <c r="CK186" s="21"/>
+      <c r="CL186" s="21"/>
+      <c r="CM186" s="21"/>
+      <c r="CO186" s="11"/>
+      <c r="CP186" s="14"/>
+      <c r="CQ186" s="14"/>
       <c r="CR186" s="14"/>
       <c r="CS186" s="14"/>
-      <c r="CT186" s="14"/>
-      <c r="CU186" s="14"/>
-    </row>
-    <row r="187" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X187" s="13"/>
       <c r="Y187" s="13"/>
       <c r="Z187" s="13"/>
@@ -12851,22 +12506,20 @@
       <c r="CD187" s="11"/>
       <c r="CE187" s="11"/>
       <c r="CF187" s="11"/>
-      <c r="CG187" s="11"/>
-      <c r="CH187" s="11"/>
-      <c r="CI187" s="72"/>
-      <c r="CJ187" s="72"/>
-      <c r="CK187" s="72"/>
-      <c r="CL187" s="72"/>
-      <c r="CM187" s="72"/>
-      <c r="CN187" s="72"/>
-      <c r="CO187" s="72"/>
-      <c r="CQ187" s="11"/>
+      <c r="CG187" s="21"/>
+      <c r="CH187" s="21"/>
+      <c r="CI187" s="21"/>
+      <c r="CJ187" s="21"/>
+      <c r="CK187" s="21"/>
+      <c r="CL187" s="21"/>
+      <c r="CM187" s="21"/>
+      <c r="CO187" s="11"/>
+      <c r="CP187" s="14"/>
+      <c r="CQ187" s="14"/>
       <c r="CR187" s="14"/>
       <c r="CS187" s="14"/>
-      <c r="CT187" s="14"/>
-      <c r="CU187" s="14"/>
-    </row>
-    <row r="188" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X188" s="13"/>
       <c r="Y188" s="13"/>
       <c r="Z188" s="13"/>
@@ -12914,22 +12567,20 @@
       <c r="CD188" s="11"/>
       <c r="CE188" s="11"/>
       <c r="CF188" s="11"/>
-      <c r="CG188" s="11"/>
-      <c r="CH188" s="11"/>
-      <c r="CI188" s="72"/>
-      <c r="CJ188" s="72"/>
-      <c r="CK188" s="72"/>
-      <c r="CL188" s="72"/>
-      <c r="CM188" s="72"/>
-      <c r="CN188" s="72"/>
-      <c r="CO188" s="72"/>
-      <c r="CQ188" s="11"/>
+      <c r="CG188" s="21"/>
+      <c r="CH188" s="21"/>
+      <c r="CI188" s="21"/>
+      <c r="CJ188" s="21"/>
+      <c r="CK188" s="21"/>
+      <c r="CL188" s="21"/>
+      <c r="CM188" s="21"/>
+      <c r="CO188" s="11"/>
+      <c r="CP188" s="14"/>
+      <c r="CQ188" s="14"/>
       <c r="CR188" s="14"/>
       <c r="CS188" s="14"/>
-      <c r="CT188" s="14"/>
-      <c r="CU188" s="14"/>
-    </row>
-    <row r="189" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X189" s="13"/>
       <c r="Y189" s="13"/>
       <c r="Z189" s="13"/>
@@ -12977,22 +12628,20 @@
       <c r="CD189" s="11"/>
       <c r="CE189" s="11"/>
       <c r="CF189" s="11"/>
-      <c r="CG189" s="11"/>
-      <c r="CH189" s="11"/>
-      <c r="CI189" s="72"/>
-      <c r="CJ189" s="72"/>
-      <c r="CK189" s="72"/>
-      <c r="CL189" s="72"/>
-      <c r="CM189" s="72"/>
-      <c r="CN189" s="72"/>
-      <c r="CO189" s="72"/>
-      <c r="CQ189" s="11"/>
+      <c r="CG189" s="21"/>
+      <c r="CH189" s="21"/>
+      <c r="CI189" s="21"/>
+      <c r="CJ189" s="21"/>
+      <c r="CK189" s="21"/>
+      <c r="CL189" s="21"/>
+      <c r="CM189" s="21"/>
+      <c r="CO189" s="11"/>
+      <c r="CP189" s="14"/>
+      <c r="CQ189" s="14"/>
       <c r="CR189" s="14"/>
       <c r="CS189" s="14"/>
-      <c r="CT189" s="14"/>
-      <c r="CU189" s="14"/>
-    </row>
-    <row r="190" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X190" s="13"/>
       <c r="Y190" s="13"/>
       <c r="Z190" s="13"/>
@@ -13040,22 +12689,20 @@
       <c r="CD190" s="11"/>
       <c r="CE190" s="11"/>
       <c r="CF190" s="11"/>
-      <c r="CG190" s="11"/>
-      <c r="CH190" s="11"/>
-      <c r="CI190" s="72"/>
-      <c r="CJ190" s="72"/>
-      <c r="CK190" s="72"/>
-      <c r="CL190" s="72"/>
-      <c r="CM190" s="72"/>
-      <c r="CN190" s="72"/>
-      <c r="CO190" s="72"/>
-      <c r="CQ190" s="11"/>
+      <c r="CG190" s="21"/>
+      <c r="CH190" s="21"/>
+      <c r="CI190" s="21"/>
+      <c r="CJ190" s="21"/>
+      <c r="CK190" s="21"/>
+      <c r="CL190" s="21"/>
+      <c r="CM190" s="21"/>
+      <c r="CO190" s="11"/>
+      <c r="CP190" s="14"/>
+      <c r="CQ190" s="14"/>
       <c r="CR190" s="14"/>
       <c r="CS190" s="14"/>
-      <c r="CT190" s="14"/>
-      <c r="CU190" s="14"/>
-    </row>
-    <row r="191" spans="24:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="24:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X191" s="13"/>
       <c r="Y191" s="13"/>
       <c r="Z191" s="13"/>
@@ -13103,40 +12750,37 @@
       <c r="CD191" s="11"/>
       <c r="CE191" s="11"/>
       <c r="CF191" s="11"/>
-      <c r="CG191" s="11"/>
-      <c r="CH191" s="11"/>
-      <c r="CI191" s="72"/>
-      <c r="CJ191" s="72"/>
-      <c r="CK191" s="72"/>
-      <c r="CL191" s="72"/>
-      <c r="CM191" s="72"/>
-      <c r="CN191" s="72"/>
-      <c r="CO191" s="72"/>
-      <c r="CQ191" s="11"/>
+      <c r="CG191" s="21"/>
+      <c r="CH191" s="21"/>
+      <c r="CI191" s="21"/>
+      <c r="CJ191" s="21"/>
+      <c r="CK191" s="21"/>
+      <c r="CL191" s="21"/>
+      <c r="CM191" s="21"/>
+      <c r="CO191" s="11"/>
+      <c r="CP191" s="14"/>
+      <c r="CQ191" s="14"/>
       <c r="CR191" s="14"/>
       <c r="CS191" s="14"/>
-      <c r="CT191" s="14"/>
-      <c r="CU191" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="60">
+  <mergeCells count="59">
     <mergeCell ref="S18:W18"/>
     <mergeCell ref="AG18:AI18"/>
     <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="CR17:CU18"/>
-    <mergeCell ref="AZ19:CU19"/>
+    <mergeCell ref="CP17:CS18"/>
+    <mergeCell ref="AZ19:CS19"/>
+    <mergeCell ref="CI17:CI18"/>
+    <mergeCell ref="CJ17:CJ18"/>
     <mergeCell ref="CK17:CK18"/>
     <mergeCell ref="CL17:CL18"/>
     <mergeCell ref="CM17:CM18"/>
     <mergeCell ref="CN17:CN18"/>
     <mergeCell ref="CO17:CO18"/>
-    <mergeCell ref="CP17:CP18"/>
-    <mergeCell ref="CQ17:CQ18"/>
-    <mergeCell ref="CI17:CI18"/>
-    <mergeCell ref="CJ17:CJ18"/>
+    <mergeCell ref="CG17:CG18"/>
+    <mergeCell ref="CH17:CH18"/>
     <mergeCell ref="CE17:CF18"/>
-    <mergeCell ref="CG17:CH18"/>
     <mergeCell ref="B19:AX19"/>
     <mergeCell ref="N9:Q10"/>
     <mergeCell ref="B9:D9"/>
@@ -13186,7 +12830,7 @@
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" scale="60" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="95" max="1048575" man="1"/>
+    <brk id="93" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>